--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9403" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9642" uniqueCount="479">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -497,6 +497,9 @@
     <t>X2021.09.21</t>
   </si>
   <si>
+    <t>X2021.10.09</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
     <t>X2021.08.24</t>
   </si>
   <si>
+    <t>X2021.10.08</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -650,6 +656,12 @@
     <t>X2021.08.31</t>
   </si>
   <si>
+    <t>X2021.10.05</t>
+  </si>
+  <si>
+    <t>X2021.10.12</t>
+  </si>
+  <si>
     <t>Aldershot</t>
   </si>
   <si>
@@ -1326,6 +1338,12 @@
   </si>
   <si>
     <t>X2021.10.04</t>
+  </si>
+  <si>
+    <t>X2021.10.10</t>
+  </si>
+  <si>
+    <t>X2021.10.11</t>
   </si>
   <si>
     <t>Alcorcon</t>
@@ -3552,25 +3570,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J1" t="s">
         <v>121</v>
@@ -3582,7 +3600,7 @@
         <v>98</v>
       </c>
       <c r="M1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3617,7 +3635,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -3688,7 +3706,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -3759,7 +3777,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -3830,7 +3848,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -3901,7 +3919,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -3972,7 +3990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -4043,7 +4061,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -4114,7 +4132,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -4185,7 +4203,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -4256,7 +4274,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -4327,7 +4345,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -4398,7 +4416,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -4469,7 +4487,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -4540,7 +4558,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -4611,7 +4629,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
@@ -4682,7 +4700,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -4753,7 +4771,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -4824,7 +4842,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -4895,7 +4913,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -4966,7 +4984,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -5089,7 +5107,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -5130,7 +5148,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -5171,7 +5189,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5212,7 +5230,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -5253,7 +5271,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -5294,7 +5312,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -5335,7 +5353,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -5376,7 +5394,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -5417,7 +5435,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -5458,7 +5476,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -5499,7 +5517,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -5540,7 +5558,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -5581,7 +5599,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -5622,7 +5640,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -5713,7 +5731,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O1" t="s">
         <v>153</v>
@@ -5745,7 +5763,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -5816,7 +5834,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -5887,7 +5905,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5958,7 +5976,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -6029,7 +6047,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -6100,7 +6118,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -6171,7 +6189,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -6242,7 +6260,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -6313,7 +6331,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -6384,7 +6402,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -6455,7 +6473,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -6526,7 +6544,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -6597,7 +6615,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -6668,7 +6686,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -6739,7 +6757,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -6810,7 +6828,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -6881,7 +6899,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
@@ -6952,7 +6970,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -7023,7 +7041,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -7094,7 +7112,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -7215,7 +7233,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O1" t="s">
         <v>153</v>
@@ -7241,7 +7259,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -7306,7 +7324,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -7371,7 +7389,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -7436,7 +7454,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -7501,7 +7519,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -7566,7 +7584,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -7631,7 +7649,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -7696,7 +7714,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -7761,7 +7779,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -7826,7 +7844,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -7891,7 +7909,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -7956,7 +7974,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -8021,7 +8039,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -8086,7 +8104,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -8151,7 +8169,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -8216,7 +8234,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -8281,7 +8299,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -8346,7 +8364,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -8411,7 +8429,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -8476,7 +8494,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8623,7 +8641,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -8694,7 +8712,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -8765,7 +8783,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -8836,7 +8854,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -8907,7 +8925,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -8978,7 +8996,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -9049,7 +9067,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -9120,7 +9138,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -9191,7 +9209,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -9262,7 +9280,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -9333,7 +9351,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -9404,7 +9422,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -9475,7 +9493,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -9546,7 +9564,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -9617,7 +9635,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -9688,7 +9706,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -9759,7 +9777,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -9830,7 +9848,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -9924,7 +9942,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -9936,7 +9954,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -9978,7 +9996,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -10004,7 +10022,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -10096,7 +10114,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -10188,7 +10206,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -10280,7 +10298,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -10372,7 +10390,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -10464,7 +10482,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -10556,7 +10574,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -10648,7 +10666,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -10740,7 +10758,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -10832,7 +10850,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -10924,7 +10942,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -11016,7 +11034,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -11108,7 +11126,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -11200,7 +11218,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -11292,7 +11310,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -11384,7 +11402,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -11476,7 +11494,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -11568,7 +11586,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -11724,7 +11742,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -11777,7 +11795,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -11830,7 +11848,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -11883,7 +11901,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -11936,7 +11954,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -11989,7 +12007,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -12042,7 +12060,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -12095,7 +12113,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -12148,7 +12166,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -12201,7 +12219,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -12254,7 +12272,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -12307,7 +12325,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -12377,7 +12395,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -12389,7 +12407,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -12415,7 +12433,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -12459,7 +12477,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -12503,7 +12521,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -12547,7 +12565,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
         <v>150</v>
@@ -12591,7 +12609,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -12635,7 +12653,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -12679,7 +12697,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -12723,7 +12741,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -12767,7 +12785,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -12811,7 +12829,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
         <v>150</v>
@@ -12904,7 +12922,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -12942,7 +12960,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -12980,7 +12998,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -13018,7 +13036,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -13056,7 +13074,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -13094,7 +13112,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -13132,7 +13150,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -13170,7 +13188,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -13208,7 +13226,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -13246,7 +13264,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -13319,7 +13337,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -13342,7 +13360,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -13389,7 +13407,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -13436,7 +13454,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -13483,7 +13501,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -13530,7 +13548,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -13577,7 +13595,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -13624,7 +13642,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -13671,7 +13689,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -13718,7 +13736,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -13765,7 +13783,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -15081,7 +15099,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -15123,7 +15141,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="T1" t="s">
         <v>153</v>
@@ -15155,7 +15173,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -15241,7 +15259,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -15327,7 +15345,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -15413,7 +15431,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -15499,7 +15517,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -15585,7 +15603,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -15671,7 +15689,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -15757,7 +15775,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -15843,7 +15861,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -15929,7 +15947,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -16015,7 +16033,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -16101,7 +16119,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -16187,7 +16205,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -16273,7 +16291,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -16359,7 +16377,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -16445,7 +16463,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -16531,7 +16549,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -16617,7 +16635,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -16703,7 +16721,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -16789,7 +16807,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -16898,7 +16916,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -16922,16 +16940,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O1" t="s">
         <v>151</v>
       </c>
       <c r="P1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q1" t="s">
         <v>152</v>
@@ -16958,7 +16976,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -16982,12 +17000,24 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>430</v>
+        <v>434</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -17085,10 +17115,22 @@
       <c r="AG2" t="s">
         <v>52</v>
       </c>
+      <c r="AH2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -17185,11 +17227,23 @@
       </c>
       <c r="AG3" t="s">
         <v>54</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -17285,12 +17339,24 @@
         <v>52</v>
       </c>
       <c r="AG4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -17388,10 +17454,22 @@
       <c r="AG5" t="s">
         <v>52</v>
       </c>
+      <c r="AH5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -17489,10 +17567,22 @@
       <c r="AG6" t="s">
         <v>52</v>
       </c>
+      <c r="AH6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -17590,10 +17680,22 @@
       <c r="AG7" t="s">
         <v>52</v>
       </c>
+      <c r="AH7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -17691,10 +17793,22 @@
       <c r="AG8" t="s">
         <v>52</v>
       </c>
+      <c r="AH8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -17792,10 +17906,22 @@
       <c r="AG9" t="s">
         <v>54</v>
       </c>
+      <c r="AH9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -17893,10 +18019,22 @@
       <c r="AG10" t="s">
         <v>52</v>
       </c>
+      <c r="AH10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -17994,10 +18132,22 @@
       <c r="AG11" t="s">
         <v>52</v>
       </c>
+      <c r="AH11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -18095,10 +18245,22 @@
       <c r="AG12" t="s">
         <v>52</v>
       </c>
+      <c r="AH12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -18196,10 +18358,22 @@
       <c r="AG13" t="s">
         <v>52</v>
       </c>
+      <c r="AH13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -18297,10 +18471,22 @@
       <c r="AG14" t="s">
         <v>52</v>
       </c>
+      <c r="AH14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -18398,10 +18584,22 @@
       <c r="AG15" t="s">
         <v>52</v>
       </c>
+      <c r="AH15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -18499,10 +18697,22 @@
       <c r="AG16" t="s">
         <v>52</v>
       </c>
+      <c r="AH16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -18600,10 +18810,22 @@
       <c r="AG17" t="s">
         <v>52</v>
       </c>
+      <c r="AH17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -18699,12 +18921,24 @@
         <v>52</v>
       </c>
       <c r="AG18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -18802,10 +19036,22 @@
       <c r="AG19" t="s">
         <v>52</v>
       </c>
+      <c r="AH19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -18903,10 +19149,22 @@
       <c r="AG20" t="s">
         <v>52</v>
       </c>
+      <c r="AH20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -19004,10 +19262,22 @@
       <c r="AG21" t="s">
         <v>52</v>
       </c>
+      <c r="AH21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -19103,12 +19373,24 @@
         <v>52</v>
       </c>
       <c r="AG22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -19205,6 +19487,18 @@
       </c>
       <c r="AG23" t="s">
         <v>52</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -19232,7 +19526,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -19306,7 +19600,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -19392,7 +19686,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -19478,7 +19772,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -19564,7 +19858,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -19650,7 +19944,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -19736,7 +20030,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -19822,7 +20116,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -19908,7 +20202,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -19994,7 +20288,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -20080,7 +20374,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -20166,7 +20460,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -20252,7 +20546,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -20338,7 +20632,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -20424,7 +20718,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -20510,7 +20804,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -20596,7 +20890,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -20682,7 +20976,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
@@ -20768,7 +21062,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -20854,7 +21148,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -20940,7 +21234,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -25696,10 +25990,13 @@
       <c r="P1" t="s">
         <v>32</v>
       </c>
+      <c r="Q1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -25746,10 +26043,13 @@
       <c r="P2" t="s">
         <v>54</v>
       </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -25796,10 +26096,13 @@
       <c r="P3" t="s">
         <v>53</v>
       </c>
+      <c r="Q3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -25846,10 +26149,13 @@
       <c r="P4" t="s">
         <v>54</v>
       </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -25896,10 +26202,13 @@
       <c r="P5" t="s">
         <v>53</v>
       </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -25946,10 +26255,13 @@
       <c r="P6" t="s">
         <v>55</v>
       </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -25996,10 +26308,13 @@
       <c r="P7" t="s">
         <v>54</v>
       </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -26046,10 +26361,13 @@
       <c r="P8" t="s">
         <v>53</v>
       </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -26095,11 +26413,14 @@
       </c>
       <c r="P9" t="s">
         <v>55</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -26146,10 +26467,13 @@
       <c r="P10" t="s">
         <v>54</v>
       </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -26196,10 +26520,13 @@
       <c r="P11" t="s">
         <v>54</v>
       </c>
+      <c r="Q11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -26246,10 +26573,13 @@
       <c r="P12" t="s">
         <v>53</v>
       </c>
+      <c r="Q12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -26296,10 +26626,13 @@
       <c r="P13" t="s">
         <v>54</v>
       </c>
+      <c r="Q13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -26346,10 +26679,13 @@
       <c r="P14" t="s">
         <v>55</v>
       </c>
+      <c r="Q14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -26396,10 +26732,13 @@
       <c r="P15" t="s">
         <v>54</v>
       </c>
+      <c r="Q15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -26446,10 +26785,13 @@
       <c r="P16" t="s">
         <v>58</v>
       </c>
+      <c r="Q16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -26496,10 +26838,13 @@
       <c r="P17" t="s">
         <v>54</v>
       </c>
+      <c r="Q17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -26545,11 +26890,14 @@
       </c>
       <c r="P18" t="s">
         <v>55</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -26596,10 +26944,13 @@
       <c r="P19" t="s">
         <v>55</v>
       </c>
+      <c r="Q19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
@@ -26646,10 +26997,13 @@
       <c r="P20" t="s">
         <v>53</v>
       </c>
+      <c r="Q20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -26696,10 +27050,13 @@
       <c r="P21" t="s">
         <v>54</v>
       </c>
+      <c r="Q21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
@@ -26744,12 +27101,15 @@
         <v>54</v>
       </c>
       <c r="P22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -26796,10 +27156,13 @@
       <c r="P23" t="s">
         <v>55</v>
       </c>
+      <c r="Q23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
@@ -26846,10 +27209,13 @@
       <c r="P24" t="s">
         <v>53</v>
       </c>
+      <c r="Q24" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
@@ -26895,6 +27261,9 @@
       </c>
       <c r="P25" t="s">
         <v>58</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -26925,7 +27294,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -26960,10 +27329,16 @@
       <c r="Q1" t="s">
         <v>32</v>
       </c>
+      <c r="R1" t="s">
+        <v>180</v>
+      </c>
+      <c r="S1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -27013,10 +27388,16 @@
       <c r="Q2" t="s">
         <v>57</v>
       </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -27066,10 +27447,16 @@
       <c r="Q3" t="s">
         <v>53</v>
       </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -27119,10 +27506,16 @@
       <c r="Q4" t="s">
         <v>55</v>
       </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -27172,10 +27565,16 @@
       <c r="Q5" t="s">
         <v>53</v>
       </c>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -27225,10 +27624,16 @@
       <c r="Q6" t="s">
         <v>53</v>
       </c>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -27278,10 +27683,16 @@
       <c r="Q7" t="s">
         <v>54</v>
       </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -27331,10 +27742,16 @@
       <c r="Q8" t="s">
         <v>55</v>
       </c>
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -27384,10 +27801,16 @@
       <c r="Q9" t="s">
         <v>53</v>
       </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -27437,10 +27860,16 @@
       <c r="Q10" t="s">
         <v>54</v>
       </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -27490,10 +27919,16 @@
       <c r="Q11" t="s">
         <v>53</v>
       </c>
+      <c r="R11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -27543,10 +27978,16 @@
       <c r="Q12" t="s">
         <v>56</v>
       </c>
+      <c r="R12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -27596,10 +28037,16 @@
       <c r="Q13" t="s">
         <v>57</v>
       </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -27648,11 +28095,17 @@
       </c>
       <c r="Q14" t="s">
         <v>54</v>
+      </c>
+      <c r="R14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -27702,10 +28155,16 @@
       <c r="Q15" t="s">
         <v>53</v>
       </c>
+      <c r="R15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
@@ -27755,10 +28214,16 @@
       <c r="Q16" t="s">
         <v>54</v>
       </c>
+      <c r="R16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -27808,10 +28273,16 @@
       <c r="Q17" t="s">
         <v>56</v>
       </c>
+      <c r="R17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -27861,10 +28332,16 @@
       <c r="Q18" t="s">
         <v>53</v>
       </c>
+      <c r="R18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -27914,10 +28391,16 @@
       <c r="Q19" t="s">
         <v>53</v>
       </c>
+      <c r="R19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -27967,10 +28450,16 @@
       <c r="Q20" t="s">
         <v>54</v>
       </c>
+      <c r="R20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
@@ -28020,10 +28509,16 @@
       <c r="Q21" t="s">
         <v>53</v>
       </c>
+      <c r="R21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -28073,10 +28568,16 @@
       <c r="Q22" t="s">
         <v>53</v>
       </c>
+      <c r="R22" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -28126,10 +28627,16 @@
       <c r="Q23" t="s">
         <v>55</v>
       </c>
+      <c r="R23" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
@@ -28179,10 +28686,16 @@
       <c r="Q24" t="s">
         <v>54</v>
       </c>
+      <c r="R24" t="s">
+        <v>53</v>
+      </c>
+      <c r="S24" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
@@ -28231,6 +28744,12 @@
       </c>
       <c r="Q25" t="s">
         <v>55</v>
+      </c>
+      <c r="R25" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -28255,10 +28774,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
         <v>151</v>
@@ -28284,10 +28803,19 @@
       <c r="M1" t="s">
         <v>32</v>
       </c>
+      <c r="N1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -28325,10 +28853,19 @@
       <c r="M2" t="s">
         <v>52</v>
       </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -28366,10 +28903,19 @@
       <c r="M3" t="s">
         <v>56</v>
       </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -28407,10 +28953,19 @@
       <c r="M4" t="s">
         <v>59</v>
       </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -28448,10 +29003,19 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -28489,10 +29053,19 @@
       <c r="M6" t="s">
         <v>52</v>
       </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -28530,10 +29103,19 @@
       <c r="M7" t="s">
         <v>52</v>
       </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -28571,10 +29153,19 @@
       <c r="M8" t="s">
         <v>56</v>
       </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -28612,10 +29203,19 @@
       <c r="M9" t="s">
         <v>60</v>
       </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -28653,10 +29253,19 @@
       <c r="M10" t="s">
         <v>53</v>
       </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -28694,10 +29303,19 @@
       <c r="M11" t="s">
         <v>60</v>
       </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -28735,10 +29353,19 @@
       <c r="M12" t="s">
         <v>59</v>
       </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -28776,10 +29403,19 @@
       <c r="M13" t="s">
         <v>56</v>
       </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -28817,10 +29453,19 @@
       <c r="M14" t="s">
         <v>56</v>
       </c>
+      <c r="N14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
@@ -28858,10 +29503,19 @@
       <c r="M15" t="s">
         <v>56</v>
       </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -28899,10 +29553,19 @@
       <c r="M16" t="s">
         <v>53</v>
       </c>
+      <c r="N16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -28940,10 +29603,19 @@
       <c r="M17" t="s">
         <v>53</v>
       </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -28981,10 +29653,19 @@
       <c r="M18" t="s">
         <v>54</v>
       </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -29022,10 +29703,19 @@
       <c r="M19" t="s">
         <v>56</v>
       </c>
+      <c r="N19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -29063,10 +29753,19 @@
       <c r="M20" t="s">
         <v>56</v>
       </c>
+      <c r="N20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -29104,10 +29803,19 @@
       <c r="M21" t="s">
         <v>54</v>
       </c>
+      <c r="N21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -29145,10 +29853,19 @@
       <c r="M22" t="s">
         <v>56</v>
       </c>
+      <c r="N22" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -29184,12 +29901,21 @@
         <v>52</v>
       </c>
       <c r="M23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -29226,6 +29952,15 @@
       </c>
       <c r="M24" t="s">
         <v>52</v>
+      </c>
+      <c r="N24" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -29318,7 +30053,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -29395,7 +30130,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -29472,7 +30207,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -29549,7 +30284,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -29626,7 +30361,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -29703,7 +30438,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -29780,7 +30515,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -29857,7 +30592,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -29934,7 +30669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -30011,7 +30746,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -30088,7 +30823,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -30165,7 +30900,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -30242,7 +30977,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -30319,7 +31054,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -30396,7 +31131,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -30473,7 +31208,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -30550,7 +31285,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -30627,7 +31362,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -30704,7 +31439,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -30781,7 +31516,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10483" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10749" uniqueCount="485">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -344,6 +344,9 @@
     <t>X2021.09.27</t>
   </si>
   <si>
+    <t>X2021.10.18</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -420,6 +423,12 @@
   </si>
   <si>
     <t>X2021.09.29</t>
+  </si>
+  <si>
+    <t>X2021.10.19</t>
+  </si>
+  <si>
+    <t>X2021.10.20</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -3750,28 +3759,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -3780,7 +3789,7 @@
         <v>101</v>
       </c>
       <c r="M1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3792,13 +3801,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -3815,10 +3824,13 @@
       <c r="X1" t="s">
         <v>35</v>
       </c>
+      <c r="Y1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -3889,10 +3901,13 @@
       <c r="X2" t="s">
         <v>55</v>
       </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3963,10 +3978,13 @@
       <c r="X3" t="s">
         <v>60</v>
       </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -4037,10 +4055,13 @@
       <c r="X4" t="s">
         <v>63</v>
       </c>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -4111,10 +4132,13 @@
       <c r="X5" t="s">
         <v>62</v>
       </c>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -4185,10 +4209,13 @@
       <c r="X6" t="s">
         <v>58</v>
       </c>
+      <c r="Y6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -4259,10 +4286,13 @@
       <c r="X7" t="s">
         <v>60</v>
       </c>
+      <c r="Y7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -4333,10 +4363,13 @@
       <c r="X8" t="s">
         <v>58</v>
       </c>
+      <c r="Y8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -4407,10 +4440,13 @@
       <c r="X9" t="s">
         <v>62</v>
       </c>
+      <c r="Y9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -4481,10 +4517,13 @@
       <c r="X10" t="s">
         <v>57</v>
       </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -4555,10 +4594,13 @@
       <c r="X11" t="s">
         <v>58</v>
       </c>
+      <c r="Y11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -4629,10 +4671,13 @@
       <c r="X12" t="s">
         <v>57</v>
       </c>
+      <c r="Y12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -4703,10 +4748,13 @@
       <c r="X13" t="s">
         <v>55</v>
       </c>
+      <c r="Y13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -4777,10 +4825,13 @@
       <c r="X14" t="s">
         <v>57</v>
       </c>
+      <c r="Y14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -4851,10 +4902,13 @@
       <c r="X15" t="s">
         <v>60</v>
       </c>
+      <c r="Y15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
@@ -4925,10 +4979,13 @@
       <c r="X16" t="s">
         <v>60</v>
       </c>
+      <c r="Y16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -4999,10 +5056,13 @@
       <c r="X17" t="s">
         <v>57</v>
       </c>
+      <c r="Y17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -5073,10 +5133,13 @@
       <c r="X18" t="s">
         <v>60</v>
       </c>
+      <c r="Y18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -5147,10 +5210,13 @@
       <c r="X19" t="s">
         <v>60</v>
       </c>
+      <c r="Y19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -5221,10 +5287,13 @@
       <c r="X20" t="s">
         <v>63</v>
       </c>
+      <c r="Y20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -5294,6 +5363,9 @@
       </c>
       <c r="X21" t="s">
         <v>58</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5353,10 +5425,13 @@
       <c r="O1" t="s">
         <v>36</v>
       </c>
+      <c r="P1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -5400,10 +5475,13 @@
       <c r="O2" t="s">
         <v>57</v>
       </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -5447,10 +5525,13 @@
       <c r="O3" t="s">
         <v>55</v>
       </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -5494,10 +5575,13 @@
       <c r="O4" t="s">
         <v>55</v>
       </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -5541,10 +5625,13 @@
       <c r="O5" t="s">
         <v>55</v>
       </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -5588,10 +5675,13 @@
       <c r="O6" t="s">
         <v>57</v>
       </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -5635,10 +5725,13 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -5682,10 +5775,13 @@
       <c r="O8" t="s">
         <v>55</v>
       </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -5728,11 +5824,14 @@
       </c>
       <c r="O9" t="s">
         <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -5776,10 +5875,13 @@
       <c r="O10" t="s">
         <v>57</v>
       </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -5823,10 +5925,13 @@
       <c r="O11" t="s">
         <v>57</v>
       </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -5870,10 +5975,13 @@
       <c r="O12" t="s">
         <v>55</v>
       </c>
+      <c r="P12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -5917,10 +6025,13 @@
       <c r="O13" t="s">
         <v>57</v>
       </c>
+      <c r="P13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -5962,12 +6073,15 @@
         <v>55</v>
       </c>
       <c r="O14" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -6009,7 +6123,10 @@
         <v>55</v>
       </c>
       <c r="O15" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6064,10 +6181,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -6099,10 +6216,13 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
+      <c r="Z1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -6176,10 +6296,13 @@
       <c r="Y2" t="s">
         <v>59</v>
       </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -6253,10 +6376,13 @@
       <c r="Y3" t="s">
         <v>56</v>
       </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -6330,10 +6456,13 @@
       <c r="Y4" t="s">
         <v>58</v>
       </c>
+      <c r="Z4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -6407,10 +6536,13 @@
       <c r="Y5" t="s">
         <v>59</v>
       </c>
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -6483,11 +6615,14 @@
       </c>
       <c r="Y6" t="s">
         <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -6561,10 +6696,13 @@
       <c r="Y7" t="s">
         <v>58</v>
       </c>
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -6638,10 +6776,13 @@
       <c r="Y8" t="s">
         <v>55</v>
       </c>
+      <c r="Z8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -6715,10 +6856,13 @@
       <c r="Y9" t="s">
         <v>60</v>
       </c>
+      <c r="Z9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -6792,10 +6936,13 @@
       <c r="Y10" t="s">
         <v>55</v>
       </c>
+      <c r="Z10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -6869,10 +7016,13 @@
       <c r="Y11" t="s">
         <v>55</v>
       </c>
+      <c r="Z11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -6945,11 +7095,14 @@
       </c>
       <c r="Y12" t="s">
         <v>60</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -7023,10 +7176,13 @@
       <c r="Y13" t="s">
         <v>60</v>
       </c>
+      <c r="Z13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -7100,10 +7256,13 @@
       <c r="Y14" t="s">
         <v>55</v>
       </c>
+      <c r="Z14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -7177,10 +7336,13 @@
       <c r="Y15" t="s">
         <v>58</v>
       </c>
+      <c r="Z15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -7254,10 +7416,13 @@
       <c r="Y16" t="s">
         <v>58</v>
       </c>
+      <c r="Z16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -7331,10 +7496,13 @@
       <c r="Y17" t="s">
         <v>55</v>
       </c>
+      <c r="Z17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -7407,11 +7575,14 @@
       </c>
       <c r="Y18" t="s">
         <v>60</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -7485,10 +7656,13 @@
       <c r="Y19" t="s">
         <v>56</v>
       </c>
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -7561,11 +7735,14 @@
       </c>
       <c r="Y20" t="s">
         <v>55</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -7637,6 +7814,9 @@
         <v>59</v>
       </c>
       <c r="Y21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7692,10 +7872,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -7724,7 +7904,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -7795,7 +7975,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -7866,7 +8046,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -7937,7 +8117,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -8008,7 +8188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -8079,7 +8259,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -8150,7 +8330,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -8221,7 +8401,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -8292,7 +8472,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -8363,7 +8543,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -8434,7 +8614,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -8505,7 +8685,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -8576,7 +8756,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -8647,7 +8827,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -8718,7 +8898,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -8789,7 +8969,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -8860,7 +9040,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -8931,7 +9111,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -9002,7 +9182,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -9073,7 +9253,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -9200,7 +9380,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -9232,7 +9412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -9309,7 +9489,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -9386,7 +9566,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -9463,7 +9643,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -9517,7 +9697,7 @@
         <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="T5" t="s">
         <v>55</v>
@@ -9540,7 +9720,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -9617,7 +9797,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -9694,7 +9874,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -9771,7 +9951,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -9848,7 +10028,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -9925,7 +10105,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -9979,7 +10159,7 @@
         <v>55</v>
       </c>
       <c r="S11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="T11" t="s">
         <v>55</v>
@@ -10002,7 +10182,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -10079,7 +10259,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -10156,7 +10336,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -10233,7 +10413,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -10310,7 +10490,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -10387,7 +10567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -10464,7 +10644,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -10541,7 +10721,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -10641,7 +10821,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -10653,7 +10833,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -10695,7 +10875,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -10721,7 +10901,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -10813,7 +10993,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -10905,7 +11085,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -10997,7 +11177,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -11089,7 +11269,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -11181,7 +11361,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -11273,7 +11453,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -11365,7 +11545,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -11457,7 +11637,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -11549,7 +11729,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -11641,7 +11821,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -11733,7 +11913,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -11825,7 +12005,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -11917,7 +12097,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -12009,7 +12189,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -12101,7 +12281,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -12193,7 +12373,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -12285,7 +12465,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -12444,7 +12624,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -12500,7 +12680,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -12556,7 +12736,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12612,7 +12792,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -12668,7 +12848,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -12724,7 +12904,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -12780,7 +12960,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -12836,7 +13016,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -12892,7 +13072,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -12948,7 +13128,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -13004,7 +13184,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -13060,7 +13240,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -13133,7 +13313,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -13145,7 +13325,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -13163,7 +13343,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -13177,7 +13357,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -13227,7 +13407,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -13277,7 +13457,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -13327,10 +13507,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -13377,7 +13557,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -13427,7 +13607,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -13477,7 +13657,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -13527,7 +13707,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -13577,7 +13757,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -13627,10 +13807,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -13709,7 +13889,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -13729,7 +13909,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -13770,7 +13950,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -13811,7 +13991,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -13852,7 +14032,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -13893,7 +14073,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -13934,7 +14114,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -13975,7 +14155,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -14016,7 +14196,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -14057,7 +14237,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -14098,7 +14278,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -14174,7 +14354,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -14203,7 +14383,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -14256,7 +14436,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -14309,7 +14489,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -14362,7 +14542,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -14415,7 +14595,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -14468,7 +14648,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -14521,7 +14701,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -14574,7 +14754,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -14627,7 +14807,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -14680,7 +14860,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -16173,7 +16353,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -16215,10 +16395,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="T1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -16250,10 +16430,13 @@
       <c r="AD1" t="s">
         <v>36</v>
       </c>
+      <c r="AE1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -16342,10 +16525,13 @@
       <c r="AD2" t="s">
         <v>55</v>
       </c>
+      <c r="AE2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -16434,10 +16620,13 @@
       <c r="AD3" t="s">
         <v>55</v>
       </c>
+      <c r="AE3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -16526,10 +16715,13 @@
       <c r="AD4" t="s">
         <v>55</v>
       </c>
+      <c r="AE4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -16618,10 +16810,13 @@
       <c r="AD5" t="s">
         <v>58</v>
       </c>
+      <c r="AE5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -16709,11 +16904,14 @@
       </c>
       <c r="AD6" t="s">
         <v>55</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -16802,10 +17000,13 @@
       <c r="AD7" t="s">
         <v>55</v>
       </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -16894,10 +17095,13 @@
       <c r="AD8" t="s">
         <v>60</v>
       </c>
+      <c r="AE8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -16986,10 +17190,13 @@
       <c r="AD9" t="s">
         <v>57</v>
       </c>
+      <c r="AE9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -17078,10 +17285,13 @@
       <c r="AD10" t="s">
         <v>55</v>
       </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -17170,10 +17380,13 @@
       <c r="AD11" t="s">
         <v>55</v>
       </c>
+      <c r="AE11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -17262,10 +17475,13 @@
       <c r="AD12" t="s">
         <v>55</v>
       </c>
+      <c r="AE12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -17354,10 +17570,13 @@
       <c r="AD13" t="s">
         <v>55</v>
       </c>
+      <c r="AE13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -17446,10 +17665,13 @@
       <c r="AD14" t="s">
         <v>55</v>
       </c>
+      <c r="AE14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -17538,10 +17760,13 @@
       <c r="AD15" t="s">
         <v>57</v>
       </c>
+      <c r="AE15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -17630,10 +17855,13 @@
       <c r="AD16" t="s">
         <v>55</v>
       </c>
+      <c r="AE16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -17722,10 +17950,13 @@
       <c r="AD17" t="s">
         <v>60</v>
       </c>
+      <c r="AE17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -17814,10 +18045,13 @@
       <c r="AD18" t="s">
         <v>55</v>
       </c>
+      <c r="AE18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -17906,10 +18140,13 @@
       <c r="AD19" t="s">
         <v>58</v>
       </c>
+      <c r="AE19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -17997,11 +18234,14 @@
       </c>
       <c r="AD20" t="s">
         <v>57</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -18089,6 +18329,9 @@
       </c>
       <c r="AD21" t="s">
         <v>57</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -18116,7 +18359,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -18140,19 +18383,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="O1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -18176,7 +18419,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -18200,19 +18443,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AH1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AI1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AJ1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AK1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -18223,10 +18466,16 @@
       <c r="AN1" t="s">
         <v>36</v>
       </c>
+      <c r="AO1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -18345,10 +18594,16 @@
       <c r="AN2" t="s">
         <v>55</v>
       </c>
+      <c r="AO2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -18465,12 +18720,18 @@
         <v>55</v>
       </c>
       <c r="AN3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -18589,10 +18850,16 @@
       <c r="AN4" t="s">
         <v>55</v>
       </c>
+      <c r="AO4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -18711,10 +18978,16 @@
       <c r="AN5" t="s">
         <v>56</v>
       </c>
+      <c r="AO5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -18833,10 +19106,16 @@
       <c r="AN6" t="s">
         <v>55</v>
       </c>
+      <c r="AO6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -18955,10 +19234,16 @@
       <c r="AN7" t="s">
         <v>55</v>
       </c>
+      <c r="AO7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -19077,10 +19362,16 @@
       <c r="AN8" t="s">
         <v>62</v>
       </c>
+      <c r="AO8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -19199,10 +19490,16 @@
       <c r="AN9" t="s">
         <v>55</v>
       </c>
+      <c r="AO9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -19321,10 +19618,16 @@
       <c r="AN10" t="s">
         <v>55</v>
       </c>
+      <c r="AO10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -19443,10 +19746,16 @@
       <c r="AN11" t="s">
         <v>56</v>
       </c>
+      <c r="AO11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -19565,10 +19874,16 @@
       <c r="AN12" t="s">
         <v>55</v>
       </c>
+      <c r="AO12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -19687,10 +20002,16 @@
       <c r="AN13" t="s">
         <v>56</v>
       </c>
+      <c r="AO13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -19809,10 +20130,16 @@
       <c r="AN14" t="s">
         <v>56</v>
       </c>
+      <c r="AO14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -19931,10 +20258,16 @@
       <c r="AN15" t="s">
         <v>55</v>
       </c>
+      <c r="AO15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -20053,10 +20386,16 @@
       <c r="AN16" t="s">
         <v>56</v>
       </c>
+      <c r="AO16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -20175,10 +20514,16 @@
       <c r="AN17" t="s">
         <v>56</v>
       </c>
+      <c r="AO17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -20297,10 +20642,16 @@
       <c r="AN18" t="s">
         <v>62</v>
       </c>
+      <c r="AO18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -20419,10 +20770,16 @@
       <c r="AN19" t="s">
         <v>56</v>
       </c>
+      <c r="AO19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -20541,10 +20898,16 @@
       <c r="AN20" t="s">
         <v>55</v>
       </c>
+      <c r="AO20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -20663,10 +21026,16 @@
       <c r="AN21" t="s">
         <v>55</v>
       </c>
+      <c r="AO21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -20783,12 +21152,18 @@
         <v>55</v>
       </c>
       <c r="AN22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -20905,6 +21280,12 @@
         <v>56</v>
       </c>
       <c r="AN23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -20933,7 +21314,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -20975,7 +21356,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -21013,10 +21394,13 @@
       <c r="AE1" t="s">
         <v>36</v>
       </c>
+      <c r="AF1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -21108,10 +21492,13 @@
       <c r="AE2" t="s">
         <v>55</v>
       </c>
+      <c r="AF2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -21203,10 +21590,13 @@
       <c r="AE3" t="s">
         <v>55</v>
       </c>
+      <c r="AF3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -21298,10 +21688,13 @@
       <c r="AE4" t="s">
         <v>60</v>
       </c>
+      <c r="AF4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -21393,10 +21786,13 @@
       <c r="AE5" t="s">
         <v>55</v>
       </c>
+      <c r="AF5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -21488,10 +21884,13 @@
       <c r="AE6" t="s">
         <v>55</v>
       </c>
+      <c r="AF6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -21583,10 +21982,13 @@
       <c r="AE7" t="s">
         <v>55</v>
       </c>
+      <c r="AF7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -21677,11 +22079,14 @@
       </c>
       <c r="AE8" t="s">
         <v>58</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -21773,10 +22178,13 @@
       <c r="AE9" t="s">
         <v>60</v>
       </c>
+      <c r="AF9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -21868,10 +22276,13 @@
       <c r="AE10" t="s">
         <v>55</v>
       </c>
+      <c r="AF10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -21963,10 +22374,13 @@
       <c r="AE11" t="s">
         <v>55</v>
       </c>
+      <c r="AF11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -22057,11 +22471,14 @@
       </c>
       <c r="AE12" t="s">
         <v>57</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -22153,10 +22570,13 @@
       <c r="AE13" t="s">
         <v>55</v>
       </c>
+      <c r="AF13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -22248,10 +22668,13 @@
       <c r="AE14" t="s">
         <v>60</v>
       </c>
+      <c r="AF14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -22342,11 +22765,14 @@
       </c>
       <c r="AE15" t="s">
         <v>57</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -22437,11 +22863,14 @@
       </c>
       <c r="AE16" t="s">
         <v>55</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -22533,10 +22962,13 @@
       <c r="AE17" t="s">
         <v>60</v>
       </c>
+      <c r="AF17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -22628,10 +23060,13 @@
       <c r="AE18" t="s">
         <v>55</v>
       </c>
+      <c r="AF18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -22721,12 +23156,15 @@
         <v>58</v>
       </c>
       <c r="AE19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -22818,10 +23256,13 @@
       <c r="AE20" t="s">
         <v>58</v>
       </c>
+      <c r="AF20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -22911,6 +23352,9 @@
         <v>56</v>
       </c>
       <c r="AE21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -24751,10 +25195,13 @@
       <c r="V1" t="s">
         <v>36</v>
       </c>
+      <c r="W1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -24819,10 +25266,13 @@
       <c r="V2" t="s">
         <v>55</v>
       </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -24887,10 +25337,13 @@
       <c r="V3" t="s">
         <v>55</v>
       </c>
+      <c r="W3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -24955,10 +25408,13 @@
       <c r="V4" t="s">
         <v>55</v>
       </c>
+      <c r="W4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -25023,10 +25479,13 @@
       <c r="V5" t="s">
         <v>55</v>
       </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -25091,10 +25550,13 @@
       <c r="V6" t="s">
         <v>55</v>
       </c>
+      <c r="W6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -25157,12 +25619,15 @@
         <v>60</v>
       </c>
       <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -25227,10 +25692,13 @@
       <c r="V8" t="s">
         <v>55</v>
       </c>
+      <c r="W8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -25294,11 +25762,14 @@
       </c>
       <c r="V9" t="s">
         <v>60</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -25363,10 +25834,13 @@
       <c r="V10" t="s">
         <v>55</v>
       </c>
+      <c r="W10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -25431,10 +25905,13 @@
       <c r="V11" t="s">
         <v>55</v>
       </c>
+      <c r="W11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -25499,10 +25976,13 @@
       <c r="V12" t="s">
         <v>55</v>
       </c>
+      <c r="W12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -25567,10 +26047,13 @@
       <c r="V13" t="s">
         <v>55</v>
       </c>
+      <c r="W13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -25635,10 +26118,13 @@
       <c r="V14" t="s">
         <v>55</v>
       </c>
+      <c r="W14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -25703,10 +26189,13 @@
       <c r="V15" t="s">
         <v>59</v>
       </c>
+      <c r="W15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -25771,10 +26260,13 @@
       <c r="V16" t="s">
         <v>55</v>
       </c>
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -25839,10 +26331,13 @@
       <c r="V17" t="s">
         <v>55</v>
       </c>
+      <c r="W17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -25907,10 +26402,13 @@
       <c r="V18" t="s">
         <v>59</v>
       </c>
+      <c r="W18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -25975,10 +26473,13 @@
       <c r="V19" t="s">
         <v>55</v>
       </c>
+      <c r="W19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -26043,10 +26544,13 @@
       <c r="V20" t="s">
         <v>60</v>
       </c>
+      <c r="W20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -26109,6 +26613,9 @@
         <v>59</v>
       </c>
       <c r="V21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -26140,10 +26647,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -26164,10 +26671,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -26179,10 +26686,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -26199,10 +26706,16 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
+      <c r="Z1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -26276,10 +26789,16 @@
       <c r="Y2" t="s">
         <v>55</v>
       </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -26353,10 +26872,16 @@
       <c r="Y3" t="s">
         <v>55</v>
       </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -26430,10 +26955,16 @@
       <c r="Y4" t="s">
         <v>55</v>
       </c>
+      <c r="Z4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -26506,11 +27037,17 @@
       </c>
       <c r="Y5" t="s">
         <v>55</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -26584,10 +27121,16 @@
       <c r="Y6" t="s">
         <v>55</v>
       </c>
+      <c r="Z6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -26661,10 +27204,16 @@
       <c r="Y7" t="s">
         <v>55</v>
       </c>
+      <c r="Z7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -26738,10 +27287,16 @@
       <c r="Y8" t="s">
         <v>57</v>
       </c>
+      <c r="Z8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -26815,10 +27370,16 @@
       <c r="Y9" t="s">
         <v>55</v>
       </c>
+      <c r="Z9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -26892,10 +27453,16 @@
       <c r="Y10" t="s">
         <v>55</v>
       </c>
+      <c r="Z10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -26969,10 +27536,16 @@
       <c r="Y11" t="s">
         <v>55</v>
       </c>
+      <c r="Z11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -27046,10 +27619,16 @@
       <c r="Y12" t="s">
         <v>55</v>
       </c>
+      <c r="Z12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -27123,10 +27702,16 @@
       <c r="Y13" t="s">
         <v>55</v>
       </c>
+      <c r="Z13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -27200,10 +27785,16 @@
       <c r="Y14" t="s">
         <v>55</v>
       </c>
+      <c r="Z14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -27277,10 +27868,16 @@
       <c r="Y15" t="s">
         <v>55</v>
       </c>
+      <c r="Z15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -27354,10 +27951,16 @@
       <c r="Y16" t="s">
         <v>55</v>
       </c>
+      <c r="Z16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -27429,12 +28032,18 @@
         <v>57</v>
       </c>
       <c r="Y17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -27467,7 +28076,7 @@
         <v>55</v>
       </c>
       <c r="L18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s">
         <v>55</v>
@@ -27508,10 +28117,16 @@
       <c r="Y18" t="s">
         <v>55</v>
       </c>
+      <c r="Z18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -27585,10 +28200,16 @@
       <c r="Y19" t="s">
         <v>55</v>
       </c>
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -27662,10 +28283,16 @@
       <c r="Y20" t="s">
         <v>55</v>
       </c>
+      <c r="Z20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -27739,10 +28366,16 @@
       <c r="Y21" t="s">
         <v>55</v>
       </c>
+      <c r="Z21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -27775,7 +28408,7 @@
         <v>55</v>
       </c>
       <c r="L22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s">
         <v>55</v>
@@ -27814,12 +28447,18 @@
         <v>57</v>
       </c>
       <c r="Y22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -27893,10 +28532,16 @@
       <c r="Y23" t="s">
         <v>55</v>
       </c>
+      <c r="Z23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -27970,10 +28615,16 @@
       <c r="Y24" t="s">
         <v>57</v>
       </c>
+      <c r="Z24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
@@ -28046,6 +28697,12 @@
       </c>
       <c r="Y25" t="s">
         <v>55</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -28070,7 +28727,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -28082,34 +28739,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -28117,10 +28774,13 @@
       <c r="S1" t="s">
         <v>35</v>
       </c>
+      <c r="T1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -28176,10 +28836,13 @@
       <c r="S2" t="s">
         <v>60</v>
       </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -28235,10 +28898,13 @@
       <c r="S3" t="s">
         <v>58</v>
       </c>
+      <c r="T3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -28294,10 +28960,13 @@
       <c r="S4" t="s">
         <v>58</v>
       </c>
+      <c r="T4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -28353,10 +29022,13 @@
       <c r="S5" t="s">
         <v>55</v>
       </c>
+      <c r="T5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -28412,10 +29084,13 @@
       <c r="S6" t="s">
         <v>58</v>
       </c>
+      <c r="T6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -28471,10 +29146,13 @@
       <c r="S7" t="s">
         <v>57</v>
       </c>
+      <c r="T7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -28530,10 +29208,13 @@
       <c r="S8" t="s">
         <v>60</v>
       </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -28588,11 +29269,14 @@
       </c>
       <c r="S9" t="s">
         <v>57</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -28648,10 +29332,13 @@
       <c r="S10" t="s">
         <v>56</v>
       </c>
+      <c r="T10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -28707,10 +29394,13 @@
       <c r="S11" t="s">
         <v>57</v>
       </c>
+      <c r="T11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -28766,10 +29456,13 @@
       <c r="S12" t="s">
         <v>57</v>
       </c>
+      <c r="T12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -28825,10 +29518,13 @@
       <c r="S13" t="s">
         <v>58</v>
       </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -28884,10 +29580,13 @@
       <c r="S14" t="s">
         <v>57</v>
       </c>
+      <c r="T14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
@@ -28943,10 +29642,13 @@
       <c r="S15" t="s">
         <v>60</v>
       </c>
+      <c r="T15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -29002,10 +29704,13 @@
       <c r="S16" t="s">
         <v>55</v>
       </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -29061,10 +29766,13 @@
       <c r="S17" t="s">
         <v>58</v>
       </c>
+      <c r="T17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -29119,11 +29827,14 @@
       </c>
       <c r="S18" t="s">
         <v>58</v>
+      </c>
+      <c r="T18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -29179,10 +29890,13 @@
       <c r="S19" t="s">
         <v>59</v>
       </c>
+      <c r="T19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -29238,10 +29952,13 @@
       <c r="S20" t="s">
         <v>59</v>
       </c>
+      <c r="T20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -29297,10 +30014,13 @@
       <c r="S21" t="s">
         <v>58</v>
       </c>
+      <c r="T21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -29355,11 +30075,14 @@
       </c>
       <c r="S22" t="s">
         <v>60</v>
+      </c>
+      <c r="T22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -29415,10 +30138,13 @@
       <c r="S23" t="s">
         <v>57</v>
       </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
@@ -29474,10 +30200,13 @@
       <c r="S24" t="s">
         <v>58</v>
       </c>
+      <c r="T24" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
@@ -29532,6 +30261,9 @@
       </c>
       <c r="S25" t="s">
         <v>56</v>
+      </c>
+      <c r="T25" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -29556,13 +30288,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -29571,7 +30303,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -29580,13 +30312,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -29598,18 +30330,21 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
+      <c r="U1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -29668,10 +30403,13 @@
       <c r="T2" t="s">
         <v>58</v>
       </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -29730,10 +30468,13 @@
       <c r="T3" t="s">
         <v>58</v>
       </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -29792,10 +30533,13 @@
       <c r="T4" t="s">
         <v>58</v>
       </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -29854,10 +30598,13 @@
       <c r="T5" t="s">
         <v>60</v>
       </c>
+      <c r="U5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -29916,10 +30663,13 @@
       <c r="T6" t="s">
         <v>60</v>
       </c>
+      <c r="U6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -29978,10 +30728,13 @@
       <c r="T7" t="s">
         <v>60</v>
       </c>
+      <c r="U7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -30040,10 +30793,13 @@
       <c r="T8" t="s">
         <v>58</v>
       </c>
+      <c r="U8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -30102,10 +30858,13 @@
       <c r="T9" t="s">
         <v>56</v>
       </c>
+      <c r="U9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -30164,10 +30923,13 @@
       <c r="T10" t="s">
         <v>60</v>
       </c>
+      <c r="U10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -30226,10 +30988,13 @@
       <c r="T11" t="s">
         <v>56</v>
       </c>
+      <c r="U11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -30288,10 +31053,13 @@
       <c r="T12" t="s">
         <v>62</v>
       </c>
+      <c r="U12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -30350,10 +31118,13 @@
       <c r="T13" t="s">
         <v>56</v>
       </c>
+      <c r="U13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -30412,10 +31183,13 @@
       <c r="T14" t="s">
         <v>58</v>
       </c>
+      <c r="U14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -30474,10 +31248,13 @@
       <c r="T15" t="s">
         <v>56</v>
       </c>
+      <c r="U15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -30536,10 +31313,13 @@
       <c r="T16" t="s">
         <v>57</v>
       </c>
+      <c r="U16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -30598,10 +31378,13 @@
       <c r="T17" t="s">
         <v>58</v>
       </c>
+      <c r="U17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -30660,10 +31443,13 @@
       <c r="T18" t="s">
         <v>58</v>
       </c>
+      <c r="U18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -30722,10 +31508,13 @@
       <c r="T19" t="s">
         <v>56</v>
       </c>
+      <c r="U19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -30784,10 +31573,13 @@
       <c r="T20" t="s">
         <v>56</v>
       </c>
+      <c r="U20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -30846,10 +31638,13 @@
       <c r="T21" t="s">
         <v>57</v>
       </c>
+      <c r="U21" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
@@ -30908,10 +31703,13 @@
       <c r="T22" t="s">
         <v>60</v>
       </c>
+      <c r="U22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -30970,10 +31768,13 @@
       <c r="T23" t="s">
         <v>58</v>
       </c>
+      <c r="U23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
@@ -31032,10 +31833,13 @@
       <c r="T24" t="s">
         <v>60</v>
       </c>
+      <c r="U24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -31093,6 +31897,9 @@
       </c>
       <c r="T25" t="s">
         <v>62</v>
+      </c>
+      <c r="U25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -31117,48 +31924,48 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -31208,7 +32015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -31258,7 +32065,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -31308,7 +32115,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -31358,7 +32165,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -31408,7 +32215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -31458,7 +32265,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -31508,7 +32315,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -31558,7 +32365,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -31608,7 +32415,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -31658,7 +32465,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -31708,7 +32515,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -31758,7 +32565,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -31808,7 +32615,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -31858,7 +32665,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -31908,7 +32715,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -31958,7 +32765,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -32008,7 +32815,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -32058,7 +32865,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -32108,7 +32915,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -32158,7 +32965,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
@@ -32208,7 +33015,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -32258,7 +33065,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -32405,7 +33212,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -32491,7 +33298,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -32577,7 +33384,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -32663,7 +33470,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -32749,7 +33556,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -32835,7 +33642,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -32921,7 +33728,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -33007,7 +33814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -33093,7 +33900,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -33179,7 +33986,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -33265,7 +34072,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -33351,7 +34158,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -33437,7 +34244,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -33523,7 +34330,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -33609,7 +34416,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -33695,7 +34502,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -33781,7 +34588,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -33867,7 +34674,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -33953,7 +34760,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -34039,7 +34846,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11738" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="492">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -527,6 +527,9 @@
     <t>X2021.10.09</t>
   </si>
   <si>
+    <t>X2021.10.26</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -758,6 +761,9 @@
     <t>Yeovil</t>
   </si>
   <si>
+    <t>X2021.10.27</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
@@ -831,6 +837,9 @@
   </si>
   <si>
     <t>X2021.08.25</t>
+  </si>
+  <si>
+    <t>X2021.10.25</t>
   </si>
   <si>
     <t>Ajaccio</t>
@@ -3942,25 +3951,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
         <v>128</v>
@@ -3972,7 +3981,7 @@
         <v>104</v>
       </c>
       <c r="M1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4013,10 +4022,13 @@
       <c r="Z1" t="s">
         <v>38</v>
       </c>
+      <c r="AA1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -4093,10 +4105,13 @@
       <c r="Z2" t="s">
         <v>59</v>
       </c>
+      <c r="AA2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -4173,10 +4188,13 @@
       <c r="Z3" t="s">
         <v>60</v>
       </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -4253,10 +4271,13 @@
       <c r="Z4" t="s">
         <v>58</v>
       </c>
+      <c r="AA4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -4333,10 +4354,13 @@
       <c r="Z5" t="s">
         <v>58</v>
       </c>
+      <c r="AA5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -4413,10 +4437,13 @@
       <c r="Z6" t="s">
         <v>59</v>
       </c>
+      <c r="AA6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -4493,10 +4520,13 @@
       <c r="Z7" t="s">
         <v>60</v>
       </c>
+      <c r="AA7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -4573,10 +4603,13 @@
       <c r="Z8" t="s">
         <v>59</v>
       </c>
+      <c r="AA8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
@@ -4653,10 +4686,13 @@
       <c r="Z9" t="s">
         <v>60</v>
       </c>
+      <c r="AA9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -4733,10 +4769,13 @@
       <c r="Z10" t="s">
         <v>61</v>
       </c>
+      <c r="AA10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -4813,10 +4852,13 @@
       <c r="Z11" t="s">
         <v>63</v>
       </c>
+      <c r="AA11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -4893,10 +4935,13 @@
       <c r="Z12" t="s">
         <v>59</v>
       </c>
+      <c r="AA12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -4973,10 +5018,13 @@
       <c r="Z13" t="s">
         <v>61</v>
       </c>
+      <c r="AA13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -5053,10 +5101,13 @@
       <c r="Z14" t="s">
         <v>59</v>
       </c>
+      <c r="AA14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
@@ -5133,10 +5184,13 @@
       <c r="Z15" t="s">
         <v>61</v>
       </c>
+      <c r="AA15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -5213,10 +5267,13 @@
       <c r="Z16" t="s">
         <v>63</v>
       </c>
+      <c r="AA16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -5293,10 +5350,13 @@
       <c r="Z17" t="s">
         <v>59</v>
       </c>
+      <c r="AA17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -5373,10 +5433,13 @@
       <c r="Z18" t="s">
         <v>59</v>
       </c>
+      <c r="AA18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -5453,10 +5516,13 @@
       <c r="Z19" t="s">
         <v>59</v>
       </c>
+      <c r="AA19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -5533,10 +5599,13 @@
       <c r="Z20" t="s">
         <v>61</v>
       </c>
+      <c r="AA20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -5612,6 +5681,9 @@
       </c>
       <c r="Z21" t="s">
         <v>60</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5683,7 +5755,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -5739,7 +5811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -5795,7 +5867,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -5851,7 +5923,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -5907,7 +5979,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -5963,7 +6035,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -6019,7 +6091,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -6075,7 +6147,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -6131,7 +6203,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -6187,7 +6259,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -6243,7 +6315,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
@@ -6299,7 +6371,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -6355,7 +6427,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -6411,7 +6483,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -6517,7 +6589,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O1" t="s">
         <v>162</v>
@@ -6564,10 +6636,16 @@
       <c r="AC1" t="s">
         <v>39</v>
       </c>
+      <c r="AD1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -6653,10 +6731,16 @@
       <c r="AC2" t="s">
         <v>59</v>
       </c>
+      <c r="AD2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -6742,10 +6826,16 @@
       <c r="AC3" t="s">
         <v>58</v>
       </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -6831,10 +6921,16 @@
       <c r="AC4" t="s">
         <v>60</v>
       </c>
+      <c r="AD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -6920,10 +7016,16 @@
       <c r="AC5" t="s">
         <v>58</v>
       </c>
+      <c r="AD5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -7008,11 +7110,17 @@
       </c>
       <c r="AC6" t="s">
         <v>60</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -7098,10 +7206,16 @@
       <c r="AC7" t="s">
         <v>58</v>
       </c>
+      <c r="AD7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -7187,10 +7301,16 @@
       <c r="AC8" t="s">
         <v>59</v>
       </c>
+      <c r="AD8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -7276,10 +7396,16 @@
       <c r="AC9" t="s">
         <v>59</v>
       </c>
+      <c r="AD9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -7365,10 +7491,16 @@
       <c r="AC10" t="s">
         <v>62</v>
       </c>
+      <c r="AD10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7454,10 +7586,16 @@
       <c r="AC11" t="s">
         <v>58</v>
       </c>
+      <c r="AD11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -7543,10 +7681,16 @@
       <c r="AC12" t="s">
         <v>65</v>
       </c>
+      <c r="AD12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7632,10 +7776,16 @@
       <c r="AC13" t="s">
         <v>65</v>
       </c>
+      <c r="AD13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -7721,10 +7871,16 @@
       <c r="AC14" t="s">
         <v>58</v>
       </c>
+      <c r="AD14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -7810,10 +7966,16 @@
       <c r="AC15" t="s">
         <v>58</v>
       </c>
+      <c r="AD15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -7899,10 +8061,16 @@
       <c r="AC16" t="s">
         <v>58</v>
       </c>
+      <c r="AD16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -7988,10 +8156,16 @@
       <c r="AC17" t="s">
         <v>58</v>
       </c>
+      <c r="AD17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -8077,10 +8251,16 @@
       <c r="AC18" t="s">
         <v>58</v>
       </c>
+      <c r="AD18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -8166,10 +8346,16 @@
       <c r="AC19" t="s">
         <v>59</v>
       </c>
+      <c r="AD19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -8253,12 +8439,18 @@
         <v>61</v>
       </c>
       <c r="AC20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -8343,6 +8535,12 @@
       </c>
       <c r="AC21" t="s">
         <v>62</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -8397,7 +8595,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O1" t="s">
         <v>162</v>
@@ -8435,10 +8633,13 @@
       <c r="Z1" t="s">
         <v>39</v>
       </c>
+      <c r="AA1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -8515,10 +8716,13 @@
       <c r="Z2" t="s">
         <v>58</v>
       </c>
+      <c r="AA2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -8595,10 +8799,13 @@
       <c r="Z3" t="s">
         <v>58</v>
       </c>
+      <c r="AA3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -8675,10 +8882,13 @@
       <c r="Z4" t="s">
         <v>58</v>
       </c>
+      <c r="AA4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -8755,10 +8965,13 @@
       <c r="Z5" t="s">
         <v>58</v>
       </c>
+      <c r="AA5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -8835,10 +9048,13 @@
       <c r="Z6" t="s">
         <v>58</v>
       </c>
+      <c r="AA6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -8915,10 +9131,13 @@
       <c r="Z7" t="s">
         <v>59</v>
       </c>
+      <c r="AA7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -8995,10 +9214,13 @@
       <c r="Z8" t="s">
         <v>58</v>
       </c>
+      <c r="AA8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -9073,12 +9295,15 @@
         <v>63</v>
       </c>
       <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -9155,10 +9380,13 @@
       <c r="Z10" t="s">
         <v>58</v>
       </c>
+      <c r="AA10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -9235,10 +9463,13 @@
       <c r="Z11" t="s">
         <v>58</v>
       </c>
+      <c r="AA11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -9315,10 +9546,13 @@
       <c r="Z12" t="s">
         <v>58</v>
       </c>
+      <c r="AA12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -9395,10 +9629,13 @@
       <c r="Z13" t="s">
         <v>58</v>
       </c>
+      <c r="AA13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -9475,10 +9712,13 @@
       <c r="Z14" t="s">
         <v>60</v>
       </c>
+      <c r="AA14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -9555,10 +9795,13 @@
       <c r="Z15" t="s">
         <v>58</v>
       </c>
+      <c r="AA15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -9635,10 +9878,13 @@
       <c r="Z16" t="s">
         <v>59</v>
       </c>
+      <c r="AA16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -9715,10 +9961,13 @@
       <c r="Z17" t="s">
         <v>59</v>
       </c>
+      <c r="AA17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -9795,10 +10044,13 @@
       <c r="Z18" t="s">
         <v>60</v>
       </c>
+      <c r="AA18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -9875,10 +10127,13 @@
       <c r="Z19" t="s">
         <v>59</v>
       </c>
+      <c r="AA19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -9955,10 +10210,13 @@
       <c r="Z20" t="s">
         <v>58</v>
       </c>
+      <c r="AA20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -10034,6 +10292,9 @@
       </c>
       <c r="Z21" t="s">
         <v>58</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10135,7 +10396,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -10221,7 +10482,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -10307,7 +10568,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -10393,7 +10654,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -10479,7 +10740,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -10565,7 +10826,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -10651,7 +10912,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10737,7 +10998,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -10823,7 +11084,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -10909,7 +11170,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -10995,7 +11256,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -11081,7 +11342,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -11167,7 +11428,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -11253,7 +11514,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -11339,7 +11600,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -11425,7 +11686,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -11511,7 +11772,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -11597,7 +11858,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -11706,7 +11967,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -11718,7 +11979,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -11760,7 +12021,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -11792,10 +12053,13 @@
       <c r="AG1" t="s">
         <v>39</v>
       </c>
+      <c r="AH1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -11893,10 +12157,13 @@
       <c r="AG2" t="s">
         <v>65</v>
       </c>
+      <c r="AH2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -11994,10 +12261,13 @@
       <c r="AG3" t="s">
         <v>58</v>
       </c>
+      <c r="AH3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12095,10 +12365,13 @@
       <c r="AG4" t="s">
         <v>63</v>
       </c>
+      <c r="AH4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -12195,11 +12468,14 @@
       </c>
       <c r="AG5" t="s">
         <v>58</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -12297,10 +12573,13 @@
       <c r="AG6" t="s">
         <v>59</v>
       </c>
+      <c r="AH6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -12398,10 +12677,13 @@
       <c r="AG7" t="s">
         <v>58</v>
       </c>
+      <c r="AH7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12498,11 +12780,14 @@
       </c>
       <c r="AG8" t="s">
         <v>58</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -12600,10 +12885,13 @@
       <c r="AG9" t="s">
         <v>58</v>
       </c>
+      <c r="AH9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -12701,10 +12989,13 @@
       <c r="AG10" t="s">
         <v>58</v>
       </c>
+      <c r="AH10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -12802,10 +13093,13 @@
       <c r="AG11" t="s">
         <v>58</v>
       </c>
+      <c r="AH11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -12903,10 +13197,13 @@
       <c r="AG12" t="s">
         <v>65</v>
       </c>
+      <c r="AH12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -13004,10 +13301,13 @@
       <c r="AG13" t="s">
         <v>59</v>
       </c>
+      <c r="AH13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -13105,10 +13405,13 @@
       <c r="AG14" t="s">
         <v>58</v>
       </c>
+      <c r="AH14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -13206,10 +13509,13 @@
       <c r="AG15" t="s">
         <v>58</v>
       </c>
+      <c r="AH15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -13307,10 +13613,13 @@
       <c r="AG16" t="s">
         <v>58</v>
       </c>
+      <c r="AH16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -13406,12 +13715,15 @@
         <v>63</v>
       </c>
       <c r="AG17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -13509,10 +13821,13 @@
       <c r="AG18" t="s">
         <v>58</v>
       </c>
+      <c r="AH18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -13609,6 +13924,9 @@
       </c>
       <c r="AG19" t="s">
         <v>63</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -13683,10 +14001,13 @@
       <c r="T1" t="s">
         <v>39</v>
       </c>
+      <c r="U1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -13745,10 +14066,13 @@
       <c r="T2" t="s">
         <v>58</v>
       </c>
+      <c r="U2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -13807,10 +14131,13 @@
       <c r="T3" t="s">
         <v>58</v>
       </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -13869,10 +14196,13 @@
       <c r="T4" t="s">
         <v>58</v>
       </c>
+      <c r="U4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -13931,10 +14261,13 @@
       <c r="T5" t="s">
         <v>58</v>
       </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -13993,10 +14326,13 @@
       <c r="T6" t="s">
         <v>58</v>
       </c>
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14055,10 +14391,13 @@
       <c r="T7" t="s">
         <v>58</v>
       </c>
+      <c r="U7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -14117,10 +14456,13 @@
       <c r="T8" t="s">
         <v>58</v>
       </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14179,10 +14521,13 @@
       <c r="T9" t="s">
         <v>58</v>
       </c>
+      <c r="U9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -14241,10 +14586,13 @@
       <c r="T10" t="s">
         <v>60</v>
       </c>
+      <c r="U10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -14303,10 +14651,13 @@
       <c r="T11" t="s">
         <v>58</v>
       </c>
+      <c r="U11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -14365,10 +14716,13 @@
       <c r="T12" t="s">
         <v>58</v>
       </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
@@ -14426,6 +14780,9 @@
       </c>
       <c r="T13" t="s">
         <v>60</v>
+      </c>
+      <c r="U13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -14447,7 +14804,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -14459,7 +14816,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -14491,10 +14848,13 @@
       <c r="Q1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -14544,10 +14904,13 @@
       <c r="Q2" t="s">
         <v>59</v>
       </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14597,10 +14960,13 @@
       <c r="Q3" t="s">
         <v>59</v>
       </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -14650,10 +15016,13 @@
       <c r="Q4" t="s">
         <v>65</v>
       </c>
+      <c r="R4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>159</v>
@@ -14703,10 +15072,13 @@
       <c r="Q5" t="s">
         <v>60</v>
       </c>
+      <c r="R5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -14756,10 +15128,13 @@
       <c r="Q6" t="s">
         <v>59</v>
       </c>
+      <c r="R6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14809,10 +15184,13 @@
       <c r="Q7" t="s">
         <v>60</v>
       </c>
+      <c r="R7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -14862,10 +15240,13 @@
       <c r="Q8" t="s">
         <v>65</v>
       </c>
+      <c r="R8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -14915,10 +15296,13 @@
       <c r="Q9" t="s">
         <v>65</v>
       </c>
+      <c r="R9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -14968,10 +15352,13 @@
       <c r="Q10" t="s">
         <v>65</v>
       </c>
+      <c r="R10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
         <v>159</v>
@@ -15019,6 +15406,9 @@
         <v>60</v>
       </c>
       <c r="Q11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15082,7 +15472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -15129,7 +15519,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -15176,7 +15566,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -15223,7 +15613,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15270,7 +15660,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -15317,7 +15707,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15364,7 +15754,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15411,7 +15801,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -15458,7 +15848,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -15505,7 +15895,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15587,7 +15977,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -15616,7 +16006,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -15669,7 +16059,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -15722,7 +16112,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -15775,7 +16165,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15828,7 +16218,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -15881,7 +16271,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15934,7 +16324,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15987,7 +16377,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -16040,7 +16430,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -16093,7 +16483,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -17757,7 +18147,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -17799,7 +18189,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="T1" t="s">
         <v>162</v>
@@ -17846,10 +18236,19 @@
       <c r="AH1" t="s">
         <v>39</v>
       </c>
+      <c r="AI1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -17950,10 +18349,19 @@
       <c r="AH2" t="s">
         <v>58</v>
       </c>
+      <c r="AI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -18054,10 +18462,19 @@
       <c r="AH3" t="s">
         <v>58</v>
       </c>
+      <c r="AI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -18158,10 +18575,19 @@
       <c r="AH4" t="s">
         <v>61</v>
       </c>
+      <c r="AI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -18262,10 +18688,19 @@
       <c r="AH5" t="s">
         <v>60</v>
       </c>
+      <c r="AI5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -18366,10 +18801,19 @@
       <c r="AH6" t="s">
         <v>62</v>
       </c>
+      <c r="AI6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18470,10 +18914,19 @@
       <c r="AH7" t="s">
         <v>58</v>
       </c>
+      <c r="AI7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -18574,10 +19027,19 @@
       <c r="AH8" t="s">
         <v>58</v>
       </c>
+      <c r="AI8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -18678,10 +19140,19 @@
       <c r="AH9" t="s">
         <v>58</v>
       </c>
+      <c r="AI9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -18782,10 +19253,19 @@
       <c r="AH10" t="s">
         <v>58</v>
       </c>
+      <c r="AI10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -18886,10 +19366,19 @@
       <c r="AH11" t="s">
         <v>58</v>
       </c>
+      <c r="AI11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -18990,10 +19479,19 @@
       <c r="AH12" t="s">
         <v>58</v>
       </c>
+      <c r="AI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -19094,10 +19592,19 @@
       <c r="AH13" t="s">
         <v>159</v>
       </c>
+      <c r="AI13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -19198,10 +19705,19 @@
       <c r="AH14" t="s">
         <v>58</v>
       </c>
+      <c r="AI14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -19302,10 +19818,19 @@
       <c r="AH15" t="s">
         <v>58</v>
       </c>
+      <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -19406,10 +19931,19 @@
       <c r="AH16" t="s">
         <v>60</v>
       </c>
+      <c r="AI16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -19510,10 +20044,19 @@
       <c r="AH17" t="s">
         <v>159</v>
       </c>
+      <c r="AI17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -19614,10 +20157,19 @@
       <c r="AH18" t="s">
         <v>61</v>
       </c>
+      <c r="AI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
@@ -19718,10 +20270,19 @@
       <c r="AH19" t="s">
         <v>58</v>
       </c>
+      <c r="AI19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -19822,10 +20383,19 @@
       <c r="AH20" t="s">
         <v>62</v>
       </c>
+      <c r="AI20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -19924,6 +20494,15 @@
         <v>60</v>
       </c>
       <c r="AH21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -19952,7 +20531,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -19976,16 +20555,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="O1" t="s">
         <v>160</v>
       </c>
       <c r="P1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q1" t="s">
         <v>161</v>
@@ -20012,7 +20591,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -20036,19 +20615,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AH1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AI1" t="s">
         <v>163</v>
       </c>
       <c r="AJ1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AK1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -20066,7 +20645,7 @@
         <v>134</v>
       </c>
       <c r="AQ1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -20077,10 +20656,13 @@
       <c r="AT1" t="s">
         <v>39</v>
       </c>
+      <c r="AU1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -20217,10 +20799,13 @@
       <c r="AT2" t="s">
         <v>60</v>
       </c>
+      <c r="AU2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -20357,10 +20942,13 @@
       <c r="AT3" t="s">
         <v>62</v>
       </c>
+      <c r="AU3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -20497,10 +21085,13 @@
       <c r="AT4" t="s">
         <v>60</v>
       </c>
+      <c r="AU4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -20637,10 +21228,13 @@
       <c r="AT5" t="s">
         <v>61</v>
       </c>
+      <c r="AU5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -20777,10 +21371,13 @@
       <c r="AT6" t="s">
         <v>58</v>
       </c>
+      <c r="AU6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -20917,10 +21514,13 @@
       <c r="AT7" t="s">
         <v>58</v>
       </c>
+      <c r="AU7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -21057,10 +21657,13 @@
       <c r="AT8" t="s">
         <v>58</v>
       </c>
+      <c r="AU8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -21197,10 +21800,13 @@
       <c r="AT9" t="s">
         <v>58</v>
       </c>
+      <c r="AU9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -21337,10 +21943,13 @@
       <c r="AT10" t="s">
         <v>61</v>
       </c>
+      <c r="AU10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -21477,10 +22086,13 @@
       <c r="AT11" t="s">
         <v>58</v>
       </c>
+      <c r="AU11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -21617,10 +22229,13 @@
       <c r="AT12" t="s">
         <v>60</v>
       </c>
+      <c r="AU12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -21757,10 +22372,13 @@
       <c r="AT13" t="s">
         <v>58</v>
       </c>
+      <c r="AU13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -21897,10 +22515,13 @@
       <c r="AT14" t="s">
         <v>58</v>
       </c>
+      <c r="AU14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -22037,10 +22658,13 @@
       <c r="AT15" t="s">
         <v>58</v>
       </c>
+      <c r="AU15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -22177,10 +22801,13 @@
       <c r="AT16" t="s">
         <v>62</v>
       </c>
+      <c r="AU16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -22317,10 +22944,13 @@
       <c r="AT17" t="s">
         <v>60</v>
       </c>
+      <c r="AU17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -22457,10 +23087,13 @@
       <c r="AT18" t="s">
         <v>60</v>
       </c>
+      <c r="AU18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -22597,10 +23230,13 @@
       <c r="AT19" t="s">
         <v>60</v>
       </c>
+      <c r="AU19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -22737,10 +23373,13 @@
       <c r="AT20" t="s">
         <v>58</v>
       </c>
+      <c r="AU20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -22877,10 +23516,13 @@
       <c r="AT21" t="s">
         <v>58</v>
       </c>
+      <c r="AU21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -23015,12 +23657,15 @@
         <v>60</v>
       </c>
       <c r="AT22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -23156,6 +23801,9 @@
       </c>
       <c r="AT23" t="s">
         <v>58</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -23183,7 +23831,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23275,10 +23923,13 @@
       <c r="AI1" t="s">
         <v>39</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -23382,10 +24033,13 @@
       <c r="AI2" t="s">
         <v>59</v>
       </c>
+      <c r="AJ2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -23489,10 +24143,13 @@
       <c r="AI3" t="s">
         <v>60</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -23596,10 +24253,13 @@
       <c r="AI4" t="s">
         <v>58</v>
       </c>
+      <c r="AJ4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -23703,10 +24363,13 @@
       <c r="AI5" t="s">
         <v>60</v>
       </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -23810,10 +24473,13 @@
       <c r="AI6" t="s">
         <v>58</v>
       </c>
+      <c r="AJ6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -23917,10 +24583,13 @@
       <c r="AI7" t="s">
         <v>60</v>
       </c>
+      <c r="AJ7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -24023,11 +24692,14 @@
       </c>
       <c r="AI8" t="s">
         <v>60</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -24131,10 +24803,13 @@
       <c r="AI9" t="s">
         <v>58</v>
       </c>
+      <c r="AJ9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -24238,10 +24913,13 @@
       <c r="AI10" t="s">
         <v>58</v>
       </c>
+      <c r="AJ10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -24345,10 +25023,13 @@
       <c r="AI11" t="s">
         <v>58</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -24450,12 +25131,15 @@
         <v>63</v>
       </c>
       <c r="AI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -24559,10 +25243,13 @@
       <c r="AI13" t="s">
         <v>59</v>
       </c>
+      <c r="AJ13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -24666,10 +25353,13 @@
       <c r="AI14" t="s">
         <v>59</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -24771,12 +25461,15 @@
         <v>60</v>
       </c>
       <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -24880,10 +25573,13 @@
       <c r="AI16" t="s">
         <v>58</v>
       </c>
+      <c r="AJ16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -24987,10 +25683,13 @@
       <c r="AI17" t="s">
         <v>58</v>
       </c>
+      <c r="AJ17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -25094,10 +25793,13 @@
       <c r="AI18" t="s">
         <v>58</v>
       </c>
+      <c r="AJ18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -25200,11 +25902,14 @@
       </c>
       <c r="AI19" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -25308,10 +26013,13 @@
       <c r="AI20" t="s">
         <v>58</v>
       </c>
+      <c r="AJ20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -25413,6 +26121,9 @@
         <v>58</v>
       </c>
       <c r="AI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -31348,10 +32059,13 @@
       <c r="U1" t="s">
         <v>38</v>
       </c>
+      <c r="V1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -31413,10 +32127,13 @@
       <c r="U2" t="s">
         <v>61</v>
       </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -31478,10 +32195,13 @@
       <c r="U3" t="s">
         <v>59</v>
       </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -31543,10 +32263,13 @@
       <c r="U4" t="s">
         <v>61</v>
       </c>
+      <c r="V4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -31608,10 +32331,13 @@
       <c r="U5" t="s">
         <v>61</v>
       </c>
+      <c r="V5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -31673,10 +32399,13 @@
       <c r="U6" t="s">
         <v>62</v>
       </c>
+      <c r="V6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -31738,10 +32467,13 @@
       <c r="U7" t="s">
         <v>63</v>
       </c>
+      <c r="V7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -31803,10 +32535,13 @@
       <c r="U8" t="s">
         <v>62</v>
       </c>
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -31867,11 +32602,14 @@
       </c>
       <c r="U9" t="s">
         <v>60</v>
+      </c>
+      <c r="V9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -31933,10 +32671,13 @@
       <c r="U10" t="s">
         <v>62</v>
       </c>
+      <c r="V10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -31998,10 +32739,13 @@
       <c r="U11" t="s">
         <v>60</v>
       </c>
+      <c r="V11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -32063,10 +32807,13 @@
       <c r="U12" t="s">
         <v>61</v>
       </c>
+      <c r="V12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
@@ -32128,10 +32875,13 @@
       <c r="U13" t="s">
         <v>60</v>
       </c>
+      <c r="V13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -32193,10 +32943,13 @@
       <c r="U14" t="s">
         <v>59</v>
       </c>
+      <c r="V14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -32258,10 +33011,13 @@
       <c r="U15" t="s">
         <v>60</v>
       </c>
+      <c r="V15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -32323,10 +33079,13 @@
       <c r="U16" t="s">
         <v>59</v>
       </c>
+      <c r="V16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -32388,10 +33147,13 @@
       <c r="U17" t="s">
         <v>61</v>
       </c>
+      <c r="V17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -32452,11 +33214,14 @@
       </c>
       <c r="U18" t="s">
         <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
@@ -32518,10 +33283,13 @@
       <c r="U19" t="s">
         <v>61</v>
       </c>
+      <c r="V19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -32583,10 +33351,13 @@
       <c r="U20" t="s">
         <v>60</v>
       </c>
+      <c r="V20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -32648,10 +33419,13 @@
       <c r="U21" t="s">
         <v>59</v>
       </c>
+      <c r="V21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -32713,10 +33487,13 @@
       <c r="U22" t="s">
         <v>62</v>
       </c>
+      <c r="V22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -32778,10 +33555,13 @@
       <c r="U23" t="s">
         <v>63</v>
       </c>
+      <c r="V23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
@@ -32843,10 +33623,13 @@
       <c r="U24" t="s">
         <v>59</v>
       </c>
+      <c r="V24" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -32907,6 +33690,9 @@
       </c>
       <c r="U25" t="s">
         <v>60</v>
+      </c>
+      <c r="V25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -32937,7 +33723,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -32973,7 +33759,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S1" t="s">
         <v>163</v>
@@ -32987,10 +33773,13 @@
       <c r="V1" t="s">
         <v>38</v>
       </c>
+      <c r="W1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -33055,10 +33844,13 @@
       <c r="V2" t="s">
         <v>61</v>
       </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -33123,10 +33915,13 @@
       <c r="V3" t="s">
         <v>61</v>
       </c>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -33191,10 +33986,13 @@
       <c r="V4" t="s">
         <v>61</v>
       </c>
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -33259,10 +34057,13 @@
       <c r="V5" t="s">
         <v>65</v>
       </c>
+      <c r="W5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -33327,10 +34128,13 @@
       <c r="V6" t="s">
         <v>60</v>
       </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -33395,10 +34199,13 @@
       <c r="V7" t="s">
         <v>60</v>
       </c>
+      <c r="W7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -33463,10 +34270,13 @@
       <c r="V8" t="s">
         <v>60</v>
       </c>
+      <c r="W8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -33531,10 +34341,13 @@
       <c r="V9" t="s">
         <v>61</v>
       </c>
+      <c r="W9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -33599,10 +34412,13 @@
       <c r="V10" t="s">
         <v>62</v>
       </c>
+      <c r="W10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -33667,10 +34483,13 @@
       <c r="V11" t="s">
         <v>62</v>
       </c>
+      <c r="W11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -33735,10 +34554,13 @@
       <c r="V12" t="s">
         <v>65</v>
       </c>
+      <c r="W12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -33803,10 +34625,13 @@
       <c r="V13" t="s">
         <v>60</v>
       </c>
+      <c r="W13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
@@ -33871,10 +34696,13 @@
       <c r="V14" t="s">
         <v>61</v>
       </c>
+      <c r="W14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
@@ -33939,10 +34767,13 @@
       <c r="V15" t="s">
         <v>59</v>
       </c>
+      <c r="W15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -34007,10 +34838,13 @@
       <c r="V16" t="s">
         <v>65</v>
       </c>
+      <c r="W16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -34075,10 +34909,13 @@
       <c r="V17" t="s">
         <v>60</v>
       </c>
+      <c r="W17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -34143,10 +34980,13 @@
       <c r="V18" t="s">
         <v>62</v>
       </c>
+      <c r="W18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -34211,10 +35051,13 @@
       <c r="V19" t="s">
         <v>61</v>
       </c>
+      <c r="W19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -34279,10 +35122,13 @@
       <c r="V20" t="s">
         <v>60</v>
       </c>
+      <c r="W20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
         <v>63</v>
@@ -34347,10 +35193,13 @@
       <c r="V21" t="s">
         <v>65</v>
       </c>
+      <c r="W21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -34415,10 +35264,13 @@
       <c r="V22" t="s">
         <v>62</v>
       </c>
+      <c r="W22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
@@ -34483,10 +35335,13 @@
       <c r="V23" t="s">
         <v>61</v>
       </c>
+      <c r="W23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -34551,10 +35406,13 @@
       <c r="V24" t="s">
         <v>59</v>
       </c>
+      <c r="W24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
@@ -34618,6 +35476,9 @@
       </c>
       <c r="V25" t="s">
         <v>61</v>
+      </c>
+      <c r="W25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -34642,10 +35503,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
         <v>160</v>
@@ -34672,21 +35533,24 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O1" t="s">
         <v>163</v>
       </c>
       <c r="P1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -34736,10 +35600,13 @@
       <c r="Q2" t="s">
         <v>62</v>
       </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -34789,10 +35656,13 @@
       <c r="Q3" t="s">
         <v>60</v>
       </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -34842,10 +35712,13 @@
       <c r="Q4" t="s">
         <v>60</v>
       </c>
+      <c r="R4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -34895,10 +35768,13 @@
       <c r="Q5" t="s">
         <v>60</v>
       </c>
+      <c r="R5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -34948,10 +35824,13 @@
       <c r="Q6" t="s">
         <v>62</v>
       </c>
+      <c r="R6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -35001,10 +35880,13 @@
       <c r="Q7" t="s">
         <v>60</v>
       </c>
+      <c r="R7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -35054,10 +35936,13 @@
       <c r="Q8" t="s">
         <v>60</v>
       </c>
+      <c r="R8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -35107,10 +35992,13 @@
       <c r="Q9" t="s">
         <v>58</v>
       </c>
+      <c r="R9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -35160,10 +36048,13 @@
       <c r="Q10" t="s">
         <v>60</v>
       </c>
+      <c r="R10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -35213,10 +36104,13 @@
       <c r="Q11" t="s">
         <v>59</v>
       </c>
+      <c r="R11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -35266,10 +36160,13 @@
       <c r="Q12" t="s">
         <v>63</v>
       </c>
+      <c r="R12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -35319,10 +36216,13 @@
       <c r="Q13" t="s">
         <v>59</v>
       </c>
+      <c r="R13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -35372,10 +36272,13 @@
       <c r="Q14" t="s">
         <v>62</v>
       </c>
+      <c r="R14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -35425,10 +36328,13 @@
       <c r="Q15" t="s">
         <v>60</v>
       </c>
+      <c r="R15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -35478,10 +36384,13 @@
       <c r="Q16" t="s">
         <v>63</v>
       </c>
+      <c r="R16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -35531,10 +36440,13 @@
       <c r="Q17" t="s">
         <v>60</v>
       </c>
+      <c r="R17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -35584,10 +36496,13 @@
       <c r="Q18" t="s">
         <v>60</v>
       </c>
+      <c r="R18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -35637,10 +36552,13 @@
       <c r="Q19" t="s">
         <v>59</v>
       </c>
+      <c r="R19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -35690,10 +36608,13 @@
       <c r="Q20" t="s">
         <v>59</v>
       </c>
+      <c r="R20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -35743,10 +36664,13 @@
       <c r="Q21" t="s">
         <v>59</v>
       </c>
+      <c r="R21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -35796,10 +36720,13 @@
       <c r="Q22" t="s">
         <v>62</v>
       </c>
+      <c r="R22" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
@@ -35848,11 +36775,14 @@
       </c>
       <c r="Q23" t="s">
         <v>60</v>
+      </c>
+      <c r="R23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -35900,6 +36830,9 @@
         <v>59</v>
       </c>
       <c r="Q24" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" t="s">
         <v>59</v>
       </c>
     </row>
@@ -36008,10 +36941,13 @@
       <c r="AE1" t="s">
         <v>39</v>
       </c>
+      <c r="AF1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -36103,10 +37039,13 @@
       <c r="AE2" t="s">
         <v>58</v>
       </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -36198,10 +37137,13 @@
       <c r="AE3" t="s">
         <v>59</v>
       </c>
+      <c r="AF3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -36293,10 +37235,13 @@
       <c r="AE4" t="s">
         <v>58</v>
       </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -36388,10 +37333,13 @@
       <c r="AE5" t="s">
         <v>58</v>
       </c>
+      <c r="AF5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -36483,10 +37431,13 @@
       <c r="AE6" t="s">
         <v>62</v>
       </c>
+      <c r="AF6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -36578,10 +37529,13 @@
       <c r="AE7" t="s">
         <v>58</v>
       </c>
+      <c r="AF7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -36673,10 +37627,13 @@
       <c r="AE8" t="s">
         <v>59</v>
       </c>
+      <c r="AF8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -36768,10 +37725,13 @@
       <c r="AE9" t="s">
         <v>62</v>
       </c>
+      <c r="AF9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -36863,10 +37823,13 @@
       <c r="AE10" t="s">
         <v>65</v>
       </c>
+      <c r="AF10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -36958,10 +37921,13 @@
       <c r="AE11" t="s">
         <v>62</v>
       </c>
+      <c r="AF11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -37052,11 +38018,14 @@
       </c>
       <c r="AE12" t="s">
         <v>61</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -37148,10 +38117,13 @@
       <c r="AE13" t="s">
         <v>61</v>
       </c>
+      <c r="AF13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -37243,10 +38215,13 @@
       <c r="AE14" t="s">
         <v>58</v>
       </c>
+      <c r="AF14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -37338,10 +38313,13 @@
       <c r="AE15" t="s">
         <v>62</v>
       </c>
+      <c r="AF15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -37433,10 +38411,13 @@
       <c r="AE16" t="s">
         <v>65</v>
       </c>
+      <c r="AF16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -37528,10 +38509,13 @@
       <c r="AE17" t="s">
         <v>60</v>
       </c>
+      <c r="AF17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -37623,10 +38607,13 @@
       <c r="AE18" t="s">
         <v>63</v>
       </c>
+      <c r="AF18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -37718,10 +38705,13 @@
       <c r="AE19" t="s">
         <v>58</v>
       </c>
+      <c r="AF19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -37813,10 +38803,13 @@
       <c r="AE20" t="s">
         <v>63</v>
       </c>
+      <c r="AF20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -37907,6 +38900,9 @@
       </c>
       <c r="AE21" t="s">
         <v>60</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12130" uniqueCount="493">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -945,6 +945,9 @@
   </si>
   <si>
     <t>X2021.09.20</t>
+  </si>
+  <si>
+    <t>X2021.10.28</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -6642,10 +6645,13 @@
       <c r="AE1" t="s">
         <v>242</v>
       </c>
+      <c r="AF1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -6737,10 +6743,13 @@
       <c r="AE2" t="s">
         <v>61</v>
       </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -6832,10 +6841,13 @@
       <c r="AE3" t="s">
         <v>58</v>
       </c>
+      <c r="AF3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -6927,10 +6939,13 @@
       <c r="AE4" t="s">
         <v>60</v>
       </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -7022,10 +7037,13 @@
       <c r="AE5" t="s">
         <v>59</v>
       </c>
+      <c r="AF5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -7116,11 +7134,14 @@
       </c>
       <c r="AE6" t="s">
         <v>63</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -7212,10 +7233,13 @@
       <c r="AE7" t="s">
         <v>58</v>
       </c>
+      <c r="AF7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -7307,10 +7331,13 @@
       <c r="AE8" t="s">
         <v>59</v>
       </c>
+      <c r="AF8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -7402,10 +7429,13 @@
       <c r="AE9" t="s">
         <v>60</v>
       </c>
+      <c r="AF9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -7497,10 +7527,13 @@
       <c r="AE10" t="s">
         <v>63</v>
       </c>
+      <c r="AF10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7592,10 +7625,13 @@
       <c r="AE11" t="s">
         <v>58</v>
       </c>
+      <c r="AF11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -7687,10 +7723,13 @@
       <c r="AE12" t="s">
         <v>58</v>
       </c>
+      <c r="AF12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7782,10 +7821,13 @@
       <c r="AE13" t="s">
         <v>60</v>
       </c>
+      <c r="AF13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -7877,10 +7919,13 @@
       <c r="AE14" t="s">
         <v>58</v>
       </c>
+      <c r="AF14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -7972,10 +8017,13 @@
       <c r="AE15" t="s">
         <v>61</v>
       </c>
+      <c r="AF15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -8067,10 +8115,13 @@
       <c r="AE16" t="s">
         <v>60</v>
       </c>
+      <c r="AF16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -8162,10 +8213,13 @@
       <c r="AE17" t="s">
         <v>58</v>
       </c>
+      <c r="AF17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -8257,10 +8311,13 @@
       <c r="AE18" t="s">
         <v>58</v>
       </c>
+      <c r="AF18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -8352,10 +8409,13 @@
       <c r="AE19" t="s">
         <v>59</v>
       </c>
+      <c r="AF19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -8445,12 +8505,15 @@
         <v>60</v>
       </c>
       <c r="AE20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -8541,6 +8604,9 @@
       </c>
       <c r="AE21" t="s">
         <v>59</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8636,10 +8702,13 @@
       <c r="AA1" t="s">
         <v>242</v>
       </c>
+      <c r="AB1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -8719,10 +8788,13 @@
       <c r="AA2" t="s">
         <v>58</v>
       </c>
+      <c r="AB2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -8802,10 +8874,13 @@
       <c r="AA3" t="s">
         <v>58</v>
       </c>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -8885,10 +8960,13 @@
       <c r="AA4" t="s">
         <v>58</v>
       </c>
+      <c r="AB4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -8968,10 +9046,13 @@
       <c r="AA5" t="s">
         <v>58</v>
       </c>
+      <c r="AB5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -9051,10 +9132,13 @@
       <c r="AA6" t="s">
         <v>58</v>
       </c>
+      <c r="AB6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -9134,10 +9218,13 @@
       <c r="AA7" t="s">
         <v>58</v>
       </c>
+      <c r="AB7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -9217,10 +9304,13 @@
       <c r="AA8" t="s">
         <v>61</v>
       </c>
+      <c r="AB8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -9299,11 +9389,14 @@
       </c>
       <c r="AA9" t="s">
         <v>58</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -9383,10 +9476,13 @@
       <c r="AA10" t="s">
         <v>58</v>
       </c>
+      <c r="AB10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -9466,10 +9562,13 @@
       <c r="AA11" t="s">
         <v>58</v>
       </c>
+      <c r="AB11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -9549,10 +9648,13 @@
       <c r="AA12" t="s">
         <v>58</v>
       </c>
+      <c r="AB12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -9632,10 +9734,13 @@
       <c r="AA13" t="s">
         <v>59</v>
       </c>
+      <c r="AB13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -9715,10 +9820,13 @@
       <c r="AA14" t="s">
         <v>58</v>
       </c>
+      <c r="AB14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -9798,10 +9906,13 @@
       <c r="AA15" t="s">
         <v>58</v>
       </c>
+      <c r="AB15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -9881,10 +9992,13 @@
       <c r="AA16" t="s">
         <v>58</v>
       </c>
+      <c r="AB16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -9964,10 +10078,13 @@
       <c r="AA17" t="s">
         <v>58</v>
       </c>
+      <c r="AB17" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -10047,10 +10164,13 @@
       <c r="AA18" t="s">
         <v>58</v>
       </c>
+      <c r="AB18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -10130,10 +10250,13 @@
       <c r="AA19" t="s">
         <v>58</v>
       </c>
+      <c r="AB19" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -10213,10 +10336,13 @@
       <c r="AA20" t="s">
         <v>61</v>
       </c>
+      <c r="AB20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -10295,6 +10421,9 @@
       </c>
       <c r="AA21" t="s">
         <v>59</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -10396,7 +10525,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -10482,7 +10611,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -10568,7 +10697,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -10654,7 +10783,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -10740,7 +10869,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -10826,7 +10955,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -10912,7 +11041,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10998,7 +11127,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -11084,7 +11213,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -11170,7 +11299,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -11256,7 +11385,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -11342,7 +11471,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -11428,7 +11557,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -11514,7 +11643,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -11600,7 +11729,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -11686,7 +11815,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -11772,7 +11901,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -11858,7 +11987,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -11967,7 +12096,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -12059,7 +12188,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -12163,7 +12292,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -12267,7 +12396,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12371,7 +12500,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -12475,7 +12604,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -12579,7 +12708,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -12683,7 +12812,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12787,7 +12916,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -12891,7 +13020,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -12995,7 +13124,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -13099,7 +13228,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -13203,7 +13332,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -13307,7 +13436,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -13411,7 +13540,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -13515,7 +13644,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -13619,7 +13748,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -13723,7 +13852,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -13827,7 +13956,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -14007,7 +14136,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -14072,7 +14201,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -14137,7 +14266,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -14202,7 +14331,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -14267,7 +14396,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -14332,7 +14461,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14397,7 +14526,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -14462,7 +14591,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14527,7 +14656,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -14592,7 +14721,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -14657,7 +14786,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -14722,7 +14851,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
         <v>61</v>
@@ -14816,7 +14945,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -14854,7 +14983,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -14910,7 +15039,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14966,7 +15095,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -15022,7 +15151,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>159</v>
@@ -15078,7 +15207,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -15134,7 +15263,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -15190,7 +15319,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -15246,7 +15375,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -15302,7 +15431,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -15358,7 +15487,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s">
         <v>159</v>
@@ -15472,7 +15601,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -15519,7 +15648,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -15566,7 +15695,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -15613,7 +15742,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15660,7 +15789,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -15707,7 +15836,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15754,7 +15883,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15801,7 +15930,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -15848,7 +15977,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -15895,7 +16024,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -16006,7 +16135,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -16059,7 +16188,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -16112,7 +16241,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -16165,7 +16294,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -16218,7 +16347,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -16271,7 +16400,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -16324,7 +16453,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -16377,7 +16506,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -16430,7 +16559,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -16483,7 +16612,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -18245,10 +18374,13 @@
       <c r="AK1" t="s">
         <v>242</v>
       </c>
+      <c r="AL1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -18358,10 +18490,13 @@
       <c r="AK2" t="s">
         <v>58</v>
       </c>
+      <c r="AL2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -18471,10 +18606,13 @@
       <c r="AK3" t="s">
         <v>58</v>
       </c>
+      <c r="AL3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -18584,10 +18722,13 @@
       <c r="AK4" t="s">
         <v>58</v>
       </c>
+      <c r="AL4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -18697,10 +18838,13 @@
       <c r="AK5" t="s">
         <v>63</v>
       </c>
+      <c r="AL5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -18810,10 +18954,13 @@
       <c r="AK6" t="s">
         <v>62</v>
       </c>
+      <c r="AL6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18923,10 +19070,13 @@
       <c r="AK7" t="s">
         <v>58</v>
       </c>
+      <c r="AL7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -19036,10 +19186,13 @@
       <c r="AK8" t="s">
         <v>58</v>
       </c>
+      <c r="AL8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -19149,10 +19302,13 @@
       <c r="AK9" t="s">
         <v>58</v>
       </c>
+      <c r="AL9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -19262,10 +19418,13 @@
       <c r="AK10" t="s">
         <v>58</v>
       </c>
+      <c r="AL10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -19375,10 +19534,13 @@
       <c r="AK11" t="s">
         <v>58</v>
       </c>
+      <c r="AL11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -19488,10 +19650,13 @@
       <c r="AK12" t="s">
         <v>58</v>
       </c>
+      <c r="AL12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -19601,10 +19766,13 @@
       <c r="AK13" t="s">
         <v>58</v>
       </c>
+      <c r="AL13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -19714,10 +19882,13 @@
       <c r="AK14" t="s">
         <v>59</v>
       </c>
+      <c r="AL14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -19827,10 +19998,13 @@
       <c r="AK15" t="s">
         <v>65</v>
       </c>
+      <c r="AL15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -19940,10 +20114,13 @@
       <c r="AK16" t="s">
         <v>65</v>
       </c>
+      <c r="AL16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -20053,10 +20230,13 @@
       <c r="AK17" t="s">
         <v>59</v>
       </c>
+      <c r="AL17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -20166,10 +20346,13 @@
       <c r="AK18" t="s">
         <v>58</v>
       </c>
+      <c r="AL18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
@@ -20279,10 +20462,13 @@
       <c r="AK19" t="s">
         <v>62</v>
       </c>
+      <c r="AL19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -20392,10 +20578,13 @@
       <c r="AK20" t="s">
         <v>63</v>
       </c>
+      <c r="AL20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -20503,6 +20692,9 @@
         <v>66</v>
       </c>
       <c r="AK21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -20558,13 +20750,13 @@
         <v>215</v>
       </c>
       <c r="N1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O1" t="s">
         <v>160</v>
       </c>
       <c r="P1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q1" t="s">
         <v>161</v>
@@ -20615,7 +20807,7 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AH1" t="s">
         <v>190</v>
@@ -20624,10 +20816,10 @@
         <v>163</v>
       </c>
       <c r="AJ1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -20645,7 +20837,7 @@
         <v>134</v>
       </c>
       <c r="AQ1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -20662,7 +20854,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -20805,7 +20997,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -20948,7 +21140,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -21091,7 +21283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -21234,7 +21426,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -21377,7 +21569,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -21520,7 +21712,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -21663,7 +21855,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -21806,7 +21998,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -21949,7 +22141,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -22092,7 +22284,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -22235,7 +22427,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -22378,7 +22570,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -22521,7 +22713,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -22664,7 +22856,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -22807,7 +22999,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -22950,7 +23142,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -23093,7 +23285,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -23236,7 +23428,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -23379,7 +23571,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -23522,7 +23714,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -23665,7 +23857,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -23929,7 +24121,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -24039,7 +24231,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -24149,7 +24341,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -24259,7 +24451,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -24369,7 +24561,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -24479,7 +24671,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -24589,7 +24781,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -24699,7 +24891,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -24809,7 +25001,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -24919,7 +25111,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -25029,7 +25221,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -25139,7 +25331,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -25249,7 +25441,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -25359,7 +25551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -25469,7 +25661,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -25579,7 +25771,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -25689,7 +25881,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -25799,7 +25991,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -25909,7 +26101,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -26019,7 +26211,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14203" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14406" uniqueCount="507">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -557,6 +557,12 @@
     <t>X2021.10.26</t>
   </si>
   <si>
+    <t>X2021.11.12</t>
+  </si>
+  <si>
+    <t>X2021.11.13</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -717,6 +723,9 @@
   </si>
   <si>
     <t>X2021.10.12</t>
+  </si>
+  <si>
+    <t>X2021.11.09</t>
   </si>
   <si>
     <t>Aldershot</t>
@@ -4329,25 +4338,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J1" t="s">
         <v>136</v>
@@ -4359,7 +4368,7 @@
         <v>111</v>
       </c>
       <c r="M1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4401,7 +4410,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4415,7 +4424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -4507,7 +4516,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -4599,7 +4608,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -4691,7 +4700,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -4783,7 +4792,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -4875,7 +4884,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -4967,7 +4976,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -5059,7 +5068,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -5151,7 +5160,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -5243,7 +5252,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -5335,7 +5344,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -5427,7 +5436,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -5519,7 +5528,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -5611,7 +5620,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -5703,7 +5712,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
@@ -5795,7 +5804,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -5887,7 +5896,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -5979,7 +5988,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -6071,7 +6080,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -6163,7 +6172,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -6337,7 +6346,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -6408,7 +6417,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -6479,7 +6488,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -6550,7 +6559,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -6621,7 +6630,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -6692,7 +6701,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -6763,7 +6772,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -6834,7 +6843,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -6905,7 +6914,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -6976,7 +6985,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -7047,7 +7056,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -7118,7 +7127,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -7189,7 +7198,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -7260,7 +7269,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -7381,7 +7390,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O1" t="s">
         <v>171</v>
@@ -7432,10 +7441,10 @@
         <v>173</v>
       </c>
       <c r="AE1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AF1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -7458,7 +7467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -7574,7 +7583,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -7690,7 +7699,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -7806,7 +7815,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -7922,7 +7931,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -8038,7 +8047,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -8154,7 +8163,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -8270,7 +8279,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -8386,7 +8395,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -8502,7 +8511,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -8618,7 +8627,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -8734,7 +8743,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -8850,7 +8859,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -8966,7 +8975,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -9082,7 +9091,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -9198,7 +9207,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -9314,7 +9323,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
         <v>66</v>
@@ -9430,7 +9439,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -9546,7 +9555,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -9662,7 +9671,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -9828,7 +9837,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O1" t="s">
         <v>171</v>
@@ -9867,10 +9876,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AB1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AC1" t="s">
         <v>114</v>
@@ -9887,7 +9896,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -9985,7 +9994,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -10083,7 +10092,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -10181,7 +10190,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -10279,7 +10288,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -10377,7 +10386,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -10475,7 +10484,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -10573,7 +10582,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -10671,7 +10680,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -10769,7 +10778,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -10867,7 +10876,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -10965,7 +10974,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -11063,7 +11072,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -11161,7 +11170,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -11259,7 +11268,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -11357,7 +11366,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -11455,7 +11464,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -11553,7 +11562,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -11651,7 +11660,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -11749,7 +11758,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -11959,7 +11968,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -12060,7 +12069,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -12161,7 +12170,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -12262,7 +12271,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -12363,7 +12372,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -12464,7 +12473,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -12565,7 +12574,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -12666,7 +12675,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -12767,7 +12776,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -12868,7 +12877,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -12969,7 +12978,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -13070,7 +13079,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -13171,7 +13180,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -13272,7 +13281,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -13373,7 +13382,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -13474,7 +13483,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -13575,7 +13584,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -13676,7 +13685,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -13800,7 +13809,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -13812,7 +13821,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -13854,7 +13863,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -13887,7 +13896,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -13913,7 +13922,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -14038,7 +14047,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -14163,7 +14172,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -14288,7 +14297,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -14413,7 +14422,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -14538,7 +14547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -14663,7 +14672,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -14788,7 +14797,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -14913,7 +14922,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -15038,7 +15047,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -15163,7 +15172,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -15288,7 +15297,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -15413,7 +15422,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -15538,7 +15547,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -15663,7 +15672,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -15788,7 +15797,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -15913,7 +15922,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -16038,7 +16047,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -16234,7 +16243,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -16251,7 +16260,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -16328,7 +16337,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -16405,7 +16414,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -16482,7 +16491,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -16559,7 +16568,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -16636,7 +16645,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -16713,7 +16722,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -16790,7 +16799,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -16867,7 +16876,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -16944,7 +16953,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -17021,7 +17030,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -17098,7 +17107,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -17192,7 +17201,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -17204,7 +17213,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -17244,11 +17253,14 @@
       </c>
       <c r="T1" t="s">
         <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -17305,12 +17317,15 @@
         <v>72</v>
       </c>
       <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -17367,12 +17382,15 @@
         <v>66</v>
       </c>
       <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -17430,11 +17448,14 @@
       </c>
       <c r="T4" t="s">
         <v>67</v>
+      </c>
+      <c r="U4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -17492,11 +17513,14 @@
       </c>
       <c r="T5" t="s">
         <v>65</v>
+      </c>
+      <c r="U5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -17554,11 +17578,14 @@
       </c>
       <c r="T6" t="s">
         <v>67</v>
+      </c>
+      <c r="U6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -17616,11 +17643,14 @@
       </c>
       <c r="T7" t="s">
         <v>69</v>
+      </c>
+      <c r="U7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -17678,11 +17708,14 @@
       </c>
       <c r="T8" t="s">
         <v>67</v>
+      </c>
+      <c r="U8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -17740,11 +17773,14 @@
       </c>
       <c r="T9" t="s">
         <v>69</v>
+      </c>
+      <c r="U9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -17801,12 +17837,15 @@
         <v>67</v>
       </c>
       <c r="T10" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -17864,6 +17903,9 @@
       </c>
       <c r="T11" t="s">
         <v>65</v>
+      </c>
+      <c r="U11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -17929,10 +17971,13 @@
       <c r="Q1" t="s">
         <v>44</v>
       </c>
+      <c r="R1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -17981,11 +18026,14 @@
       </c>
       <c r="Q2" t="s">
         <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -18034,11 +18082,14 @@
       </c>
       <c r="Q3" t="s">
         <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -18087,11 +18138,14 @@
       </c>
       <c r="Q4" t="s">
         <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -18140,11 +18194,14 @@
       </c>
       <c r="Q5" t="s">
         <v>71</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -18193,11 +18250,14 @@
       </c>
       <c r="Q6" t="s">
         <v>65</v>
+      </c>
+      <c r="R6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -18246,11 +18306,14 @@
       </c>
       <c r="Q7" t="s">
         <v>65</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -18299,11 +18362,14 @@
       </c>
       <c r="Q8" t="s">
         <v>65</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -18352,11 +18418,14 @@
       </c>
       <c r="Q9" t="s">
         <v>71</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -18405,11 +18474,14 @@
       </c>
       <c r="Q10" t="s">
         <v>67</v>
+      </c>
+      <c r="R10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -18458,6 +18530,9 @@
       </c>
       <c r="Q11" t="s">
         <v>65</v>
+      </c>
+      <c r="R11" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -18497,7 +18572,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -18531,11 +18606,20 @@
       </c>
       <c r="T1" t="s">
         <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>230</v>
+      </c>
+      <c r="V1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -18593,11 +18677,20 @@
       </c>
       <c r="T2" t="s">
         <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -18655,11 +18748,20 @@
       </c>
       <c r="T3" t="s">
         <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -18716,12 +18818,21 @@
         <v>64</v>
       </c>
       <c r="T4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -18778,12 +18889,21 @@
         <v>67</v>
       </c>
       <c r="T5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -18841,11 +18961,20 @@
       </c>
       <c r="T6" t="s">
         <v>66</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -18903,11 +19032,20 @@
       </c>
       <c r="T7" t="s">
         <v>66</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -18964,12 +19102,21 @@
         <v>64</v>
       </c>
       <c r="T8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -19027,11 +19174,20 @@
       </c>
       <c r="T9" t="s">
         <v>67</v>
+      </c>
+      <c r="U9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -19089,11 +19245,20 @@
       </c>
       <c r="T10" t="s">
         <v>67</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -19151,6 +19316,15 @@
       </c>
       <c r="T11" t="s">
         <v>67</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>67</v>
+      </c>
+      <c r="W11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -21108,7 +21282,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -21150,7 +21324,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="T1" t="s">
         <v>171</v>
@@ -21198,16 +21372,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AJ1" t="s">
         <v>173</v>
       </c>
       <c r="AK1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AL1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -21230,7 +21404,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -21364,7 +21538,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -21498,7 +21672,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -21632,7 +21806,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -21766,7 +21940,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -21900,7 +22074,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -22034,7 +22208,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -22168,7 +22342,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -22302,7 +22476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -22436,7 +22610,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -22570,7 +22744,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -22704,7 +22878,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -22838,7 +23012,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -22972,7 +23146,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -23106,7 +23280,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -23240,7 +23414,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -23374,7 +23548,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -23508,7 +23682,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -23642,7 +23816,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -23776,7 +23950,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -23933,7 +24107,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23957,16 +24131,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="O1" t="s">
         <v>169</v>
       </c>
       <c r="P1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q1" t="s">
         <v>170</v>
@@ -23993,7 +24167,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -24017,19 +24191,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AH1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AI1" t="s">
         <v>172</v>
       </c>
       <c r="AJ1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AK1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -24047,7 +24221,7 @@
         <v>142</v>
       </c>
       <c r="AQ1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -24059,7 +24233,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -24080,7 +24254,7 @@
         <v>144</v>
       </c>
       <c r="BB1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -24092,12 +24266,12 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -24273,7 +24447,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -24449,7 +24623,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -24625,7 +24799,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -24801,7 +24975,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -24977,7 +25151,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -25153,7 +25327,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -25329,7 +25503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -25505,7 +25679,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -25681,7 +25855,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -25857,7 +26031,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -26033,7 +26207,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -26209,7 +26383,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -26385,7 +26559,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -26561,7 +26735,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -26737,7 +26911,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -26913,7 +27087,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -27089,7 +27263,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -27265,7 +27439,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -27441,7 +27615,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -27617,7 +27791,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -27793,7 +27967,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -27992,7 +28166,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -28085,7 +28259,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -28111,7 +28285,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -28242,7 +28416,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -28373,7 +28547,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -28504,7 +28678,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -28635,7 +28809,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -28766,7 +28940,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -28897,7 +29071,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -29028,7 +29202,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -29159,7 +29333,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -29290,7 +29464,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -29421,7 +29595,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -29552,7 +29726,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -29683,7 +29857,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -29814,7 +29988,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -29945,7 +30119,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -30076,7 +30250,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -30207,7 +30381,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B18" t="s">
         <v>66</v>
@@ -30338,7 +30512,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -30469,7 +30643,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -30600,7 +30774,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -37765,10 +37939,16 @@
       <c r="X1" t="s">
         <v>143</v>
       </c>
+      <c r="Y1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -37838,11 +38018,17 @@
       </c>
       <c r="X2" t="s">
         <v>64</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -37911,12 +38097,18 @@
         <v>69</v>
       </c>
       <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -37985,12 +38177,18 @@
         <v>69</v>
       </c>
       <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -38060,11 +38258,17 @@
       </c>
       <c r="X5" t="s">
         <v>64</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -38134,11 +38338,17 @@
       </c>
       <c r="X6" t="s">
         <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -38208,11 +38418,17 @@
       </c>
       <c r="X7" t="s">
         <v>65</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -38282,11 +38498,17 @@
       </c>
       <c r="X8" t="s">
         <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -38356,11 +38578,17 @@
       </c>
       <c r="X9" t="s">
         <v>65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -38430,11 +38658,17 @@
       </c>
       <c r="X10" t="s">
         <v>65</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -38504,11 +38738,17 @@
       </c>
       <c r="X11" t="s">
         <v>68</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -38578,11 +38818,17 @@
       </c>
       <c r="X12" t="s">
         <v>64</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -38652,11 +38898,17 @@
       </c>
       <c r="X13" t="s">
         <v>68</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -38725,12 +38977,18 @@
         <v>65</v>
       </c>
       <c r="X14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -38800,11 +39058,17 @@
       </c>
       <c r="X15" t="s">
         <v>64</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -38874,11 +39138,17 @@
       </c>
       <c r="X16" t="s">
         <v>65</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -38948,11 +39218,17 @@
       </c>
       <c r="X17" t="s">
         <v>64</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -39022,11 +39298,17 @@
       </c>
       <c r="X18" t="s">
         <v>64</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -39096,11 +39378,17 @@
       </c>
       <c r="X19" t="s">
         <v>65</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -39170,11 +39458,17 @@
       </c>
       <c r="X20" t="s">
         <v>65</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -39244,11 +39538,17 @@
       </c>
       <c r="X21" t="s">
         <v>66</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
@@ -39317,12 +39617,18 @@
         <v>65</v>
       </c>
       <c r="X22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
@@ -39392,11 +39698,17 @@
       </c>
       <c r="X23" t="s">
         <v>66</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
@@ -39466,11 +39778,17 @@
       </c>
       <c r="X24" t="s">
         <v>68</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -39540,6 +39858,12 @@
       </c>
       <c r="X25" t="s">
         <v>68</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -39570,7 +39894,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -39606,7 +39930,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="S1" t="s">
         <v>172</v>
@@ -39625,11 +39949,17 @@
       </c>
       <c r="X1" t="s">
         <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -39699,11 +40029,17 @@
       </c>
       <c r="X2" t="s">
         <v>66</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -39772,12 +40108,18 @@
         <v>64</v>
       </c>
       <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -39847,11 +40189,17 @@
       </c>
       <c r="X4" t="s">
         <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -39921,11 +40269,17 @@
       </c>
       <c r="X5" t="s">
         <v>66</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -39995,11 +40349,17 @@
       </c>
       <c r="X6" t="s">
         <v>66</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -40069,11 +40429,17 @@
       </c>
       <c r="X7" t="s">
         <v>68</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -40142,12 +40508,18 @@
         <v>64</v>
       </c>
       <c r="X8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -40217,11 +40589,17 @@
       </c>
       <c r="X9" t="s">
         <v>65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -40291,11 +40669,17 @@
       </c>
       <c r="X10" t="s">
         <v>69</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -40365,11 +40749,17 @@
       </c>
       <c r="X11" t="s">
         <v>68</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -40439,11 +40829,17 @@
       </c>
       <c r="X12" t="s">
         <v>68</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -40513,11 +40909,17 @@
       </c>
       <c r="X13" t="s">
         <v>65</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -40587,11 +40989,17 @@
       </c>
       <c r="X14" t="s">
         <v>68</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -40660,12 +41068,18 @@
         <v>64</v>
       </c>
       <c r="X15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -40735,11 +41149,17 @@
       </c>
       <c r="X16" t="s">
         <v>67</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -40809,11 +41229,17 @@
       </c>
       <c r="X17" t="s">
         <v>68</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -40883,11 +41309,17 @@
       </c>
       <c r="X18" t="s">
         <v>66</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -40957,11 +41389,17 @@
       </c>
       <c r="X19" t="s">
         <v>66</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -41031,11 +41469,17 @@
       </c>
       <c r="X20" t="s">
         <v>66</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
@@ -41105,11 +41549,17 @@
       </c>
       <c r="X21" t="s">
         <v>68</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
@@ -41178,12 +41628,18 @@
         <v>67</v>
       </c>
       <c r="X22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -41253,11 +41709,17 @@
       </c>
       <c r="X23" t="s">
         <v>67</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
@@ -41327,11 +41789,17 @@
       </c>
       <c r="X24" t="s">
         <v>65</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -41401,6 +41869,12 @@
       </c>
       <c r="X25" t="s">
         <v>69</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -41425,10 +41899,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
         <v>169</v>
@@ -41455,13 +41929,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O1" t="s">
         <v>172</v>
       </c>
       <c r="P1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -41474,11 +41948,17 @@
       </c>
       <c r="T1" t="s">
         <v>143</v>
+      </c>
+      <c r="U1" t="s">
+        <v>230</v>
+      </c>
+      <c r="V1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -41536,11 +42016,17 @@
       </c>
       <c r="T2" t="s">
         <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -41598,11 +42084,17 @@
       </c>
       <c r="T3" t="s">
         <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -41660,11 +42152,17 @@
       </c>
       <c r="T4" t="s">
         <v>64</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -41722,11 +42220,17 @@
       </c>
       <c r="T5" t="s">
         <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -41783,12 +42287,18 @@
         <v>71</v>
       </c>
       <c r="T6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -41846,11 +42356,17 @@
       </c>
       <c r="T7" t="s">
         <v>64</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -41908,11 +42424,17 @@
       </c>
       <c r="T8" t="s">
         <v>64</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -41970,11 +42492,17 @@
       </c>
       <c r="T9" t="s">
         <v>68</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -42032,11 +42560,17 @@
       </c>
       <c r="T10" t="s">
         <v>64</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -42094,11 +42628,17 @@
       </c>
       <c r="T11" t="s">
         <v>64</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -42155,12 +42695,18 @@
         <v>71</v>
       </c>
       <c r="T12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -42218,11 +42764,17 @@
       </c>
       <c r="T13" t="s">
         <v>64</v>
+      </c>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
@@ -42280,11 +42832,17 @@
       </c>
       <c r="T14" t="s">
         <v>64</v>
+      </c>
+      <c r="U14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -42342,11 +42900,17 @@
       </c>
       <c r="T15" t="s">
         <v>64</v>
+      </c>
+      <c r="U15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -42404,11 +42968,17 @@
       </c>
       <c r="T16" t="s">
         <v>64</v>
+      </c>
+      <c r="U16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -42466,11 +43036,17 @@
       </c>
       <c r="T17" t="s">
         <v>68</v>
+      </c>
+      <c r="U17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -42528,11 +43104,17 @@
       </c>
       <c r="T18" t="s">
         <v>64</v>
+      </c>
+      <c r="U18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -42590,11 +43172,17 @@
       </c>
       <c r="T19" t="s">
         <v>64</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
@@ -42652,11 +43240,17 @@
       </c>
       <c r="T20" t="s">
         <v>64</v>
+      </c>
+      <c r="U20" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -42714,11 +43308,17 @@
       </c>
       <c r="T21" t="s">
         <v>64</v>
+      </c>
+      <c r="U21" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
@@ -42775,12 +43375,18 @@
         <v>68</v>
       </c>
       <c r="T22" t="s">
+        <v>65</v>
+      </c>
+      <c r="U22" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -42838,11 +43444,17 @@
       </c>
       <c r="T23" t="s">
         <v>64</v>
+      </c>
+      <c r="U23" t="s">
+        <v>68</v>
+      </c>
+      <c r="V23" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
@@ -42900,6 +43512,12 @@
       </c>
       <c r="T24" t="s">
         <v>64</v>
+      </c>
+      <c r="U24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -43008,7 +43626,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -43031,7 +43649,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -43147,7 +43765,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -43263,7 +43881,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -43379,7 +43997,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -43495,7 +44113,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -43611,7 +44229,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -43727,7 +44345,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -43843,7 +44461,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -43959,7 +44577,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -44075,7 +44693,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -44191,7 +44809,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -44307,7 +44925,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -44423,7 +45041,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -44539,7 +45157,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -44655,7 +45273,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -44771,7 +45389,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -44887,7 +45505,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -45003,7 +45621,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -45119,7 +45737,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -45235,7 +45853,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15458" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15625" uniqueCount="515">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -323,6 +323,9 @@
     <t>Wolfsburg</t>
   </si>
   <si>
+    <t>X2021.11.24</t>
+  </si>
+  <si>
     <t>Darmstadt</t>
   </si>
   <si>
@@ -477,6 +480,9 @@
   </si>
   <si>
     <t>X2021.11.03</t>
+  </si>
+  <si>
+    <t>X2021.11.23</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -4527,37 +4533,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4569,13 +4575,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -4584,7 +4590,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -4593,19 +4599,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -4614,12 +4620,12 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -4717,7 +4723,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -4815,7 +4821,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -4913,7 +4919,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -5011,7 +5017,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -5109,7 +5115,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -5207,7 +5213,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -5305,7 +5311,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -5403,7 +5409,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -5501,7 +5507,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -5599,7 +5605,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -5697,7 +5703,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -5795,7 +5801,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -5893,7 +5899,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -5991,7 +5997,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -6089,7 +6095,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -6187,7 +6193,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -6285,7 +6291,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -6383,7 +6389,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -6481,7 +6487,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -6620,7 +6626,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -6635,7 +6641,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -6650,7 +6656,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -6667,7 +6673,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -6744,7 +6750,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -6821,7 +6827,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -6898,7 +6904,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -6975,7 +6981,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -7052,7 +7058,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -7129,7 +7135,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -7206,7 +7212,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -7283,7 +7289,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -7360,7 +7366,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -7437,7 +7443,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -7514,7 +7520,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -7591,7 +7597,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -7668,7 +7674,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -7765,7 +7771,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -7795,10 +7801,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -7813,7 +7819,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -7831,7 +7837,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -7843,13 +7849,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AE1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -7858,7 +7864,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -7876,12 +7882,12 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -8006,7 +8012,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -8131,7 +8137,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -8256,7 +8262,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -8381,7 +8387,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -8506,7 +8512,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -8631,7 +8637,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -8756,7 +8762,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -8881,7 +8887,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -9006,7 +9012,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -9131,7 +9137,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -9256,7 +9262,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -9381,7 +9387,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -9506,7 +9512,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -9631,7 +9637,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -9756,7 +9762,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -9881,7 +9887,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -10006,7 +10012,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -10131,7 +10137,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -10256,7 +10262,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -10431,10 +10437,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -10470,13 +10476,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AB1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AC1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -10496,7 +10502,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -10600,7 +10606,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -10704,7 +10710,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -10808,7 +10814,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -10912,7 +10918,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -11016,7 +11022,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -11120,7 +11126,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -11224,7 +11230,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -11328,7 +11334,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -11432,7 +11438,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -11536,7 +11542,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -11640,7 +11646,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -11744,7 +11750,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -11848,7 +11854,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -11952,7 +11958,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -12056,7 +12062,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -12160,7 +12166,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -12264,7 +12270,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -12368,7 +12374,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -12472,7 +12478,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -12632,7 +12638,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -12694,7 +12700,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -12801,7 +12807,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -12908,7 +12914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -13015,7 +13021,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -13122,7 +13128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -13229,7 +13235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -13336,7 +13342,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -13443,7 +13449,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -13550,7 +13556,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -13657,7 +13663,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -13764,7 +13770,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -13871,7 +13877,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -13978,7 +13984,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -14085,7 +14091,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -14192,7 +14198,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -14299,7 +14305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -14406,7 +14412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -14513,7 +14519,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -14643,7 +14649,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -14655,7 +14661,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -14667,7 +14673,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -14697,7 +14703,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -14709,7 +14715,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -14730,7 +14736,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -14742,7 +14748,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -14756,7 +14762,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -14881,7 +14887,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -15006,7 +15012,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -15131,7 +15137,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -15256,7 +15262,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -15381,7 +15387,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -15506,7 +15512,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -15631,7 +15637,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -15756,7 +15762,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -15881,7 +15887,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -16006,7 +16012,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -16131,7 +16137,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -16256,7 +16262,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -16381,7 +16387,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -16506,7 +16512,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -16631,7 +16637,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -16756,7 +16762,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -16881,7 +16887,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -17077,7 +17083,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -17093,11 +17099,14 @@
       </c>
       <c r="Z1" t="s">
         <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -17173,11 +17182,14 @@
       </c>
       <c r="Z2" t="s">
         <v>72</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -17252,12 +17264,15 @@
         <v>75</v>
       </c>
       <c r="Z3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -17332,12 +17347,15 @@
         <v>75</v>
       </c>
       <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -17413,11 +17431,14 @@
       </c>
       <c r="Z5" t="s">
         <v>72</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -17493,11 +17514,14 @@
       </c>
       <c r="Z6" t="s">
         <v>68</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -17573,11 +17597,14 @@
       </c>
       <c r="Z7" t="s">
         <v>67</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -17653,11 +17680,14 @@
       </c>
       <c r="Z8" t="s">
         <v>68</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -17733,11 +17763,14 @@
       </c>
       <c r="Z9" t="s">
         <v>68</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -17812,12 +17845,15 @@
         <v>75</v>
       </c>
       <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -17893,11 +17929,14 @@
       </c>
       <c r="Z11" t="s">
         <v>67</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -17972,12 +18011,15 @@
         <v>67</v>
       </c>
       <c r="Z12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -18053,6 +18095,9 @@
       </c>
       <c r="Z13" t="s">
         <v>68</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -18074,7 +18119,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -18086,7 +18131,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -18104,7 +18149,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -18119,7 +18164,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -18128,7 +18173,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -18139,7 +18184,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -18210,7 +18255,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -18281,7 +18326,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -18352,7 +18397,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -18423,7 +18468,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -18494,7 +18539,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -18565,7 +18610,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -18636,7 +18681,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -18707,7 +18752,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -18778,7 +18823,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -18881,7 +18926,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -18911,7 +18956,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -18919,7 +18964,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -18978,7 +19023,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -19037,7 +19082,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -19096,7 +19141,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -19155,7 +19200,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -19214,7 +19259,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -19273,7 +19318,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -19332,7 +19377,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -19391,7 +19436,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -19450,7 +19495,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -19544,7 +19589,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -19580,21 +19625,24 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -19664,11 +19712,14 @@
       </c>
       <c r="X2" t="s">
         <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -19738,11 +19789,14 @@
       </c>
       <c r="X3" t="s">
         <v>68</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -19812,11 +19866,14 @@
       </c>
       <c r="X4" t="s">
         <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -19886,11 +19943,14 @@
       </c>
       <c r="X5" t="s">
         <v>69</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -19960,11 +20020,14 @@
       </c>
       <c r="X6" t="s">
         <v>72</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -20034,11 +20097,14 @@
       </c>
       <c r="X7" t="s">
         <v>69</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -20108,11 +20174,14 @@
       </c>
       <c r="X8" t="s">
         <v>68</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -20182,11 +20251,14 @@
       </c>
       <c r="X9" t="s">
         <v>68</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -20256,11 +20328,14 @@
       </c>
       <c r="X10" t="s">
         <v>69</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -20330,6 +20405,9 @@
       </c>
       <c r="X11" t="s">
         <v>72</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -22458,7 +22536,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -22470,7 +22548,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -22500,10 +22578,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="T1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -22518,7 +22596,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -22536,7 +22614,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -22548,16 +22626,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AJ1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AK1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -22566,7 +22644,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -22587,12 +22665,12 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -22738,7 +22816,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -22884,7 +22962,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -23030,7 +23108,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -23176,7 +23254,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -23322,7 +23400,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -23468,7 +23546,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -23614,7 +23692,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -23760,7 +23838,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -23906,7 +23984,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -24052,7 +24130,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -24198,7 +24276,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -24344,7 +24422,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -24490,7 +24568,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -24636,7 +24714,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -24782,7 +24860,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -24928,7 +25006,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -25074,7 +25152,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -25220,7 +25298,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -25366,7 +25444,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -25535,7 +25613,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -25547,7 +25625,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -25559,19 +25637,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -25595,7 +25673,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -25607,7 +25685,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -25619,19 +25697,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AH1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AI1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AK1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -25643,13 +25721,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AQ1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -25661,7 +25739,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -25673,16 +25751,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AZ1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BA1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BB1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -25694,19 +25772,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="BG1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BH1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BI1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="BJ1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -25718,12 +25796,12 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -25923,7 +26001,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -26123,7 +26201,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -26323,7 +26401,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -26523,7 +26601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -26723,7 +26801,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -26923,7 +27001,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -27123,7 +27201,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -27323,7 +27401,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -27523,7 +27601,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -27723,7 +27801,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -27923,7 +28001,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -28123,7 +28201,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -28323,7 +28401,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -28523,7 +28601,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -28723,7 +28801,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -28923,7 +29001,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -29123,7 +29201,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -29323,7 +29401,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -29523,7 +29601,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -29723,7 +29801,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -29923,7 +30001,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -30146,7 +30224,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30158,7 +30236,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -30188,7 +30266,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -30206,7 +30284,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -30227,7 +30305,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -30239,7 +30317,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -30251,7 +30329,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -30269,12 +30347,12 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -30414,7 +30492,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -30554,7 +30632,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -30694,7 +30772,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -30834,7 +30912,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -30974,7 +31052,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -31114,7 +31192,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -31254,7 +31332,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -31394,7 +31472,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -31534,7 +31612,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -31674,7 +31752,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -31814,7 +31892,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -31954,7 +32032,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -32094,7 +32172,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -32234,7 +32312,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -32374,7 +32452,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -32514,7 +32592,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -32654,7 +32732,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -32794,7 +32872,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -32934,7 +33012,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -33210,10 +33288,13 @@
       <c r="AP1" t="s">
         <v>48</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -33336,12 +33417,15 @@
         <v>70</v>
       </c>
       <c r="AP2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -33465,11 +33549,14 @@
       </c>
       <c r="AP3" t="s">
         <v>72</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -33592,12 +33679,15 @@
         <v>69</v>
       </c>
       <c r="AP4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -33721,11 +33811,14 @@
       </c>
       <c r="AP5" t="s">
         <v>72</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -33848,12 +33941,15 @@
         <v>71</v>
       </c>
       <c r="AP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -33976,12 +34072,15 @@
         <v>67</v>
       </c>
       <c r="AP7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -34104,12 +34203,15 @@
         <v>69</v>
       </c>
       <c r="AP8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -34233,11 +34335,14 @@
       </c>
       <c r="AP9" t="s">
         <v>69</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -34361,11 +34466,14 @@
       </c>
       <c r="AP10" t="s">
         <v>69</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -34489,11 +34597,14 @@
       </c>
       <c r="AP11" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -34617,11 +34728,14 @@
       </c>
       <c r="AP12" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -34744,12 +34858,15 @@
         <v>67</v>
       </c>
       <c r="AP13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -34872,12 +34989,15 @@
         <v>67</v>
       </c>
       <c r="AP14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -35000,12 +35120,15 @@
         <v>71</v>
       </c>
       <c r="AP15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -35129,11 +35252,14 @@
       </c>
       <c r="AP16" t="s">
         <v>67</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -35256,12 +35382,15 @@
         <v>68</v>
       </c>
       <c r="AP17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -35385,11 +35514,14 @@
       </c>
       <c r="AP18" t="s">
         <v>67</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -35512,6 +35644,9 @@
         <v>68</v>
       </c>
       <c r="AP19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -35546,7 +35681,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -35579,7 +35714,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -35594,7 +35729,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -35612,7 +35747,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -35632,7 +35767,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -35736,7 +35871,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -35840,7 +35975,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -35944,7 +36079,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -36048,7 +36183,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -36152,7 +36287,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -36256,7 +36391,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -36360,7 +36495,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -36464,7 +36599,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -36568,7 +36703,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -36672,7 +36807,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -36776,7 +36911,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -36880,7 +37015,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -36984,7 +37119,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -37088,7 +37223,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -37192,7 +37327,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -37296,7 +37431,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -37400,7 +37535,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -37504,7 +37639,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -37608,7 +37743,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -37738,10 +37873,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -37762,10 +37897,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -37777,10 +37912,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -37798,10 +37933,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -37816,10 +37951,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -37832,11 +37967,17 @@
       </c>
       <c r="AK1" t="s">
         <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -37945,11 +38086,17 @@
       </c>
       <c r="AK2" t="s">
         <v>67</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -38057,12 +38204,18 @@
         <v>68</v>
       </c>
       <c r="AK3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -38171,11 +38324,17 @@
       </c>
       <c r="AK4" t="s">
         <v>67</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -38283,12 +38442,18 @@
         <v>68</v>
       </c>
       <c r="AK5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -38397,11 +38562,17 @@
       </c>
       <c r="AK6" t="s">
         <v>71</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -38510,11 +38681,17 @@
       </c>
       <c r="AK7" t="s">
         <v>67</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -38623,11 +38800,17 @@
       </c>
       <c r="AK8" t="s">
         <v>67</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -38735,12 +38918,18 @@
         <v>74</v>
       </c>
       <c r="AK9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -38849,11 +39038,17 @@
       </c>
       <c r="AK10" t="s">
         <v>71</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -38962,11 +39157,17 @@
       </c>
       <c r="AK11" t="s">
         <v>67</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -39075,11 +39276,17 @@
       </c>
       <c r="AK12" t="s">
         <v>67</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -39188,11 +39395,17 @@
       </c>
       <c r="AK13" t="s">
         <v>67</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -39300,12 +39513,18 @@
         <v>67</v>
       </c>
       <c r="AK14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -39413,12 +39632,18 @@
         <v>68</v>
       </c>
       <c r="AK15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -39527,11 +39752,17 @@
       </c>
       <c r="AK16" t="s">
         <v>67</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -39639,12 +39870,18 @@
         <v>68</v>
       </c>
       <c r="AK17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -39753,11 +39990,17 @@
       </c>
       <c r="AK18" t="s">
         <v>67</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -39865,12 +40108,18 @@
         <v>69</v>
       </c>
       <c r="AK19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -39979,11 +40228,17 @@
       </c>
       <c r="AK20" t="s">
         <v>67</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -40091,12 +40346,18 @@
         <v>68</v>
       </c>
       <c r="AK21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -40204,12 +40465,18 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -40318,11 +40585,17 @@
       </c>
       <c r="AK23" t="s">
         <v>67</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -40431,11 +40704,17 @@
       </c>
       <c r="AK24" t="s">
         <v>67</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
@@ -40543,6 +40822,12 @@
         <v>72</v>
       </c>
       <c r="AK25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -40568,7 +40853,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -40580,34 +40865,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -40616,33 +40901,36 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Z1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -40721,11 +41009,14 @@
       </c>
       <c r="AA2" t="s">
         <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -40804,11 +41095,14 @@
       </c>
       <c r="AA3" t="s">
         <v>69</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -40887,11 +41181,14 @@
       </c>
       <c r="AA4" t="s">
         <v>72</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -40970,11 +41267,14 @@
       </c>
       <c r="AA5" t="s">
         <v>72</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -41052,12 +41352,15 @@
         <v>71</v>
       </c>
       <c r="AA6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -41136,11 +41439,14 @@
       </c>
       <c r="AA7" t="s">
         <v>68</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -41219,11 +41525,14 @@
       </c>
       <c r="AA8" t="s">
         <v>69</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -41302,11 +41611,14 @@
       </c>
       <c r="AA9" t="s">
         <v>68</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -41385,11 +41697,14 @@
       </c>
       <c r="AA10" t="s">
         <v>74</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -41468,11 +41783,14 @@
       </c>
       <c r="AA11" t="s">
         <v>69</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -41550,12 +41868,15 @@
         <v>68</v>
       </c>
       <c r="AA12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -41633,12 +41954,15 @@
         <v>74</v>
       </c>
       <c r="AA13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -41717,11 +42041,14 @@
       </c>
       <c r="AA14" t="s">
         <v>74</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -41800,11 +42127,14 @@
       </c>
       <c r="AA15" t="s">
         <v>72</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -41883,11 +42213,14 @@
       </c>
       <c r="AA16" t="s">
         <v>69</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -41966,11 +42299,14 @@
       </c>
       <c r="AA17" t="s">
         <v>67</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -42049,11 +42385,14 @@
       </c>
       <c r="AA18" t="s">
         <v>68</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -42131,12 +42470,15 @@
         <v>72</v>
       </c>
       <c r="AA19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -42215,11 +42557,14 @@
       </c>
       <c r="AA20" t="s">
         <v>70</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -42298,11 +42643,14 @@
       </c>
       <c r="AA21" t="s">
         <v>71</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -42381,11 +42729,14 @@
       </c>
       <c r="AA22" t="s">
         <v>69</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
@@ -42463,12 +42814,15 @@
         <v>67</v>
       </c>
       <c r="AA23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
@@ -42547,11 +42901,14 @@
       </c>
       <c r="AA24" t="s">
         <v>67</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -42630,6 +42987,9 @@
       </c>
       <c r="AA25" t="s">
         <v>72</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -42654,13 +43014,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -42669,7 +43029,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -42678,13 +43038,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -42696,39 +43056,42 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Z1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -42807,11 +43170,14 @@
       </c>
       <c r="AA2" t="s">
         <v>72</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -42890,11 +43256,14 @@
       </c>
       <c r="AA3" t="s">
         <v>68</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -42973,11 +43342,14 @@
       </c>
       <c r="AA4" t="s">
         <v>70</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -43056,11 +43428,14 @@
       </c>
       <c r="AA5" t="s">
         <v>69</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -43139,11 +43514,14 @@
       </c>
       <c r="AA6" t="s">
         <v>72</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -43222,11 +43600,14 @@
       </c>
       <c r="AA7" t="s">
         <v>72</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -43305,11 +43686,14 @@
       </c>
       <c r="AA8" t="s">
         <v>69</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -43388,11 +43772,14 @@
       </c>
       <c r="AA9" t="s">
         <v>70</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -43470,12 +43857,15 @@
         <v>70</v>
       </c>
       <c r="AA10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -43553,12 +43943,15 @@
         <v>67</v>
       </c>
       <c r="AA11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -43637,11 +44030,14 @@
       </c>
       <c r="AA12" t="s">
         <v>71</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -43720,11 +44116,14 @@
       </c>
       <c r="AA13" t="s">
         <v>70</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -43803,11 +44202,14 @@
       </c>
       <c r="AA14" t="s">
         <v>69</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -43886,11 +44288,14 @@
       </c>
       <c r="AA15" t="s">
         <v>68</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -43969,11 +44374,14 @@
       </c>
       <c r="AA16" t="s">
         <v>71</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -44052,11 +44460,14 @@
       </c>
       <c r="AA17" t="s">
         <v>71</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -44135,11 +44546,14 @@
       </c>
       <c r="AA18" t="s">
         <v>74</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -44217,12 +44631,15 @@
         <v>68</v>
       </c>
       <c r="AA19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -44301,11 +44718,14 @@
       </c>
       <c r="AA20" t="s">
         <v>70</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -44384,11 +44804,14 @@
       </c>
       <c r="AA21" t="s">
         <v>72</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
@@ -44467,11 +44890,14 @@
       </c>
       <c r="AA22" t="s">
         <v>71</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -44550,11 +44976,14 @@
       </c>
       <c r="AA23" t="s">
         <v>69</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -44633,11 +45062,14 @@
       </c>
       <c r="AA24" t="s">
         <v>70</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -44716,6 +45148,9 @@
       </c>
       <c r="AA25" t="s">
         <v>74</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -44740,72 +45175,75 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -44875,11 +45313,14 @@
       </c>
       <c r="X2" t="s">
         <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -44949,11 +45390,14 @@
       </c>
       <c r="X3" t="s">
         <v>71</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -45023,11 +45467,14 @@
       </c>
       <c r="X4" t="s">
         <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -45097,11 +45544,14 @@
       </c>
       <c r="X5" t="s">
         <v>70</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -45171,11 +45621,14 @@
       </c>
       <c r="X6" t="s">
         <v>71</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -45245,11 +45698,14 @@
       </c>
       <c r="X7" t="s">
         <v>68</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -45318,12 +45774,15 @@
         <v>67</v>
       </c>
       <c r="X8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -45393,11 +45852,14 @@
       </c>
       <c r="X9" t="s">
         <v>70</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -45467,11 +45929,14 @@
       </c>
       <c r="X10" t="s">
         <v>68</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -45541,11 +46006,14 @@
       </c>
       <c r="X11" t="s">
         <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -45615,11 +46083,14 @@
       </c>
       <c r="X12" t="s">
         <v>70</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -45688,12 +46159,15 @@
         <v>67</v>
       </c>
       <c r="X13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -45763,11 +46237,14 @@
       </c>
       <c r="X14" t="s">
         <v>70</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -45836,12 +46313,15 @@
         <v>67</v>
       </c>
       <c r="X15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -45910,12 +46390,15 @@
         <v>67</v>
       </c>
       <c r="X16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -45984,12 +46467,15 @@
         <v>72</v>
       </c>
       <c r="X17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -46059,11 +46545,14 @@
       </c>
       <c r="X18" t="s">
         <v>69</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -46133,11 +46622,14 @@
       </c>
       <c r="X19" t="s">
         <v>69</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -46207,11 +46699,14 @@
       </c>
       <c r="X20" t="s">
         <v>74</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -46280,12 +46775,15 @@
         <v>67</v>
       </c>
       <c r="X21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
@@ -46355,11 +46853,14 @@
       </c>
       <c r="X22" t="s">
         <v>69</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -46429,11 +46930,14 @@
       </c>
       <c r="X23" t="s">
         <v>74</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -46503,6 +47007,9 @@
       </c>
       <c r="X24" t="s">
         <v>72</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -46611,7 +47118,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -46643,7 +47150,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -46768,7 +47275,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -46893,7 +47400,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -47018,7 +47525,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -47143,7 +47650,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -47268,7 +47775,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -47393,7 +47900,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -47518,7 +48025,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -47643,7 +48150,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -47768,7 +48275,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -47893,7 +48400,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -48018,7 +48525,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -48143,7 +48650,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -48268,7 +48775,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -48393,7 +48900,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -48518,7 +49025,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -48643,7 +49150,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -48768,7 +49275,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -48893,7 +49400,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -49018,7 +49525,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16736" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17066" uniqueCount="522">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -399,6 +399,15 @@
   </si>
   <si>
     <t>X2021.11.01</t>
+  </si>
+  <si>
+    <t>X2021.11.30</t>
+  </si>
+  <si>
+    <t>X2021.12.01</t>
+  </si>
+  <si>
+    <t>X2021.12.02</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -4716,28 +4725,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -4746,7 +4755,7 @@
         <v>118</v>
       </c>
       <c r="M1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4758,13 +4767,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -4788,7 +4797,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4803,12 +4812,12 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -4906,7 +4915,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -5004,7 +5013,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -5102,7 +5111,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -5200,7 +5209,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -5298,7 +5307,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -5396,7 +5405,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -5494,7 +5503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -5592,7 +5601,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -5690,7 +5699,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -5788,7 +5797,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -5886,7 +5895,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -5984,7 +5993,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -6082,7 +6091,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -6180,7 +6189,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -6278,7 +6287,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -6376,7 +6385,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -6474,7 +6483,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -6572,7 +6581,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -6670,7 +6679,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -6854,7 +6863,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -6865,7 +6874,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -6951,7 +6960,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -7037,7 +7046,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -7123,7 +7132,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -7209,7 +7218,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -7295,7 +7304,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -7381,7 +7390,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -7467,7 +7476,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -7553,7 +7562,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -7639,7 +7648,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -7725,7 +7734,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -7811,7 +7820,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -7897,7 +7906,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -7983,7 +7992,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -8119,10 +8128,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -8167,13 +8176,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AE1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AF1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -8200,7 +8209,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -8210,11 +8219,20 @@
       </c>
       <c r="AR1" t="s">
         <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -8343,12 +8361,21 @@
         <v>75</v>
       </c>
       <c r="AR2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -8478,11 +8505,20 @@
       </c>
       <c r="AR3" t="s">
         <v>75</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -8611,12 +8647,21 @@
         <v>70</v>
       </c>
       <c r="AR4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -8746,11 +8791,20 @@
       </c>
       <c r="AR5" t="s">
         <v>70</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -8879,12 +8933,21 @@
         <v>72</v>
       </c>
       <c r="AR6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -9014,11 +9077,20 @@
       </c>
       <c r="AR7" t="s">
         <v>77</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -9147,12 +9219,21 @@
         <v>71</v>
       </c>
       <c r="AR8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -9281,12 +9362,21 @@
         <v>75</v>
       </c>
       <c r="AR9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -9416,11 +9506,20 @@
       </c>
       <c r="AR10" t="s">
         <v>73</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -9550,11 +9649,20 @@
       </c>
       <c r="AR11" t="s">
         <v>73</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -9684,11 +9792,20 @@
       </c>
       <c r="AR12" t="s">
         <v>73</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -9818,11 +9935,20 @@
       </c>
       <c r="AR13" t="s">
         <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -9951,12 +10077,21 @@
         <v>70</v>
       </c>
       <c r="AR14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -10085,12 +10220,21 @@
         <v>73</v>
       </c>
       <c r="AR15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -10220,11 +10364,20 @@
       </c>
       <c r="AR16" t="s">
         <v>73</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -10354,11 +10507,20 @@
       </c>
       <c r="AR17" t="s">
         <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -10488,11 +10650,20 @@
       </c>
       <c r="AR18" t="s">
         <v>75</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -10622,11 +10793,20 @@
       </c>
       <c r="AR19" t="s">
         <v>77</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -10755,12 +10935,21 @@
         <v>71</v>
       </c>
       <c r="AR20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -10889,6 +11078,15 @@
         <v>73</v>
       </c>
       <c r="AR21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -10944,10 +11142,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -10983,10 +11181,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AB1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AC1" t="s">
         <v>121</v>
@@ -11016,12 +11214,18 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -11132,12 +11336,18 @@
         <v>70</v>
       </c>
       <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -11248,12 +11458,18 @@
         <v>70</v>
       </c>
       <c r="AL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -11364,12 +11580,18 @@
         <v>70</v>
       </c>
       <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -11481,11 +11703,17 @@
       </c>
       <c r="AL5" t="s">
         <v>70</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -11597,11 +11825,17 @@
       </c>
       <c r="AL6" t="s">
         <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -11713,11 +11947,17 @@
       </c>
       <c r="AL7" t="s">
         <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -11828,12 +12068,18 @@
         <v>70</v>
       </c>
       <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -11944,12 +12190,18 @@
         <v>70</v>
       </c>
       <c r="AL9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -12061,11 +12313,17 @@
       </c>
       <c r="AL10" t="s">
         <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -12176,12 +12434,18 @@
         <v>70</v>
       </c>
       <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -12292,12 +12556,18 @@
         <v>70</v>
       </c>
       <c r="AL12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -12408,12 +12678,18 @@
         <v>70</v>
       </c>
       <c r="AL13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -12525,11 +12801,17 @@
       </c>
       <c r="AL14" t="s">
         <v>70</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -12640,12 +12922,18 @@
         <v>70</v>
       </c>
       <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -12756,12 +13044,18 @@
         <v>70</v>
       </c>
       <c r="AL16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -12872,12 +13166,18 @@
         <v>70</v>
       </c>
       <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -12988,12 +13288,18 @@
         <v>70</v>
       </c>
       <c r="AL18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -13104,12 +13410,18 @@
         <v>70</v>
       </c>
       <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -13221,11 +13533,17 @@
       </c>
       <c r="AL20" t="s">
         <v>75</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -13336,6 +13654,12 @@
         <v>70</v>
       </c>
       <c r="AL21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -13397,7 +13721,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -13464,11 +13788,17 @@
       </c>
       <c r="AL1" t="s">
         <v>51</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -13580,11 +13910,17 @@
       </c>
       <c r="AL2" t="s">
         <v>75</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -13696,11 +14032,17 @@
       </c>
       <c r="AL3" t="s">
         <v>77</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -13811,12 +14153,18 @@
         <v>70</v>
       </c>
       <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -13928,11 +14276,17 @@
       </c>
       <c r="AL5" t="s">
         <v>77</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -14044,11 +14398,17 @@
       </c>
       <c r="AL6" t="s">
         <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -14159,12 +14519,18 @@
         <v>75</v>
       </c>
       <c r="AL7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -14275,12 +14641,18 @@
         <v>74</v>
       </c>
       <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -14392,11 +14764,17 @@
       </c>
       <c r="AL9" t="s">
         <v>71</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -14508,11 +14886,17 @@
       </c>
       <c r="AL10" t="s">
         <v>75</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -14623,12 +15007,18 @@
         <v>70</v>
       </c>
       <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -14740,11 +15130,17 @@
       </c>
       <c r="AL12" t="s">
         <v>71</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -14856,11 +15252,17 @@
       </c>
       <c r="AL13" t="s">
         <v>75</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -14972,11 +15374,17 @@
       </c>
       <c r="AL14" t="s">
         <v>77</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -15088,11 +15496,17 @@
       </c>
       <c r="AL15" t="s">
         <v>75</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -15204,11 +15618,17 @@
       </c>
       <c r="AL16" t="s">
         <v>77</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -15319,12 +15739,18 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -15436,11 +15862,17 @@
       </c>
       <c r="AL18" t="s">
         <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -15551,6 +15983,12 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15579,7 +16017,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -15591,7 +16029,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -15633,7 +16071,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -15666,7 +16104,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -15699,12 +16137,15 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -15836,12 +16277,15 @@
         <v>70</v>
       </c>
       <c r="AS2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -15973,12 +16417,15 @@
         <v>70</v>
       </c>
       <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -16110,12 +16557,15 @@
         <v>70</v>
       </c>
       <c r="AS4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -16247,12 +16697,15 @@
         <v>70</v>
       </c>
       <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -16385,11 +16838,14 @@
       </c>
       <c r="AS6" t="s">
         <v>73</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -16521,12 +16977,15 @@
         <v>70</v>
       </c>
       <c r="AS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -16658,12 +17117,15 @@
         <v>70</v>
       </c>
       <c r="AS8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -16795,12 +17257,15 @@
         <v>72</v>
       </c>
       <c r="AS9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -16932,12 +17397,15 @@
         <v>71</v>
       </c>
       <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -17069,12 +17537,15 @@
         <v>70</v>
       </c>
       <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -17206,12 +17677,15 @@
         <v>71</v>
       </c>
       <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -17343,12 +17817,15 @@
         <v>70</v>
       </c>
       <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -17480,12 +17957,15 @@
         <v>72</v>
       </c>
       <c r="AS14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -17618,11 +18098,14 @@
       </c>
       <c r="AS15" t="s">
         <v>73</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -17755,11 +18238,14 @@
       </c>
       <c r="AS16" t="s">
         <v>70</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -17891,12 +18377,15 @@
         <v>71</v>
       </c>
       <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -18028,12 +18517,15 @@
         <v>71</v>
       </c>
       <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -18166,6 +18658,9 @@
       </c>
       <c r="AS19" t="s">
         <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -18241,7 +18736,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -18266,11 +18761,20 @@
       </c>
       <c r="AC1" t="s">
         <v>51</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -18355,11 +18859,20 @@
       </c>
       <c r="AC2" t="s">
         <v>72</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -18444,11 +18957,20 @@
       </c>
       <c r="AC3" t="s">
         <v>72</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -18532,12 +19054,21 @@
         <v>72</v>
       </c>
       <c r="AC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -18621,12 +19152,21 @@
         <v>71</v>
       </c>
       <c r="AC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -18711,11 +19251,20 @@
       </c>
       <c r="AC6" t="s">
         <v>70</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -18799,12 +19348,21 @@
         <v>72</v>
       </c>
       <c r="AC7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -18889,11 +19447,20 @@
       </c>
       <c r="AC8" t="s">
         <v>73</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -18977,12 +19544,21 @@
         <v>72</v>
       </c>
       <c r="AC9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -19067,11 +19643,20 @@
       </c>
       <c r="AC10" t="s">
         <v>73</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -19155,12 +19740,21 @@
         <v>71</v>
       </c>
       <c r="AC11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -19244,12 +19838,21 @@
         <v>72</v>
       </c>
       <c r="AC12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -19333,6 +19936,15 @@
         <v>71</v>
       </c>
       <c r="AC13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -19355,7 +19967,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -19367,7 +19979,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -19385,7 +19997,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -19400,7 +20012,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -19409,7 +20021,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -19420,7 +20032,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -19491,7 +20103,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -19562,7 +20174,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -19633,7 +20245,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -19704,7 +20316,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -19775,7 +20387,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -19846,7 +20458,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -19917,7 +20529,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -19988,7 +20600,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -20059,7 +20671,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
@@ -20162,7 +20774,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -20192,7 +20804,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -20200,7 +20812,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -20259,7 +20871,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -20318,7 +20930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -20377,7 +20989,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -20436,7 +21048,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -20495,7 +21107,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -20554,7 +21166,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -20613,7 +21225,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -20672,7 +21284,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -20731,7 +21343,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -20825,7 +21437,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -20861,24 +21473,24 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="V1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="W1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -20955,7 +21567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -21032,7 +21644,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -21109,7 +21721,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -21186,7 +21798,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -21263,7 +21875,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -21340,7 +21952,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -21417,7 +22029,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -21494,7 +22106,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -21571,7 +22183,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -23943,7 +24555,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23985,10 +24597,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="T1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -24033,16 +24645,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AJ1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AK1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AL1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -24072,7 +24684,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -24084,12 +24696,15 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -24242,12 +24857,15 @@
         <v>70</v>
       </c>
       <c r="AZ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -24401,11 +25019,14 @@
       </c>
       <c r="AZ3" t="s">
         <v>70</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -24558,12 +25179,15 @@
         <v>74</v>
       </c>
       <c r="AZ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -24716,12 +25340,15 @@
         <v>70</v>
       </c>
       <c r="AZ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -24874,12 +25501,15 @@
         <v>73</v>
       </c>
       <c r="AZ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -25032,12 +25662,15 @@
         <v>74</v>
       </c>
       <c r="AZ7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -25190,12 +25823,15 @@
         <v>70</v>
       </c>
       <c r="AZ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -25349,11 +25985,14 @@
       </c>
       <c r="AZ9" t="s">
         <v>71</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -25506,12 +26145,15 @@
         <v>75</v>
       </c>
       <c r="AZ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -25664,12 +26306,15 @@
         <v>70</v>
       </c>
       <c r="AZ11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -25822,12 +26467,15 @@
         <v>70</v>
       </c>
       <c r="AZ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -25980,12 +26628,15 @@
         <v>73</v>
       </c>
       <c r="AZ13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -26138,12 +26789,15 @@
         <v>70</v>
       </c>
       <c r="AZ14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -26297,11 +26951,14 @@
       </c>
       <c r="AZ15" t="s">
         <v>71</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -26455,11 +27112,14 @@
       </c>
       <c r="AZ16" t="s">
         <v>70</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -26612,12 +27272,15 @@
         <v>72</v>
       </c>
       <c r="AZ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -26770,12 +27433,15 @@
         <v>75</v>
       </c>
       <c r="AZ18" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -26928,12 +27594,15 @@
         <v>70</v>
       </c>
       <c r="AZ19" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -27086,12 +27755,15 @@
         <v>70</v>
       </c>
       <c r="AZ20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -27244,6 +27916,9 @@
         <v>70</v>
       </c>
       <c r="AZ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -27272,7 +27947,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -27296,19 +27971,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="O1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -27332,7 +28007,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -27356,19 +28031,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AH1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AI1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AJ1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AK1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -27380,13 +28055,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AP1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AQ1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -27398,7 +28073,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -27413,13 +28088,13 @@
         <v>121</v>
       </c>
       <c r="AZ1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BA1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="BB1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -27431,19 +28106,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="BG1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BH1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BI1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="BJ1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -27455,7 +28130,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -27467,12 +28142,12 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -27684,7 +28359,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -27896,7 +28571,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -28108,7 +28783,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -28320,7 +28995,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -28532,7 +29207,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -28744,7 +29419,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -28956,7 +29631,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -29168,7 +29843,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -29380,7 +30055,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -29592,7 +30267,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -29804,7 +30479,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -30016,7 +30691,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -30228,7 +30903,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -30440,7 +31115,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -30652,7 +31327,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -30864,7 +31539,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -31076,7 +31751,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -31288,7 +31963,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -31500,7 +32175,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -31712,7 +32387,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -31924,7 +32599,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -32159,7 +32834,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -32201,7 +32876,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -32252,7 +32927,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -32282,7 +32957,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -32294,12 +32969,12 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -32451,7 +33126,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -32603,7 +33278,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -32755,7 +33430,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -32907,7 +33582,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -33059,7 +33734,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -33211,7 +33886,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -33363,7 +34038,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -33515,7 +34190,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -33667,7 +34342,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -33819,7 +34494,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -33971,7 +34646,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -34123,7 +34798,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -34275,7 +34950,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -34427,7 +35102,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -34579,7 +35254,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -34731,7 +35406,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -34883,7 +35558,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -35035,7 +35710,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -35187,7 +35862,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -38128,10 +38803,19 @@
       <c r="AJ1" t="s">
         <v>51</v>
       </c>
+      <c r="AK1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -38237,11 +38921,20 @@
       </c>
       <c r="AJ2" t="s">
         <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -38346,12 +39039,21 @@
         <v>72</v>
       </c>
       <c r="AJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -38457,11 +39159,20 @@
       </c>
       <c r="AJ4" t="s">
         <v>75</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -38566,12 +39277,21 @@
         <v>77</v>
       </c>
       <c r="AJ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -38676,12 +39396,21 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -38787,11 +39516,20 @@
       </c>
       <c r="AJ7" t="s">
         <v>71</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -38896,12 +39634,21 @@
         <v>72</v>
       </c>
       <c r="AJ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -39007,11 +39754,20 @@
       </c>
       <c r="AJ9" t="s">
         <v>75</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -39116,12 +39872,21 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -39227,11 +39992,20 @@
       </c>
       <c r="AJ11" t="s">
         <v>78</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -39336,12 +40110,21 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -39447,11 +40230,20 @@
       </c>
       <c r="AJ13" t="s">
         <v>72</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -39557,11 +40349,20 @@
       </c>
       <c r="AJ14" t="s">
         <v>71</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -39666,12 +40467,21 @@
         <v>71</v>
       </c>
       <c r="AJ15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -39776,12 +40586,21 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -39886,12 +40705,21 @@
         <v>73</v>
       </c>
       <c r="AJ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -39997,11 +40825,20 @@
       </c>
       <c r="AJ18" t="s">
         <v>70</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -40107,11 +40944,20 @@
       </c>
       <c r="AJ19" t="s">
         <v>78</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -40217,11 +41063,20 @@
       </c>
       <c r="AJ20" t="s">
         <v>72</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -40326,6 +41181,15 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -40357,10 +41221,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -40381,10 +41245,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -40396,10 +41260,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="T1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -40417,10 +41281,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AA1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -40435,10 +41299,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AG1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -40453,7 +41317,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AM1" t="s">
         <v>99</v>
@@ -40468,12 +41332,12 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -40604,7 +41468,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -40735,7 +41599,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -40866,7 +41730,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -40997,7 +41861,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -41128,7 +41992,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -41259,7 +42123,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -41390,7 +42254,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -41521,7 +42385,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -41652,7 +42516,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -41783,7 +42647,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -41914,7 +42778,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -42045,7 +42909,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -42176,7 +43040,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -42307,7 +43171,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -42438,7 +43302,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -42569,7 +43433,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -42700,7 +43564,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -42831,7 +43695,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -42962,7 +43826,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -43093,7 +43957,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -43224,7 +44088,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -43355,7 +44219,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -43486,7 +44350,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
@@ -43637,7 +44501,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -43649,34 +44513,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -43685,31 +44549,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Y1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Z1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -43720,7 +44584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -43812,7 +44676,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -43904,7 +44768,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -43996,7 +44860,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -44088,7 +44952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -44180,7 +45044,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -44272,7 +45136,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -44364,7 +45228,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -44456,7 +45320,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -44548,7 +45412,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -44640,7 +45504,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -44732,7 +45596,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -44824,7 +45688,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -44916,7 +45780,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
@@ -45008,7 +45872,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -45100,7 +45964,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -45192,7 +46056,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -45284,7 +46148,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -45376,7 +46240,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -45468,7 +46332,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -45560,7 +46424,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -45652,7 +46516,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -45744,7 +46608,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -45836,7 +46700,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -45948,13 +46812,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -45963,7 +46827,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -45972,13 +46836,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -45990,37 +46854,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="S1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Z1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -46031,7 +46895,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -46123,7 +46987,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -46215,7 +47079,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -46307,7 +47171,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -46399,7 +47263,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -46491,7 +47355,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -46583,7 +47447,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -46675,7 +47539,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -46767,7 +47631,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -46859,7 +47723,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -46951,7 +47815,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -47043,7 +47907,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -47135,7 +47999,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
@@ -47227,7 +48091,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -47319,7 +48183,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>
@@ -47411,7 +48275,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -47503,7 +48367,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -47595,7 +48459,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -47687,7 +48551,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -47779,7 +48643,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -47871,7 +48735,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -47963,7 +48827,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
@@ -48055,7 +48919,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -48147,7 +49011,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
@@ -48259,61 +49123,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="U1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="V1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -48322,15 +49186,18 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -48406,11 +49273,14 @@
       </c>
       <c r="Z2" t="s">
         <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -48486,11 +49356,14 @@
       </c>
       <c r="Z3" t="s">
         <v>72</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -48566,11 +49439,14 @@
       </c>
       <c r="Z4" t="s">
         <v>72</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -48645,12 +49521,15 @@
         <v>71</v>
       </c>
       <c r="Z5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -48726,11 +49605,14 @@
       </c>
       <c r="Z6" t="s">
         <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -48805,12 +49687,15 @@
         <v>73</v>
       </c>
       <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -48886,11 +49771,14 @@
       </c>
       <c r="Z8" t="s">
         <v>72</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -48966,11 +49854,14 @@
       </c>
       <c r="Z9" t="s">
         <v>71</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -49045,12 +49936,15 @@
         <v>75</v>
       </c>
       <c r="Z10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -49125,12 +50019,15 @@
         <v>71</v>
       </c>
       <c r="Z11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -49206,11 +50103,14 @@
       </c>
       <c r="Z12" t="s">
         <v>74</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -49286,11 +50186,14 @@
       </c>
       <c r="Z13" t="s">
         <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -49365,12 +50268,15 @@
         <v>70</v>
       </c>
       <c r="Z14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -49446,11 +50352,14 @@
       </c>
       <c r="Z15" t="s">
         <v>72</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -49525,12 +50434,15 @@
         <v>71</v>
       </c>
       <c r="Z16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -49606,11 +50518,14 @@
       </c>
       <c r="Z17" t="s">
         <v>72</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -49686,11 +50601,14 @@
       </c>
       <c r="Z18" t="s">
         <v>74</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -49766,11 +50684,14 @@
       </c>
       <c r="Z19" t="s">
         <v>74</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -49846,11 +50767,14 @@
       </c>
       <c r="Z20" t="s">
         <v>74</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -49925,12 +50849,15 @@
         <v>74</v>
       </c>
       <c r="Z21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -50006,11 +50933,14 @@
       </c>
       <c r="Z22" t="s">
         <v>72</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
         <v>73</v>
@@ -50085,12 +51015,15 @@
         <v>72</v>
       </c>
       <c r="Z23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -50165,6 +51098,9 @@
         <v>72</v>
       </c>
       <c r="Z24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA24" t="s">
         <v>71</v>
       </c>
     </row>
@@ -50274,7 +51210,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -50311,11 +51247,14 @@
       </c>
       <c r="AR1" t="s">
         <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -50445,11 +51384,14 @@
       </c>
       <c r="AR2" t="s">
         <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -50579,11 +51521,14 @@
       </c>
       <c r="AR3" t="s">
         <v>72</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -50713,11 +51658,14 @@
       </c>
       <c r="AR4" t="s">
         <v>72</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -50847,11 +51795,14 @@
       </c>
       <c r="AR5" t="s">
         <v>75</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -50981,11 +51932,14 @@
       </c>
       <c r="AR6" t="s">
         <v>70</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -51115,11 +52069,14 @@
       </c>
       <c r="AR7" t="s">
         <v>70</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -51248,12 +52205,15 @@
         <v>70</v>
       </c>
       <c r="AR8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -51383,11 +52343,14 @@
       </c>
       <c r="AR9" t="s">
         <v>75</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -51516,12 +52479,15 @@
         <v>70</v>
       </c>
       <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -51651,11 +52617,14 @@
       </c>
       <c r="AR11" t="s">
         <v>70</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -51785,11 +52754,14 @@
       </c>
       <c r="AR12" t="s">
         <v>71</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -51919,11 +52891,14 @@
       </c>
       <c r="AR13" t="s">
         <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -52053,11 +53028,14 @@
       </c>
       <c r="AR14" t="s">
         <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -52187,11 +53165,14 @@
       </c>
       <c r="AR15" t="s">
         <v>70</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -52321,11 +53302,14 @@
       </c>
       <c r="AR16" t="s">
         <v>73</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -52455,11 +53439,14 @@
       </c>
       <c r="AR17" t="s">
         <v>75</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -52589,11 +53576,14 @@
       </c>
       <c r="AR18" t="s">
         <v>71</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -52723,11 +53713,14 @@
       </c>
       <c r="AR19" t="s">
         <v>73</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -52857,11 +53850,14 @@
       </c>
       <c r="AR20" t="s">
         <v>71</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -52991,6 +53987,9 @@
       </c>
       <c r="AR21" t="s">
         <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18155" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18303" uniqueCount="528">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>X2021.11.13</t>
+  </si>
+  <si>
+    <t>X2021.12.07</t>
+  </si>
+  <si>
+    <t>X2021.12.08</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -4908,25 +4914,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J1" t="s">
         <v>150</v>
@@ -4938,7 +4944,7 @@
         <v>121</v>
       </c>
       <c r="M1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4980,7 +4986,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4995,7 +5001,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5009,7 +5015,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -5116,7 +5122,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -5223,7 +5229,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5330,7 +5336,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -5437,7 +5443,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -5544,7 +5550,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -5651,7 +5657,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -5758,7 +5764,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -5865,7 +5871,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
@@ -5972,7 +5978,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
@@ -6079,7 +6085,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -6186,7 +6192,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -6293,7 +6299,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -6400,7 +6406,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -6507,7 +6513,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>
@@ -6614,7 +6620,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -6721,7 +6727,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -6828,7 +6834,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -6935,7 +6941,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -7042,7 +7048,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B21" t="s">
         <v>80</v>
@@ -7235,7 +7241,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -7255,7 +7261,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -7350,7 +7356,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -7445,7 +7451,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -7540,7 +7546,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -7635,7 +7641,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -7730,7 +7736,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -7825,7 +7831,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -7920,7 +7926,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -8015,7 +8021,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -8110,7 +8116,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -8205,7 +8211,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -8300,7 +8306,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
@@ -8395,7 +8401,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -8490,7 +8496,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -8635,7 +8641,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O1" t="s">
         <v>187</v>
@@ -8686,10 +8692,10 @@
         <v>189</v>
       </c>
       <c r="AE1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AF1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -8716,7 +8722,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -8748,7 +8754,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -8900,7 +8906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -9052,7 +9058,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -9204,7 +9210,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -9356,7 +9362,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -9508,7 +9514,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -9660,7 +9666,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -9812,7 +9818,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -9964,7 +9970,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -10116,7 +10122,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -10268,7 +10274,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -10420,7 +10426,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -10572,7 +10578,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -10724,7 +10730,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -10876,7 +10882,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -11028,7 +11034,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -11180,7 +11186,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -11332,7 +11338,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -11484,7 +11490,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -11636,7 +11642,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -11838,7 +11844,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O1" t="s">
         <v>187</v>
@@ -11877,10 +11883,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AB1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AC1" t="s">
         <v>124</v>
@@ -11930,7 +11936,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -12061,7 +12067,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -12192,7 +12198,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -12323,7 +12329,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -12454,7 +12460,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -12585,7 +12591,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -12716,7 +12722,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -12847,7 +12853,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -12978,7 +12984,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -13109,7 +13115,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -13240,7 +13246,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -13371,7 +13377,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -13502,7 +13508,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -13633,7 +13639,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -13764,7 +13770,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -13895,7 +13901,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -14026,7 +14032,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -14157,7 +14163,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -14288,7 +14294,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -14419,7 +14425,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -14692,7 +14698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -14823,7 +14829,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -14954,7 +14960,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -15085,7 +15091,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -15216,7 +15222,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -15347,7 +15353,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -15478,7 +15484,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -15609,7 +15615,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -15740,7 +15746,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -15871,7 +15877,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -16002,7 +16008,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -16133,7 +16139,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -16264,7 +16270,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -16395,7 +16401,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -16526,7 +16532,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -16657,7 +16663,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -16788,7 +16794,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -16919,7 +16925,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -17073,7 +17079,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -17085,7 +17091,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -17127,7 +17133,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -17160,7 +17166,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -17210,7 +17216,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -17359,7 +17365,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -17508,7 +17514,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -17657,7 +17663,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -17806,7 +17812,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -17955,7 +17961,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -18104,7 +18110,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -18253,7 +18259,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -18402,7 +18408,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -18551,7 +18557,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -18700,7 +18706,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -18849,7 +18855,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -18998,7 +19004,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -19147,7 +19153,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -19296,7 +19302,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -19445,7 +19451,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -19594,7 +19600,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -19743,7 +19749,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -19963,7 +19969,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -20003,11 +20009,14 @@
       </c>
       <c r="AH1" t="s">
         <v>54</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -20106,12 +20115,15 @@
         <v>77</v>
       </c>
       <c r="AH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -20211,11 +20223,14 @@
       </c>
       <c r="AH3" t="s">
         <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -20314,12 +20329,15 @@
         <v>75</v>
       </c>
       <c r="AH4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -20419,11 +20437,14 @@
       </c>
       <c r="AH5" t="s">
         <v>75</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -20523,11 +20544,14 @@
       </c>
       <c r="AH6" t="s">
         <v>78</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -20627,11 +20651,14 @@
       </c>
       <c r="AH7" t="s">
         <v>73</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -20730,12 +20757,15 @@
         <v>73</v>
       </c>
       <c r="AH8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -20834,12 +20864,15 @@
         <v>74</v>
       </c>
       <c r="AH9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -20938,12 +20971,15 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
@@ -21042,12 +21078,15 @@
         <v>73</v>
       </c>
       <c r="AH11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
@@ -21146,12 +21185,15 @@
         <v>73</v>
       </c>
       <c r="AH12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -21250,6 +21292,9 @@
         <v>77</v>
       </c>
       <c r="AH13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -21272,7 +21317,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -21284,7 +21329,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -21343,7 +21388,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -21420,7 +21465,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -21497,7 +21542,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -21574,7 +21619,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -21651,7 +21696,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -21728,7 +21773,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -21805,7 +21850,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -21882,7 +21927,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -21959,7 +22004,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -22036,7 +22081,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -22183,10 +22228,13 @@
       <c r="T1" t="s">
         <v>53</v>
       </c>
+      <c r="U1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -22244,11 +22292,14 @@
       </c>
       <c r="T2" t="s">
         <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -22306,11 +22357,14 @@
       </c>
       <c r="T3" t="s">
         <v>74</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -22368,11 +22422,14 @@
       </c>
       <c r="T4" t="s">
         <v>76</v>
+      </c>
+      <c r="U4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -22430,11 +22487,14 @@
       </c>
       <c r="T5" t="s">
         <v>74</v>
+      </c>
+      <c r="U5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -22492,11 +22552,14 @@
       </c>
       <c r="T6" t="s">
         <v>74</v>
+      </c>
+      <c r="U6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -22554,11 +22617,14 @@
       </c>
       <c r="T7" t="s">
         <v>74</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -22616,11 +22682,14 @@
       </c>
       <c r="T8" t="s">
         <v>81</v>
+      </c>
+      <c r="U8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -22678,11 +22747,14 @@
       </c>
       <c r="T9" t="s">
         <v>73</v>
+      </c>
+      <c r="U9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -22740,11 +22812,14 @@
       </c>
       <c r="T10" t="s">
         <v>76</v>
+      </c>
+      <c r="U10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22802,6 +22877,9 @@
       </c>
       <c r="T11" t="s">
         <v>81</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -22841,7 +22919,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -22877,7 +22955,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="V1" t="s">
         <v>190</v>
@@ -22900,7 +22978,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -22983,7 +23061,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -23066,7 +23144,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -23149,7 +23227,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -23232,7 +23310,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -23315,7 +23393,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -23398,7 +23476,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -23481,7 +23559,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -23564,7 +23642,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -23647,7 +23725,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -26196,7 +26274,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -26238,7 +26316,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="T1" t="s">
         <v>187</v>
@@ -26286,16 +26364,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AJ1" t="s">
         <v>189</v>
       </c>
       <c r="AK1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -26325,7 +26403,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -26357,7 +26435,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -26530,7 +26608,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -26703,7 +26781,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -26876,7 +26954,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -27049,7 +27127,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -27222,7 +27300,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -27395,7 +27473,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -27568,7 +27646,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -27741,7 +27819,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -27914,7 +27992,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -28087,7 +28165,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -28260,7 +28338,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -28433,7 +28511,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -28606,7 +28684,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -28779,7 +28857,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -28952,7 +29030,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -29125,7 +29203,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -29298,7 +29376,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -29471,7 +29549,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -29644,7 +29722,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -29840,7 +29918,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -29864,16 +29942,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O1" t="s">
         <v>185</v>
       </c>
       <c r="P1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q1" t="s">
         <v>186</v>
@@ -29900,7 +29978,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -29924,19 +30002,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AH1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AI1" t="s">
         <v>188</v>
       </c>
       <c r="AJ1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AK1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -29954,7 +30032,7 @@
         <v>156</v>
       </c>
       <c r="AQ1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -29966,7 +30044,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -29987,7 +30065,7 @@
         <v>158</v>
       </c>
       <c r="BB1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -29999,7 +30077,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="BG1" t="s">
         <v>190</v>
@@ -30008,10 +30086,10 @@
         <v>191</v>
       </c>
       <c r="BI1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="BJ1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -30023,7 +30101,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -30052,7 +30130,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -30276,7 +30354,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -30500,7 +30578,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -30724,7 +30802,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -30948,7 +31026,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -31172,7 +31250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -31396,7 +31474,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -31620,7 +31698,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -31844,7 +31922,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -32068,7 +32146,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
@@ -32292,7 +32370,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -32516,7 +32594,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -32740,7 +32818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -32964,7 +33042,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -33188,7 +33266,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -33412,7 +33490,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -33636,7 +33714,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -33860,7 +33938,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -34084,7 +34162,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -34308,7 +34386,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -34532,7 +34610,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -34756,7 +34834,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
@@ -35003,7 +35081,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -35096,7 +35174,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -35126,7 +35204,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -35155,7 +35233,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -35319,7 +35397,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -35483,7 +35561,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -35647,7 +35725,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -35811,7 +35889,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -35975,7 +36053,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -36139,7 +36217,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -36303,7 +36381,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -36467,7 +36545,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -36631,7 +36709,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -36795,7 +36873,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -36959,7 +37037,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -37123,7 +37201,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -37287,7 +37365,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -37451,7 +37529,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -37615,7 +37693,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -37779,7 +37857,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -37943,7 +38021,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -38107,7 +38185,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -38271,7 +38349,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -47590,10 +47668,16 @@
       <c r="AE1" t="s">
         <v>53</v>
       </c>
+      <c r="AF1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -47684,11 +47768,17 @@
       </c>
       <c r="AE2" t="s">
         <v>81</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -47778,12 +47868,18 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
@@ -47873,12 +47969,18 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -47968,12 +48070,18 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -48063,12 +48171,18 @@
         <v>73</v>
       </c>
       <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
@@ -48158,12 +48272,18 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -48253,12 +48373,18 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -48348,12 +48474,18 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -48443,12 +48575,18 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -48539,11 +48677,17 @@
       </c>
       <c r="AE11" t="s">
         <v>81</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -48633,12 +48777,18 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -48728,12 +48878,18 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -48823,12 +48979,18 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
         <v>81</v>
@@ -48919,11 +49081,17 @@
       </c>
       <c r="AE15" t="s">
         <v>73</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -49013,12 +49181,18 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -49109,11 +49283,17 @@
       </c>
       <c r="AE17" t="s">
         <v>74</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -49204,11 +49384,17 @@
       </c>
       <c r="AE18" t="s">
         <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -49298,12 +49484,18 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -49393,12 +49585,18 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
         <v>80</v>
@@ -49488,12 +49686,18 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s">
         <v>78</v>
@@ -49584,11 +49788,17 @@
       </c>
       <c r="AE22" t="s">
         <v>73</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -49679,11 +49889,17 @@
       </c>
       <c r="AE23" t="s">
         <v>74</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -49774,11 +49990,17 @@
       </c>
       <c r="AE24" t="s">
         <v>73</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
@@ -49868,6 +50090,12 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -49899,7 +50127,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -49935,7 +50163,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S1" t="s">
         <v>188</v>
@@ -49972,11 +50200,17 @@
       </c>
       <c r="AD1" t="s">
         <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -50064,11 +50298,17 @@
       </c>
       <c r="AD2" t="s">
         <v>78</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -50156,11 +50396,17 @@
       </c>
       <c r="AD3" t="s">
         <v>74</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -50248,11 +50494,17 @@
       </c>
       <c r="AD4" t="s">
         <v>74</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -50340,11 +50592,17 @@
       </c>
       <c r="AD5" t="s">
         <v>78</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
         <v>80</v>
@@ -50432,11 +50690,17 @@
       </c>
       <c r="AD6" t="s">
         <v>73</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -50524,11 +50788,17 @@
       </c>
       <c r="AD7" t="s">
         <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
@@ -50616,11 +50886,17 @@
       </c>
       <c r="AD8" t="s">
         <v>74</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -50708,11 +50984,17 @@
       </c>
       <c r="AD9" t="s">
         <v>74</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -50800,11 +51082,17 @@
       </c>
       <c r="AD10" t="s">
         <v>74</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -50892,11 +51180,17 @@
       </c>
       <c r="AD11" t="s">
         <v>74</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -50984,11 +51278,17 @@
       </c>
       <c r="AD12" t="s">
         <v>78</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -51076,11 +51376,17 @@
       </c>
       <c r="AD13" t="s">
         <v>75</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -51167,12 +51473,18 @@
         <v>74</v>
       </c>
       <c r="AD14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
@@ -51260,11 +51572,17 @@
       </c>
       <c r="AD15" t="s">
         <v>78</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -51352,11 +51670,17 @@
       </c>
       <c r="AD16" t="s">
         <v>74</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -51444,11 +51768,17 @@
       </c>
       <c r="AD17" t="s">
         <v>74</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -51536,11 +51866,17 @@
       </c>
       <c r="AD18" t="s">
         <v>74</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -51628,11 +51964,17 @@
       </c>
       <c r="AD19" t="s">
         <v>74</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -51720,11 +52062,17 @@
       </c>
       <c r="AD20" t="s">
         <v>74</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -51811,12 +52159,18 @@
         <v>73</v>
       </c>
       <c r="AD21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -51904,11 +52258,17 @@
       </c>
       <c r="AD22" t="s">
         <v>78</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -51996,11 +52356,17 @@
       </c>
       <c r="AD23" t="s">
         <v>74</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s">
         <v>78</v>
@@ -52087,12 +52453,18 @@
         <v>73</v>
       </c>
       <c r="AD24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s">
         <v>78</v>
@@ -52180,6 +52552,12 @@
       </c>
       <c r="AD25" t="s">
         <v>78</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -52204,10 +52582,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F1" t="s">
         <v>185</v>
@@ -52234,13 +52612,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O1" t="s">
         <v>188</v>
       </c>
       <c r="P1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -52255,7 +52633,7 @@
         <v>157</v>
       </c>
       <c r="U1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="V1" t="s">
         <v>191</v>
@@ -52277,11 +52655,14 @@
       </c>
       <c r="AB1" t="s">
         <v>53</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -52363,11 +52744,14 @@
       </c>
       <c r="AB2" t="s">
         <v>76</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -52449,11 +52833,14 @@
       </c>
       <c r="AB3" t="s">
         <v>76</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -52535,11 +52922,14 @@
       </c>
       <c r="AB4" t="s">
         <v>75</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -52620,12 +53010,15 @@
         <v>73</v>
       </c>
       <c r="AB5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -52707,11 +53100,14 @@
       </c>
       <c r="AB6" t="s">
         <v>77</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -52792,12 +53188,15 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -52879,11 +53278,14 @@
       </c>
       <c r="AB8" t="s">
         <v>77</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -52965,11 +53367,14 @@
       </c>
       <c r="AB9" t="s">
         <v>78</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -53050,12 +53455,15 @@
         <v>73</v>
       </c>
       <c r="AB10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -53137,11 +53545,14 @@
       </c>
       <c r="AB11" t="s">
         <v>77</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -53222,12 +53633,15 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -53308,12 +53722,15 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
@@ -53395,11 +53812,14 @@
       </c>
       <c r="AB14" t="s">
         <v>75</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -53480,12 +53900,15 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -53567,11 +53990,14 @@
       </c>
       <c r="AB16" t="s">
         <v>74</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -53653,11 +54079,14 @@
       </c>
       <c r="AB17" t="s">
         <v>73</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -53738,12 +54167,15 @@
         <v>73</v>
       </c>
       <c r="AB18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -53825,11 +54257,14 @@
       </c>
       <c r="AB19" t="s">
         <v>75</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -53911,11 +54346,14 @@
       </c>
       <c r="AB20" t="s">
         <v>77</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -53997,11 +54435,14 @@
       </c>
       <c r="AB21" t="s">
         <v>75</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -54083,11 +54524,14 @@
       </c>
       <c r="AB22" t="s">
         <v>74</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -54169,11 +54613,14 @@
       </c>
       <c r="AB23" t="s">
         <v>78</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -54254,6 +54701,9 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s">
         <v>73</v>
       </c>
     </row>
@@ -54363,7 +54813,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -54413,7 +54863,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -54556,7 +55006,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -54699,7 +55149,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -54842,7 +55292,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -54985,7 +55435,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -55128,7 +55578,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -55271,7 +55721,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -55414,7 +55864,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -55557,7 +56007,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -55700,7 +56150,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -55843,7 +56293,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -55986,7 +56436,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -56129,7 +56579,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -56272,7 +56722,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -56415,7 +56865,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -56558,7 +57008,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -56701,7 +57151,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -56844,7 +57294,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -56987,7 +57437,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -57130,7 +57580,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19255" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19381" uniqueCount="533">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -947,6 +947,9 @@
     <t>X2021.11.22</t>
   </si>
   <si>
+    <t>X2021.12.13</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
@@ -5198,10 +5201,13 @@
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
+      <c r="AK1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -5307,11 +5313,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>81</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -5417,11 +5426,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>80</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -5527,11 +5539,14 @@
       </c>
       <c r="AJ4" t="s">
         <v>77</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -5637,11 +5652,14 @@
       </c>
       <c r="AJ5" t="s">
         <v>79</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -5747,11 +5765,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>77</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -5857,11 +5878,14 @@
       </c>
       <c r="AJ7" t="s">
         <v>79</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -5967,11 +5991,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>77</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -6077,11 +6104,14 @@
       </c>
       <c r="AJ9" t="s">
         <v>80</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -6187,11 +6217,14 @@
       </c>
       <c r="AJ10" t="s">
         <v>77</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -6297,11 +6330,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>81</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -6407,11 +6443,14 @@
       </c>
       <c r="AJ12" t="s">
         <v>78</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -6517,11 +6556,14 @@
       </c>
       <c r="AJ13" t="s">
         <v>78</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -6627,11 +6669,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>79</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>79</v>
@@ -6737,11 +6782,14 @@
       </c>
       <c r="AJ15" t="s">
         <v>80</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -6847,11 +6895,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>78</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -6957,11 +7008,14 @@
       </c>
       <c r="AJ17" t="s">
         <v>78</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -7067,11 +7121,14 @@
       </c>
       <c r="AJ18" t="s">
         <v>76</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -7177,11 +7234,14 @@
       </c>
       <c r="AJ19" t="s">
         <v>79</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
@@ -7287,11 +7347,14 @@
       </c>
       <c r="AJ20" t="s">
         <v>76</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -7397,6 +7460,9 @@
       </c>
       <c r="AJ21" t="s">
         <v>80</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7513,7 +7579,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -7614,7 +7680,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -7715,7 +7781,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -7816,7 +7882,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -7917,7 +7983,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -8018,7 +8084,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -8119,7 +8185,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -8220,7 +8286,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -8321,7 +8387,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -8422,7 +8488,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -8523,7 +8589,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -8624,7 +8690,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -8725,7 +8791,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -8826,7 +8892,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -8977,7 +9043,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O1" t="s">
         <v>190</v>
@@ -9031,7 +9097,7 @@
         <v>276</v>
       </c>
       <c r="AF1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9095,11 +9161,14 @@
       </c>
       <c r="BA1" t="s">
         <v>57</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -9256,11 +9325,14 @@
       </c>
       <c r="BA2" t="s">
         <v>78</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -9417,11 +9489,14 @@
       </c>
       <c r="BA3" t="s">
         <v>78</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -9578,11 +9653,14 @@
       </c>
       <c r="BA4" t="s">
         <v>79</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -9739,11 +9817,14 @@
       </c>
       <c r="BA5" t="s">
         <v>81</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -9899,12 +9980,15 @@
         <v>79</v>
       </c>
       <c r="BA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -10060,12 +10144,15 @@
         <v>76</v>
       </c>
       <c r="BA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -10222,11 +10309,14 @@
       </c>
       <c r="BA8" t="s">
         <v>79</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -10382,12 +10472,15 @@
         <v>77</v>
       </c>
       <c r="BA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -10544,11 +10637,14 @@
       </c>
       <c r="BA10" t="s">
         <v>78</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -10704,12 +10800,15 @@
         <v>77</v>
       </c>
       <c r="BA11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -10866,11 +10965,14 @@
       </c>
       <c r="BA12" t="s">
         <v>81</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -11027,11 +11129,14 @@
       </c>
       <c r="BA13" t="s">
         <v>76</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -11187,12 +11292,15 @@
         <v>79</v>
       </c>
       <c r="BA14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -11348,12 +11456,15 @@
         <v>76</v>
       </c>
       <c r="BA15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s">
         <v>80</v>
@@ -11510,11 +11621,14 @@
       </c>
       <c r="BA16" t="s">
         <v>78</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -11671,11 +11785,14 @@
       </c>
       <c r="BA17" t="s">
         <v>76</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -11832,11 +11949,14 @@
       </c>
       <c r="BA18" t="s">
         <v>78</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -11992,12 +12112,15 @@
         <v>77</v>
       </c>
       <c r="BA19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -12153,12 +12276,15 @@
         <v>77</v>
       </c>
       <c r="BA20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
         <v>80</v>
@@ -12315,6 +12441,9 @@
       </c>
       <c r="BA21" t="s">
         <v>78</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -12369,7 +12498,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O1" t="s">
         <v>190</v>
@@ -12411,7 +12540,7 @@
         <v>276</v>
       </c>
       <c r="AB1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC1" t="s">
         <v>127</v>
@@ -12470,7 +12599,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -12610,7 +12739,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -12750,7 +12879,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -12890,7 +13019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -13030,7 +13159,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -13170,7 +13299,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -13310,7 +13439,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -13450,7 +13579,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -13590,7 +13719,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -13730,7 +13859,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -13870,7 +13999,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -14010,7 +14139,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -14150,7 +14279,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B14" t="s">
         <v>79</v>
@@ -14290,7 +14419,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -14430,7 +14559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -14570,7 +14699,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -14710,7 +14839,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -14850,7 +14979,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -14990,7 +15119,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -15130,7 +15259,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -15421,7 +15550,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -15561,7 +15690,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -15701,7 +15830,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -15841,7 +15970,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -15981,7 +16110,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -16121,7 +16250,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
@@ -16261,7 +16390,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -16401,7 +16530,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
@@ -16541,7 +16670,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -16681,7 +16810,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -16821,7 +16950,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -16961,7 +17090,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -17101,7 +17230,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -17241,7 +17370,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -17381,7 +17510,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -17521,7 +17650,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -17661,7 +17790,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -17801,7 +17930,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -17964,7 +18093,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -18018,7 +18147,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -18106,11 +18235,14 @@
       </c>
       <c r="AZ1" t="s">
         <v>57</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -18264,11 +18396,14 @@
       </c>
       <c r="AZ2" t="s">
         <v>76</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -18422,11 +18557,14 @@
       </c>
       <c r="AZ3" t="s">
         <v>81</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -18580,11 +18718,14 @@
       </c>
       <c r="AZ4" t="s">
         <v>80</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -18737,12 +18878,15 @@
         <v>77</v>
       </c>
       <c r="AZ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -18896,11 +19040,14 @@
       </c>
       <c r="AZ6" t="s">
         <v>81</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -19054,11 +19201,14 @@
       </c>
       <c r="AZ7" t="s">
         <v>80</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -19211,12 +19361,15 @@
         <v>76</v>
       </c>
       <c r="AZ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -19369,12 +19522,15 @@
         <v>82</v>
       </c>
       <c r="AZ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -19527,12 +19683,15 @@
         <v>80</v>
       </c>
       <c r="AZ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -19686,11 +19845,14 @@
       </c>
       <c r="AZ11" t="s">
         <v>81</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -19843,12 +20005,15 @@
         <v>76</v>
       </c>
       <c r="AZ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -20002,11 +20167,14 @@
       </c>
       <c r="AZ13" t="s">
         <v>81</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -20160,11 +20328,14 @@
       </c>
       <c r="AZ14" t="s">
         <v>81</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -20317,12 +20488,15 @@
         <v>80</v>
       </c>
       <c r="AZ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -20476,11 +20650,14 @@
       </c>
       <c r="AZ16" t="s">
         <v>81</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -20633,12 +20810,15 @@
         <v>77</v>
       </c>
       <c r="AZ17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -20791,12 +20971,15 @@
         <v>82</v>
       </c>
       <c r="AZ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -20950,6 +21133,9 @@
       </c>
       <c r="AZ19" t="s">
         <v>76</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -21078,7 +21264,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -21191,7 +21377,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -21304,7 +21490,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -21417,7 +21603,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -21530,7 +21716,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -21643,7 +21829,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -21756,7 +21942,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -21869,7 +22055,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -21982,7 +22168,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -22095,7 +22281,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -22208,7 +22394,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -22321,7 +22507,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -22463,7 +22649,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -22528,7 +22714,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -22611,7 +22797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -22694,7 +22880,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -22777,7 +22963,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -22860,7 +23046,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
@@ -22943,7 +23129,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -23026,7 +23212,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -23109,7 +23295,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
@@ -23192,7 +23378,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
@@ -23275,7 +23461,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -23437,7 +23623,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -23505,7 +23691,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -23573,7 +23759,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -23641,7 +23827,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -23709,7 +23895,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -23777,7 +23963,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -23845,7 +24031,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -23913,7 +24099,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -23981,7 +24167,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -24049,7 +24235,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -24214,7 +24400,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -24300,7 +24486,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -24386,7 +24572,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -24472,7 +24658,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -24558,7 +24744,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -24644,7 +24830,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -24730,7 +24916,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -24816,7 +25002,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
@@ -24902,7 +25088,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
         <v>81</v>
@@ -24988,7 +25174,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -27753,7 +27939,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" t="s">
         <v>190</v>
@@ -27810,7 +27996,7 @@
         <v>276</v>
       </c>
       <c r="AL1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -27877,11 +28063,14 @@
       </c>
       <c r="BH1" t="s">
         <v>57</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -28058,12 +28247,15 @@
         <v>77</v>
       </c>
       <c r="BH2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -28240,12 +28432,15 @@
         <v>81</v>
       </c>
       <c r="BH3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -28423,11 +28618,14 @@
       </c>
       <c r="BH4" t="s">
         <v>77</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -28605,11 +28803,14 @@
       </c>
       <c r="BH5" t="s">
         <v>79</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -28787,11 +28988,14 @@
       </c>
       <c r="BH6" t="s">
         <v>79</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -28969,11 +29173,14 @@
       </c>
       <c r="BH7" t="s">
         <v>76</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -29150,12 +29357,15 @@
         <v>76</v>
       </c>
       <c r="BH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -29332,12 +29542,15 @@
         <v>78</v>
       </c>
       <c r="BH9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -29514,12 +29727,15 @@
         <v>82</v>
       </c>
       <c r="BH10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
@@ -29696,12 +29912,15 @@
         <v>77</v>
       </c>
       <c r="BH11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -29879,11 +30098,14 @@
       </c>
       <c r="BH12" t="s">
         <v>76</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -30060,12 +30282,15 @@
         <v>82</v>
       </c>
       <c r="BH13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -30242,12 +30467,15 @@
         <v>76</v>
       </c>
       <c r="BH14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -30425,11 +30653,14 @@
       </c>
       <c r="BH15" t="s">
         <v>79</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -30607,11 +30838,14 @@
       </c>
       <c r="BH16" t="s">
         <v>77</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -30788,12 +31022,15 @@
         <v>81</v>
       </c>
       <c r="BH17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -30971,11 +31208,14 @@
       </c>
       <c r="BH18" t="s">
         <v>79</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B19" t="s">
         <v>81</v>
@@ -31152,12 +31392,15 @@
         <v>78</v>
       </c>
       <c r="BH19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -31335,11 +31578,14 @@
       </c>
       <c r="BH20" t="s">
         <v>77</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -31517,6 +31763,9 @@
       </c>
       <c r="BH21" t="s">
         <v>77</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -31571,13 +31820,13 @@
         <v>248</v>
       </c>
       <c r="N1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O1" t="s">
         <v>188</v>
       </c>
       <c r="P1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q1" t="s">
         <v>189</v>
@@ -31604,7 +31853,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -31628,7 +31877,7 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AH1" t="s">
         <v>222</v>
@@ -31637,10 +31886,10 @@
         <v>191</v>
       </c>
       <c r="AJ1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -31658,7 +31907,7 @@
         <v>159</v>
       </c>
       <c r="AQ1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -31691,7 +31940,7 @@
         <v>161</v>
       </c>
       <c r="BB1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -31703,7 +31952,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="BG1" t="s">
         <v>193</v>
@@ -31712,10 +31961,10 @@
         <v>194</v>
       </c>
       <c r="BI1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="BJ1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -31761,11 +32010,14 @@
       </c>
       <c r="BY1" t="s">
         <v>57</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -31994,11 +32246,14 @@
       </c>
       <c r="BY2" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -32226,12 +32481,15 @@
         <v>78</v>
       </c>
       <c r="BY3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -32460,11 +32718,14 @@
       </c>
       <c r="BY4" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -32692,12 +32953,15 @@
         <v>77</v>
       </c>
       <c r="BY5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -32926,11 +33190,14 @@
       </c>
       <c r="BY6" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -33158,12 +33425,15 @@
         <v>79</v>
       </c>
       <c r="BY7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -33391,12 +33661,15 @@
         <v>77</v>
       </c>
       <c r="BY8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -33624,12 +33897,15 @@
         <v>77</v>
       </c>
       <c r="BY9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -33857,12 +34133,15 @@
         <v>76</v>
       </c>
       <c r="BY10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -34090,12 +34369,15 @@
         <v>77</v>
       </c>
       <c r="BY11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -34324,11 +34606,14 @@
       </c>
       <c r="BY12" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -34557,11 +34842,14 @@
       </c>
       <c r="BY13" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -34789,12 +35077,15 @@
         <v>77</v>
       </c>
       <c r="BY14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -35022,12 +35313,15 @@
         <v>79</v>
       </c>
       <c r="BY15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -35256,11 +35550,14 @@
       </c>
       <c r="BY16" t="s">
         <v>76</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -35489,11 +35786,14 @@
       </c>
       <c r="BY17" t="s">
         <v>78</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -35722,11 +36022,14 @@
       </c>
       <c r="BY18" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -35955,11 +36258,14 @@
       </c>
       <c r="BY19" t="s">
         <v>76</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -36187,12 +36493,15 @@
         <v>76</v>
       </c>
       <c r="BY20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -36420,12 +36729,15 @@
         <v>77</v>
       </c>
       <c r="BY21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -36654,11 +36966,14 @@
       </c>
       <c r="BY22" t="s">
         <v>78</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -36886,6 +37201,9 @@
         <v>78</v>
       </c>
       <c r="BY23" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ23" t="s">
         <v>76</v>
       </c>
     </row>
@@ -37072,10 +37390,13 @@
       <c r="BE1" t="s">
         <v>57</v>
       </c>
+      <c r="BF1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -37244,11 +37565,14 @@
       </c>
       <c r="BE2" t="s">
         <v>81</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -37417,11 +37741,14 @@
       </c>
       <c r="BE3" t="s">
         <v>86</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -37589,12 +37916,15 @@
         <v>76</v>
       </c>
       <c r="BE4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -37762,12 +38092,15 @@
         <v>78</v>
       </c>
       <c r="BE5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -37936,11 +38269,14 @@
       </c>
       <c r="BE6" t="s">
         <v>84</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -38108,12 +38444,15 @@
         <v>78</v>
       </c>
       <c r="BE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -38282,11 +38621,14 @@
       </c>
       <c r="BE8" t="s">
         <v>76</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -38455,11 +38797,14 @@
       </c>
       <c r="BE9" t="s">
         <v>76</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -38628,11 +38973,14 @@
       </c>
       <c r="BE10" t="s">
         <v>76</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -38801,11 +39149,14 @@
       </c>
       <c r="BE11" t="s">
         <v>81</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -38973,12 +39324,15 @@
         <v>79</v>
       </c>
       <c r="BE12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -39146,12 +39500,15 @@
         <v>76</v>
       </c>
       <c r="BE13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -39319,12 +39676,15 @@
         <v>80</v>
       </c>
       <c r="BE14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -39492,12 +39852,15 @@
         <v>78</v>
       </c>
       <c r="BE15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -39666,11 +40029,14 @@
       </c>
       <c r="BE16" t="s">
         <v>84</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -39838,12 +40204,15 @@
         <v>80</v>
       </c>
       <c r="BE17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -40011,12 +40380,15 @@
         <v>79</v>
       </c>
       <c r="BE18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -40185,11 +40557,14 @@
       </c>
       <c r="BE19" t="s">
         <v>76</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -40357,12 +40732,15 @@
         <v>78</v>
       </c>
       <c r="BE20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -40531,6 +40909,9 @@
       </c>
       <c r="BE21" t="s">
         <v>86</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20429" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20490" uniqueCount="540">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>X2021.11.29</t>
+  </si>
+  <si>
+    <t>X2021.12.20</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -5460,25 +5463,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J1" t="s">
         <v>159</v>
@@ -5490,7 +5493,7 @@
         <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5508,7 +5511,7 @@
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5532,7 +5535,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5547,7 +5550,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5562,12 +5565,12 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -5680,7 +5683,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -5793,7 +5796,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -5906,7 +5909,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -6019,7 +6022,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -6132,7 +6135,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -6245,7 +6248,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -6358,7 +6361,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -6471,7 +6474,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -6584,7 +6587,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -6923,7 +6926,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>
@@ -7036,7 +7039,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -7149,7 +7152,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -7262,7 +7265,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -7375,7 +7378,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -7488,7 +7491,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -7601,7 +7604,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -7714,7 +7717,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B21" t="s">
         <v>89</v>
@@ -7913,7 +7916,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -7950,11 +7953,14 @@
       </c>
       <c r="AL1" t="s">
         <v>63</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -8066,11 +8072,14 @@
       </c>
       <c r="AL2" t="s">
         <v>82</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -8181,12 +8190,15 @@
         <v>82</v>
       </c>
       <c r="AL3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -8298,11 +8310,14 @@
       </c>
       <c r="AL4" t="s">
         <v>82</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -8414,11 +8429,14 @@
       </c>
       <c r="AL5" t="s">
         <v>86</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -8529,12 +8547,15 @@
         <v>84</v>
       </c>
       <c r="AL6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -8646,11 +8667,14 @@
       </c>
       <c r="AL7" t="s">
         <v>83</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -8762,11 +8786,14 @@
       </c>
       <c r="AL8" t="s">
         <v>82</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -8878,11 +8905,14 @@
       </c>
       <c r="AL9" t="s">
         <v>87</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -8994,11 +9024,14 @@
       </c>
       <c r="AL10" t="s">
         <v>82</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -9110,11 +9143,14 @@
       </c>
       <c r="AL11" t="s">
         <v>87</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -9226,11 +9262,14 @@
       </c>
       <c r="AL12" t="s">
         <v>83</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
         <v>89</v>
@@ -9341,12 +9380,15 @@
         <v>84</v>
       </c>
       <c r="AL13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -9458,11 +9500,14 @@
       </c>
       <c r="AL14" t="s">
         <v>86</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -9573,6 +9618,9 @@
         <v>82</v>
       </c>
       <c r="AL15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9628,10 +9676,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9676,13 +9724,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AE1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9709,7 +9757,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9748,7 +9796,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -9762,7 +9810,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -9935,7 +9983,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -10108,7 +10156,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -10281,7 +10329,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -10454,7 +10502,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -10627,7 +10675,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -10800,7 +10848,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -10973,7 +11021,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -11146,7 +11194,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -11319,7 +11367,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -11492,7 +11540,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -11665,7 +11713,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -11838,7 +11886,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -12011,7 +12059,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -12184,7 +12232,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -12357,7 +12405,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -12530,7 +12578,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -12703,7 +12751,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -12876,7 +12924,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -13049,7 +13097,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -13272,10 +13320,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13311,10 +13359,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AB1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AC1" t="s">
         <v>133</v>
@@ -13379,7 +13427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -13525,7 +13573,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -13671,7 +13719,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -13817,7 +13865,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -13963,7 +14011,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -14109,7 +14157,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -14255,7 +14303,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -14401,7 +14449,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -14547,7 +14595,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -14693,7 +14741,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -14839,7 +14887,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -14985,7 +15033,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -15131,7 +15179,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -15277,7 +15325,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -15423,7 +15471,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -15569,7 +15617,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -15715,7 +15763,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -15861,7 +15909,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -16007,7 +16055,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -16153,7 +16201,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -16355,7 +16403,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16456,7 +16504,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -16602,7 +16650,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -16748,7 +16796,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -16894,7 +16942,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -17040,7 +17088,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -17186,7 +17234,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -17332,7 +17380,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -17478,7 +17526,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -17624,7 +17672,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -17770,7 +17818,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -17916,7 +17964,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -18062,7 +18110,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -18208,7 +18256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -18354,7 +18402,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -18500,7 +18548,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -18646,7 +18694,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -18792,7 +18840,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -18938,7 +18986,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -19107,7 +19155,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19119,7 +19167,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19161,7 +19209,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19194,7 +19242,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19251,7 +19299,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19265,7 +19313,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -19435,7 +19483,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -19605,7 +19653,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -19775,7 +19823,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -19945,7 +19993,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -20115,7 +20163,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -20285,7 +20333,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -20455,7 +20503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -20625,7 +20673,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -20795,7 +20843,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -20965,7 +21013,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -21135,7 +21183,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -21305,7 +21353,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -21475,7 +21523,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -21645,7 +21693,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -21815,7 +21863,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -21985,7 +22033,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -22155,7 +22203,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -22396,7 +22444,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -22438,7 +22486,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -22458,7 +22506,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -22580,7 +22628,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -22702,7 +22750,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -22824,7 +22872,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -22946,7 +22994,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -23068,7 +23116,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -23190,7 +23238,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -23312,7 +23360,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -23434,7 +23482,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -23556,7 +23604,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -23678,7 +23726,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
@@ -23800,7 +23848,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -23939,7 +23987,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -23951,7 +23999,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -23984,7 +24032,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -23993,7 +24041,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24019,7 +24067,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -24105,7 +24153,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -24191,7 +24239,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -24277,7 +24325,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -24363,7 +24411,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -24449,7 +24497,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -24535,7 +24583,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -24621,7 +24669,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -24707,7 +24755,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -24793,7 +24841,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
         <v>92</v>
@@ -24941,7 +24989,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -24950,7 +24998,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -24961,7 +25009,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -25032,7 +25080,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -25103,7 +25151,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -25174,7 +25222,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -25245,7 +25293,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -25316,7 +25364,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -25387,7 +25435,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -25458,7 +25506,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -25529,7 +25577,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -25600,7 +25648,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -25706,7 +25754,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -25742,13 +25790,13 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
@@ -25774,7 +25822,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -25866,7 +25914,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -25958,7 +26006,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -26050,7 +26098,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -26142,7 +26190,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -26234,7 +26282,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -26326,7 +26374,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -26418,7 +26466,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -26510,7 +26558,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -26602,7 +26650,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -29616,7 +29664,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -29658,10 +29706,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -29706,16 +29754,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -29745,7 +29793,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -29784,7 +29832,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -29794,11 +29842,14 @@
       </c>
       <c r="BL1" t="s">
         <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -29987,12 +30038,15 @@
         <v>83</v>
       </c>
       <c r="BL2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -30182,11 +30236,14 @@
       </c>
       <c r="BL3" t="s">
         <v>86</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -30375,12 +30432,15 @@
         <v>84</v>
       </c>
       <c r="BL4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -30569,12 +30629,15 @@
         <v>86</v>
       </c>
       <c r="BL5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -30764,11 +30827,14 @@
       </c>
       <c r="BL6" t="s">
         <v>86</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -30958,11 +31024,14 @@
       </c>
       <c r="BL7" t="s">
         <v>89</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -31151,12 +31220,15 @@
         <v>82</v>
       </c>
       <c r="BL8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -31345,12 +31417,15 @@
         <v>86</v>
       </c>
       <c r="BL9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -31539,12 +31614,15 @@
         <v>82</v>
       </c>
       <c r="BL10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -31734,11 +31812,14 @@
       </c>
       <c r="BL11" t="s">
         <v>87</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -31928,11 +32009,14 @@
       </c>
       <c r="BL12" t="s">
         <v>86</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -32122,11 +32206,14 @@
       </c>
       <c r="BL13" t="s">
         <v>82</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -32316,11 +32403,14 @@
       </c>
       <c r="BL14" t="s">
         <v>86</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -32510,11 +32600,14 @@
       </c>
       <c r="BL15" t="s">
         <v>87</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -32704,11 +32797,14 @@
       </c>
       <c r="BL16" t="s">
         <v>89</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -32897,12 +32993,15 @@
         <v>84</v>
       </c>
       <c r="BL17" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -33091,12 +33190,15 @@
         <v>85</v>
       </c>
       <c r="BL18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -33286,11 +33388,14 @@
       </c>
       <c r="BL19" t="s">
         <v>82</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -33479,12 +33584,15 @@
         <v>83</v>
       </c>
       <c r="BL20" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -33673,6 +33781,9 @@
         <v>85</v>
       </c>
       <c r="BL21" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -33701,7 +33812,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -33725,19 +33836,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -33761,7 +33872,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -33785,19 +33896,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AH1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AK1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -33815,7 +33926,7 @@
         <v>165</v>
       </c>
       <c r="AQ1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -33827,7 +33938,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -33848,7 +33959,7 @@
         <v>167</v>
       </c>
       <c r="BB1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -33860,19 +33971,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BG1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BH1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BI1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="BJ1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -33884,7 +33995,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -33920,7 +34031,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -33934,7 +34045,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -34179,7 +34290,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -34424,7 +34535,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -34669,7 +34780,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -34914,7 +35025,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -35159,7 +35270,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -35404,7 +35515,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -35649,7 +35760,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -35894,7 +36005,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -36139,7 +36250,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -36384,7 +36495,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -36629,7 +36740,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -36874,7 +36985,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -37119,7 +37230,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -37364,7 +37475,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -37609,7 +37720,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -37854,7 +37965,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -38099,7 +38210,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -38344,7 +38455,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -38589,7 +38700,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -38834,7 +38945,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -39079,7 +39190,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -39347,7 +39458,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -39389,7 +39500,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -39440,7 +39551,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -39470,7 +39581,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -39506,7 +39617,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -39520,7 +39631,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -39705,7 +39816,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -39890,7 +40001,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -40075,7 +40186,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -40260,7 +40371,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -40445,7 +40556,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -40630,7 +40741,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -40815,7 +40926,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -41000,7 +41111,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -41185,7 +41296,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -41370,7 +41481,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -41555,7 +41666,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -41740,7 +41851,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -41925,7 +42036,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -42110,7 +42221,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -42295,7 +42406,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -42480,7 +42591,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -42665,7 +42776,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -42850,7 +42961,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -43035,7 +43146,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -49764,10 +49875,13 @@
       <c r="AW1" t="s">
         <v>62</v>
       </c>
+      <c r="AX1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -49911,12 +50025,15 @@
         <v>89</v>
       </c>
       <c r="AW2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -50061,11 +50178,14 @@
       </c>
       <c r="AW3" t="s">
         <v>85</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -50210,11 +50330,14 @@
       </c>
       <c r="AW4" t="s">
         <v>85</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -50359,11 +50482,14 @@
       </c>
       <c r="AW5" t="s">
         <v>85</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -50508,11 +50634,14 @@
       </c>
       <c r="AW6" t="s">
         <v>87</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -50657,11 +50786,14 @@
       </c>
       <c r="AW7" t="s">
         <v>86</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -50805,12 +50937,15 @@
         <v>82</v>
       </c>
       <c r="AW8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -50954,12 +51089,15 @@
         <v>82</v>
       </c>
       <c r="AW9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -51103,12 +51241,15 @@
         <v>82</v>
       </c>
       <c r="AW10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -51253,11 +51394,14 @@
       </c>
       <c r="AW11" t="s">
         <v>82</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -51402,11 +51546,14 @@
       </c>
       <c r="AW12" t="s">
         <v>86</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -51551,11 +51698,14 @@
       </c>
       <c r="AW13" t="s">
         <v>84</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -51699,12 +51849,15 @@
         <v>82</v>
       </c>
       <c r="AW14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -51849,11 +52002,14 @@
       </c>
       <c r="AW15" t="s">
         <v>87</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -51997,12 +52153,15 @@
         <v>82</v>
       </c>
       <c r="AW16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -52147,11 +52306,14 @@
       </c>
       <c r="AW17" t="s">
         <v>84</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -52296,11 +52458,14 @@
       </c>
       <c r="AW18" t="s">
         <v>85</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -52444,12 +52609,15 @@
         <v>82</v>
       </c>
       <c r="AW19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -52593,12 +52761,15 @@
         <v>82</v>
       </c>
       <c r="AW20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -52742,12 +52913,15 @@
         <v>82</v>
       </c>
       <c r="AW21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -52892,11 +53066,14 @@
       </c>
       <c r="AW22" t="s">
         <v>82</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
@@ -53040,12 +53217,15 @@
         <v>82</v>
       </c>
       <c r="AW23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -53189,12 +53369,15 @@
         <v>82</v>
       </c>
       <c r="AW24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -53338,6 +53521,9 @@
         <v>89</v>
       </c>
       <c r="AW25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -53375,10 +53561,10 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -53390,7 +53576,7 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
@@ -53402,7 +53588,7 @@
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -53417,7 +53603,7 @@
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
@@ -53426,10 +53612,10 @@
         <v>166</v>
       </c>
       <c r="Y1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -53447,10 +53633,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -53461,7 +53647,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -53568,7 +53754,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -53675,7 +53861,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -53782,7 +53968,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -53889,7 +54075,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -53996,7 +54182,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -54103,7 +54289,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -54210,7 +54396,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -54317,7 +54503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -54424,7 +54610,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -54531,7 +54717,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -54638,7 +54824,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -54745,7 +54931,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -54852,7 +55038,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
         <v>90</v>
@@ -54959,7 +55145,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -55066,7 +55252,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -55173,7 +55359,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
@@ -55280,7 +55466,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -55387,7 +55573,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
@@ -55494,7 +55680,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
         <v>89</v>
@@ -55601,7 +55787,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
@@ -55708,7 +55894,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -55815,7 +56001,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -55922,7 +56108,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
@@ -56055,7 +56241,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -56064,7 +56250,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -56079,7 +56265,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -56091,10 +56277,10 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
@@ -56106,16 +56292,16 @@
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -56130,10 +56316,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -56144,7 +56330,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -56248,7 +56434,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -56352,7 +56538,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -56456,7 +56642,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -56560,7 +56746,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>89</v>
@@ -56664,7 +56850,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -56768,7 +56954,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
         <v>89</v>
@@ -56872,7 +57058,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -56968,7 +57154,7 @@
         <v>82</v>
       </c>
       <c r="AG9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AH9" t="s">
         <v>82</v>
@@ -56976,7 +57162,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -57080,7 +57266,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -57184,7 +57370,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -57288,7 +57474,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -57392,7 +57578,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
@@ -57496,7 +57682,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -57600,7 +57786,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -57696,7 +57882,7 @@
         <v>82</v>
       </c>
       <c r="AG16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AH16" t="s">
         <v>82</v>
@@ -57704,7 +57890,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -57808,7 +57994,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -57912,7 +58098,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
@@ -58016,7 +58202,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -58120,7 +58306,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -58224,7 +58410,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -58328,7 +58514,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -58432,7 +58618,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
         <v>87</v>
@@ -58536,7 +58722,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
@@ -58660,13 +58846,13 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -58678,7 +58864,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
@@ -58690,19 +58876,19 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -58711,10 +58897,10 @@
         <v>166</v>
       </c>
       <c r="U1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -58735,7 +58921,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -58746,7 +58932,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -58841,7 +59027,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -58936,7 +59122,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -59031,7 +59217,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -59126,7 +59312,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -59221,7 +59407,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -59316,7 +59502,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -59411,7 +59597,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -59506,7 +59692,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -59601,7 +59787,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -59696,7 +59882,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -59791,7 +59977,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -59886,7 +60072,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -59981,7 +60167,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -60076,7 +60262,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -60171,7 +60357,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -60266,7 +60452,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -60361,7 +60547,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -60456,7 +60642,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -60551,7 +60737,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
@@ -60646,7 +60832,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -60741,7 +60927,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -60836,7 +61022,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -61035,7 +61221,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -61094,7 +61280,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -61246,7 +61432,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -61398,7 +61584,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -61550,7 +61736,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -61702,7 +61888,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -61854,7 +62040,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -62006,7 +62192,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -62158,7 +62344,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -62310,7 +62496,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -62462,7 +62648,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -62614,7 +62800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -62766,7 +62952,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -62918,7 +63104,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -63070,7 +63256,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -63222,7 +63408,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -63374,7 +63560,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -63526,7 +63712,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -63678,7 +63864,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -63830,7 +64016,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -63982,7 +64168,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21120" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21411" uniqueCount="549">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>X2021.12.06</t>
+  </si>
+  <si>
+    <t>X2021.12.28</t>
+  </si>
+  <si>
+    <t>X2021.12.29</t>
+  </si>
+  <si>
+    <t>X2021.12.30</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -5595,28 +5604,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -5625,7 +5634,7 @@
         <v>132</v>
       </c>
       <c r="M1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5637,13 +5646,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5667,7 +5676,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5682,7 +5691,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5697,15 +5706,15 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AL1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -5821,7 +5830,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -5937,7 +5946,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -6053,7 +6062,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6169,7 +6178,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -6285,7 +6294,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6401,7 +6410,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6517,7 +6526,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -6633,7 +6642,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
@@ -6749,7 +6758,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -6865,7 +6874,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -6981,7 +6990,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7097,7 +7106,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -7213,7 +7222,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -7329,7 +7338,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -7445,7 +7454,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7561,7 +7570,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -7677,7 +7686,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7793,7 +7802,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -7909,7 +7918,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B21" t="s">
         <v>91</v>
@@ -8111,7 +8120,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8150,12 +8159,12 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8274,7 +8283,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -8393,7 +8402,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8512,7 +8521,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -8631,7 +8640,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8750,7 +8759,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8869,7 +8878,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8988,7 +8997,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9107,7 +9116,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9226,7 +9235,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9345,7 +9354,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -9464,7 +9473,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
         <v>91</v>
@@ -9583,7 +9592,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9702,7 +9711,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9871,10 +9880,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9919,13 +9928,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AE1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AF1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9952,7 +9961,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9991,7 +10000,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -10003,15 +10012,15 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BG1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -10190,7 +10199,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10369,7 +10378,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10548,7 +10557,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -10727,7 +10736,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10906,7 +10915,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -11085,7 +11094,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -11264,7 +11273,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11443,7 +11452,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -11622,7 +11631,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11801,7 +11810,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11980,7 +11989,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12159,7 +12168,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12338,7 +12347,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12517,7 +12526,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -12696,7 +12705,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12875,7 +12884,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -13054,7 +13063,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13233,7 +13242,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13412,7 +13421,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -13641,10 +13650,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13680,10 +13689,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AB1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AC1" t="s">
         <v>135</v>
@@ -13713,7 +13722,7 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AM1" t="s">
         <v>136</v>
@@ -13748,7 +13757,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13894,7 +13903,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14040,7 +14049,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14186,7 +14195,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14332,7 +14341,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14478,7 +14487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14624,7 +14633,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14770,7 +14779,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14916,7 +14925,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15062,7 +15071,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -15208,7 +15217,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15354,7 +15363,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15500,7 +15509,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
@@ -15646,7 +15655,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15792,7 +15801,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15938,7 +15947,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16084,7 +16093,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16230,7 +16239,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16376,7 +16385,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16522,7 +16531,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16724,7 +16733,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16823,18 +16832,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AX1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AY1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16989,7 +16998,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17144,7 +17153,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17299,7 +17308,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17454,7 +17463,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17609,7 +17618,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -17764,7 +17773,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17919,7 +17928,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -18074,7 +18083,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18229,7 +18238,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18384,7 +18393,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18539,7 +18548,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18694,7 +18703,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18849,7 +18858,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -19004,7 +19013,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19159,7 +19168,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19314,7 +19323,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19469,7 +19478,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19647,7 +19656,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19659,7 +19668,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19701,7 +19710,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19734,7 +19743,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19767,7 +19776,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AT1" t="s">
         <v>136</v>
@@ -19791,7 +19800,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19801,11 +19810,20 @@
       </c>
       <c r="BD1" t="s">
         <v>63</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19971,11 +19989,20 @@
       </c>
       <c r="BD2" t="s">
         <v>84</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20141,11 +20168,20 @@
       </c>
       <c r="BD3" t="s">
         <v>89</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20311,11 +20347,20 @@
       </c>
       <c r="BD4" t="s">
         <v>94</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20481,11 +20526,20 @@
       </c>
       <c r="BD5" t="s">
         <v>89</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20650,12 +20704,21 @@
         <v>84</v>
       </c>
       <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20820,12 +20883,21 @@
         <v>84</v>
       </c>
       <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -20990,12 +21062,21 @@
         <v>86</v>
       </c>
       <c r="BD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21160,12 +21241,21 @@
         <v>84</v>
       </c>
       <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21331,11 +21421,20 @@
       </c>
       <c r="BD10" t="s">
         <v>94</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21501,11 +21600,20 @@
       </c>
       <c r="BD11" t="s">
         <v>89</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21671,11 +21779,20 @@
       </c>
       <c r="BD12" t="s">
         <v>84</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -21840,12 +21957,21 @@
         <v>85</v>
       </c>
       <c r="BD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22010,12 +22136,21 @@
         <v>84</v>
       </c>
       <c r="BD14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22181,11 +22316,20 @@
       </c>
       <c r="BD15" t="s">
         <v>84</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22351,11 +22495,20 @@
       </c>
       <c r="BD16" t="s">
         <v>89</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22520,12 +22673,21 @@
         <v>86</v>
       </c>
       <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22690,12 +22852,21 @@
         <v>89</v>
       </c>
       <c r="BD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -22861,6 +23032,15 @@
       </c>
       <c r="BD19" t="s">
         <v>87</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -22936,7 +23116,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -22978,7 +23158,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -22996,7 +23176,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23004,7 +23184,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23132,7 +23312,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -23260,7 +23440,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -23388,7 +23568,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23516,7 +23696,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -23644,7 +23824,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -23772,7 +23952,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -23900,7 +24080,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24028,7 +24208,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -24156,7 +24336,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -24284,7 +24464,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
         <v>91</v>
@@ -24412,7 +24592,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -24557,7 +24737,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24569,7 +24749,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24587,7 +24767,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24602,7 +24782,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24611,7 +24791,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24636,11 +24816,14 @@
       </c>
       <c r="AC1" t="s">
         <v>64</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -24725,11 +24908,14 @@
       </c>
       <c r="AC2" t="s">
         <v>86</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -24814,11 +25000,14 @@
       </c>
       <c r="AC3" t="s">
         <v>85</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -24903,11 +25092,14 @@
       </c>
       <c r="AC4" t="s">
         <v>86</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
@@ -24992,11 +25184,14 @@
       </c>
       <c r="AC5" t="s">
         <v>88</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
         <v>89</v>
@@ -25080,12 +25275,15 @@
         <v>86</v>
       </c>
       <c r="AC6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25170,11 +25368,14 @@
       </c>
       <c r="AC7" t="s">
         <v>88</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -25259,11 +25460,14 @@
       </c>
       <c r="AC8" t="s">
         <v>84</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -25347,12 +25551,15 @@
         <v>89</v>
       </c>
       <c r="AC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -25436,12 +25643,15 @@
         <v>86</v>
       </c>
       <c r="AC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
@@ -25526,6 +25736,9 @@
       </c>
       <c r="AC11" t="s">
         <v>85</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -25562,7 +25775,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25592,7 +25805,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25601,7 +25814,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25610,15 +25823,18 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -25691,11 +25907,14 @@
       </c>
       <c r="Y2" t="s">
         <v>87</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -25768,11 +25987,14 @@
       </c>
       <c r="Y3" t="s">
         <v>87</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -25845,11 +26067,14 @@
       </c>
       <c r="Y4" t="s">
         <v>86</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -25922,11 +26147,14 @@
       </c>
       <c r="Y5" t="s">
         <v>92</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -25998,12 +26226,15 @@
         <v>84</v>
       </c>
       <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26076,11 +26307,14 @@
       </c>
       <c r="Y7" t="s">
         <v>92</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26153,11 +26387,14 @@
       </c>
       <c r="Y8" t="s">
         <v>86</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26229,12 +26466,15 @@
         <v>85</v>
       </c>
       <c r="Y9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -26306,12 +26546,15 @@
         <v>85</v>
       </c>
       <c r="Y10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26384,6 +26627,9 @@
       </c>
       <c r="Y11" t="s">
         <v>84</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -26423,7 +26669,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26459,19 +26705,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="V1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="W1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26489,10 +26735,10 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
@@ -26500,7 +26746,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -26601,7 +26847,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -26702,7 +26948,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -26803,7 +27049,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26904,7 +27150,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27005,7 +27251,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -27106,7 +27352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -27207,7 +27453,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -27308,7 +27554,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -27409,7 +27655,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -30432,7 +30678,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30474,10 +30720,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="T1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30522,16 +30768,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AJ1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AK1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AL1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30561,7 +30807,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -30573,7 +30819,7 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BA1" t="s">
         <v>137</v>
@@ -30600,7 +30846,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -30612,18 +30858,18 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BN1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BO1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -30826,7 +31072,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31029,7 +31275,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31232,7 +31478,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31435,7 +31681,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -31638,7 +31884,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -31841,7 +32087,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32044,7 +32290,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32247,7 +32493,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32450,7 +32696,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -32653,7 +32899,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -32856,7 +33102,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33059,7 +33305,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33262,7 +33508,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -33465,7 +33711,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -33668,7 +33914,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -33871,7 +34117,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34074,7 +34320,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -34277,7 +34523,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -34480,7 +34726,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -34706,7 +34952,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -34730,19 +34976,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="O1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -34766,7 +35012,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -34790,19 +35036,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AH1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AI1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AJ1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AK1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -34814,13 +35060,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AP1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AQ1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -34832,7 +35078,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -34847,13 +35093,13 @@
         <v>135</v>
       </c>
       <c r="AZ1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BA1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BB1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -34865,19 +35111,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="BG1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BH1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BI1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="BJ1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -34889,7 +35135,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -34901,7 +35147,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -34925,7 +35171,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -34939,7 +35185,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35184,7 +35430,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -35429,7 +35675,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -35674,7 +35920,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -35919,7 +36165,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36164,7 +36410,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -36409,7 +36655,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -36654,7 +36900,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -36899,7 +37145,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -37144,7 +37390,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -37389,7 +37635,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -37634,7 +37880,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -37879,7 +38125,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38124,7 +38370,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -38369,7 +38615,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -38614,7 +38860,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -38859,7 +39105,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39104,7 +39350,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39349,7 +39595,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -39594,7 +39840,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -39839,7 +40085,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40084,7 +40330,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B23" t="s">
         <v>91</v>
@@ -40352,7 +40598,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -40394,7 +40640,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -40445,7 +40691,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -40475,7 +40721,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -40487,7 +40733,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -40511,7 +40757,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -40523,16 +40769,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BK1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="BL1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="BM1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -40543,7 +40789,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -40746,7 +40992,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -40949,7 +41195,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41152,7 +41398,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -41355,7 +41601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -41558,7 +41804,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -41761,7 +42007,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -41964,7 +42210,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -42167,7 +42413,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -42370,7 +42616,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -42573,7 +42819,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -42776,7 +43022,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -42979,7 +43225,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -43182,7 +43428,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -43385,7 +43631,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -43588,7 +43834,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -43791,7 +44037,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -43994,7 +44240,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -44197,7 +44443,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -44400,7 +44646,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -47953,10 +48199,19 @@
       <c r="AZ1" t="s">
         <v>65</v>
       </c>
+      <c r="BA1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -48109,12 +48364,21 @@
         <v>88</v>
       </c>
       <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -48267,12 +48531,21 @@
         <v>87</v>
       </c>
       <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -48425,12 +48698,21 @@
         <v>85</v>
       </c>
       <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -48583,12 +48865,21 @@
         <v>85</v>
       </c>
       <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -48742,11 +49033,20 @@
       </c>
       <c r="AZ6" t="s">
         <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -48899,12 +49199,21 @@
         <v>87</v>
       </c>
       <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -49057,12 +49366,21 @@
         <v>86</v>
       </c>
       <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -49215,12 +49533,21 @@
         <v>84</v>
       </c>
       <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -49373,12 +49700,21 @@
         <v>84</v>
       </c>
       <c r="AZ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -49531,12 +49867,21 @@
         <v>93</v>
       </c>
       <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -49689,12 +50034,21 @@
         <v>84</v>
       </c>
       <c r="AZ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -49847,12 +50201,21 @@
         <v>93</v>
       </c>
       <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -50006,11 +50369,20 @@
       </c>
       <c r="AZ14" t="s">
         <v>85</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -50164,11 +50536,20 @@
       </c>
       <c r="AZ15" t="s">
         <v>85</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -50321,12 +50702,21 @@
         <v>88</v>
       </c>
       <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -50479,12 +50869,21 @@
         <v>88</v>
       </c>
       <c r="AZ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -50637,12 +51036,21 @@
         <v>86</v>
       </c>
       <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -50795,12 +51203,21 @@
         <v>84</v>
       </c>
       <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -50953,12 +51370,21 @@
         <v>88</v>
       </c>
       <c r="AZ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -51111,6 +51537,15 @@
         <v>84</v>
       </c>
       <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -51142,10 +51577,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -51166,10 +51601,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -51181,10 +51616,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -51202,10 +51637,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AA1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -51220,10 +51655,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -51238,7 +51673,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AM1" t="s">
         <v>113</v>
@@ -51253,7 +51688,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -51274,18 +51709,24 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
       </c>
       <c r="AZ1" t="s">
         <v>65</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -51438,12 +51879,18 @@
         <v>84</v>
       </c>
       <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -51596,12 +52043,18 @@
         <v>84</v>
       </c>
       <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -51754,12 +52207,18 @@
         <v>84</v>
       </c>
       <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -51912,12 +52371,18 @@
         <v>88</v>
       </c>
       <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -52071,11 +52536,17 @@
       </c>
       <c r="AZ6" t="s">
         <v>89</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -52229,11 +52700,17 @@
       </c>
       <c r="AZ7" t="s">
         <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -52387,11 +52864,17 @@
       </c>
       <c r="AZ8" t="s">
         <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -52544,12 +53027,18 @@
         <v>84</v>
       </c>
       <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -52703,11 +53192,17 @@
       </c>
       <c r="AZ10" t="s">
         <v>89</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -52860,12 +53355,18 @@
         <v>84</v>
       </c>
       <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -53019,11 +53520,17 @@
       </c>
       <c r="AZ12" t="s">
         <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -53176,12 +53683,18 @@
         <v>84</v>
       </c>
       <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -53334,12 +53847,18 @@
         <v>84</v>
       </c>
       <c r="AZ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -53492,12 +54011,18 @@
         <v>85</v>
       </c>
       <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -53650,12 +54175,18 @@
         <v>84</v>
       </c>
       <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -53809,11 +54340,17 @@
       </c>
       <c r="AZ17" t="s">
         <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -53966,12 +54503,18 @@
         <v>84</v>
       </c>
       <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -54124,12 +54667,18 @@
         <v>84</v>
       </c>
       <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -54283,11 +54832,17 @@
       </c>
       <c r="AZ20" t="s">
         <v>89</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -54440,12 +54995,18 @@
         <v>84</v>
       </c>
       <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -54598,12 +55159,18 @@
         <v>84</v>
       </c>
       <c r="AZ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -54757,11 +55324,17 @@
       </c>
       <c r="AZ23" t="s">
         <v>84</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -54914,12 +55487,18 @@
         <v>84</v>
       </c>
       <c r="AZ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
@@ -55073,6 +55652,12 @@
       </c>
       <c r="AZ25" t="s">
         <v>89</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -55097,7 +55682,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -55109,34 +55694,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -55145,31 +55730,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Z1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -55181,10 +55766,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AG1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -55197,11 +55782,17 @@
       </c>
       <c r="AK1" t="s">
         <v>65</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -55309,12 +55900,18 @@
         <v>89</v>
       </c>
       <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -55422,12 +56019,18 @@
         <v>84</v>
       </c>
       <c r="AK3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
         <v>92</v>
@@ -55535,12 +56138,18 @@
         <v>84</v>
       </c>
       <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -55648,12 +56257,18 @@
         <v>84</v>
       </c>
       <c r="AK5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -55761,12 +56376,18 @@
         <v>84</v>
       </c>
       <c r="AK6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -55874,12 +56495,18 @@
         <v>84</v>
       </c>
       <c r="AK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -55987,12 +56614,18 @@
         <v>85</v>
       </c>
       <c r="AK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -56100,12 +56733,18 @@
         <v>84</v>
       </c>
       <c r="AK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -56214,11 +56853,17 @@
       </c>
       <c r="AK10" t="s">
         <v>86</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -56326,12 +56971,18 @@
         <v>86</v>
       </c>
       <c r="AK11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -56439,12 +57090,18 @@
         <v>84</v>
       </c>
       <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -56552,12 +57209,18 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -56665,12 +57328,18 @@
         <v>88</v>
       </c>
       <c r="AK14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
         <v>92</v>
@@ -56778,12 +57447,18 @@
         <v>88</v>
       </c>
       <c r="AK15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -56891,12 +57566,18 @@
         <v>84</v>
       </c>
       <c r="AK16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -57004,12 +57685,18 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -57117,12 +57804,18 @@
         <v>85</v>
       </c>
       <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -57230,12 +57923,18 @@
         <v>84</v>
       </c>
       <c r="AK19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -57343,12 +58042,18 @@
         <v>89</v>
       </c>
       <c r="AK20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
         <v>91</v>
@@ -57457,11 +58162,17 @@
       </c>
       <c r="AK21" t="s">
         <v>84</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -57569,12 +58280,18 @@
         <v>86</v>
       </c>
       <c r="AK22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -57683,11 +58400,17 @@
       </c>
       <c r="AK23" t="s">
         <v>86</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -57795,12 +58518,18 @@
         <v>84</v>
       </c>
       <c r="AK24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -57908,6 +58637,12 @@
         <v>84</v>
       </c>
       <c r="AK25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -57933,13 +58668,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -57948,7 +58683,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -57957,13 +58692,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -57975,37 +58710,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="S1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Z1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -58014,10 +58749,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AF1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -58027,11 +58762,14 @@
       </c>
       <c r="AI1" t="s">
         <v>64</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -58134,11 +58872,14 @@
       </c>
       <c r="AI2" t="s">
         <v>85</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -58240,12 +58981,15 @@
         <v>84</v>
       </c>
       <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -58347,12 +59091,15 @@
         <v>84</v>
       </c>
       <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -58454,12 +59201,15 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -58561,12 +59311,15 @@
         <v>84</v>
       </c>
       <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -58668,12 +59421,15 @@
         <v>84</v>
       </c>
       <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
         <v>91</v>
@@ -58775,12 +59531,15 @@
         <v>84</v>
       </c>
       <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -58876,18 +59635,21 @@
         <v>84</v>
       </c>
       <c r="AG9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AH9" t="s">
         <v>84</v>
       </c>
       <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -58989,12 +59751,15 @@
         <v>89</v>
       </c>
       <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -59097,11 +59862,14 @@
       </c>
       <c r="AI11" t="s">
         <v>88</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -59203,12 +59971,15 @@
         <v>89</v>
       </c>
       <c r="AI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -59311,11 +60082,14 @@
       </c>
       <c r="AI13" t="s">
         <v>88</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>
@@ -59417,12 +60191,15 @@
         <v>86</v>
       </c>
       <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B15" t="s">
         <v>89</v>
@@ -59524,12 +60301,15 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
@@ -59625,18 +60405,21 @@
         <v>84</v>
       </c>
       <c r="AG16" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AH16" t="s">
         <v>84</v>
       </c>
       <c r="AI16" t="s">
         <v>87</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -59738,12 +60521,15 @@
         <v>84</v>
       </c>
       <c r="AI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
@@ -59845,12 +60631,15 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -59952,12 +60741,15 @@
         <v>89</v>
       </c>
       <c r="AI19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -60060,11 +60852,14 @@
       </c>
       <c r="AI20" t="s">
         <v>87</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
         <v>89</v>
@@ -60167,11 +60962,14 @@
       </c>
       <c r="AI21" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -60273,12 +61071,15 @@
         <v>89</v>
       </c>
       <c r="AI22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
@@ -60381,11 +61182,14 @@
       </c>
       <c r="AI23" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
@@ -60488,11 +61292,14 @@
       </c>
       <c r="AI24" t="s">
         <v>85</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s">
         <v>89</v>
@@ -60594,6 +61401,9 @@
         <v>84</v>
       </c>
       <c r="AI25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -60619,61 +61429,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="U1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="V1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -60682,7 +61492,7 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
@@ -60694,7 +61504,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -60704,11 +61514,14 @@
       </c>
       <c r="AF1" t="s">
         <v>64</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -60802,11 +61615,14 @@
       </c>
       <c r="AF2" t="s">
         <v>85</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -60900,11 +61716,14 @@
       </c>
       <c r="AF3" t="s">
         <v>92</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -60997,12 +61816,15 @@
         <v>84</v>
       </c>
       <c r="AF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -61095,12 +61917,15 @@
         <v>84</v>
       </c>
       <c r="AF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -61194,11 +62019,14 @@
       </c>
       <c r="AF6" t="s">
         <v>85</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -61292,11 +62120,14 @@
       </c>
       <c r="AF7" t="s">
         <v>84</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -61390,11 +62221,14 @@
       </c>
       <c r="AF8" t="s">
         <v>85</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -61488,11 +62322,14 @@
       </c>
       <c r="AF9" t="s">
         <v>85</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -61586,11 +62423,14 @@
       </c>
       <c r="AF10" t="s">
         <v>84</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -61683,12 +62523,15 @@
         <v>84</v>
       </c>
       <c r="AF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -61782,11 +62625,14 @@
       </c>
       <c r="AF12" t="s">
         <v>84</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
         <v>89</v>
@@ -61879,12 +62725,15 @@
         <v>85</v>
       </c>
       <c r="AF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -61978,11 +62827,14 @@
       </c>
       <c r="AF14" t="s">
         <v>84</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
@@ -62075,12 +62927,15 @@
         <v>84</v>
       </c>
       <c r="AF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -62174,11 +63029,14 @@
       </c>
       <c r="AF16" t="s">
         <v>84</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -62272,11 +63130,14 @@
       </c>
       <c r="AF17" t="s">
         <v>85</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -62370,11 +63231,14 @@
       </c>
       <c r="AF18" t="s">
         <v>92</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -62467,12 +63331,15 @@
         <v>84</v>
       </c>
       <c r="AF19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -62565,12 +63432,15 @@
         <v>84</v>
       </c>
       <c r="AF20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -62663,12 +63533,15 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -62762,11 +63635,14 @@
       </c>
       <c r="AF22" t="s">
         <v>85</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
@@ -62860,11 +63736,14 @@
       </c>
       <c r="AF23" t="s">
         <v>84</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -62958,6 +63837,9 @@
       </c>
       <c r="AF24" t="s">
         <v>86</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -63066,7 +63948,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -63123,12 +64005,12 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -63283,7 +64165,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -63438,7 +64320,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -63593,7 +64475,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -63748,7 +64630,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -63903,7 +64785,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -64058,7 +64940,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -64213,7 +65095,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -64368,7 +65250,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -64523,7 +65405,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -64678,7 +65560,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -64833,7 +65715,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -64988,7 +65870,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -65143,7 +66025,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -65298,7 +66180,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -65453,7 +66335,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -65608,7 +66490,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -65763,7 +66645,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -65918,7 +66800,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -66073,7 +66955,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21411" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21924" uniqueCount="553">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -462,6 +462,15 @@
   </si>
   <si>
     <t>X2021.12.30</t>
+  </si>
+  <si>
+    <t>X2022.01.01</t>
+  </si>
+  <si>
+    <t>X2022.01.02</t>
+  </si>
+  <si>
+    <t>X2022.01.03</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -1463,6 +1472,9 @@
     <t>Stranraer</t>
   </si>
   <si>
+    <t>X2021.12.31</t>
+  </si>
+  <si>
     <t>Alaves</t>
   </si>
   <si>
@@ -5604,28 +5616,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -5634,7 +5646,7 @@
         <v>132</v>
       </c>
       <c r="M1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5646,13 +5658,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5676,7 +5688,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5691,7 +5703,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5706,15 +5718,15 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AL1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -5830,7 +5842,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -5946,7 +5958,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -6062,7 +6074,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6178,7 +6190,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -6294,7 +6306,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6410,7 +6422,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6526,7 +6538,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -6642,7 +6654,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
@@ -6758,7 +6770,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -6874,7 +6886,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -6990,7 +7002,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7106,7 +7118,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -7222,7 +7234,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -7338,7 +7350,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -7454,7 +7466,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7570,7 +7582,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -7686,7 +7698,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7802,7 +7814,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -7918,7 +7930,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B21" t="s">
         <v>91</v>
@@ -8120,7 +8132,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8159,12 +8171,12 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8283,7 +8295,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -8402,7 +8414,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8521,7 +8533,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -8640,7 +8652,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8759,7 +8771,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8878,7 +8890,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8997,7 +9009,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9116,7 +9128,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9235,7 +9247,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9354,7 +9366,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -9473,7 +9485,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
         <v>91</v>
@@ -9592,7 +9604,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9711,7 +9723,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9880,10 +9892,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9928,13 +9940,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AE1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AF1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9961,7 +9973,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -10000,7 +10012,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -10012,15 +10024,15 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="BG1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -10199,7 +10211,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10378,7 +10390,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10557,7 +10569,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -10736,7 +10748,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10915,7 +10927,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -11094,7 +11106,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -11273,7 +11285,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11452,7 +11464,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -11631,7 +11643,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11810,7 +11822,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11989,7 +12001,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12168,7 +12180,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12347,7 +12359,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12526,7 +12538,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -12705,7 +12717,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12884,7 +12896,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -13063,7 +13075,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13242,7 +13254,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13421,7 +13433,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -13650,10 +13662,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13689,10 +13701,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AB1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AC1" t="s">
         <v>135</v>
@@ -13722,7 +13734,7 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AM1" t="s">
         <v>136</v>
@@ -13757,7 +13769,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13903,7 +13915,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14049,7 +14061,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14195,7 +14207,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14341,7 +14353,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14487,7 +14499,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14633,7 +14645,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14779,7 +14791,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14925,7 +14937,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15071,7 +15083,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -15217,7 +15229,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15363,7 +15375,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15509,7 +15521,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
@@ -15655,7 +15667,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15801,7 +15813,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15947,7 +15959,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16093,7 +16105,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16239,7 +16251,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16385,7 +16397,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16531,7 +16543,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16733,7 +16745,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16832,18 +16844,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AX1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AY1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16998,7 +17010,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17153,7 +17165,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17308,7 +17320,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17463,7 +17475,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17618,7 +17630,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -17773,7 +17785,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17928,7 +17940,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -18083,7 +18095,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18238,7 +18250,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18393,7 +18405,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18548,7 +18560,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18703,7 +18715,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18858,7 +18870,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -19013,7 +19025,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19168,7 +19180,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19323,7 +19335,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19478,7 +19490,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19656,7 +19668,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19668,7 +19680,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19710,7 +19722,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19743,7 +19755,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19776,7 +19788,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AT1" t="s">
         <v>136</v>
@@ -19800,7 +19812,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19819,11 +19831,17 @@
       </c>
       <c r="BG1" t="s">
         <v>142</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19998,11 +20016,17 @@
       </c>
       <c r="BG2" t="s">
         <v>92</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20176,12 +20200,18 @@
         <v>84</v>
       </c>
       <c r="BG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20356,11 +20386,17 @@
       </c>
       <c r="BG4" t="s">
         <v>87</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20534,12 +20570,18 @@
         <v>85</v>
       </c>
       <c r="BG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20713,12 +20755,18 @@
         <v>84</v>
       </c>
       <c r="BG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20892,12 +20940,18 @@
         <v>84</v>
       </c>
       <c r="BG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -21071,12 +21125,18 @@
         <v>84</v>
       </c>
       <c r="BG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21250,12 +21310,18 @@
         <v>85</v>
       </c>
       <c r="BG9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21429,12 +21495,18 @@
         <v>84</v>
       </c>
       <c r="BG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21609,11 +21681,17 @@
       </c>
       <c r="BG11" t="s">
         <v>84</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21788,11 +21866,17 @@
       </c>
       <c r="BG12" t="s">
         <v>86</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -21966,12 +22050,18 @@
         <v>88</v>
       </c>
       <c r="BG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22146,11 +22236,17 @@
       </c>
       <c r="BG14" t="s">
         <v>87</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22325,11 +22421,17 @@
       </c>
       <c r="BG15" t="s">
         <v>86</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22504,11 +22606,17 @@
       </c>
       <c r="BG16" t="s">
         <v>92</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22682,12 +22790,18 @@
         <v>88</v>
       </c>
       <c r="BG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22862,11 +22976,17 @@
       </c>
       <c r="BG18" t="s">
         <v>84</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -23040,6 +23160,12 @@
         <v>84</v>
       </c>
       <c r="BG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23116,7 +23242,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -23158,7 +23284,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -23176,7 +23302,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23184,7 +23310,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23312,7 +23438,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -23440,7 +23566,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -23568,7 +23694,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23696,7 +23822,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -23824,7 +23950,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -23952,7 +24078,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -24080,7 +24206,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24208,7 +24334,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -24336,7 +24462,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -24464,7 +24590,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>91</v>
@@ -24592,7 +24718,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -24737,7 +24863,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24749,7 +24875,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24767,7 +24893,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24782,7 +24908,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24791,7 +24917,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24819,11 +24945,14 @@
       </c>
       <c r="AD1" t="s">
         <v>141</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -24911,11 +25040,14 @@
       </c>
       <c r="AD2" t="s">
         <v>84</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -25002,12 +25134,15 @@
         <v>85</v>
       </c>
       <c r="AD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -25095,11 +25230,14 @@
       </c>
       <c r="AD4" t="s">
         <v>84</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
@@ -25187,11 +25325,14 @@
       </c>
       <c r="AD5" t="s">
         <v>84</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>89</v>
@@ -25279,11 +25420,14 @@
       </c>
       <c r="AD6" t="s">
         <v>84</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25371,11 +25515,14 @@
       </c>
       <c r="AD7" t="s">
         <v>85</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -25463,11 +25610,14 @@
       </c>
       <c r="AD8" t="s">
         <v>85</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -25554,12 +25704,15 @@
         <v>84</v>
       </c>
       <c r="AD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -25647,11 +25800,14 @@
       </c>
       <c r="AD10" t="s">
         <v>84</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
@@ -25739,6 +25895,9 @@
       </c>
       <c r="AD11" t="s">
         <v>84</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -25775,7 +25934,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25805,7 +25964,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25814,7 +25973,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25823,18 +25982,21 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
         <v>141</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -25909,12 +26071,15 @@
         <v>87</v>
       </c>
       <c r="Z2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -25989,12 +26154,15 @@
         <v>87</v>
       </c>
       <c r="Z3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -26069,12 +26237,15 @@
         <v>86</v>
       </c>
       <c r="Z4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26150,11 +26321,14 @@
       </c>
       <c r="Z5" t="s">
         <v>84</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -26230,11 +26404,14 @@
       </c>
       <c r="Z6" t="s">
         <v>84</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26310,11 +26487,14 @@
       </c>
       <c r="Z7" t="s">
         <v>84</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26389,12 +26569,15 @@
         <v>86</v>
       </c>
       <c r="Z8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26470,11 +26653,14 @@
       </c>
       <c r="Z9" t="s">
         <v>84</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -26550,11 +26736,14 @@
       </c>
       <c r="Z10" t="s">
         <v>84</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26630,6 +26819,9 @@
       </c>
       <c r="Z11" t="s">
         <v>89</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -26669,7 +26861,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26705,19 +26897,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="V1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26735,18 +26927,21 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AF1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -26843,11 +27038,14 @@
       </c>
       <c r="AG2" t="s">
         <v>88</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -26944,11 +27142,14 @@
       </c>
       <c r="AG3" t="s">
         <v>92</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -27044,12 +27245,15 @@
         <v>86</v>
       </c>
       <c r="AG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -27145,12 +27349,15 @@
         <v>86</v>
       </c>
       <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27247,11 +27454,14 @@
       </c>
       <c r="AG6" t="s">
         <v>84</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -27348,11 +27558,14 @@
       </c>
       <c r="AG7" t="s">
         <v>90</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -27449,11 +27662,14 @@
       </c>
       <c r="AG8" t="s">
         <v>92</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -27550,11 +27766,14 @@
       </c>
       <c r="AG9" t="s">
         <v>90</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -27651,11 +27870,14 @@
       </c>
       <c r="AG10" t="s">
         <v>84</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -27752,6 +27974,9 @@
       </c>
       <c r="AG11" t="s">
         <v>88</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -30678,7 +30903,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30720,10 +30945,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="T1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30768,16 +30993,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AJ1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AK1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AL1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30807,7 +31032,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -30819,7 +31044,7 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BA1" t="s">
         <v>137</v>
@@ -30846,7 +31071,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -30858,18 +31083,27 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BN1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="BO1" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -31067,12 +31301,21 @@
         <v>90</v>
       </c>
       <c r="BO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31271,11 +31514,20 @@
       </c>
       <c r="BO3" t="s">
         <v>86</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31474,11 +31726,20 @@
       </c>
       <c r="BO4" t="s">
         <v>86</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31676,12 +31937,21 @@
         <v>85</v>
       </c>
       <c r="BO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -31879,12 +32149,21 @@
         <v>84</v>
       </c>
       <c r="BO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -32083,11 +32362,20 @@
       </c>
       <c r="BO7" t="s">
         <v>84</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32285,12 +32573,21 @@
         <v>84</v>
       </c>
       <c r="BO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32488,12 +32785,21 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32691,12 +32997,21 @@
         <v>84</v>
       </c>
       <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -32894,12 +33209,21 @@
         <v>84</v>
       </c>
       <c r="BO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -33098,11 +33422,20 @@
       </c>
       <c r="BO12" t="s">
         <v>86</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33301,11 +33634,20 @@
       </c>
       <c r="BO13" t="s">
         <v>84</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33503,12 +33845,21 @@
         <v>84</v>
       </c>
       <c r="BO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -33707,11 +34058,20 @@
       </c>
       <c r="BO15" t="s">
         <v>84</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -33910,11 +34270,20 @@
       </c>
       <c r="BO16" t="s">
         <v>86</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -34113,11 +34482,20 @@
       </c>
       <c r="BO17" t="s">
         <v>84</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34315,12 +34693,21 @@
         <v>84</v>
       </c>
       <c r="BO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -34518,12 +34905,21 @@
         <v>84</v>
       </c>
       <c r="BO19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -34721,12 +35117,21 @@
         <v>84</v>
       </c>
       <c r="BO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -34925,6 +35330,15 @@
       </c>
       <c r="BO21" t="s">
         <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -34952,7 +35366,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -34976,19 +35390,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="O1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -35012,7 +35426,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -35036,19 +35450,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AH1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AI1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AJ1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AK1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -35060,13 +35474,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AP1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AQ1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -35078,7 +35492,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -35093,13 +35507,13 @@
         <v>135</v>
       </c>
       <c r="AZ1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BA1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BB1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -35111,19 +35525,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="BG1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BH1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BI1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="BJ1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -35135,7 +35549,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -35147,7 +35561,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -35171,7 +35585,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -35181,11 +35595,20 @@
       </c>
       <c r="CC1" t="s">
         <v>63</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>479</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35426,11 +35849,20 @@
       </c>
       <c r="CC2" t="s">
         <v>91</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -35670,12 +36102,21 @@
         <v>84</v>
       </c>
       <c r="CC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -35916,11 +36357,20 @@
       </c>
       <c r="CC4" t="s">
         <v>85</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -36160,12 +36610,21 @@
         <v>84</v>
       </c>
       <c r="CC5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36406,11 +36865,20 @@
       </c>
       <c r="CC6" t="s">
         <v>86</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -36650,12 +37118,21 @@
         <v>89</v>
       </c>
       <c r="CC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -36896,11 +37373,20 @@
       </c>
       <c r="CC8" t="s">
         <v>91</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -37140,12 +37626,21 @@
         <v>84</v>
       </c>
       <c r="CC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -37386,11 +37881,20 @@
       </c>
       <c r="CC10" t="s">
         <v>91</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -37630,12 +38134,21 @@
         <v>85</v>
       </c>
       <c r="CC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -37875,12 +38388,21 @@
         <v>89</v>
       </c>
       <c r="CC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -38120,12 +38642,21 @@
         <v>85</v>
       </c>
       <c r="CC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38365,12 +38896,21 @@
         <v>84</v>
       </c>
       <c r="CC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -38611,11 +39151,20 @@
       </c>
       <c r="CC15" t="s">
         <v>84</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -38856,11 +39405,20 @@
       </c>
       <c r="CC16" t="s">
         <v>86</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -39101,11 +39659,20 @@
       </c>
       <c r="CC17" t="s">
         <v>91</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39346,11 +39913,20 @@
       </c>
       <c r="CC18" t="s">
         <v>85</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39591,11 +40167,20 @@
       </c>
       <c r="CC19" t="s">
         <v>85</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -39835,12 +40420,21 @@
         <v>85</v>
       </c>
       <c r="CC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -40081,11 +40675,20 @@
       </c>
       <c r="CC21" t="s">
         <v>85</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40326,11 +40929,20 @@
       </c>
       <c r="CC22" t="s">
         <v>85</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B23" t="s">
         <v>91</v>
@@ -40571,6 +41183,15 @@
       </c>
       <c r="CC23" t="s">
         <v>85</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -40598,7 +41219,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -40640,7 +41261,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -40691,7 +41312,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -40721,7 +41342,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -40733,7 +41354,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -40757,7 +41378,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -40769,16 +41390,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="BK1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="BL1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="BM1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -40789,7 +41410,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -40992,7 +41613,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -41195,7 +41816,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41398,7 +42019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -41601,7 +42222,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -41804,7 +42425,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -42007,7 +42628,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -42210,7 +42831,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -42413,7 +43034,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -42616,7 +43237,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -42819,7 +43440,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -43022,7 +43643,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -43225,7 +43846,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -43428,7 +44049,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -43631,7 +44252,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -43834,7 +44455,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -44037,7 +44658,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -44240,7 +44861,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -44443,7 +45064,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -44646,7 +45267,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -48208,10 +48829,19 @@
       <c r="BC1" t="s">
         <v>142</v>
       </c>
+      <c r="BD1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -48373,12 +49003,21 @@
         <v>84</v>
       </c>
       <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -48540,12 +49179,21 @@
         <v>84</v>
       </c>
       <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -48707,12 +49355,21 @@
         <v>89</v>
       </c>
       <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -48874,12 +49531,21 @@
         <v>85</v>
       </c>
       <c r="BC5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -49042,11 +49708,20 @@
       </c>
       <c r="BC6" t="s">
         <v>87</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -49208,12 +49883,21 @@
         <v>85</v>
       </c>
       <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -49375,12 +50059,21 @@
         <v>84</v>
       </c>
       <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -49542,12 +50235,21 @@
         <v>84</v>
       </c>
       <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -49709,12 +50411,21 @@
         <v>84</v>
       </c>
       <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -49876,12 +50587,21 @@
         <v>84</v>
       </c>
       <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -50043,12 +50763,21 @@
         <v>84</v>
       </c>
       <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -50210,12 +50939,21 @@
         <v>89</v>
       </c>
       <c r="BC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -50378,11 +51116,20 @@
       </c>
       <c r="BC14" t="s">
         <v>87</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -50544,12 +51291,21 @@
         <v>84</v>
       </c>
       <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -50711,12 +51467,21 @@
         <v>84</v>
       </c>
       <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -50878,12 +51643,21 @@
         <v>84</v>
       </c>
       <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -51045,12 +51819,21 @@
         <v>84</v>
       </c>
       <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -51212,12 +51995,21 @@
         <v>84</v>
       </c>
       <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -51379,12 +52171,21 @@
         <v>84</v>
       </c>
       <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -51547,6 +52348,15 @@
       </c>
       <c r="BC21" t="s">
         <v>84</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -51577,10 +52387,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -51601,10 +52411,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -51616,10 +52426,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -51637,10 +52447,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AA1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -51655,10 +52465,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AG1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -51673,7 +52483,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AM1" t="s">
         <v>113</v>
@@ -51688,7 +52498,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -51709,7 +52519,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -51722,11 +52532,20 @@
       </c>
       <c r="BB1" t="s">
         <v>142</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -51885,12 +52704,21 @@
         <v>86</v>
       </c>
       <c r="BB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -52049,12 +52877,21 @@
         <v>84</v>
       </c>
       <c r="BB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -52213,12 +53050,21 @@
         <v>86</v>
       </c>
       <c r="BB4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -52377,12 +53223,21 @@
         <v>86</v>
       </c>
       <c r="BB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -52542,11 +53397,20 @@
       </c>
       <c r="BB6" t="s">
         <v>86</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -52706,11 +53570,20 @@
       </c>
       <c r="BB7" t="s">
         <v>86</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -52870,11 +53743,20 @@
       </c>
       <c r="BB8" t="s">
         <v>86</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -53033,12 +53915,21 @@
         <v>89</v>
       </c>
       <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -53198,11 +54089,20 @@
       </c>
       <c r="BB10" t="s">
         <v>86</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -53361,12 +54261,21 @@
         <v>84</v>
       </c>
       <c r="BB11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -53526,11 +54435,20 @@
       </c>
       <c r="BB12" t="s">
         <v>89</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -53689,12 +54607,21 @@
         <v>84</v>
       </c>
       <c r="BB13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -53853,12 +54780,21 @@
         <v>84</v>
       </c>
       <c r="BB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -54017,12 +54953,21 @@
         <v>86</v>
       </c>
       <c r="BB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -54181,12 +55126,21 @@
         <v>89</v>
       </c>
       <c r="BB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -54346,11 +55300,20 @@
       </c>
       <c r="BB17" t="s">
         <v>89</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -54509,12 +55472,21 @@
         <v>84</v>
       </c>
       <c r="BB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -54674,11 +55646,20 @@
       </c>
       <c r="BB19" t="s">
         <v>84</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -54838,11 +55819,20 @@
       </c>
       <c r="BB20" t="s">
         <v>86</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -55002,11 +55992,20 @@
       </c>
       <c r="BB21" t="s">
         <v>84</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -55165,12 +56164,21 @@
         <v>84</v>
       </c>
       <c r="BB22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -55329,12 +56337,21 @@
         <v>84</v>
       </c>
       <c r="BB23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -55493,12 +56510,21 @@
         <v>84</v>
       </c>
       <c r="BB24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
@@ -55657,6 +56683,15 @@
         <v>84</v>
       </c>
       <c r="BB25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -55682,7 +56717,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -55694,34 +56729,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -55730,31 +56765,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Y1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Z1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -55766,10 +56801,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -55788,11 +56823,20 @@
       </c>
       <c r="AM1" t="s">
         <v>142</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -55906,12 +56950,21 @@
         <v>91</v>
       </c>
       <c r="AM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -56025,12 +57078,21 @@
         <v>86</v>
       </c>
       <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
         <v>92</v>
@@ -56144,12 +57206,21 @@
         <v>84</v>
       </c>
       <c r="AM4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -56263,12 +57334,21 @@
         <v>84</v>
       </c>
       <c r="AM5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -56383,11 +57463,20 @@
       </c>
       <c r="AM6" t="s">
         <v>84</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -56501,12 +57590,21 @@
         <v>84</v>
       </c>
       <c r="AM7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -56620,12 +57718,21 @@
         <v>84</v>
       </c>
       <c r="AM8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -56739,12 +57846,21 @@
         <v>86</v>
       </c>
       <c r="AM9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -56858,12 +57974,21 @@
         <v>84</v>
       </c>
       <c r="AM10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -56977,12 +58102,21 @@
         <v>84</v>
       </c>
       <c r="AM11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -57096,12 +58230,21 @@
         <v>84</v>
       </c>
       <c r="AM12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -57215,12 +58358,21 @@
         <v>89</v>
       </c>
       <c r="AM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -57334,12 +58486,21 @@
         <v>84</v>
       </c>
       <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
         <v>92</v>
@@ -57453,12 +58614,21 @@
         <v>84</v>
       </c>
       <c r="AM15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -57572,12 +58742,21 @@
         <v>86</v>
       </c>
       <c r="AM16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -57691,12 +58870,21 @@
         <v>86</v>
       </c>
       <c r="AM17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -57810,12 +58998,21 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -57930,11 +59127,20 @@
       </c>
       <c r="AM19" t="s">
         <v>84</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -58048,12 +59254,21 @@
         <v>84</v>
       </c>
       <c r="AM20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
         <v>91</v>
@@ -58168,11 +59383,20 @@
       </c>
       <c r="AM21" t="s">
         <v>88</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -58286,12 +59510,21 @@
         <v>91</v>
       </c>
       <c r="AM22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -58406,11 +59639,20 @@
       </c>
       <c r="AM23" t="s">
         <v>88</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -58524,12 +59766,21 @@
         <v>84</v>
       </c>
       <c r="AM24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -58643,6 +59894,15 @@
         <v>89</v>
       </c>
       <c r="AM25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -58668,13 +59928,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -58683,7 +59943,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -58692,13 +59952,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -58710,37 +59970,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Z1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -58749,10 +60009,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -58765,11 +60025,14 @@
       </c>
       <c r="AJ1" t="s">
         <v>141</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -58875,11 +60138,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>91</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -58985,11 +60251,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -59094,12 +60363,15 @@
         <v>84</v>
       </c>
       <c r="AJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -59205,11 +60477,14 @@
       </c>
       <c r="AJ5" t="s">
         <v>84</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -59315,11 +60590,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>84</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -59425,11 +60703,14 @@
       </c>
       <c r="AJ7" t="s">
         <v>84</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
         <v>91</v>
@@ -59535,11 +60816,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -59635,7 +60919,7 @@
         <v>84</v>
       </c>
       <c r="AG9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AH9" t="s">
         <v>84</v>
@@ -59645,11 +60929,14 @@
       </c>
       <c r="AJ9" t="s">
         <v>84</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -59754,12 +61041,15 @@
         <v>84</v>
       </c>
       <c r="AJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -59865,11 +61155,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>84</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -59974,12 +61267,15 @@
         <v>84</v>
       </c>
       <c r="AJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -60084,12 +61380,15 @@
         <v>88</v>
       </c>
       <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>
@@ -60195,11 +61494,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>84</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B15" t="s">
         <v>89</v>
@@ -60305,11 +61607,14 @@
       </c>
       <c r="AJ15" t="s">
         <v>84</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
@@ -60405,7 +61710,7 @@
         <v>84</v>
       </c>
       <c r="AG16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AH16" t="s">
         <v>84</v>
@@ -60414,12 +61719,15 @@
         <v>87</v>
       </c>
       <c r="AJ16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -60524,12 +61832,15 @@
         <v>84</v>
       </c>
       <c r="AJ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
@@ -60634,12 +61945,15 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -60744,12 +62058,15 @@
         <v>84</v>
       </c>
       <c r="AJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -60855,11 +62172,14 @@
       </c>
       <c r="AJ20" t="s">
         <v>84</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B21" t="s">
         <v>89</v>
@@ -60965,11 +62285,14 @@
       </c>
       <c r="AJ21" t="s">
         <v>91</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -61075,11 +62398,14 @@
       </c>
       <c r="AJ22" t="s">
         <v>84</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
@@ -61185,11 +62511,14 @@
       </c>
       <c r="AJ23" t="s">
         <v>91</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
@@ -61294,12 +62623,15 @@
         <v>85</v>
       </c>
       <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
         <v>89</v>
@@ -61405,6 +62737,9 @@
       </c>
       <c r="AJ25" t="s">
         <v>84</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -61429,61 +62764,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="U1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="V1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -61492,7 +62827,7 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
@@ -61504,7 +62839,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -61517,11 +62852,20 @@
       </c>
       <c r="AG1" t="s">
         <v>140</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -61618,11 +62962,20 @@
       </c>
       <c r="AG2" t="s">
         <v>89</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -61719,11 +63072,20 @@
       </c>
       <c r="AG3" t="s">
         <v>85</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -61819,12 +63181,21 @@
         <v>84</v>
       </c>
       <c r="AG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -61920,12 +63291,21 @@
         <v>84</v>
       </c>
       <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -62022,11 +63402,20 @@
       </c>
       <c r="AG6" t="s">
         <v>89</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -62123,11 +63512,20 @@
       </c>
       <c r="AG7" t="s">
         <v>85</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -62224,11 +63622,20 @@
       </c>
       <c r="AG8" t="s">
         <v>89</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -62325,11 +63732,20 @@
       </c>
       <c r="AG9" t="s">
         <v>88</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -62426,11 +63842,20 @@
       </c>
       <c r="AG10" t="s">
         <v>86</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -62527,11 +63952,20 @@
       </c>
       <c r="AG11" t="s">
         <v>84</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -62627,12 +64061,21 @@
         <v>84</v>
       </c>
       <c r="AG12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B13" t="s">
         <v>89</v>
@@ -62728,12 +64171,21 @@
         <v>84</v>
       </c>
       <c r="AG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -62830,11 +64282,20 @@
       </c>
       <c r="AG14" t="s">
         <v>89</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
@@ -62930,12 +64391,21 @@
         <v>84</v>
       </c>
       <c r="AG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -63032,11 +64502,20 @@
       </c>
       <c r="AG16" t="s">
         <v>89</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -63132,12 +64611,21 @@
         <v>85</v>
       </c>
       <c r="AG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -63234,11 +64722,20 @@
       </c>
       <c r="AG18" t="s">
         <v>89</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -63335,11 +64832,20 @@
       </c>
       <c r="AG19" t="s">
         <v>86</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -63435,12 +64941,21 @@
         <v>84</v>
       </c>
       <c r="AG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -63536,12 +65051,21 @@
         <v>84</v>
       </c>
       <c r="AG21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -63638,11 +65162,20 @@
       </c>
       <c r="AG22" t="s">
         <v>88</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
@@ -63739,11 +65272,20 @@
       </c>
       <c r="AG23" t="s">
         <v>85</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -63839,6 +65381,15 @@
         <v>86</v>
       </c>
       <c r="AG24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -63948,7 +65499,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -64005,12 +65556,12 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -64165,7 +65716,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -64320,7 +65871,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -64475,7 +66026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -64630,7 +66181,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -64785,7 +66336,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -64940,7 +66491,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -65095,7 +66646,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -65250,7 +66801,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -65405,7 +66956,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -65560,7 +67111,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -65715,7 +67266,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -65870,7 +67421,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -66025,7 +67576,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -66180,7 +67731,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -66335,7 +67886,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -66490,7 +68041,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -66645,7 +68196,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -66800,7 +68351,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -66955,7 +68506,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21924" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22541" uniqueCount="559">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -318,6 +318,15 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>X2022.01.07</t>
+  </si>
+  <si>
+    <t>X2022.01.08</t>
+  </si>
+  <si>
+    <t>X2022.01.09</t>
   </si>
   <si>
     <t>Augsburg</t>
@@ -749,6 +758,9 @@
     <t>X2021.10.08</t>
   </si>
   <si>
+    <t>X2022.01.04</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -1061,6 +1073,9 @@
     <t>Valenciennes</t>
   </si>
   <si>
+    <t>X2022.01.05</t>
+  </si>
+  <si>
     <t>AEK</t>
   </si>
   <si>
@@ -1107,6 +1122,9 @@
   </si>
   <si>
     <t>X2021.10.28</t>
+  </si>
+  <si>
+    <t>X2022.01.06</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -5616,37 +5634,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="J1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5658,13 +5676,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5673,7 +5691,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -5682,19 +5700,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -5703,7 +5721,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5712,21 +5730,24 @@
         <v>53</v>
       </c>
       <c r="AI1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AL1" t="s">
-        <v>321</v>
+        <v>325</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -5838,11 +5859,14 @@
       </c>
       <c r="AL2" t="s">
         <v>89</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -5954,11 +5978,14 @@
       </c>
       <c r="AL3" t="s">
         <v>89</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -6070,11 +6097,14 @@
       </c>
       <c r="AL4" t="s">
         <v>88</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6186,11 +6216,14 @@
       </c>
       <c r="AL5" t="s">
         <v>91</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -6302,11 +6335,14 @@
       </c>
       <c r="AL6" t="s">
         <v>87</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6417,12 +6453,15 @@
         <v>84</v>
       </c>
       <c r="AL7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6534,11 +6573,14 @@
       </c>
       <c r="AL8" t="s">
         <v>86</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -6649,12 +6691,15 @@
         <v>84</v>
       </c>
       <c r="AL9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
@@ -6766,11 +6811,14 @@
       </c>
       <c r="AL10" t="s">
         <v>86</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -6882,11 +6930,14 @@
       </c>
       <c r="AL11" t="s">
         <v>88</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -6998,11 +7049,14 @@
       </c>
       <c r="AL12" t="s">
         <v>86</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7113,12 +7167,15 @@
         <v>84</v>
       </c>
       <c r="AL13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -7230,11 +7287,14 @@
       </c>
       <c r="AL14" t="s">
         <v>86</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -7346,11 +7406,14 @@
       </c>
       <c r="AL15" t="s">
         <v>89</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -7462,11 +7525,14 @@
       </c>
       <c r="AL16" t="s">
         <v>86</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7578,11 +7644,14 @@
       </c>
       <c r="AL17" t="s">
         <v>87</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -7694,11 +7763,14 @@
       </c>
       <c r="AL18" t="s">
         <v>91</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7810,11 +7882,14 @@
       </c>
       <c r="AL19" t="s">
         <v>85</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -7926,11 +8001,14 @@
       </c>
       <c r="AL20" t="s">
         <v>86</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B21" t="s">
         <v>91</v>
@@ -8041,6 +8119,9 @@
         <v>84</v>
       </c>
       <c r="AL21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8087,7 +8168,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -8102,7 +8183,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -8117,7 +8198,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -8132,7 +8213,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8147,7 +8228,7 @@
         <v>54</v>
       </c>
       <c r="AE1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AF1" t="s">
         <v>56</v>
@@ -8171,12 +8252,24 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>178</v>
+        <v>181</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8291,11 +8384,23 @@
       </c>
       <c r="AM2" t="s">
         <v>86</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -8409,12 +8514,24 @@
         <v>84</v>
       </c>
       <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8529,11 +8646,23 @@
       </c>
       <c r="AM4" t="s">
         <v>89</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -8647,12 +8776,24 @@
         <v>88</v>
       </c>
       <c r="AM5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8766,12 +8907,24 @@
         <v>84</v>
       </c>
       <c r="AM6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8885,12 +9038,24 @@
         <v>85</v>
       </c>
       <c r="AM7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -9005,11 +9170,23 @@
       </c>
       <c r="AM8" t="s">
         <v>89</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9123,12 +9300,24 @@
         <v>89</v>
       </c>
       <c r="AM9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9243,11 +9432,23 @@
       </c>
       <c r="AM10" t="s">
         <v>86</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9361,12 +9562,24 @@
         <v>89</v>
       </c>
       <c r="AM11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -9481,11 +9694,23 @@
       </c>
       <c r="AM12" t="s">
         <v>84</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
         <v>91</v>
@@ -9599,12 +9824,24 @@
         <v>84</v>
       </c>
       <c r="AM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9718,12 +9955,24 @@
         <v>88</v>
       </c>
       <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9838,6 +10087,18 @@
       </c>
       <c r="AM15" t="s">
         <v>84</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -9862,7 +10123,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -9892,10 +10153,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="O1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9910,7 +10171,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -9928,7 +10189,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -9940,13 +10201,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AE1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9955,7 +10216,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -9973,7 +10234,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9985,13 +10246,13 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AT1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AU1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AV1" t="s">
         <v>53</v>
@@ -10000,7 +10261,7 @@
         <v>54</v>
       </c>
       <c r="AX1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AY1" t="s">
         <v>55</v>
@@ -10012,7 +10273,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -10024,15 +10285,21 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="BG1" t="s">
-        <v>292</v>
+        <v>296</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>363</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -10207,11 +10474,17 @@
       </c>
       <c r="BG2" t="s">
         <v>84</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10386,11 +10659,17 @@
       </c>
       <c r="BG3" t="s">
         <v>86</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10564,12 +10843,18 @@
         <v>85</v>
       </c>
       <c r="BG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -10743,12 +11028,18 @@
         <v>84</v>
       </c>
       <c r="BG5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10923,11 +11214,17 @@
       </c>
       <c r="BG6" t="s">
         <v>85</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -11102,11 +11399,17 @@
       </c>
       <c r="BG7" t="s">
         <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -11281,11 +11584,17 @@
       </c>
       <c r="BG8" t="s">
         <v>89</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11460,11 +11769,17 @@
       </c>
       <c r="BG9" t="s">
         <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -11639,11 +11954,17 @@
       </c>
       <c r="BG10" t="s">
         <v>87</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11818,11 +12139,17 @@
       </c>
       <c r="BG11" t="s">
         <v>92</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11996,12 +12323,18 @@
         <v>84</v>
       </c>
       <c r="BG12" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12176,11 +12509,17 @@
       </c>
       <c r="BG13" t="s">
         <v>85</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12355,11 +12694,17 @@
       </c>
       <c r="BG14" t="s">
         <v>84</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12534,11 +12879,17 @@
       </c>
       <c r="BG15" t="s">
         <v>85</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -12713,11 +13064,17 @@
       </c>
       <c r="BG16" t="s">
         <v>86</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12891,12 +13248,18 @@
         <v>84</v>
       </c>
       <c r="BG17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -13071,11 +13434,17 @@
       </c>
       <c r="BG18" t="s">
         <v>89</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13250,11 +13619,17 @@
       </c>
       <c r="BG19" t="s">
         <v>84</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13429,11 +13804,17 @@
       </c>
       <c r="BG20" t="s">
         <v>87</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -13608,6 +13989,12 @@
       </c>
       <c r="BG21" t="s">
         <v>85</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -13662,10 +14049,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="O1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13701,13 +14088,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AB1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AC1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -13734,13 +14121,13 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AM1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AN1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -13769,7 +14156,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13915,7 +14302,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14061,7 +14448,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14207,7 +14594,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14353,7 +14740,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14499,7 +14886,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14645,7 +15032,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14791,7 +15178,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14937,7 +15324,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15083,7 +15470,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -15229,7 +15616,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15375,7 +15762,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15521,7 +15908,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
@@ -15667,7 +16054,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15813,7 +16200,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15959,7 +16346,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16105,7 +16492,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16251,7 +16638,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16397,7 +16784,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16543,7 +16930,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16745,7 +17132,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16814,10 +17201,10 @@
         <v>51</v>
       </c>
       <c r="AM1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AN1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -16844,18 +17231,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AX1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AY1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -17010,7 +17397,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17165,7 +17552,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17320,7 +17707,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17475,7 +17862,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17630,7 +18017,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -17785,7 +18172,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17940,7 +18327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -18095,7 +18482,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18250,7 +18637,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18405,7 +18792,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18560,7 +18947,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18715,7 +19102,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18870,7 +19257,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -19025,7 +19412,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19180,7 +19567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19335,7 +19722,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19490,7 +19877,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19668,7 +20055,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19680,7 +20067,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19692,7 +20079,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -19722,7 +20109,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19734,7 +20121,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -19755,7 +20142,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19767,7 +20154,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -19788,10 +20175,10 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AT1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AU1" t="s">
         <v>52</v>
@@ -19812,7 +20199,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19824,24 +20211,33 @@
         <v>63</v>
       </c>
       <c r="BE1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BF1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BG1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BH1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BI1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -20022,11 +20418,20 @@
       </c>
       <c r="BI2" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20207,11 +20612,20 @@
       </c>
       <c r="BI3" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20392,11 +20806,20 @@
       </c>
       <c r="BI4" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20576,12 +20999,21 @@
         <v>84</v>
       </c>
       <c r="BI5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20761,12 +21193,21 @@
         <v>84</v>
       </c>
       <c r="BI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20947,11 +21388,20 @@
       </c>
       <c r="BI7" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -21131,12 +21581,21 @@
         <v>84</v>
       </c>
       <c r="BI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21316,12 +21775,21 @@
         <v>84</v>
       </c>
       <c r="BI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21502,11 +21970,20 @@
       </c>
       <c r="BI10" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21687,11 +22164,20 @@
       </c>
       <c r="BI11" t="s">
         <v>86</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21872,11 +22358,20 @@
       </c>
       <c r="BI12" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -22057,11 +22552,20 @@
       </c>
       <c r="BI13" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22241,12 +22745,21 @@
         <v>84</v>
       </c>
       <c r="BI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22426,12 +22939,21 @@
         <v>84</v>
       </c>
       <c r="BI15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22612,11 +23134,20 @@
       </c>
       <c r="BI16" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22796,12 +23327,21 @@
         <v>84</v>
       </c>
       <c r="BI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22982,11 +23522,20 @@
       </c>
       <c r="BI18" t="s">
         <v>86</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -23166,6 +23715,15 @@
         <v>85</v>
       </c>
       <c r="BI19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23242,7 +23800,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -23260,7 +23818,7 @@
         <v>47</v>
       </c>
       <c r="AA1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AB1" t="s">
         <v>50</v>
@@ -23269,13 +23827,13 @@
         <v>51</v>
       </c>
       <c r="AD1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AE1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AF1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AG1" t="s">
         <v>53</v>
@@ -23284,7 +23842,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -23302,7 +23860,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23310,7 +23868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23438,7 +23996,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -23566,7 +24124,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -23694,7 +24252,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23822,7 +24380,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -23950,7 +24508,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -24078,7 +24636,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -24206,7 +24764,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24334,7 +24892,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -24462,7 +25020,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -24590,7 +25148,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
         <v>91</v>
@@ -24718,7 +25276,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -24863,7 +25421,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24875,7 +25433,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24893,7 +25451,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24908,7 +25466,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24917,7 +25475,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24944,15 +25502,18 @@
         <v>64</v>
       </c>
       <c r="AD1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AE1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -25043,11 +25604,14 @@
       </c>
       <c r="AE2" t="s">
         <v>91</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -25138,11 +25702,14 @@
       </c>
       <c r="AE3" t="s">
         <v>84</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -25233,11 +25800,14 @@
       </c>
       <c r="AE4" t="s">
         <v>91</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
@@ -25328,11 +25898,14 @@
       </c>
       <c r="AE5" t="s">
         <v>86</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s">
         <v>89</v>
@@ -25423,11 +25996,14 @@
       </c>
       <c r="AE6" t="s">
         <v>91</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25518,11 +26094,14 @@
       </c>
       <c r="AE7" t="s">
         <v>84</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -25613,11 +26192,14 @@
       </c>
       <c r="AE8" t="s">
         <v>84</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -25708,11 +26290,14 @@
       </c>
       <c r="AE9" t="s">
         <v>84</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -25803,11 +26388,14 @@
       </c>
       <c r="AE10" t="s">
         <v>86</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
@@ -25898,6 +26486,9 @@
       </c>
       <c r="AE11" t="s">
         <v>91</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -25934,7 +26525,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25964,7 +26555,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25973,7 +26564,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25982,21 +26573,24 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AA1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -26075,11 +26669,14 @@
       </c>
       <c r="AA2" t="s">
         <v>89</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -26158,11 +26755,14 @@
       </c>
       <c r="AA3" t="s">
         <v>84</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -26241,11 +26841,14 @@
       </c>
       <c r="AA4" t="s">
         <v>84</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26323,12 +26926,15 @@
         <v>84</v>
       </c>
       <c r="AA5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -26407,11 +27013,14 @@
       </c>
       <c r="AA6" t="s">
         <v>89</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26490,11 +27099,14 @@
       </c>
       <c r="AA7" t="s">
         <v>85</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26573,11 +27185,14 @@
       </c>
       <c r="AA8" t="s">
         <v>84</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26655,12 +27270,15 @@
         <v>84</v>
       </c>
       <c r="AA9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -26739,11 +27357,14 @@
       </c>
       <c r="AA10" t="s">
         <v>89</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26821,6 +27442,9 @@
         <v>89</v>
       </c>
       <c r="AA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -26861,7 +27485,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26897,19 +27521,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="V1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="W1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26927,21 +27551,27 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AF1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
       </c>
       <c r="AH1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -27041,11 +27671,17 @@
       </c>
       <c r="AH2" t="s">
         <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -27145,11 +27781,17 @@
       </c>
       <c r="AH3" t="s">
         <v>85</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -27249,11 +27891,17 @@
       </c>
       <c r="AH4" t="s">
         <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -27352,12 +28000,18 @@
         <v>84</v>
       </c>
       <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27457,11 +28111,17 @@
       </c>
       <c r="AH6" t="s">
         <v>89</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -27561,11 +28221,17 @@
       </c>
       <c r="AH7" t="s">
         <v>89</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -27665,11 +28331,17 @@
       </c>
       <c r="AH8" t="s">
         <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -27768,12 +28440,18 @@
         <v>90</v>
       </c>
       <c r="AH9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
@@ -27872,12 +28550,18 @@
         <v>84</v>
       </c>
       <c r="AH10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -27977,6 +28661,12 @@
       </c>
       <c r="AH11" t="s">
         <v>85</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -28141,10 +28831,19 @@
       <c r="AX1" t="s">
         <v>63</v>
       </c>
+      <c r="AY1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -28291,12 +28990,21 @@
         <v>91</v>
       </c>
       <c r="AX2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -28443,12 +29151,21 @@
         <v>84</v>
       </c>
       <c r="AX3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -28595,12 +29312,21 @@
         <v>85</v>
       </c>
       <c r="AX4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -28748,11 +29474,20 @@
       </c>
       <c r="AX5" t="s">
         <v>84</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -28899,12 +29634,21 @@
         <v>88</v>
       </c>
       <c r="AX6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -29051,12 +29795,21 @@
         <v>89</v>
       </c>
       <c r="AX7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -29204,11 +29957,20 @@
       </c>
       <c r="AX8" t="s">
         <v>89</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -29356,11 +30118,20 @@
       </c>
       <c r="AX9" t="s">
         <v>86</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -29507,12 +30278,21 @@
         <v>91</v>
       </c>
       <c r="AX10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -29660,11 +30440,20 @@
       </c>
       <c r="AX11" t="s">
         <v>84</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -29811,12 +30600,21 @@
         <v>85</v>
       </c>
       <c r="AX12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -29964,11 +30762,20 @@
       </c>
       <c r="AX13" t="s">
         <v>86</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -30115,12 +30922,21 @@
         <v>89</v>
       </c>
       <c r="AX14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -30267,12 +31083,21 @@
         <v>85</v>
       </c>
       <c r="AX15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -30419,12 +31244,21 @@
         <v>85</v>
       </c>
       <c r="AX16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -30572,11 +31406,20 @@
       </c>
       <c r="AX17" t="s">
         <v>89</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -30723,12 +31566,21 @@
         <v>89</v>
       </c>
       <c r="AX18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -30876,6 +31728,15 @@
       </c>
       <c r="AX19" t="s">
         <v>84</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -30903,7 +31764,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30915,7 +31776,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -30945,10 +31806,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="T1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30963,7 +31824,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -30981,7 +31842,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -30993,16 +31854,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AJ1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AK1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AL1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -31011,7 +31872,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -31032,7 +31893,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -31044,10 +31905,10 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="BA1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BB1" t="s">
         <v>52</v>
@@ -31059,7 +31920,7 @@
         <v>54</v>
       </c>
       <c r="BE1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BF1" t="s">
         <v>55</v>
@@ -31071,7 +31932,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -31083,27 +31944,33 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="BN1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="BO1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="BP1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="BQ1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BR1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -31311,11 +32178,17 @@
       </c>
       <c r="BR2" t="s">
         <v>84</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31523,11 +32396,17 @@
       </c>
       <c r="BR3" t="s">
         <v>87</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31735,11 +32614,17 @@
       </c>
       <c r="BR4" t="s">
         <v>84</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31946,12 +32831,18 @@
         <v>89</v>
       </c>
       <c r="BR5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -32159,11 +33050,17 @@
       </c>
       <c r="BR6" t="s">
         <v>84</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -32371,11 +33268,17 @@
       </c>
       <c r="BR7" t="s">
         <v>89</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32582,12 +33485,18 @@
         <v>85</v>
       </c>
       <c r="BR8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32794,12 +33703,18 @@
         <v>91</v>
       </c>
       <c r="BR9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -33006,12 +33921,18 @@
         <v>84</v>
       </c>
       <c r="BR10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -33219,11 +34140,17 @@
       </c>
       <c r="BR11" t="s">
         <v>84</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -33430,12 +34357,18 @@
         <v>91</v>
       </c>
       <c r="BR12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33643,11 +34576,17 @@
       </c>
       <c r="BR13" t="s">
         <v>88</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33854,12 +34793,18 @@
         <v>89</v>
       </c>
       <c r="BR14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -34067,11 +35012,17 @@
       </c>
       <c r="BR15" t="s">
         <v>87</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -34278,12 +35229,18 @@
         <v>89</v>
       </c>
       <c r="BR16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -34490,12 +35447,18 @@
         <v>84</v>
       </c>
       <c r="BR17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34702,12 +35665,18 @@
         <v>85</v>
       </c>
       <c r="BR18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -34914,12 +35883,18 @@
         <v>84</v>
       </c>
       <c r="BR19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -35127,11 +36102,17 @@
       </c>
       <c r="BR20" t="s">
         <v>84</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -35339,6 +36320,12 @@
       </c>
       <c r="BR21" t="s">
         <v>88</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -35366,7 +36353,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -35378,7 +36365,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -35390,19 +36377,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -35426,7 +36413,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -35438,7 +36425,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -35450,19 +36437,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="AH1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AI1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AJ1" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="AK1" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -35474,13 +36461,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AP1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AQ1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -35492,7 +36479,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -35504,16 +36491,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AZ1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BA1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BB1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -35525,19 +36512,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="BG1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BH1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BI1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="BJ1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -35549,7 +36536,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -35561,7 +36548,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -35573,7 +36560,7 @@
         <v>54</v>
       </c>
       <c r="BV1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BW1" t="s">
         <v>55</v>
@@ -35585,7 +36572,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -35597,18 +36584,27 @@
         <v>63</v>
       </c>
       <c r="CD1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="CE1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="CF1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35858,11 +36854,20 @@
       </c>
       <c r="CF2" t="s">
         <v>89</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -36112,11 +37117,20 @@
       </c>
       <c r="CF3" t="s">
         <v>84</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -36365,12 +37379,21 @@
         <v>84</v>
       </c>
       <c r="CF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -36619,12 +37642,21 @@
         <v>84</v>
       </c>
       <c r="CF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36873,12 +37905,21 @@
         <v>89</v>
       </c>
       <c r="CF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -37127,12 +38168,21 @@
         <v>84</v>
       </c>
       <c r="CF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -37382,11 +38432,20 @@
       </c>
       <c r="CF8" t="s">
         <v>84</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -37636,11 +38695,20 @@
       </c>
       <c r="CF9" t="s">
         <v>84</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -37889,12 +38957,21 @@
         <v>89</v>
       </c>
       <c r="CF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
@@ -38143,12 +39220,21 @@
         <v>86</v>
       </c>
       <c r="CF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -38398,11 +39484,20 @@
       </c>
       <c r="CF12" t="s">
         <v>84</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -38651,12 +39746,21 @@
         <v>89</v>
       </c>
       <c r="CF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38906,11 +40010,20 @@
       </c>
       <c r="CF14" t="s">
         <v>84</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -39160,11 +40273,20 @@
       </c>
       <c r="CF15" t="s">
         <v>89</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -39414,11 +40536,20 @@
       </c>
       <c r="CF16" t="s">
         <v>84</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -39667,12 +40798,21 @@
         <v>84</v>
       </c>
       <c r="CF17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39922,11 +41062,20 @@
       </c>
       <c r="CF18" t="s">
         <v>84</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -40175,12 +41324,21 @@
         <v>84</v>
       </c>
       <c r="CF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -40430,11 +41588,20 @@
       </c>
       <c r="CF20" t="s">
         <v>84</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -40683,12 +41850,21 @@
         <v>89</v>
       </c>
       <c r="CF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40937,12 +42113,21 @@
         <v>89</v>
       </c>
       <c r="CF22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B23" t="s">
         <v>91</v>
@@ -41192,6 +42377,15 @@
       </c>
       <c r="CF23" t="s">
         <v>84</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -41219,7 +42413,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -41231,7 +42425,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -41261,7 +42455,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -41279,7 +42473,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -41300,7 +42494,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -41312,7 +42506,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -41324,7 +42518,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -41342,7 +42536,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -41354,7 +42548,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -41366,7 +42560,7 @@
         <v>54</v>
       </c>
       <c r="BB1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BC1" t="s">
         <v>55</v>
@@ -41378,7 +42572,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -41390,27 +42584,36 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="BK1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="BL1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="BM1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
       </c>
       <c r="BO1" t="s">
         <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -41608,12 +42811,21 @@
         <v>85</v>
       </c>
       <c r="BO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -41811,12 +43023,21 @@
         <v>85</v>
       </c>
       <c r="BO3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -42015,11 +43236,20 @@
       </c>
       <c r="BO4" t="s">
         <v>84</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -42218,11 +43448,20 @@
       </c>
       <c r="BO5" t="s">
         <v>84</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -42421,11 +43660,20 @@
       </c>
       <c r="BO6" t="s">
         <v>89</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -42623,12 +43871,21 @@
         <v>84</v>
       </c>
       <c r="BO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -42826,12 +44083,21 @@
         <v>85</v>
       </c>
       <c r="BO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -43029,12 +44295,21 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -43232,12 +44507,21 @@
         <v>89</v>
       </c>
       <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -43435,12 +44719,21 @@
         <v>84</v>
       </c>
       <c r="BO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -43639,11 +44932,20 @@
       </c>
       <c r="BO12" t="s">
         <v>84</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -43841,12 +45143,21 @@
         <v>84</v>
       </c>
       <c r="BO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -44044,12 +45355,21 @@
         <v>85</v>
       </c>
       <c r="BO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -44247,12 +45567,21 @@
         <v>84</v>
       </c>
       <c r="BO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -44451,11 +45780,20 @@
       </c>
       <c r="BO16" t="s">
         <v>86</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -44653,12 +45991,21 @@
         <v>84</v>
       </c>
       <c r="BO17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -44857,11 +46204,20 @@
       </c>
       <c r="BO18" t="s">
         <v>84</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -45060,11 +46416,20 @@
       </c>
       <c r="BO19" t="s">
         <v>86</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -45262,12 +46627,21 @@
         <v>84</v>
       </c>
       <c r="BO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -45465,6 +46839,15 @@
         <v>85</v>
       </c>
       <c r="BO21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45607,7 +46990,7 @@
         <v>48</v>
       </c>
       <c r="AQ1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AR1" t="s">
         <v>49</v>
@@ -45648,7 +47031,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -45815,7 +47198,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -45982,7 +47365,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -46149,7 +47532,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -46316,7 +47699,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -46483,7 +47866,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -46650,7 +48033,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -46817,7 +48200,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -46984,7 +48367,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -47151,7 +48534,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -47318,7 +48701,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -47485,7 +48868,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -47652,7 +49035,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -47819,7 +49202,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -47986,7 +49369,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -48153,7 +49536,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -48320,7 +49703,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -48487,7 +49870,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -48683,7 +50066,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -48716,7 +50099,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -48731,7 +50114,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -48749,7 +50132,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -48773,13 +50156,13 @@
         <v>51</v>
       </c>
       <c r="AK1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AL1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AM1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AN1" t="s">
         <v>53</v>
@@ -48788,7 +50171,7 @@
         <v>54</v>
       </c>
       <c r="AP1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AQ1" t="s">
         <v>55</v>
@@ -48821,27 +50204,27 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BB1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BC1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BD1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BE1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BF1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -49017,7 +50400,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -49193,7 +50576,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -49369,7 +50752,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -49545,7 +50928,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -49721,7 +51104,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -49897,7 +51280,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -50073,7 +51456,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -50249,7 +51632,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -50425,7 +51808,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -50601,7 +51984,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -50777,7 +52160,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -50953,7 +52336,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -51129,7 +52512,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -51305,7 +52688,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -51481,7 +52864,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -51657,7 +53040,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -51833,7 +53216,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -52009,7 +53392,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -52185,7 +53568,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -52387,10 +53770,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -52411,10 +53794,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -52426,10 +53809,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="T1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -52447,10 +53830,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AA1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -52465,10 +53848,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -52483,10 +53866,10 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AN1" t="s">
         <v>49</v>
@@ -52498,7 +53881,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -52519,7 +53902,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -52528,24 +53911,24 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BB1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BC1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BD1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="BE1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -52718,7 +54101,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -52891,7 +54274,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -53064,7 +54447,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -53237,7 +54620,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -53410,7 +54793,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -53583,7 +54966,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -53756,7 +55139,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -53929,7 +55312,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -54102,7 +55485,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -54275,7 +55658,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -54448,7 +55831,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -54621,7 +56004,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -54794,7 +56177,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -54967,7 +56350,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -55140,7 +56523,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -55313,7 +56696,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -55486,7 +56869,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -55659,7 +57042,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -55832,7 +57215,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -56005,7 +57388,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -56178,7 +57561,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -56351,7 +57734,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -56524,7 +57907,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
@@ -56717,7 +58100,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -56729,34 +58112,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -56765,31 +58148,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Y1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -56801,10 +58184,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AG1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -56819,24 +58202,27 @@
         <v>65</v>
       </c>
       <c r="AL1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AM1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AN1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AO1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AP1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -56960,11 +58346,14 @@
       </c>
       <c r="AP2" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -57087,12 +58476,15 @@
         <v>84</v>
       </c>
       <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
         <v>92</v>
@@ -57215,12 +58607,15 @@
         <v>84</v>
       </c>
       <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -57344,11 +58739,14 @@
       </c>
       <c r="AP5" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -57472,11 +58870,14 @@
       </c>
       <c r="AP6" t="s">
         <v>91</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -57599,12 +59000,15 @@
         <v>84</v>
       </c>
       <c r="AP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -57728,11 +59132,14 @@
       </c>
       <c r="AP8" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -57855,12 +59262,15 @@
         <v>84</v>
       </c>
       <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -57984,11 +59394,14 @@
       </c>
       <c r="AP10" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -58112,11 +59525,14 @@
       </c>
       <c r="AP11" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -58240,11 +59656,14 @@
       </c>
       <c r="AP12" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -58368,11 +59787,14 @@
       </c>
       <c r="AP13" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -58496,11 +59918,14 @@
       </c>
       <c r="AP14" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
         <v>92</v>
@@ -58624,11 +60049,14 @@
       </c>
       <c r="AP15" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -58751,12 +60179,15 @@
         <v>90</v>
       </c>
       <c r="AP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -58880,11 +60311,14 @@
       </c>
       <c r="AP17" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -59007,12 +60441,15 @@
         <v>84</v>
       </c>
       <c r="AP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -59136,11 +60573,14 @@
       </c>
       <c r="AP19" t="s">
         <v>91</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -59263,12 +60703,15 @@
         <v>84</v>
       </c>
       <c r="AP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
         <v>91</v>
@@ -59391,12 +60834,15 @@
         <v>89</v>
       </c>
       <c r="AP21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -59519,12 +60965,15 @@
         <v>89</v>
       </c>
       <c r="AP22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -59648,11 +61097,14 @@
       </c>
       <c r="AP23" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -59775,12 +61227,15 @@
         <v>84</v>
       </c>
       <c r="AP24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -59904,6 +61359,9 @@
       </c>
       <c r="AP25" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -59928,13 +61386,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -59943,7 +61401,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -59952,13 +61410,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -59970,37 +61428,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="S1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -60009,10 +61467,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AF1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -60024,15 +61482,21 @@
         <v>64</v>
       </c>
       <c r="AJ1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AK1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -60141,11 +61605,17 @@
       </c>
       <c r="AK2" t="s">
         <v>86</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
@@ -60254,11 +61724,17 @@
       </c>
       <c r="AK3" t="s">
         <v>86</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -60366,12 +61842,18 @@
         <v>84</v>
       </c>
       <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -60480,11 +61962,17 @@
       </c>
       <c r="AK5" t="s">
         <v>89</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -60593,11 +62081,17 @@
       </c>
       <c r="AK6" t="s">
         <v>87</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -60706,11 +62200,17 @@
       </c>
       <c r="AK7" t="s">
         <v>87</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
         <v>91</v>
@@ -60819,11 +62319,17 @@
       </c>
       <c r="AK8" t="s">
         <v>86</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -60919,7 +62425,7 @@
         <v>84</v>
       </c>
       <c r="AG9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AH9" t="s">
         <v>84</v>
@@ -60932,11 +62438,17 @@
       </c>
       <c r="AK9" t="s">
         <v>85</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -61044,12 +62556,18 @@
         <v>84</v>
       </c>
       <c r="AK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -61158,11 +62676,17 @@
       </c>
       <c r="AK11" t="s">
         <v>91</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -61270,12 +62794,18 @@
         <v>84</v>
       </c>
       <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -61383,12 +62913,18 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>
@@ -61497,11 +63033,17 @@
       </c>
       <c r="AK14" t="s">
         <v>92</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
         <v>89</v>
@@ -61610,11 +63152,17 @@
       </c>
       <c r="AK15" t="s">
         <v>90</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
@@ -61710,7 +63258,7 @@
         <v>84</v>
       </c>
       <c r="AG16" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AH16" t="s">
         <v>84</v>
@@ -61723,11 +63271,17 @@
       </c>
       <c r="AK16" t="s">
         <v>91</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -61835,12 +63389,18 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
@@ -61948,12 +63508,18 @@
         <v>84</v>
       </c>
       <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -62062,11 +63628,17 @@
       </c>
       <c r="AK19" t="s">
         <v>84</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -62175,11 +63747,17 @@
       </c>
       <c r="AK20" t="s">
         <v>89</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s">
         <v>89</v>
@@ -62288,11 +63866,17 @@
       </c>
       <c r="AK21" t="s">
         <v>85</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -62401,11 +63985,17 @@
       </c>
       <c r="AK22" t="s">
         <v>86</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
@@ -62514,11 +64104,17 @@
       </c>
       <c r="AK23" t="s">
         <v>90</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
@@ -62627,11 +64223,17 @@
       </c>
       <c r="AK24" t="s">
         <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s">
         <v>89</v>
@@ -62740,6 +64342,12 @@
       </c>
       <c r="AK25" t="s">
         <v>92</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -62764,61 +64372,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="O1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="U1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="V1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -62827,19 +64435,19 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
       </c>
       <c r="AA1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AB1" t="s">
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -62851,21 +64459,24 @@
         <v>64</v>
       </c>
       <c r="AG1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AH1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AI1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AJ1" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -62971,11 +64582,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>84</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -63081,11 +64695,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -63191,11 +64808,14 @@
       </c>
       <c r="AJ4" t="s">
         <v>84</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -63300,12 +64920,15 @@
         <v>91</v>
       </c>
       <c r="AJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -63411,11 +65034,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>84</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -63520,12 +65146,15 @@
         <v>84</v>
       </c>
       <c r="AJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -63631,11 +65260,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -63740,12 +65372,15 @@
         <v>87</v>
       </c>
       <c r="AJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -63851,11 +65486,14 @@
       </c>
       <c r="AJ10" t="s">
         <v>84</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -63961,11 +65599,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>85</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -64071,11 +65712,14 @@
       </c>
       <c r="AJ12" t="s">
         <v>85</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
         <v>89</v>
@@ -64180,12 +65824,15 @@
         <v>84</v>
       </c>
       <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -64291,11 +65938,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>84</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
         <v>88</v>
@@ -64400,12 +66050,15 @@
         <v>87</v>
       </c>
       <c r="AJ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -64511,11 +66164,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>84</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -64621,11 +66277,14 @@
       </c>
       <c r="AJ17" t="s">
         <v>84</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -64730,12 +66389,15 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -64841,11 +66503,14 @@
       </c>
       <c r="AJ19" t="s">
         <v>84</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -64950,12 +66615,15 @@
         <v>84</v>
       </c>
       <c r="AJ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -65061,11 +66729,14 @@
       </c>
       <c r="AJ21" t="s">
         <v>84</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -65170,12 +66841,15 @@
         <v>88</v>
       </c>
       <c r="AJ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
@@ -65280,12 +66954,15 @@
         <v>87</v>
       </c>
       <c r="AJ23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -65390,6 +67067,9 @@
         <v>86</v>
       </c>
       <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -65499,7 +67179,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -65538,7 +67218,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AT1" t="s">
         <v>53</v>
@@ -65556,12 +67236,21 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>292</v>
+        <v>296</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -65712,11 +67401,20 @@
       </c>
       <c r="AY2" t="s">
         <v>88</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -65867,11 +67565,20 @@
       </c>
       <c r="AY3" t="s">
         <v>88</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -66022,11 +67729,20 @@
       </c>
       <c r="AY4" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -66177,11 +67893,20 @@
       </c>
       <c r="AY5" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -66332,11 +68057,20 @@
       </c>
       <c r="AY6" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -66487,11 +68221,20 @@
       </c>
       <c r="AY7" t="s">
         <v>88</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -66642,11 +68385,20 @@
       </c>
       <c r="AY8" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -66796,12 +68548,21 @@
         <v>91</v>
       </c>
       <c r="AY9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -66952,11 +68713,20 @@
       </c>
       <c r="AY10" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -67106,12 +68876,21 @@
         <v>88</v>
       </c>
       <c r="AY11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -67262,11 +69041,20 @@
       </c>
       <c r="AY12" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -67417,11 +69205,20 @@
       </c>
       <c r="AY13" t="s">
         <v>88</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -67572,11 +69369,20 @@
       </c>
       <c r="AY14" t="s">
         <v>89</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -67726,12 +69532,21 @@
         <v>86</v>
       </c>
       <c r="AY15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -67881,12 +69696,21 @@
         <v>85</v>
       </c>
       <c r="AY16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -68037,11 +69861,20 @@
       </c>
       <c r="AY17" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -68192,11 +70025,20 @@
       </c>
       <c r="AY18" t="s">
         <v>86</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -68347,11 +70189,20 @@
       </c>
       <c r="AY19" t="s">
         <v>89</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -68502,11 +70353,20 @@
       </c>
       <c r="AY20" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -68657,6 +70517,15 @@
       </c>
       <c r="AY21" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32581" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32715" uniqueCount="616">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -720,6 +720,9 @@
   </si>
   <si>
     <t>X2022.02.28</t>
+  </si>
+  <si>
+    <t>X2022.03.08</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -1523,6 +1526,9 @@
     <t>Vizela</t>
   </si>
   <si>
+    <t>X2022.03.09</t>
+  </si>
+  <si>
     <t>Aberdeen</t>
   </si>
   <si>
@@ -7623,25 +7629,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J1" t="s">
         <v>212</v>
@@ -7653,7 +7659,7 @@
         <v>169</v>
       </c>
       <c r="M1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -7671,7 +7677,7 @@
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -7695,7 +7701,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -7710,7 +7716,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -7725,10 +7731,10 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM1" t="s">
         <v>128</v>
@@ -7737,7 +7743,7 @@
         <v>67</v>
       </c>
       <c r="AO1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP1" t="s">
         <v>185</v>
@@ -7761,7 +7767,7 @@
         <v>81</v>
       </c>
       <c r="AW1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AX1" t="s">
         <v>85</v>
@@ -7776,7 +7782,7 @@
         <v>88</v>
       </c>
       <c r="BB1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BC1" t="s">
         <v>92</v>
@@ -7793,7 +7799,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -7969,7 +7975,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s">
         <v>118</v>
@@ -8145,7 +8151,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
         <v>118</v>
@@ -8321,7 +8327,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
         <v>117</v>
@@ -8497,7 +8503,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -8673,7 +8679,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -8849,7 +8855,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -9025,7 +9031,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -9201,7 +9207,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s">
         <v>123</v>
@@ -9377,7 +9383,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B11" t="s">
         <v>123</v>
@@ -9553,7 +9559,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B12" t="s">
         <v>118</v>
@@ -9729,7 +9735,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
@@ -9905,7 +9911,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B14" t="s">
         <v>123</v>
@@ -10081,7 +10087,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -10257,7 +10263,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B16" t="s">
         <v>118</v>
@@ -10433,7 +10439,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -10609,7 +10615,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -10785,7 +10791,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -10961,7 +10967,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -11137,7 +11143,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
         <v>123</v>
@@ -11399,7 +11405,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -11441,10 +11447,10 @@
         <v>223</v>
       </c>
       <c r="AN1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP1" t="s">
         <v>128</v>
@@ -11525,7 +11531,7 @@
         <v>94</v>
       </c>
       <c r="BP1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BQ1" t="s">
         <v>97</v>
@@ -11533,7 +11539,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -11742,7 +11748,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -11951,7 +11957,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -12160,7 +12166,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -12369,7 +12375,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -12578,7 +12584,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -12787,7 +12793,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -12996,7 +13002,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -13205,7 +13211,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
@@ -13414,7 +13420,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s">
         <v>116</v>
@@ -13623,7 +13629,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -13832,7 +13838,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s">
         <v>123</v>
@@ -14041,7 +14047,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -14250,7 +14256,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -14509,10 +14515,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -14557,13 +14563,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -14590,7 +14596,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -14629,7 +14635,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -14641,19 +14647,19 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BG1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BH1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BI1" t="s">
         <v>129</v>
       </c>
       <c r="BJ1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BK1" t="s">
         <v>183</v>
@@ -14665,7 +14671,7 @@
         <v>68</v>
       </c>
       <c r="BN1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BO1" t="s">
         <v>70</v>
@@ -14683,7 +14689,7 @@
         <v>82</v>
       </c>
       <c r="BT1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BU1" t="s">
         <v>85</v>
@@ -14704,7 +14710,7 @@
         <v>89</v>
       </c>
       <c r="CA1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CB1" t="s">
         <v>91</v>
@@ -14730,7 +14736,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
         <v>118</v>
@@ -14990,7 +14996,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -15250,7 +15256,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -15510,7 +15516,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -15770,7 +15776,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -16030,7 +16036,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -16290,7 +16296,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -16550,7 +16556,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -16810,7 +16816,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -17070,7 +17076,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
         <v>116</v>
@@ -17330,7 +17336,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -17590,7 +17596,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -17850,7 +17856,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -18110,7 +18116,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -18370,7 +18376,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
         <v>120</v>
@@ -18630,7 +18636,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
@@ -18890,7 +18896,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B18" t="s">
         <v>118</v>
@@ -19150,7 +19156,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -19410,7 +19416,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -19670,7 +19676,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B21" t="s">
         <v>120</v>
@@ -19980,10 +19986,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -20019,10 +20025,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AC1" t="s">
         <v>172</v>
@@ -20085,7 +20091,7 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AX1" t="s">
         <v>66</v>
@@ -20162,7 +20168,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -20383,7 +20389,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -20604,7 +20610,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -20825,7 +20831,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -21046,7 +21052,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -21267,7 +21273,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -21488,7 +21494,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -21709,7 +21715,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -21930,7 +21936,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
@@ -22151,7 +22157,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -22372,7 +22378,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -22593,7 +22599,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -22814,7 +22820,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -23035,7 +23041,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -23256,7 +23262,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B16" t="s">
         <v>116</v>
@@ -23477,7 +23483,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
@@ -23698,7 +23704,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -23919,7 +23925,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -24140,7 +24146,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -24361,7 +24367,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B21" t="s">
         <v>116</v>
@@ -24638,7 +24644,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -24737,13 +24743,13 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AX1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AY1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AZ1" t="s">
         <v>66</v>
@@ -24799,7 +24805,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -25005,7 +25011,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -25211,7 +25217,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -25417,7 +25423,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -25623,7 +25629,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -25829,7 +25835,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s">
         <v>121</v>
@@ -26035,7 +26041,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -26241,7 +26247,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
         <v>121</v>
@@ -26447,7 +26453,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
@@ -26653,7 +26659,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B11" t="s">
         <v>116</v>
@@ -26859,7 +26865,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -27065,7 +27071,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -27271,7 +27277,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -27477,7 +27483,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -27683,7 +27689,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B16" t="s">
         <v>116</v>
@@ -27889,7 +27895,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
@@ -28095,7 +28101,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -28301,7 +28307,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -28530,7 +28536,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -28542,7 +28548,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -28584,7 +28590,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -28617,7 +28623,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -28674,7 +28680,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -28710,10 +28716,10 @@
         <v>129</v>
       </c>
       <c r="BM1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BN1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BO1" t="s">
         <v>67</v>
@@ -28722,7 +28728,7 @@
         <v>68</v>
       </c>
       <c r="BQ1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BR1" t="s">
         <v>70</v>
@@ -28740,7 +28746,7 @@
         <v>78</v>
       </c>
       <c r="BW1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BX1" t="s">
         <v>225</v>
@@ -28755,7 +28761,7 @@
         <v>82</v>
       </c>
       <c r="CB1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="CC1" t="s">
         <v>84</v>
@@ -28779,7 +28785,7 @@
         <v>89</v>
       </c>
       <c r="CJ1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CK1" t="s">
         <v>91</v>
@@ -28808,7 +28814,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -29098,7 +29104,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -29388,7 +29394,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -29678,7 +29684,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -29968,7 +29974,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -30258,7 +30264,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -30548,7 +30554,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -30838,7 +30844,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -31128,7 +31134,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
@@ -31418,7 +31424,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
         <v>116</v>
@@ -31708,7 +31714,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -31998,7 +32004,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -32288,7 +32294,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -32578,7 +32584,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -32868,7 +32874,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s">
         <v>116</v>
@@ -33158,7 +33164,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s">
         <v>118</v>
@@ -33448,7 +33454,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -33738,7 +33744,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B19" t="s">
         <v>118</v>
@@ -34099,7 +34105,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -34141,7 +34147,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -34159,13 +34165,13 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
       </c>
       <c r="AQ1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AR1" t="s">
         <v>69</v>
@@ -34217,11 +34223,14 @@
       </c>
       <c r="BH1" t="s">
         <v>97</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -34398,12 +34407,15 @@
         <v>121</v>
       </c>
       <c r="BH2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
         <v>118</v>
@@ -34581,11 +34593,14 @@
       </c>
       <c r="BH3" t="s">
         <v>119</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -34763,11 +34778,14 @@
       </c>
       <c r="BH4" t="s">
         <v>116</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -34944,12 +34962,15 @@
         <v>119</v>
       </c>
       <c r="BH5" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
         <v>118</v>
@@ -35126,12 +35147,15 @@
         <v>119</v>
       </c>
       <c r="BH6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -35308,12 +35332,15 @@
         <v>123</v>
       </c>
       <c r="BH7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s">
         <v>118</v>
@@ -35491,11 +35518,14 @@
       </c>
       <c r="BH8" t="s">
         <v>119</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -35672,12 +35702,15 @@
         <v>117</v>
       </c>
       <c r="BH9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s">
         <v>118</v>
@@ -35854,12 +35887,15 @@
         <v>121</v>
       </c>
       <c r="BH10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B11" t="s">
         <v>123</v>
@@ -36036,12 +36072,15 @@
         <v>121</v>
       </c>
       <c r="BH11" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
@@ -36218,12 +36257,15 @@
         <v>123</v>
       </c>
       <c r="BH12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -36401,6 +36443,9 @@
       </c>
       <c r="BH13" t="s">
         <v>116</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -36422,7 +36467,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -36434,7 +36479,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -36467,7 +36512,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -36476,7 +36521,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -36561,11 +36606,14 @@
       </c>
       <c r="AW1" t="s">
         <v>96</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
@@ -36710,11 +36758,14 @@
       </c>
       <c r="AW2" t="s">
         <v>121</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -36859,11 +36910,14 @@
       </c>
       <c r="AW3" t="s">
         <v>119</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -37008,11 +37062,14 @@
       </c>
       <c r="AW4" t="s">
         <v>121</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B5" t="s">
         <v>126</v>
@@ -37157,11 +37214,14 @@
       </c>
       <c r="AW5" t="s">
         <v>117</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B6" t="s">
         <v>121</v>
@@ -37305,12 +37365,15 @@
         <v>121</v>
       </c>
       <c r="AW6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -37455,11 +37518,14 @@
       </c>
       <c r="AW7" t="s">
         <v>117</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -37604,11 +37670,14 @@
       </c>
       <c r="AW8" t="s">
         <v>118</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s">
         <v>120</v>
@@ -37753,11 +37822,14 @@
       </c>
       <c r="AW9" t="s">
         <v>116</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B10" t="s">
         <v>120</v>
@@ -37902,11 +37974,14 @@
       </c>
       <c r="AW10" t="s">
         <v>118</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B11" t="s">
         <v>126</v>
@@ -38051,6 +38126,9 @@
       </c>
       <c r="AW11" t="s">
         <v>119</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -38117,7 +38195,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -38126,7 +38204,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -38135,7 +38213,7 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
@@ -38188,7 +38266,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
         <v>118</v>
@@ -38310,7 +38388,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
@@ -38432,7 +38510,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B4" t="s">
         <v>118</v>
@@ -38554,7 +38632,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s">
         <v>117</v>
@@ -38676,7 +38754,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s">
         <v>118</v>
@@ -38798,7 +38876,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B7" t="s">
         <v>117</v>
@@ -38920,7 +38998,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -39042,7 +39120,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B9" t="s">
         <v>118</v>
@@ -39164,7 +39242,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s">
         <v>117</v>
@@ -39286,7 +39364,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
@@ -39443,7 +39521,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -39479,13 +39557,13 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
@@ -39509,10 +39587,10 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
@@ -39539,7 +39617,7 @@
         <v>77</v>
       </c>
       <c r="AO1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP1" t="s">
         <v>81</v>
@@ -39570,11 +39648,14 @@
       </c>
       <c r="AY1" t="s">
         <v>96</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
@@ -39725,11 +39806,14 @@
       </c>
       <c r="AY2" t="s">
         <v>121</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
@@ -39880,11 +39964,14 @@
       </c>
       <c r="AY3" t="s">
         <v>120</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B4" t="s">
         <v>117</v>
@@ -40035,11 +40122,14 @@
       </c>
       <c r="AY4" t="s">
         <v>121</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B5" t="s">
         <v>117</v>
@@ -40190,11 +40280,14 @@
       </c>
       <c r="AY5" t="s">
         <v>121</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B6" t="s">
         <v>117</v>
@@ -40345,11 +40438,14 @@
       </c>
       <c r="AY6" t="s">
         <v>123</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B7" t="s">
         <v>117</v>
@@ -40500,11 +40596,14 @@
       </c>
       <c r="AY7" t="s">
         <v>123</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -40654,12 +40753,15 @@
         <v>116</v>
       </c>
       <c r="AY8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B9" t="s">
         <v>121</v>
@@ -40809,12 +40911,15 @@
         <v>117</v>
       </c>
       <c r="AY9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B10" t="s">
         <v>121</v>
@@ -40965,11 +41070,14 @@
       </c>
       <c r="AY10" t="s">
         <v>121</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
@@ -41120,6 +41228,9 @@
       </c>
       <c r="AY11" t="s">
         <v>120</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -45414,7 +45525,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -45456,10 +45567,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -45504,16 +45615,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -45543,7 +45654,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -45582,7 +45693,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -45597,13 +45708,13 @@
         <v>223</v>
       </c>
       <c r="BN1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BO1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BP1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="BQ1" t="s">
         <v>181</v>
@@ -45618,7 +45729,7 @@
         <v>129</v>
       </c>
       <c r="BU1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BV1" t="s">
         <v>68</v>
@@ -45630,7 +45741,7 @@
         <v>185</v>
       </c>
       <c r="BY1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="BZ1" t="s">
         <v>70</v>
@@ -45651,7 +45762,7 @@
         <v>82</v>
       </c>
       <c r="CF1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="CG1" t="s">
         <v>84</v>
@@ -45678,7 +45789,7 @@
         <v>89</v>
       </c>
       <c r="CO1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CP1" t="s">
         <v>91</v>
@@ -45710,7 +45821,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -46018,7 +46129,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -46326,7 +46437,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -46634,7 +46745,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -46942,7 +47053,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -47250,7 +47361,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -47558,7 +47669,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -47866,7 +47977,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -48174,7 +48285,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
@@ -48482,7 +48593,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B11" t="s">
         <v>121</v>
@@ -48790,7 +48901,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -49098,7 +49209,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -49406,7 +49517,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -49714,7 +49825,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -50022,7 +50133,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B16" t="s">
         <v>116</v>
@@ -50330,7 +50441,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
@@ -50638,7 +50749,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -50946,7 +51057,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B19" t="s">
         <v>121</v>
@@ -51254,7 +51365,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -51562,7 +51673,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B21" t="s">
         <v>116</v>
@@ -51893,7 +52004,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -51917,19 +52028,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="O1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="Q1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -51953,7 +52064,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -51977,19 +52088,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AH1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AK1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -52007,7 +52118,7 @@
         <v>218</v>
       </c>
       <c r="AQ1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -52019,7 +52130,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -52040,7 +52151,7 @@
         <v>220</v>
       </c>
       <c r="BB1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -52052,19 +52163,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="BG1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BH1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BI1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="BJ1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -52076,7 +52187,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -52112,7 +52223,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -52124,7 +52235,7 @@
         <v>63</v>
       </c>
       <c r="CD1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="CE1" t="s">
         <v>181</v>
@@ -52142,7 +52253,7 @@
         <v>129</v>
       </c>
       <c r="CJ1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="CK1" t="s">
         <v>185</v>
@@ -52169,7 +52280,7 @@
         <v>78</v>
       </c>
       <c r="CS1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="CT1" t="s">
         <v>80</v>
@@ -52202,7 +52313,7 @@
         <v>89</v>
       </c>
       <c r="DD1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="DE1" t="s">
         <v>91</v>
@@ -52231,7 +52342,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -52581,7 +52692,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -52931,7 +53042,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -53281,7 +53392,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -53631,7 +53742,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -53981,7 +54092,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B7" t="s">
         <v>117</v>
@@ -54331,7 +54442,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -54681,7 +54792,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -55031,7 +55142,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B10" t="s">
         <v>117</v>
@@ -55381,7 +55492,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B11" t="s">
         <v>123</v>
@@ -55731,7 +55842,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -56081,7 +56192,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -56431,7 +56542,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -56781,7 +56892,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -57131,7 +57242,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B16" t="s">
         <v>116</v>
@@ -57481,7 +57592,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
@@ -57831,7 +57942,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -58181,7 +58292,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -58531,7 +58642,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -58881,7 +58992,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B21" t="s">
         <v>116</v>
@@ -59231,7 +59342,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B22" t="s">
         <v>116</v>
@@ -59581,7 +59692,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B23" t="s">
         <v>123</v>
@@ -59954,7 +60065,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -59996,7 +60107,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -60047,7 +60158,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -60077,7 +60188,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -60113,7 +60224,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -60125,16 +60236,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BK1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BL1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BM1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -60152,7 +60263,7 @@
         <v>129</v>
       </c>
       <c r="BS1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BT1" t="s">
         <v>66</v>
@@ -60170,7 +60281,7 @@
         <v>185</v>
       </c>
       <c r="BY1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="BZ1" t="s">
         <v>71</v>
@@ -60209,7 +60320,7 @@
         <v>89</v>
       </c>
       <c r="CL1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CM1" t="s">
         <v>227</v>
@@ -60244,7 +60355,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -60546,7 +60657,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -60848,7 +60959,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -61150,7 +61261,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -61452,7 +61563,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B6" t="s">
         <v>118</v>
@@ -61754,7 +61865,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -62056,7 +62167,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -62358,7 +62469,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -62660,7 +62771,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
@@ -62962,7 +63073,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B11" t="s">
         <v>116</v>
@@ -63264,7 +63375,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -63566,7 +63677,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -63868,7 +63979,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -64170,7 +64281,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -64472,7 +64583,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B16" t="s">
         <v>116</v>
@@ -64774,7 +64885,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
@@ -65076,7 +65187,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B18" t="s">
         <v>118</v>
@@ -65378,7 +65489,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -65680,7 +65791,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -65982,7 +66093,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B21" t="s">
         <v>116</v>
@@ -76467,10 +76578,13 @@
       <c r="CJ1" t="s">
         <v>96</v>
       </c>
+      <c r="CK1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -76731,12 +76845,15 @@
         <v>116</v>
       </c>
       <c r="CJ2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -76998,11 +77115,14 @@
       </c>
       <c r="CJ3" t="s">
         <v>118</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -77264,11 +77384,14 @@
       </c>
       <c r="CJ4" t="s">
         <v>117</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -77530,11 +77653,14 @@
       </c>
       <c r="CJ5" t="s">
         <v>121</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -77796,11 +77922,14 @@
       </c>
       <c r="CJ6" t="s">
         <v>118</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -78062,11 +78191,14 @@
       </c>
       <c r="CJ7" t="s">
         <v>118</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -78328,11 +78460,14 @@
       </c>
       <c r="CJ8" t="s">
         <v>118</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -78594,11 +78729,14 @@
       </c>
       <c r="CJ9" t="s">
         <v>119</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
@@ -78860,11 +78998,14 @@
       </c>
       <c r="CJ10" t="s">
         <v>117</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
         <v>116</v>
@@ -79126,11 +79267,14 @@
       </c>
       <c r="CJ11" t="s">
         <v>117</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
         <v>116</v>
@@ -79391,12 +79535,15 @@
         <v>118</v>
       </c>
       <c r="CJ12" t="s">
+        <v>116</v>
+      </c>
+      <c r="CK12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -79658,11 +79805,14 @@
       </c>
       <c r="CJ13" t="s">
         <v>117</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
         <v>116</v>
@@ -79924,11 +80074,14 @@
       </c>
       <c r="CJ14" t="s">
         <v>118</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -80190,11 +80343,14 @@
       </c>
       <c r="CJ15" t="s">
         <v>118</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
         <v>116</v>
@@ -80456,11 +80612,14 @@
       </c>
       <c r="CJ16" t="s">
         <v>121</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
@@ -80721,12 +80880,15 @@
         <v>117</v>
       </c>
       <c r="CJ17" t="s">
+        <v>116</v>
+      </c>
+      <c r="CK17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -80988,11 +81150,14 @@
       </c>
       <c r="CJ18" t="s">
         <v>116</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -81254,11 +81419,14 @@
       </c>
       <c r="CJ19" t="s">
         <v>118</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -81520,11 +81688,14 @@
       </c>
       <c r="CJ20" t="s">
         <v>118</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
         <v>116</v>
@@ -81786,11 +81957,14 @@
       </c>
       <c r="CJ21" t="s">
         <v>121</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
         <v>116</v>
@@ -82052,11 +82226,14 @@
       </c>
       <c r="CJ22" t="s">
         <v>116</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B23" t="s">
         <v>116</v>
@@ -82318,11 +82495,14 @@
       </c>
       <c r="CJ23" t="s">
         <v>121</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
         <v>116</v>
@@ -82584,11 +82764,14 @@
       </c>
       <c r="CJ24" t="s">
         <v>119</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s">
         <v>119</v>
@@ -82850,6 +83033,9 @@
       </c>
       <c r="CJ25" t="s">
         <v>117</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -82886,10 +83072,10 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -82901,7 +83087,7 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
@@ -82913,7 +83099,7 @@
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -82928,7 +83114,7 @@
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
@@ -82937,10 +83123,10 @@
         <v>219</v>
       </c>
       <c r="Y1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -82958,10 +83144,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -83015,7 +83201,7 @@
         <v>77</v>
       </c>
       <c r="AY1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AZ1" t="s">
         <v>225</v>
@@ -83052,11 +83238,14 @@
       </c>
       <c r="BK1" t="s">
         <v>96</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
         <v>118</v>
@@ -83243,11 +83432,14 @@
       </c>
       <c r="BK2" t="s">
         <v>119</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
         <v>118</v>
@@ -83434,11 +83626,14 @@
       </c>
       <c r="BK3" t="s">
         <v>121</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
         <v>124</v>
@@ -83625,11 +83820,14 @@
       </c>
       <c r="BK4" t="s">
         <v>118</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
         <v>121</v>
@@ -83816,11 +84014,14 @@
       </c>
       <c r="BK5" t="s">
         <v>120</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
         <v>117</v>
@@ -84007,11 +84208,14 @@
       </c>
       <c r="BK6" t="s">
         <v>123</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -84198,11 +84402,14 @@
       </c>
       <c r="BK7" t="s">
         <v>123</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
@@ -84376,7 +84583,7 @@
         <v>116</v>
       </c>
       <c r="BG8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BH8" t="s">
         <v>123</v>
@@ -84388,12 +84595,15 @@
         <v>116</v>
       </c>
       <c r="BK8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
         <v>117</v>
@@ -84579,12 +84789,15 @@
         <v>116</v>
       </c>
       <c r="BK9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
         <v>118</v>
@@ -84771,11 +84984,14 @@
       </c>
       <c r="BK10" t="s">
         <v>119</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
         <v>121</v>
@@ -84962,11 +85178,14 @@
       </c>
       <c r="BK11" t="s">
         <v>117</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -85153,11 +85372,14 @@
       </c>
       <c r="BK12" t="s">
         <v>118</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -85343,12 +85565,15 @@
         <v>116</v>
       </c>
       <c r="BK13" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
@@ -85535,11 +85760,14 @@
       </c>
       <c r="BK14" t="s">
         <v>119</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
         <v>124</v>
@@ -85726,11 +85954,14 @@
       </c>
       <c r="BK15" t="s">
         <v>118</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -85916,12 +86147,15 @@
         <v>116</v>
       </c>
       <c r="BK16" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s">
         <v>117</v>
@@ -86108,11 +86342,14 @@
       </c>
       <c r="BK17" t="s">
         <v>120</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
         <v>117</v>
@@ -86298,12 +86535,15 @@
         <v>116</v>
       </c>
       <c r="BK18" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL18" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B19" t="s">
         <v>121</v>
@@ -86489,12 +86729,15 @@
         <v>120</v>
       </c>
       <c r="BK19" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL19" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
         <v>117</v>
@@ -86681,11 +86924,14 @@
       </c>
       <c r="BK20" t="s">
         <v>118</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B21" t="s">
         <v>123</v>
@@ -86872,11 +87118,14 @@
       </c>
       <c r="BK21" t="s">
         <v>119</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B22" t="s">
         <v>121</v>
@@ -87063,11 +87312,14 @@
       </c>
       <c r="BK22" t="s">
         <v>123</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
         <v>118</v>
@@ -87254,11 +87506,14 @@
       </c>
       <c r="BK23" t="s">
         <v>123</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s">
         <v>118</v>
@@ -87445,11 +87700,14 @@
       </c>
       <c r="BK24" t="s">
         <v>121</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s">
         <v>118</v>
@@ -87623,7 +87881,7 @@
         <v>116</v>
       </c>
       <c r="BG25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BH25" t="s">
         <v>119</v>
@@ -87636,6 +87894,9 @@
       </c>
       <c r="BK25" t="s">
         <v>119</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -87666,7 +87927,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -87675,7 +87936,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -87690,7 +87951,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -87702,10 +87963,10 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
@@ -87717,16 +87978,16 @@
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -87741,10 +88002,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -87762,7 +88023,7 @@
         <v>180</v>
       </c>
       <c r="AL1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM1" t="s">
         <v>128</v>
@@ -87817,11 +88078,14 @@
       </c>
       <c r="BD1" t="s">
         <v>96</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
@@ -87987,11 +88251,14 @@
       </c>
       <c r="BD2" t="s">
         <v>117</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
         <v>123</v>
@@ -88157,11 +88424,14 @@
       </c>
       <c r="BD3" t="s">
         <v>118</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
         <v>118</v>
@@ -88327,11 +88597,14 @@
       </c>
       <c r="BD4" t="s">
         <v>121</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -88497,11 +88770,14 @@
       </c>
       <c r="BD5" t="s">
         <v>118</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
@@ -88667,11 +88943,14 @@
       </c>
       <c r="BD6" t="s">
         <v>121</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
         <v>121</v>
@@ -88837,11 +89116,14 @@
       </c>
       <c r="BD7" t="s">
         <v>123</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -89007,11 +89289,14 @@
       </c>
       <c r="BD8" t="s">
         <v>116</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
         <v>118</v>
@@ -89107,7 +89392,7 @@
         <v>116</v>
       </c>
       <c r="AG9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH9" t="s">
         <v>116</v>
@@ -89177,11 +89462,14 @@
       </c>
       <c r="BD9" t="s">
         <v>117</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
         <v>120</v>
@@ -89347,11 +89635,14 @@
       </c>
       <c r="BD10" t="s">
         <v>118</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
         <v>121</v>
@@ -89517,11 +89808,14 @@
       </c>
       <c r="BD11" t="s">
         <v>118</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -89687,11 +89981,14 @@
       </c>
       <c r="BD12" t="s">
         <v>119</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
         <v>118</v>
@@ -89856,12 +90153,15 @@
         <v>118</v>
       </c>
       <c r="BD13" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
         <v>121</v>
@@ -90027,11 +90327,14 @@
       </c>
       <c r="BD14" t="s">
         <v>121</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
         <v>121</v>
@@ -90197,11 +90500,14 @@
       </c>
       <c r="BD15" t="s">
         <v>120</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
         <v>121</v>
@@ -90297,7 +90603,7 @@
         <v>116</v>
       </c>
       <c r="AG16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH16" t="s">
         <v>116</v>
@@ -90367,11 +90673,14 @@
       </c>
       <c r="BD16" t="s">
         <v>118</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
         <v>121</v>
@@ -90537,11 +90846,14 @@
       </c>
       <c r="BD17" t="s">
         <v>121</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
         <v>120</v>
@@ -90707,11 +91019,14 @@
       </c>
       <c r="BD18" t="s">
         <v>118</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
@@ -90877,11 +91192,14 @@
       </c>
       <c r="BD19" t="s">
         <v>117</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -91047,11 +91365,14 @@
       </c>
       <c r="BD20" t="s">
         <v>123</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
         <v>121</v>
@@ -91217,11 +91538,14 @@
       </c>
       <c r="BD21" t="s">
         <v>119</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
         <v>118</v>
@@ -91387,11 +91711,14 @@
       </c>
       <c r="BD22" t="s">
         <v>118</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B23" t="s">
         <v>119</v>
@@ -91557,11 +91884,14 @@
       </c>
       <c r="BD23" t="s">
         <v>118</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B24" t="s">
         <v>121</v>
@@ -91727,11 +92057,14 @@
       </c>
       <c r="BD24" t="s">
         <v>120</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B25" t="s">
         <v>121</v>
@@ -91897,6 +92230,9 @@
       </c>
       <c r="BD25" t="s">
         <v>117</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -91921,13 +92257,13 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -91939,7 +92275,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
@@ -91951,19 +92287,19 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -91972,10 +92308,10 @@
         <v>219</v>
       </c>
       <c r="U1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -91996,7 +92332,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -92072,11 +92408,14 @@
       </c>
       <c r="BB1" t="s">
         <v>96</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
@@ -92236,11 +92575,14 @@
       </c>
       <c r="BB2" t="s">
         <v>117</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -92400,11 +92742,14 @@
       </c>
       <c r="BB3" t="s">
         <v>123</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
         <v>120</v>
@@ -92564,11 +92909,14 @@
       </c>
       <c r="BB4" t="s">
         <v>124</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
         <v>117</v>
@@ -92728,11 +93076,14 @@
       </c>
       <c r="BB5" t="s">
         <v>116</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -92892,11 +93243,14 @@
       </c>
       <c r="BB6" t="s">
         <v>123</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
         <v>117</v>
@@ -93056,11 +93410,14 @@
       </c>
       <c r="BB7" t="s">
         <v>119</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -93220,11 +93577,14 @@
       </c>
       <c r="BB8" t="s">
         <v>116</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -93384,11 +93744,14 @@
       </c>
       <c r="BB9" t="s">
         <v>124</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
@@ -93548,11 +93911,14 @@
       </c>
       <c r="BB10" t="s">
         <v>120</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
         <v>116</v>
@@ -93711,12 +94077,15 @@
         <v>116</v>
       </c>
       <c r="BB11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
         <v>118</v>
@@ -93876,11 +94245,14 @@
       </c>
       <c r="BB12" t="s">
         <v>117</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B13" t="s">
         <v>121</v>
@@ -94040,11 +94412,14 @@
       </c>
       <c r="BB13" t="s">
         <v>119</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B14" t="s">
         <v>118</v>
@@ -94204,11 +94579,14 @@
       </c>
       <c r="BB14" t="s">
         <v>123</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s">
         <v>120</v>
@@ -94368,11 +94746,14 @@
       </c>
       <c r="BB15" t="s">
         <v>117</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -94532,11 +94913,14 @@
       </c>
       <c r="BB16" t="s">
         <v>119</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
         <v>121</v>
@@ -94696,11 +95080,14 @@
       </c>
       <c r="BB17" t="s">
         <v>119</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -94860,11 +95247,14 @@
       </c>
       <c r="BB18" t="s">
         <v>117</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -95024,11 +95414,14 @@
       </c>
       <c r="BB19" t="s">
         <v>123</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
         <v>118</v>
@@ -95188,11 +95581,14 @@
       </c>
       <c r="BB20" t="s">
         <v>120</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B21" t="s">
         <v>117</v>
@@ -95352,11 +95748,14 @@
       </c>
       <c r="BB21" t="s">
         <v>117</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B22" t="s">
         <v>118</v>
@@ -95516,11 +95915,14 @@
       </c>
       <c r="BB22" t="s">
         <v>121</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
         <v>119</v>
@@ -95680,11 +96082,14 @@
       </c>
       <c r="BB23" t="s">
         <v>116</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B24" t="s">
         <v>116</v>
@@ -95844,6 +96249,9 @@
       </c>
       <c r="BB24" t="s">
         <v>117</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -95952,7 +96360,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -96009,7 +96417,7 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AZ1" t="s">
         <v>127</v>
@@ -96095,7 +96503,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -96331,7 +96739,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
@@ -96567,7 +96975,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
         <v>116</v>
@@ -96803,7 +97211,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
         <v>116</v>
@@ -97039,7 +97447,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -97275,7 +97683,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
         <v>116</v>
@@ -97511,7 +97919,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
         <v>116</v>
@@ -97747,7 +98155,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
         <v>116</v>
@@ -97983,7 +98391,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
         <v>116</v>
@@ -98219,7 +98627,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
         <v>116</v>
@@ -98455,7 +98863,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -98691,7 +99099,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
@@ -98927,7 +99335,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
         <v>117</v>
@@ -99163,7 +99571,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s">
         <v>116</v>
@@ -99399,7 +99807,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
         <v>116</v>
@@ -99635,7 +100043,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
@@ -99871,7 +100279,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
@@ -100107,7 +100515,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
@@ -100343,7 +100751,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
@@ -100579,7 +100987,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s">
         <v>116</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33743" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33992" uniqueCount="623">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -437,6 +437,9 @@
     <t>X2022.02.18</t>
   </si>
   <si>
+    <t>X2022.03.16</t>
+  </si>
+  <si>
     <t>Augsburg</t>
   </si>
   <si>
@@ -738,6 +741,9 @@
   </si>
   <si>
     <t>X2022.03.08</t>
+  </si>
+  <si>
+    <t>X2022.03.15</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -7815,37 +7821,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -7857,13 +7863,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -7872,7 +7878,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -7881,19 +7887,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -7902,7 +7908,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -7911,16 +7917,16 @@
         <v>53</v>
       </c>
       <c r="AI1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AL1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AM1" t="s">
         <v>131</v>
@@ -7929,16 +7935,16 @@
         <v>67</v>
       </c>
       <c r="AO1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AP1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AQ1" t="s">
         <v>71</v>
       </c>
       <c r="AR1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AS1" t="s">
         <v>74</v>
@@ -7947,48 +7953,51 @@
         <v>76</v>
       </c>
       <c r="AU1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AV1" t="s">
         <v>81</v>
       </c>
       <c r="AW1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AX1" t="s">
         <v>85</v>
       </c>
       <c r="AY1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AZ1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BA1" t="s">
         <v>88</v>
       </c>
       <c r="BB1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="BC1" t="s">
         <v>92</v>
       </c>
       <c r="BD1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BE1" t="s">
         <v>96</v>
       </c>
       <c r="BF1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BG1" t="s">
         <v>99</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -8163,11 +8172,14 @@
       </c>
       <c r="BG2" t="s">
         <v>124</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
@@ -8342,11 +8354,14 @@
       </c>
       <c r="BG3" t="s">
         <v>124</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
@@ -8521,11 +8536,14 @@
       </c>
       <c r="BG4" t="s">
         <v>123</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
@@ -8699,12 +8717,15 @@
         <v>119</v>
       </c>
       <c r="BG5" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -8879,11 +8900,14 @@
       </c>
       <c r="BG6" t="s">
         <v>123</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -9058,11 +9082,14 @@
       </c>
       <c r="BG7" t="s">
         <v>126</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
         <v>120</v>
@@ -9236,12 +9263,15 @@
         <v>120</v>
       </c>
       <c r="BG8" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -9416,11 +9446,14 @@
       </c>
       <c r="BG9" t="s">
         <v>126</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s">
         <v>126</v>
@@ -9594,12 +9627,15 @@
         <v>119</v>
       </c>
       <c r="BG10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B11" t="s">
         <v>126</v>
@@ -9774,11 +9810,14 @@
       </c>
       <c r="BG11" t="s">
         <v>124</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
         <v>121</v>
@@ -9953,11 +9992,14 @@
       </c>
       <c r="BG12" t="s">
         <v>124</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
         <v>120</v>
@@ -10132,11 +10174,14 @@
       </c>
       <c r="BG13" t="s">
         <v>124</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
         <v>126</v>
@@ -10310,12 +10355,15 @@
         <v>119</v>
       </c>
       <c r="BG14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -10490,11 +10538,14 @@
       </c>
       <c r="BG15" t="s">
         <v>120</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B16" t="s">
         <v>121</v>
@@ -10668,12 +10719,15 @@
         <v>119</v>
       </c>
       <c r="BG16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s">
         <v>120</v>
@@ -10848,11 +10902,14 @@
       </c>
       <c r="BG17" t="s">
         <v>120</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -11027,11 +11084,14 @@
       </c>
       <c r="BG18" t="s">
         <v>126</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -11206,11 +11266,14 @@
       </c>
       <c r="BG19" t="s">
         <v>123</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -11385,11 +11448,14 @@
       </c>
       <c r="BG20" t="s">
         <v>123</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B21" t="s">
         <v>126</v>
@@ -11564,6 +11630,9 @@
       </c>
       <c r="BG21" t="s">
         <v>126</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -11609,7 +11678,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -11624,7 +11693,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -11639,7 +11708,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -11654,7 +11723,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -11669,7 +11738,7 @@
         <v>54</v>
       </c>
       <c r="AE1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF1" t="s">
         <v>56</v>
@@ -11693,13 +11762,13 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AO1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AP1" t="s">
         <v>131</v>
@@ -11708,7 +11777,7 @@
         <v>132</v>
       </c>
       <c r="AR1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AS1" t="s">
         <v>67</v>
@@ -11717,7 +11786,7 @@
         <v>68</v>
       </c>
       <c r="AU1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AV1" t="s">
         <v>71</v>
@@ -11726,7 +11795,7 @@
         <v>72</v>
       </c>
       <c r="AX1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AY1" t="s">
         <v>77</v>
@@ -11744,7 +11813,7 @@
         <v>82</v>
       </c>
       <c r="BD1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BE1" t="s">
         <v>85</v>
@@ -11753,7 +11822,7 @@
         <v>86</v>
       </c>
       <c r="BG1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BH1" t="s">
         <v>87</v>
@@ -11774,13 +11843,13 @@
         <v>93</v>
       </c>
       <c r="BN1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BO1" t="s">
         <v>94</v>
       </c>
       <c r="BP1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="BQ1" t="s">
         <v>97</v>
@@ -11791,7 +11860,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -12003,7 +12072,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -12215,7 +12284,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -12427,7 +12496,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>126</v>
@@ -12639,7 +12708,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -12851,7 +12920,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -13063,7 +13132,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -13275,7 +13344,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -13487,7 +13556,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -13699,7 +13768,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -13911,7 +13980,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -14123,7 +14192,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>126</v>
@@ -14335,7 +14404,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -14547,7 +14616,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -14779,7 +14848,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -14809,10 +14878,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -14827,7 +14896,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -14845,7 +14914,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -14857,13 +14926,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AE1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -14872,7 +14941,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -14890,7 +14959,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -14902,13 +14971,13 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AT1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AU1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AV1" t="s">
         <v>53</v>
@@ -14917,7 +14986,7 @@
         <v>54</v>
       </c>
       <c r="AX1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AY1" t="s">
         <v>55</v>
@@ -14929,7 +14998,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -14941,22 +15010,22 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="BG1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="BH1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="BI1" t="s">
         <v>132</v>
       </c>
       <c r="BJ1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="BK1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BL1" t="s">
         <v>67</v>
@@ -14965,7 +15034,7 @@
         <v>68</v>
       </c>
       <c r="BN1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BO1" t="s">
         <v>70</v>
@@ -14983,7 +15052,7 @@
         <v>82</v>
       </c>
       <c r="BT1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="BU1" t="s">
         <v>85</v>
@@ -14992,7 +15061,7 @@
         <v>86</v>
       </c>
       <c r="BW1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BX1" t="s">
         <v>133</v>
@@ -15004,7 +15073,7 @@
         <v>89</v>
       </c>
       <c r="CA1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="CB1" t="s">
         <v>91</v>
@@ -15016,7 +15085,7 @@
         <v>93</v>
       </c>
       <c r="CE1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CF1" t="s">
         <v>95</v>
@@ -15034,12 +15103,12 @@
         <v>100</v>
       </c>
       <c r="CK1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
@@ -15308,7 +15377,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -15577,7 +15646,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -15846,7 +15915,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -16115,7 +16184,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -16384,7 +16453,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -16653,7 +16722,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -16922,7 +16991,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -17191,7 +17260,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -17460,7 +17529,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -17729,7 +17798,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -17998,7 +18067,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -18267,7 +18336,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -18536,7 +18605,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -18805,7 +18874,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B16" t="s">
         <v>123</v>
@@ -19074,7 +19143,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -19343,7 +19412,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B18" t="s">
         <v>121</v>
@@ -19612,7 +19681,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -19881,7 +19950,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -20150,7 +20219,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B21" t="s">
         <v>123</v>
@@ -20469,10 +20538,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -20508,13 +20577,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AB1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AC1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -20541,13 +20610,13 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -20574,7 +20643,7 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AX1" t="s">
         <v>66</v>
@@ -20613,7 +20682,7 @@
         <v>86</v>
       </c>
       <c r="BJ1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BK1" t="s">
         <v>87</v>
@@ -20625,7 +20694,7 @@
         <v>89</v>
       </c>
       <c r="BN1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BO1" t="s">
         <v>90</v>
@@ -20637,7 +20706,7 @@
         <v>93</v>
       </c>
       <c r="BR1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BS1" t="s">
         <v>94</v>
@@ -20656,11 +20725,17 @@
       </c>
       <c r="BX1" t="s">
         <v>100</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -20885,12 +20960,18 @@
         <v>121</v>
       </c>
       <c r="BX2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -21116,11 +21197,17 @@
       </c>
       <c r="BX3" t="s">
         <v>119</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -21345,12 +21432,18 @@
         <v>122</v>
       </c>
       <c r="BX4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -21575,12 +21668,18 @@
         <v>120</v>
       </c>
       <c r="BX5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -21805,12 +21904,18 @@
         <v>119</v>
       </c>
       <c r="BX6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -22035,12 +22140,18 @@
         <v>120</v>
       </c>
       <c r="BX7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -22265,12 +22376,18 @@
         <v>120</v>
       </c>
       <c r="BX8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -22495,12 +22612,18 @@
         <v>119</v>
       </c>
       <c r="BX9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -22725,12 +22848,18 @@
         <v>122</v>
       </c>
       <c r="BX10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -22955,12 +23084,18 @@
         <v>121</v>
       </c>
       <c r="BX11" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -23185,12 +23320,18 @@
         <v>120</v>
       </c>
       <c r="BX12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -23415,12 +23556,18 @@
         <v>122</v>
       </c>
       <c r="BX13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -23645,12 +23792,18 @@
         <v>119</v>
       </c>
       <c r="BX14" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -23876,11 +24029,17 @@
       </c>
       <c r="BX15" t="s">
         <v>119</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -24106,11 +24265,17 @@
       </c>
       <c r="BX16" t="s">
         <v>121</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -24336,11 +24501,17 @@
       </c>
       <c r="BX17" t="s">
         <v>119</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -24565,12 +24736,18 @@
         <v>124</v>
       </c>
       <c r="BX18" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ18" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -24796,11 +24973,17 @@
       </c>
       <c r="BX19" t="s">
         <v>119</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -25025,12 +25208,18 @@
         <v>120</v>
       </c>
       <c r="BX20" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
@@ -25255,6 +25444,12 @@
         <v>122</v>
       </c>
       <c r="BX21" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>124</v>
+      </c>
+      <c r="BZ21" t="s">
         <v>119</v>
       </c>
     </row>
@@ -25316,7 +25511,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -25385,10 +25580,10 @@
         <v>51</v>
       </c>
       <c r="AM1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -25415,13 +25610,13 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AX1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AY1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AZ1" t="s">
         <v>66</v>
@@ -25486,7 +25681,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -25701,7 +25896,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -25916,7 +26111,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -26131,7 +26326,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -26346,7 +26541,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -26561,7 +26756,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
         <v>124</v>
@@ -26776,7 +26971,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -26991,7 +27186,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -27206,7 +27401,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -27421,7 +27616,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -27636,7 +27831,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -27851,7 +28046,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -28066,7 +28261,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -28281,7 +28476,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -28496,7 +28691,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -28711,7 +28906,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -28926,7 +29121,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -29141,7 +29336,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -29379,7 +29574,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -29391,7 +29586,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -29403,7 +29598,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -29433,7 +29628,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -29445,7 +29640,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -29466,7 +29661,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -29478,7 +29673,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -29499,10 +29694,10 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AT1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AU1" t="s">
         <v>52</v>
@@ -29523,7 +29718,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -29535,19 +29730,19 @@
         <v>63</v>
       </c>
       <c r="BE1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BF1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BG1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BH1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BI1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BJ1" t="s">
         <v>130</v>
@@ -29559,10 +29754,10 @@
         <v>132</v>
       </c>
       <c r="BM1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="BN1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="BO1" t="s">
         <v>67</v>
@@ -29571,7 +29766,7 @@
         <v>68</v>
       </c>
       <c r="BQ1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BR1" t="s">
         <v>70</v>
@@ -29589,10 +29784,10 @@
         <v>78</v>
       </c>
       <c r="BW1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BX1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BY1" t="s">
         <v>79</v>
@@ -29604,7 +29799,7 @@
         <v>82</v>
       </c>
       <c r="CB1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="CC1" t="s">
         <v>84</v>
@@ -29616,7 +29811,7 @@
         <v>86</v>
       </c>
       <c r="CF1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CG1" t="s">
         <v>133</v>
@@ -29628,7 +29823,7 @@
         <v>89</v>
       </c>
       <c r="CJ1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="CK1" t="s">
         <v>91</v>
@@ -29640,7 +29835,7 @@
         <v>93</v>
       </c>
       <c r="CN1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CO1" t="s">
         <v>95</v>
@@ -29652,7 +29847,7 @@
         <v>97</v>
       </c>
       <c r="CR1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CS1" t="s">
         <v>98</v>
@@ -29664,12 +29859,12 @@
         <v>100</v>
       </c>
       <c r="CV1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -29971,7 +30166,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -30273,7 +30468,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -30575,7 +30770,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -30877,7 +31072,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -31179,7 +31374,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -31481,7 +31676,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -31783,7 +31978,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -32085,7 +32280,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -32387,7 +32582,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -32689,7 +32884,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -32991,7 +33186,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -33293,7 +33488,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -33595,7 +33790,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -33897,7 +34092,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -34199,7 +34394,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>121</v>
@@ -34501,7 +34696,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -34803,7 +34998,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B19" t="s">
         <v>121</v>
@@ -35176,7 +35371,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -35194,7 +35389,7 @@
         <v>47</v>
       </c>
       <c r="AA1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AB1" t="s">
         <v>50</v>
@@ -35203,13 +35398,13 @@
         <v>51</v>
       </c>
       <c r="AD1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AE1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG1" t="s">
         <v>53</v>
@@ -35218,7 +35413,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -35236,13 +35431,13 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
       </c>
       <c r="AQ1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AR1" t="s">
         <v>69</v>
@@ -35257,7 +35452,7 @@
         <v>77</v>
       </c>
       <c r="AV1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AW1" t="s">
         <v>79</v>
@@ -35272,7 +35467,7 @@
         <v>83</v>
       </c>
       <c r="BA1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BB1" t="s">
         <v>88</v>
@@ -35296,12 +35491,12 @@
         <v>97</v>
       </c>
       <c r="BI1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -35486,7 +35681,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
@@ -35671,7 +35866,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -35856,7 +36051,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -36041,7 +36236,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s">
         <v>121</v>
@@ -36226,7 +36421,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -36411,7 +36606,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B8" t="s">
         <v>121</v>
@@ -36596,7 +36791,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -36781,7 +36976,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B10" t="s">
         <v>121</v>
@@ -36966,7 +37161,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B11" t="s">
         <v>126</v>
@@ -37151,7 +37346,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B12" t="s">
         <v>126</v>
@@ -37336,7 +37531,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -37538,7 +37733,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -37550,7 +37745,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -37568,7 +37763,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -37583,7 +37778,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -37592,7 +37787,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -37619,10 +37814,10 @@
         <v>64</v>
       </c>
       <c r="AD1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF1" t="s">
         <v>131</v>
@@ -37643,7 +37838,7 @@
         <v>77</v>
       </c>
       <c r="AL1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM1" t="s">
         <v>80</v>
@@ -37661,7 +37856,7 @@
         <v>88</v>
       </c>
       <c r="AR1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AS1" t="s">
         <v>91</v>
@@ -37670,7 +37865,7 @@
         <v>92</v>
       </c>
       <c r="AU1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AV1" t="s">
         <v>95</v>
@@ -37679,7 +37874,7 @@
         <v>96</v>
       </c>
       <c r="AX1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AY1" t="s">
         <v>98</v>
@@ -37690,7 +37885,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
@@ -37848,7 +38043,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -38006,7 +38201,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -38164,7 +38359,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s">
         <v>129</v>
@@ -38322,7 +38517,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
@@ -38480,7 +38675,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -38638,7 +38833,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -38796,7 +38991,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
         <v>123</v>
@@ -38954,7 +39149,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B10" t="s">
         <v>123</v>
@@ -39112,7 +39307,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B11" t="s">
         <v>129</v>
@@ -39302,7 +39497,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -39332,7 +39527,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -39341,7 +39536,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -39350,16 +39545,16 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB1" t="s">
         <v>131</v>
@@ -39380,7 +39575,7 @@
         <v>81</v>
       </c>
       <c r="AH1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AI1" t="s">
         <v>85</v>
@@ -39389,13 +39584,13 @@
         <v>88</v>
       </c>
       <c r="AK1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL1" t="s">
         <v>92</v>
       </c>
       <c r="AM1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN1" t="s">
         <v>96</v>
@@ -39406,7 +39601,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
@@ -39531,7 +39726,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
@@ -39656,7 +39851,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
@@ -39781,7 +39976,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
@@ -39906,7 +40101,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
         <v>121</v>
@@ -40031,7 +40226,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B7" t="s">
         <v>120</v>
@@ -40156,7 +40351,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
         <v>120</v>
@@ -40281,7 +40476,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B9" t="s">
         <v>121</v>
@@ -40406,7 +40601,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B10" t="s">
         <v>120</v>
@@ -40531,7 +40726,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
         <v>120</v>
@@ -40691,7 +40886,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -40727,19 +40922,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="W1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -40757,16 +40952,16 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AF1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
       </c>
       <c r="AH1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AI1" t="s">
         <v>130</v>
@@ -40787,7 +40982,7 @@
         <v>77</v>
       </c>
       <c r="AO1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AP1" t="s">
         <v>81</v>
@@ -40799,13 +40994,13 @@
         <v>85</v>
       </c>
       <c r="AS1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AT1" t="s">
         <v>88</v>
       </c>
       <c r="AU1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AV1" t="s">
         <v>91</v>
@@ -40820,15 +41015,21 @@
         <v>96</v>
       </c>
       <c r="AZ1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BA1" t="s">
         <v>99</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
         <v>120</v>
@@ -40985,11 +41186,17 @@
       </c>
       <c r="BA2" t="s">
         <v>122</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
@@ -41146,11 +41353,17 @@
       </c>
       <c r="BA3" t="s">
         <v>121</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
         <v>120</v>
@@ -41307,11 +41520,17 @@
       </c>
       <c r="BA4" t="s">
         <v>121</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
@@ -41468,11 +41687,17 @@
       </c>
       <c r="BA5" t="s">
         <v>126</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B6" t="s">
         <v>120</v>
@@ -41629,11 +41854,17 @@
       </c>
       <c r="BA6" t="s">
         <v>121</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B7" t="s">
         <v>120</v>
@@ -41790,11 +42021,17 @@
       </c>
       <c r="BA7" t="s">
         <v>124</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B8" t="s">
         <v>120</v>
@@ -41951,11 +42188,17 @@
       </c>
       <c r="BA8" t="s">
         <v>122</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -42112,11 +42355,17 @@
       </c>
       <c r="BA9" t="s">
         <v>126</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B10" t="s">
         <v>124</v>
@@ -42273,11 +42522,17 @@
       </c>
       <c r="BA10" t="s">
         <v>124</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B11" t="s">
         <v>120</v>
@@ -42434,6 +42689,12 @@
       </c>
       <c r="BA11" t="s">
         <v>121</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -42676,10 +42937,13 @@
       <c r="BX1" t="s">
         <v>100</v>
       </c>
+      <c r="BY1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -42904,12 +43168,15 @@
         <v>119</v>
       </c>
       <c r="BX2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
@@ -43134,12 +43401,15 @@
         <v>120</v>
       </c>
       <c r="BX3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -43365,11 +43635,14 @@
       </c>
       <c r="BX4" t="s">
         <v>124</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -43595,11 +43868,14 @@
       </c>
       <c r="BX5" t="s">
         <v>121</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -43824,12 +44100,15 @@
         <v>119</v>
       </c>
       <c r="BX6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -44055,11 +44334,14 @@
       </c>
       <c r="BX7" t="s">
         <v>121</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -44285,11 +44567,14 @@
       </c>
       <c r="BX8" t="s">
         <v>124</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -44514,12 +44799,15 @@
         <v>123</v>
       </c>
       <c r="BX9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -44745,11 +45033,14 @@
       </c>
       <c r="BX10" t="s">
         <v>125</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -44974,12 +45265,15 @@
         <v>120</v>
       </c>
       <c r="BX11" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -45204,12 +45498,15 @@
         <v>120</v>
       </c>
       <c r="BX12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -45435,11 +45732,14 @@
       </c>
       <c r="BX13" t="s">
         <v>124</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -45665,11 +45965,14 @@
       </c>
       <c r="BX14" t="s">
         <v>119</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
         <v>120</v>
@@ -45894,12 +46197,15 @@
         <v>120</v>
       </c>
       <c r="BX15" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -46125,11 +46431,14 @@
       </c>
       <c r="BX16" t="s">
         <v>125</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -46354,12 +46663,15 @@
         <v>120</v>
       </c>
       <c r="BX17" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -46584,12 +46896,15 @@
         <v>120</v>
       </c>
       <c r="BX18" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY18" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -46814,6 +47129,9 @@
         <v>123</v>
       </c>
       <c r="BX19" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -46842,7 +47160,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -46854,7 +47172,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -46884,10 +47202,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="T1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -46902,7 +47220,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -46920,7 +47238,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -46932,16 +47250,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AJ1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AK1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AL1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -46950,7 +47268,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -46971,7 +47289,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -46983,10 +47301,10 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BA1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BB1" t="s">
         <v>52</v>
@@ -46998,7 +47316,7 @@
         <v>54</v>
       </c>
       <c r="BE1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BF1" t="s">
         <v>55</v>
@@ -47010,7 +47328,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -47022,22 +47340,22 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BN1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="BO1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="BP1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="BQ1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BR1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BS1" t="s">
         <v>131</v>
@@ -47046,7 +47364,7 @@
         <v>132</v>
       </c>
       <c r="BU1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="BV1" t="s">
         <v>68</v>
@@ -47055,10 +47373,10 @@
         <v>69</v>
       </c>
       <c r="BX1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BY1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="BZ1" t="s">
         <v>70</v>
@@ -47079,7 +47397,7 @@
         <v>82</v>
       </c>
       <c r="CF1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="CG1" t="s">
         <v>84</v>
@@ -47091,7 +47409,7 @@
         <v>86</v>
       </c>
       <c r="CJ1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CK1" t="s">
         <v>87</v>
@@ -47106,7 +47424,7 @@
         <v>89</v>
       </c>
       <c r="CO1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="CP1" t="s">
         <v>91</v>
@@ -47118,7 +47436,7 @@
         <v>93</v>
       </c>
       <c r="CS1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CT1" t="s">
         <v>94</v>
@@ -47133,7 +47451,7 @@
         <v>97</v>
       </c>
       <c r="CX1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CY1" t="s">
         <v>98</v>
@@ -47145,12 +47463,12 @@
         <v>100</v>
       </c>
       <c r="DB1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -47470,7 +47788,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -47790,7 +48108,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -48110,7 +48428,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -48430,7 +48748,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -48750,7 +49068,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -49070,7 +49388,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -49390,7 +49708,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -49710,7 +50028,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -50030,7 +50348,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B11" t="s">
         <v>124</v>
@@ -50350,7 +50668,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -50670,7 +50988,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -50990,7 +51308,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -51310,7 +51628,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -51630,7 +51948,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -51950,7 +52268,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -52270,7 +52588,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -52590,7 +52908,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B19" t="s">
         <v>124</v>
@@ -52910,7 +53228,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -53230,7 +53548,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
@@ -53573,7 +53891,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -53585,7 +53903,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -53597,19 +53915,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="O1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -53633,7 +53951,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -53645,7 +53963,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -53657,19 +53975,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AH1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AI1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AJ1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AK1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -53681,13 +53999,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AQ1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -53699,7 +54017,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -53711,16 +54029,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AZ1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BA1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BB1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -53732,19 +54050,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="BG1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BH1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BI1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="BJ1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -53756,7 +54074,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -53768,7 +54086,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -53780,7 +54098,7 @@
         <v>54</v>
       </c>
       <c r="BV1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BW1" t="s">
         <v>55</v>
@@ -53792,7 +54110,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -53804,13 +54122,13 @@
         <v>63</v>
       </c>
       <c r="CD1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="CE1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CF1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CG1" t="s">
         <v>130</v>
@@ -53822,10 +54140,10 @@
         <v>132</v>
       </c>
       <c r="CJ1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="CK1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CL1" t="s">
         <v>70</v>
@@ -53837,7 +54155,7 @@
         <v>72</v>
       </c>
       <c r="CO1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CP1" t="s">
         <v>76</v>
@@ -53849,7 +54167,7 @@
         <v>78</v>
       </c>
       <c r="CS1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CT1" t="s">
         <v>80</v>
@@ -53870,7 +54188,7 @@
         <v>86</v>
       </c>
       <c r="CZ1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="DA1" t="s">
         <v>133</v>
@@ -53882,7 +54200,7 @@
         <v>89</v>
       </c>
       <c r="DD1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="DE1" t="s">
         <v>91</v>
@@ -53894,7 +54212,7 @@
         <v>93</v>
       </c>
       <c r="DH1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="DI1" t="s">
         <v>95</v>
@@ -53906,7 +54224,7 @@
         <v>97</v>
       </c>
       <c r="DL1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DM1" t="s">
         <v>98</v>
@@ -53920,7 +54238,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -54279,7 +54597,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -54638,7 +54956,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -54997,7 +55315,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -55356,7 +55674,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -55715,7 +56033,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B7" t="s">
         <v>120</v>
@@ -56074,7 +56392,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -56433,7 +56751,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -56792,7 +57110,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B10" t="s">
         <v>120</v>
@@ -57151,7 +57469,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B11" t="s">
         <v>126</v>
@@ -57510,7 +57828,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -57869,7 +58187,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -58228,7 +58546,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -58587,7 +58905,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -58946,7 +59264,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -59305,7 +59623,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -59664,7 +59982,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -60023,7 +60341,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -60382,7 +60700,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -60741,7 +61059,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
@@ -61100,7 +61418,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
@@ -61459,7 +61777,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B23" t="s">
         <v>126</v>
@@ -61841,7 +62159,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -61853,7 +62171,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -61883,7 +62201,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -61901,7 +62219,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -61922,7 +62240,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -61934,7 +62252,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -61946,7 +62264,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -61964,7 +62282,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -61976,7 +62294,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -61988,7 +62306,7 @@
         <v>54</v>
       </c>
       <c r="BB1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BC1" t="s">
         <v>55</v>
@@ -62000,7 +62318,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -62012,16 +62330,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="BK1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="BL1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="BM1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -62039,7 +62357,7 @@
         <v>132</v>
       </c>
       <c r="BS1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="BT1" t="s">
         <v>66</v>
@@ -62054,10 +62372,10 @@
         <v>69</v>
       </c>
       <c r="BX1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BY1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="BZ1" t="s">
         <v>71</v>
@@ -62084,7 +62402,7 @@
         <v>86</v>
       </c>
       <c r="CH1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CI1" t="s">
         <v>133</v>
@@ -62096,10 +62414,10 @@
         <v>89</v>
       </c>
       <c r="CL1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="CM1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CN1" t="s">
         <v>90</v>
@@ -62114,7 +62432,7 @@
         <v>93</v>
       </c>
       <c r="CR1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CS1" t="s">
         <v>95</v>
@@ -62126,7 +62444,7 @@
         <v>97</v>
       </c>
       <c r="CV1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CW1" t="s">
         <v>99</v>
@@ -62135,12 +62453,12 @@
         <v>100</v>
       </c>
       <c r="CY1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -62451,7 +62769,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -62762,7 +63080,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -63073,7 +63391,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -63384,7 +63702,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s">
         <v>121</v>
@@ -63695,7 +64013,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -64006,7 +64324,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -64317,7 +64635,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -64628,7 +64946,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -64939,7 +65257,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -65250,7 +65568,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -65561,7 +65879,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -65872,7 +66190,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -66183,7 +66501,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -66494,7 +66812,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -66805,7 +67123,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -67116,7 +67434,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s">
         <v>121</v>
@@ -67427,7 +67745,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -67738,7 +68056,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -68049,7 +68367,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
@@ -68497,7 +68815,7 @@
         <v>48</v>
       </c>
       <c r="AQ1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AR1" t="s">
         <v>49</v>
@@ -68563,7 +68881,7 @@
         <v>82</v>
       </c>
       <c r="BM1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BN1" t="s">
         <v>84</v>
@@ -68613,7 +68931,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -68855,7 +69173,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -69097,7 +69415,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -69339,7 +69657,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -69581,7 +69899,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -69823,7 +70141,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -70065,7 +70383,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -70307,7 +70625,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -70549,7 +70867,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -70791,7 +71109,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -71033,7 +71351,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -71275,7 +71593,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -71517,7 +71835,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -71759,7 +72077,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -72001,7 +72319,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -72243,7 +72561,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -72485,7 +72803,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -72727,7 +73045,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -72998,7 +73316,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -73031,7 +73349,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -73046,7 +73364,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -73064,7 +73382,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -73088,13 +73406,13 @@
         <v>51</v>
       </c>
       <c r="AK1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN1" t="s">
         <v>53</v>
@@ -73103,7 +73421,7 @@
         <v>54</v>
       </c>
       <c r="AP1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AQ1" t="s">
         <v>55</v>
@@ -73136,28 +73454,28 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BB1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BC1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BD1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BE1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BF1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BG1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BH1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BI1" t="s">
         <v>66</v>
@@ -73172,7 +73490,7 @@
         <v>69</v>
       </c>
       <c r="BM1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BN1" t="s">
         <v>70</v>
@@ -73187,13 +73505,13 @@
         <v>81</v>
       </c>
       <c r="BR1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BS1" t="s">
         <v>83</v>
       </c>
       <c r="BT1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BU1" t="s">
         <v>85</v>
@@ -73202,7 +73520,7 @@
         <v>86</v>
       </c>
       <c r="BW1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BX1" t="s">
         <v>88</v>
@@ -73214,7 +73532,7 @@
         <v>90</v>
       </c>
       <c r="CA1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CB1" t="s">
         <v>91</v>
@@ -73226,7 +73544,7 @@
         <v>93</v>
       </c>
       <c r="CE1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CF1" t="s">
         <v>96</v>
@@ -73235,10 +73553,10 @@
         <v>97</v>
       </c>
       <c r="CH1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CI1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CJ1" t="s">
         <v>99</v>
@@ -73247,12 +73565,15 @@
         <v>100</v>
       </c>
       <c r="CL1" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>120</v>
@@ -73520,11 +73841,14 @@
       </c>
       <c r="CL2" t="s">
         <v>119</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -73791,12 +74115,15 @@
         <v>121</v>
       </c>
       <c r="CL3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>120</v>
@@ -74063,12 +74390,15 @@
         <v>119</v>
       </c>
       <c r="CL4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -74336,11 +74666,14 @@
       </c>
       <c r="CL5" t="s">
         <v>119</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -74607,12 +74940,15 @@
         <v>119</v>
       </c>
       <c r="CL6" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -74879,12 +75215,15 @@
         <v>124</v>
       </c>
       <c r="CL7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -75152,11 +75491,14 @@
       </c>
       <c r="CL8" t="s">
         <v>126</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -75423,12 +75765,15 @@
         <v>124</v>
       </c>
       <c r="CL9" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -75695,12 +76040,15 @@
         <v>121</v>
       </c>
       <c r="CL10" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -75967,12 +76315,15 @@
         <v>120</v>
       </c>
       <c r="CL11" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -76240,11 +76591,14 @@
       </c>
       <c r="CL12" t="s">
         <v>119</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -76512,11 +76866,14 @@
       </c>
       <c r="CL13" t="s">
         <v>126</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -76783,12 +77140,15 @@
         <v>119</v>
       </c>
       <c r="CL14" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -77055,12 +77415,15 @@
         <v>124</v>
       </c>
       <c r="CL15" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -77327,12 +77690,15 @@
         <v>121</v>
       </c>
       <c r="CL16" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -77599,12 +77965,15 @@
         <v>121</v>
       </c>
       <c r="CL17" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -77872,11 +78241,14 @@
       </c>
       <c r="CL18" t="s">
         <v>119</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -78143,12 +78515,15 @@
         <v>121</v>
       </c>
       <c r="CL19" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM19" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -78415,12 +78790,15 @@
         <v>121</v>
       </c>
       <c r="CL20" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
@@ -78687,6 +79065,9 @@
         <v>124</v>
       </c>
       <c r="CL21" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM21" t="s">
         <v>119</v>
       </c>
     </row>
@@ -78718,10 +79099,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -78742,10 +79123,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -78757,10 +79138,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="T1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -78778,10 +79159,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -78796,10 +79177,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -78814,10 +79195,10 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN1" t="s">
         <v>49</v>
@@ -78829,7 +79210,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -78850,7 +79231,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -78859,22 +79240,22 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BB1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BC1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BD1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BE1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BF1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BG1" t="s">
         <v>67</v>
@@ -78886,13 +79267,13 @@
         <v>69</v>
       </c>
       <c r="BJ1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BK1" t="s">
         <v>71</v>
       </c>
       <c r="BL1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BM1" t="s">
         <v>73</v>
@@ -78910,7 +79291,7 @@
         <v>78</v>
       </c>
       <c r="BR1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BS1" t="s">
         <v>79</v>
@@ -78922,7 +79303,7 @@
         <v>81</v>
       </c>
       <c r="BV1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BW1" t="s">
         <v>83</v>
@@ -78934,10 +79315,10 @@
         <v>86</v>
       </c>
       <c r="BZ1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CA1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CB1" t="s">
         <v>87</v>
@@ -78946,7 +79327,7 @@
         <v>88</v>
       </c>
       <c r="CD1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CE1" t="s">
         <v>90</v>
@@ -78955,10 +79336,10 @@
         <v>92</v>
       </c>
       <c r="CG1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CI1" t="s">
         <v>95</v>
@@ -78967,7 +79348,7 @@
         <v>96</v>
       </c>
       <c r="CK1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CL1" t="s">
         <v>98</v>
@@ -78977,11 +79358,17 @@
       </c>
       <c r="CN1" t="s">
         <v>100</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -79254,12 +79641,18 @@
         <v>120</v>
       </c>
       <c r="CN2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -79532,12 +79925,18 @@
         <v>126</v>
       </c>
       <c r="CN3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -79810,12 +80209,18 @@
         <v>124</v>
       </c>
       <c r="CN4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>122</v>
+      </c>
+      <c r="CP4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -80089,11 +80494,17 @@
       </c>
       <c r="CN5" t="s">
         <v>119</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -80366,12 +80777,18 @@
         <v>120</v>
       </c>
       <c r="CN6" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -80644,12 +81061,18 @@
         <v>124</v>
       </c>
       <c r="CN7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -80923,11 +81346,17 @@
       </c>
       <c r="CN8" t="s">
         <v>119</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -81201,11 +81630,17 @@
       </c>
       <c r="CN9" t="s">
         <v>119</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -81478,12 +81913,18 @@
         <v>120</v>
       </c>
       <c r="CN10" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>122</v>
+      </c>
+      <c r="CP10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -81756,12 +82197,18 @@
         <v>120</v>
       </c>
       <c r="CN11" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
@@ -82035,11 +82482,17 @@
       </c>
       <c r="CN12" t="s">
         <v>119</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -82313,11 +82766,17 @@
       </c>
       <c r="CN13" t="s">
         <v>119</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -82591,11 +83050,17 @@
       </c>
       <c r="CN14" t="s">
         <v>121</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -82868,12 +83333,18 @@
         <v>126</v>
       </c>
       <c r="CN15" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -83147,11 +83618,17 @@
       </c>
       <c r="CN16" t="s">
         <v>119</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -83425,11 +83902,17 @@
       </c>
       <c r="CN17" t="s">
         <v>119</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -83703,11 +84186,17 @@
       </c>
       <c r="CN18" t="s">
         <v>119</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -83981,11 +84470,17 @@
       </c>
       <c r="CN19" t="s">
         <v>119</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -84259,11 +84754,17 @@
       </c>
       <c r="CN20" t="s">
         <v>121</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
@@ -84536,12 +85037,18 @@
         <v>122</v>
       </c>
       <c r="CN21" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
@@ -84815,11 +85322,17 @@
       </c>
       <c r="CN22" t="s">
         <v>119</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
         <v>119</v>
@@ -85093,11 +85606,17 @@
       </c>
       <c r="CN23" t="s">
         <v>119</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
         <v>119</v>
@@ -85371,11 +85890,17 @@
       </c>
       <c r="CN24" t="s">
         <v>119</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>119</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s">
         <v>122</v>
@@ -85648,6 +86173,12 @@
         <v>119</v>
       </c>
       <c r="CN25" t="s">
+        <v>119</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP25" t="s">
         <v>119</v>
       </c>
     </row>
@@ -85673,7 +86204,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -85685,34 +86216,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -85721,31 +86252,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Z1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -85757,10 +86288,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -85775,28 +86306,28 @@
         <v>65</v>
       </c>
       <c r="AL1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AP1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AQ1" t="s">
         <v>131</v>
       </c>
       <c r="AR1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AT1" t="s">
         <v>67</v>
@@ -85814,16 +86345,16 @@
         <v>77</v>
       </c>
       <c r="AY1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AZ1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BA1" t="s">
         <v>81</v>
       </c>
       <c r="BB1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BC1" t="s">
         <v>85</v>
@@ -85832,7 +86363,7 @@
         <v>86</v>
       </c>
       <c r="BE1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BF1" t="s">
         <v>133</v>
@@ -85841,27 +86372,30 @@
         <v>88</v>
       </c>
       <c r="BH1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BI1" t="s">
         <v>92</v>
       </c>
       <c r="BJ1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BK1" t="s">
         <v>96</v>
       </c>
       <c r="BL1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BM1" t="s">
         <v>99</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
@@ -86054,11 +86588,14 @@
       </c>
       <c r="BM2" t="s">
         <v>121</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
         <v>121</v>
@@ -86251,11 +86788,14 @@
       </c>
       <c r="BM3" t="s">
         <v>120</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
@@ -86448,11 +86988,14 @@
       </c>
       <c r="BM4" t="s">
         <v>124</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
         <v>124</v>
@@ -86645,11 +87188,14 @@
       </c>
       <c r="BM5" t="s">
         <v>123</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
         <v>120</v>
@@ -86842,11 +87388,14 @@
       </c>
       <c r="BM6" t="s">
         <v>127</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
         <v>126</v>
@@ -87039,11 +87588,14 @@
       </c>
       <c r="BM7" t="s">
         <v>121</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>120</v>
@@ -87217,7 +87769,7 @@
         <v>119</v>
       </c>
       <c r="BG8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BH8" t="s">
         <v>126</v>
@@ -87236,11 +87788,14 @@
       </c>
       <c r="BM8" t="s">
         <v>122</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
         <v>120</v>
@@ -87432,12 +87987,15 @@
         <v>122</v>
       </c>
       <c r="BM9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
         <v>121</v>
@@ -87630,11 +88188,14 @@
       </c>
       <c r="BM10" t="s">
         <v>124</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
         <v>124</v>
@@ -87827,11 +88388,14 @@
       </c>
       <c r="BM11" t="s">
         <v>123</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
         <v>120</v>
@@ -88023,12 +88587,15 @@
         <v>119</v>
       </c>
       <c r="BM12" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -88221,11 +88788,14 @@
       </c>
       <c r="BM13" t="s">
         <v>126</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
         <v>120</v>
@@ -88418,11 +88988,14 @@
       </c>
       <c r="BM14" t="s">
         <v>120</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
@@ -88615,11 +89188,14 @@
       </c>
       <c r="BM15" t="s">
         <v>120</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -88812,11 +89388,14 @@
       </c>
       <c r="BM16" t="s">
         <v>122</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
         <v>120</v>
@@ -89009,11 +89588,14 @@
       </c>
       <c r="BM17" t="s">
         <v>121</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
         <v>120</v>
@@ -89205,12 +89787,15 @@
         <v>120</v>
       </c>
       <c r="BM18" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
         <v>124</v>
@@ -89403,11 +89988,14 @@
       </c>
       <c r="BM19" t="s">
         <v>126</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
         <v>120</v>
@@ -89600,11 +90188,14 @@
       </c>
       <c r="BM20" t="s">
         <v>126</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B21" t="s">
         <v>126</v>
@@ -89797,11 +90388,14 @@
       </c>
       <c r="BM21" t="s">
         <v>127</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
         <v>124</v>
@@ -89994,11 +90588,14 @@
       </c>
       <c r="BM22" t="s">
         <v>121</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
         <v>121</v>
@@ -90191,11 +90788,14 @@
       </c>
       <c r="BM23" t="s">
         <v>120</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
         <v>121</v>
@@ -90387,12 +90987,15 @@
         <v>119</v>
       </c>
       <c r="BM24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
         <v>121</v>
@@ -90566,7 +91169,7 @@
         <v>119</v>
       </c>
       <c r="BG25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BH25" t="s">
         <v>122</v>
@@ -90585,6 +91188,9 @@
       </c>
       <c r="BM25" t="s">
         <v>126</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -90609,13 +91215,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -90624,7 +91230,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -90633,13 +91239,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -90651,37 +91257,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Z1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -90690,10 +91296,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AF1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -90705,19 +91311,19 @@
         <v>64</v>
       </c>
       <c r="AJ1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM1" t="s">
         <v>131</v>
       </c>
       <c r="AN1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO1" t="s">
         <v>67</v>
@@ -90735,31 +91341,31 @@
         <v>77</v>
       </c>
       <c r="AT1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AU1" t="s">
         <v>81</v>
       </c>
       <c r="AV1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AW1" t="s">
         <v>85</v>
       </c>
       <c r="AX1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AY1" t="s">
         <v>88</v>
       </c>
       <c r="AZ1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BA1" t="s">
         <v>92</v>
       </c>
       <c r="BB1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BC1" t="s">
         <v>95</v>
@@ -90768,18 +91374,21 @@
         <v>96</v>
       </c>
       <c r="BE1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BF1" t="s">
         <v>98</v>
       </c>
       <c r="BG1" t="s">
         <v>99</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
@@ -90954,11 +91563,14 @@
       </c>
       <c r="BG2" t="s">
         <v>126</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
@@ -91132,12 +91744,15 @@
         <v>119</v>
       </c>
       <c r="BG3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
@@ -91312,11 +91927,14 @@
       </c>
       <c r="BG4" t="s">
         <v>121</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
         <v>126</v>
@@ -91490,12 +92108,15 @@
         <v>119</v>
       </c>
       <c r="BG5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
         <v>126</v>
@@ -91670,11 +92291,14 @@
       </c>
       <c r="BG6" t="s">
         <v>122</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
         <v>124</v>
@@ -91849,11 +92473,14 @@
       </c>
       <c r="BG7" t="s">
         <v>123</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
         <v>126</v>
@@ -92028,11 +92655,14 @@
       </c>
       <c r="BG8" t="s">
         <v>126</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
         <v>121</v>
@@ -92128,7 +92758,7 @@
         <v>119</v>
       </c>
       <c r="AG9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AH9" t="s">
         <v>119</v>
@@ -92206,12 +92836,15 @@
         <v>119</v>
       </c>
       <c r="BG9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
         <v>123</v>
@@ -92386,11 +93019,14 @@
       </c>
       <c r="BG10" t="s">
         <v>121</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
         <v>124</v>
@@ -92565,11 +93201,14 @@
       </c>
       <c r="BG11" t="s">
         <v>126</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B12" t="s">
         <v>120</v>
@@ -92744,11 +93383,14 @@
       </c>
       <c r="BG12" t="s">
         <v>126</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
         <v>121</v>
@@ -92923,11 +93565,14 @@
       </c>
       <c r="BG13" t="s">
         <v>119</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
         <v>124</v>
@@ -93102,11 +93747,14 @@
       </c>
       <c r="BG14" t="s">
         <v>120</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
         <v>124</v>
@@ -93280,12 +93928,15 @@
         <v>119</v>
       </c>
       <c r="BG15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
         <v>124</v>
@@ -93381,7 +94032,7 @@
         <v>119</v>
       </c>
       <c r="AG16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AH16" t="s">
         <v>119</v>
@@ -93460,11 +94111,14 @@
       </c>
       <c r="BG16" t="s">
         <v>124</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
         <v>124</v>
@@ -93639,11 +94293,14 @@
       </c>
       <c r="BG17" t="s">
         <v>123</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
         <v>123</v>
@@ -93818,11 +94475,14 @@
       </c>
       <c r="BG18" t="s">
         <v>126</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
         <v>120</v>
@@ -93997,11 +94657,14 @@
       </c>
       <c r="BG19" t="s">
         <v>126</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -94176,11 +94839,14 @@
       </c>
       <c r="BG20" t="s">
         <v>122</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B21" t="s">
         <v>124</v>
@@ -94355,11 +95021,14 @@
       </c>
       <c r="BG21" t="s">
         <v>120</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B22" t="s">
         <v>121</v>
@@ -94534,11 +95203,14 @@
       </c>
       <c r="BG22" t="s">
         <v>124</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B23" t="s">
         <v>122</v>
@@ -94713,11 +95385,14 @@
       </c>
       <c r="BG23" t="s">
         <v>124</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B24" t="s">
         <v>124</v>
@@ -94892,11 +95567,14 @@
       </c>
       <c r="BG24" t="s">
         <v>119</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B25" t="s">
         <v>124</v>
@@ -95071,6 +95749,9 @@
       </c>
       <c r="BG25" t="s">
         <v>124</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -95095,61 +95776,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -95158,19 +95839,19 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
       </c>
       <c r="AA1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB1" t="s">
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -95182,22 +95863,22 @@
         <v>64</v>
       </c>
       <c r="AG1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AI1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AJ1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK1" t="s">
         <v>131</v>
       </c>
       <c r="AL1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM1" t="s">
         <v>67</v>
@@ -95218,45 +95899,48 @@
         <v>77</v>
       </c>
       <c r="AS1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AT1" t="s">
         <v>81</v>
       </c>
       <c r="AU1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AV1" t="s">
         <v>85</v>
       </c>
       <c r="AW1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX1" t="s">
         <v>88</v>
       </c>
       <c r="AY1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AZ1" t="s">
         <v>92</v>
       </c>
       <c r="BA1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BB1" t="s">
         <v>96</v>
       </c>
       <c r="BC1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BD1" t="s">
         <v>99</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
         <v>120</v>
@@ -95421,12 +96105,15 @@
         <v>119</v>
       </c>
       <c r="BD2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -95592,11 +96279,14 @@
       </c>
       <c r="BD3" t="s">
         <v>122</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
         <v>123</v>
@@ -95762,11 +96452,14 @@
       </c>
       <c r="BD4" t="s">
         <v>119</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
@@ -95932,11 +96625,14 @@
       </c>
       <c r="BD5" t="s">
         <v>120</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -96102,11 +96798,14 @@
       </c>
       <c r="BD6" t="s">
         <v>119</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
         <v>120</v>
@@ -96272,11 +96971,14 @@
       </c>
       <c r="BD7" t="s">
         <v>120</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -96442,11 +97144,14 @@
       </c>
       <c r="BD8" t="s">
         <v>119</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -96612,11 +97317,14 @@
       </c>
       <c r="BD9" t="s">
         <v>121</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -96782,11 +97490,14 @@
       </c>
       <c r="BD10" t="s">
         <v>122</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -96952,11 +97663,14 @@
       </c>
       <c r="BD11" t="s">
         <v>120</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B12" t="s">
         <v>121</v>
@@ -97122,11 +97836,14 @@
       </c>
       <c r="BD12" t="s">
         <v>121</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
         <v>124</v>
@@ -97292,11 +98009,14 @@
       </c>
       <c r="BD13" t="s">
         <v>123</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B14" t="s">
         <v>121</v>
@@ -97462,11 +98182,14 @@
       </c>
       <c r="BD14" t="s">
         <v>124</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
         <v>123</v>
@@ -97632,11 +98355,14 @@
       </c>
       <c r="BD15" t="s">
         <v>119</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -97801,12 +98527,15 @@
         <v>127</v>
       </c>
       <c r="BD16" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B17" t="s">
         <v>124</v>
@@ -97972,11 +98701,14 @@
       </c>
       <c r="BD17" t="s">
         <v>119</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -98142,11 +98874,14 @@
       </c>
       <c r="BD18" t="s">
         <v>119</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -98312,11 +99047,14 @@
       </c>
       <c r="BD19" t="s">
         <v>123</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B20" t="s">
         <v>121</v>
@@ -98482,11 +99220,14 @@
       </c>
       <c r="BD20" t="s">
         <v>123</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B21" t="s">
         <v>120</v>
@@ -98652,11 +99393,14 @@
       </c>
       <c r="BD21" t="s">
         <v>123</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B22" t="s">
         <v>121</v>
@@ -98822,11 +99566,14 @@
       </c>
       <c r="BD22" t="s">
         <v>124</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B23" t="s">
         <v>122</v>
@@ -98991,12 +99738,15 @@
         <v>127</v>
       </c>
       <c r="BD23" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE23" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B24" t="s">
         <v>119</v>
@@ -99162,6 +99912,9 @@
       </c>
       <c r="BD24" t="s">
         <v>120</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -99270,7 +100023,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -99309,7 +100062,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AT1" t="s">
         <v>53</v>
@@ -99327,7 +100080,7 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AZ1" t="s">
         <v>130</v>
@@ -99348,7 +100101,7 @@
         <v>68</v>
       </c>
       <c r="BF1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BG1" t="s">
         <v>70</v>
@@ -99363,7 +100116,7 @@
         <v>74</v>
       </c>
       <c r="BK1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BL1" t="s">
         <v>80</v>
@@ -99422,7 +100175,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -99667,7 +100420,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
@@ -99912,7 +100665,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -100157,7 +100910,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
         <v>119</v>
@@ -100402,7 +101155,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -100647,7 +101400,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
         <v>119</v>
@@ -100892,7 +101645,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
@@ -101137,7 +101890,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -101382,7 +102135,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
@@ -101627,7 +102380,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
@@ -101872,7 +102625,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
         <v>120</v>
@@ -102117,7 +102870,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
@@ -102362,7 +103115,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
         <v>120</v>
@@ -102607,7 +103360,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
@@ -102852,7 +103605,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
@@ -103097,7 +103850,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -103342,7 +104095,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
@@ -103587,7 +104340,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
@@ -103832,7 +104585,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
@@ -104077,7 +104830,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34986" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35130" uniqueCount="629">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -860,6 +860,9 @@
     <t>X2022.01.31</t>
   </si>
   <si>
+    <t>X2022.03.22</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -942,6 +945,9 @@
   </si>
   <si>
     <t>X2022.01.04</t>
+  </si>
+  <si>
+    <t>X2022.03.21</t>
   </si>
   <si>
     <t>Barrow</t>
@@ -8004,25 +8010,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J1" t="s">
         <v>222</v>
@@ -8034,7 +8040,7 @@
         <v>176</v>
       </c>
       <c r="M1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -8076,7 +8082,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -8091,7 +8097,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -8106,10 +8112,10 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AM1" t="s">
         <v>134</v>
@@ -8118,7 +8124,7 @@
         <v>67</v>
       </c>
       <c r="AO1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AP1" t="s">
         <v>192</v>
@@ -8142,7 +8148,7 @@
         <v>81</v>
       </c>
       <c r="AW1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AX1" t="s">
         <v>85</v>
@@ -8157,7 +8163,7 @@
         <v>88</v>
       </c>
       <c r="BB1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="BC1" t="s">
         <v>92</v>
@@ -8183,7 +8189,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -8368,7 +8374,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
@@ -8553,7 +8559,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
         <v>124</v>
@@ -8738,7 +8744,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -8923,7 +8929,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>125</v>
@@ -9108,7 +9114,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -9293,7 +9299,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -9478,7 +9484,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
         <v>125</v>
@@ -9663,7 +9669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
         <v>129</v>
@@ -9848,7 +9854,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>129</v>
@@ -10033,7 +10039,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s">
         <v>124</v>
@@ -10218,7 +10224,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B13" t="s">
         <v>123</v>
@@ -10403,7 +10409,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B14" t="s">
         <v>129</v>
@@ -10588,7 +10594,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B15" t="s">
         <v>125</v>
@@ -10773,7 +10779,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s">
         <v>124</v>
@@ -10958,7 +10964,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B17" t="s">
         <v>123</v>
@@ -11143,7 +11149,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
         <v>125</v>
@@ -11328,7 +11334,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -11513,7 +11519,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B20" t="s">
         <v>125</v>
@@ -11698,7 +11704,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B21" t="s">
         <v>129</v>
@@ -11969,7 +11975,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -12011,10 +12017,10 @@
         <v>233</v>
       </c>
       <c r="AN1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AP1" t="s">
         <v>134</v>
@@ -12095,7 +12101,7 @@
         <v>94</v>
       </c>
       <c r="BP1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="BQ1" t="s">
         <v>97</v>
@@ -12112,7 +12118,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -12330,7 +12336,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>125</v>
@@ -12548,7 +12554,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -12766,7 +12772,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
         <v>129</v>
@@ -12984,7 +12990,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -13202,7 +13208,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -13420,7 +13426,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -13638,7 +13644,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -13856,7 +13862,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -14074,7 +14080,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -14292,7 +14298,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
         <v>125</v>
@@ -14510,7 +14516,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s">
         <v>129</v>
@@ -14728,7 +14734,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -14946,7 +14952,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -15214,7 +15220,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O1" t="s">
         <v>267</v>
@@ -15265,10 +15271,10 @@
         <v>269</v>
       </c>
       <c r="AE1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -15295,7 +15301,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -15334,7 +15340,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -15346,19 +15352,19 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="BG1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="BH1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="BI1" t="s">
         <v>135</v>
       </c>
       <c r="BJ1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="BK1" t="s">
         <v>190</v>
@@ -15370,7 +15376,7 @@
         <v>68</v>
       </c>
       <c r="BN1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="BO1" t="s">
         <v>70</v>
@@ -15388,7 +15394,7 @@
         <v>82</v>
       </c>
       <c r="BT1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="BU1" t="s">
         <v>85</v>
@@ -15409,7 +15415,7 @@
         <v>89</v>
       </c>
       <c r="CA1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="CB1" t="s">
         <v>91</v>
@@ -15453,7 +15459,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
@@ -15731,7 +15737,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -16009,7 +16015,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -16287,7 +16293,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s">
         <v>125</v>
@@ -16565,7 +16571,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -16843,7 +16849,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
         <v>125</v>
@@ -17121,7 +17127,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
@@ -17399,7 +17405,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -17677,7 +17683,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
         <v>125</v>
@@ -17955,7 +17961,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -18233,7 +18239,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -18511,7 +18517,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -18789,7 +18795,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -19067,7 +19073,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -19345,7 +19351,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B16" t="s">
         <v>126</v>
@@ -19623,7 +19629,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -19901,7 +19907,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B18" t="s">
         <v>124</v>
@@ -20179,7 +20185,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -20457,7 +20463,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -20735,7 +20741,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B21" t="s">
         <v>126</v>
@@ -21063,7 +21069,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O1" t="s">
         <v>267</v>
@@ -21102,10 +21108,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AB1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AC1" t="s">
         <v>179</v>
@@ -21168,7 +21174,7 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AX1" t="s">
         <v>66</v>
@@ -21266,7 +21272,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -21508,7 +21514,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -21750,7 +21756,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -21992,7 +21998,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -22234,7 +22240,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -22476,7 +22482,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -22718,7 +22724,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -22960,7 +22966,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -23202,7 +23208,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -23444,7 +23450,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
         <v>125</v>
@@ -23686,7 +23692,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -23928,7 +23934,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -24170,7 +24176,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
         <v>125</v>
@@ -24412,7 +24418,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -24654,7 +24660,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -24896,7 +24902,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -25138,7 +25144,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -25380,7 +25386,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -25622,7 +25628,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -25864,7 +25870,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>
@@ -26261,13 +26267,13 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AX1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AY1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AZ1" t="s">
         <v>66</v>
@@ -26341,7 +26347,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -26565,7 +26571,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -26789,7 +26795,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -27013,7 +27019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -27237,7 +27243,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -27461,7 +27467,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
@@ -27685,7 +27691,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -27909,7 +27915,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>127</v>
@@ -28133,7 +28139,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -28357,7 +28363,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -28581,7 +28587,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -28805,7 +28811,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -29029,7 +29035,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -29253,7 +29259,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -29477,7 +29483,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -29701,7 +29707,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -29925,7 +29931,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -30149,7 +30155,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -30396,7 +30402,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -30408,7 +30414,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -30450,7 +30456,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -30483,7 +30489,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -30540,7 +30546,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -30576,10 +30582,10 @@
         <v>135</v>
       </c>
       <c r="BM1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="BN1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="BO1" t="s">
         <v>67</v>
@@ -30588,7 +30594,7 @@
         <v>68</v>
       </c>
       <c r="BQ1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="BR1" t="s">
         <v>70</v>
@@ -30621,7 +30627,7 @@
         <v>82</v>
       </c>
       <c r="CB1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="CC1" t="s">
         <v>84</v>
@@ -30645,7 +30651,7 @@
         <v>89</v>
       </c>
       <c r="CJ1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="CK1" t="s">
         <v>91</v>
@@ -30695,7 +30701,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -31006,7 +31012,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -31317,7 +31323,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -31628,7 +31634,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -31939,7 +31945,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -32250,7 +32256,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -32561,7 +32567,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -32872,7 +32878,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -33183,7 +33189,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -33494,7 +33500,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -33805,7 +33811,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -34116,7 +34122,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -34427,7 +34433,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -34738,7 +34744,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -35049,7 +35055,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -35360,7 +35366,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B17" t="s">
         <v>124</v>
@@ -35671,7 +35677,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -35982,7 +35988,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B19" t="s">
         <v>124</v>
@@ -36364,7 +36370,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -36424,13 +36430,13 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
       </c>
       <c r="AQ1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AR1" t="s">
         <v>69</v>
@@ -36484,7 +36490,7 @@
         <v>97</v>
       </c>
       <c r="BI1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="BJ1" t="s">
         <v>102</v>
@@ -36495,7 +36501,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -36686,7 +36692,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
@@ -36877,7 +36883,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B4" t="s">
         <v>125</v>
@@ -37068,7 +37074,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -37259,7 +37265,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
@@ -37450,7 +37456,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -37641,7 +37647,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s">
         <v>124</v>
@@ -37832,7 +37838,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -38023,7 +38029,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B10" t="s">
         <v>124</v>
@@ -38214,7 +38220,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B11" t="s">
         <v>129</v>
@@ -38405,7 +38411,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B12" t="s">
         <v>129</v>
@@ -38596,7 +38602,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
@@ -38804,7 +38810,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -38816,7 +38822,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -38958,11 +38964,14 @@
       </c>
       <c r="BB1" t="s">
         <v>102</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B2" t="s">
         <v>127</v>
@@ -39122,11 +39131,14 @@
       </c>
       <c r="BB2" t="s">
         <v>127</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -39286,11 +39298,14 @@
       </c>
       <c r="BB3" t="s">
         <v>127</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
         <v>125</v>
@@ -39450,11 +39465,14 @@
       </c>
       <c r="BB4" t="s">
         <v>122</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B5" t="s">
         <v>132</v>
@@ -39614,11 +39632,14 @@
       </c>
       <c r="BB5" t="s">
         <v>125</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B6" t="s">
         <v>127</v>
@@ -39778,11 +39799,14 @@
       </c>
       <c r="BB6" t="s">
         <v>126</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -39942,11 +39966,14 @@
       </c>
       <c r="BB7" t="s">
         <v>124</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
@@ -40105,12 +40132,15 @@
         <v>123</v>
       </c>
       <c r="BB8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B9" t="s">
         <v>126</v>
@@ -40270,11 +40300,14 @@
       </c>
       <c r="BB9" t="s">
         <v>125</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B10" t="s">
         <v>126</v>
@@ -40434,11 +40467,14 @@
       </c>
       <c r="BB10" t="s">
         <v>124</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B11" t="s">
         <v>132</v>
@@ -40598,6 +40634,9 @@
       </c>
       <c r="BB11" t="s">
         <v>126</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -40682,7 +40721,7 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
@@ -40741,7 +40780,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
@@ -40869,7 +40908,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B3" t="s">
         <v>123</v>
@@ -40997,7 +41036,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
         <v>124</v>
@@ -41125,7 +41164,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -41253,7 +41292,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
@@ -41381,7 +41420,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -41509,7 +41548,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -41637,7 +41676,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -41765,7 +41804,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B10" t="s">
         <v>123</v>
@@ -41893,7 +41932,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B11" t="s">
         <v>123</v>
@@ -42056,7 +42095,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -42092,7 +42131,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="V1" t="s">
         <v>270</v>
@@ -42122,10 +42161,10 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
@@ -42201,11 +42240,14 @@
       </c>
       <c r="BE1" t="s">
         <v>102</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -42374,11 +42416,14 @@
       </c>
       <c r="BE2" t="s">
         <v>129</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
         <v>123</v>
@@ -42547,11 +42592,14 @@
       </c>
       <c r="BE3" t="s">
         <v>124</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
         <v>123</v>
@@ -42720,11 +42768,14 @@
       </c>
       <c r="BE4" t="s">
         <v>123</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -42892,12 +42943,15 @@
         <v>124</v>
       </c>
       <c r="BE5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
@@ -43066,11 +43120,14 @@
       </c>
       <c r="BE6" t="s">
         <v>129</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -43239,11 +43296,14 @@
       </c>
       <c r="BE7" t="s">
         <v>129</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -43412,11 +43472,14 @@
       </c>
       <c r="BE8" t="s">
         <v>129</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B9" t="s">
         <v>127</v>
@@ -43585,11 +43648,14 @@
       </c>
       <c r="BE9" t="s">
         <v>123</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B10" t="s">
         <v>127</v>
@@ -43758,11 +43824,14 @@
       </c>
       <c r="BE10" t="s">
         <v>124</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B11" t="s">
         <v>123</v>
@@ -43930,6 +43999,9 @@
         <v>124</v>
       </c>
       <c r="BE11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -48510,7 +48582,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -48552,7 +48624,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="T1" t="s">
         <v>267</v>
@@ -48600,16 +48672,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AJ1" t="s">
         <v>269</v>
       </c>
       <c r="AK1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -48639,7 +48711,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -48678,7 +48750,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -48693,13 +48765,13 @@
         <v>233</v>
       </c>
       <c r="BN1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="BO1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="BP1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BQ1" t="s">
         <v>188</v>
@@ -48714,7 +48786,7 @@
         <v>135</v>
       </c>
       <c r="BU1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="BV1" t="s">
         <v>68</v>
@@ -48726,7 +48798,7 @@
         <v>192</v>
       </c>
       <c r="BY1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BZ1" t="s">
         <v>70</v>
@@ -48747,7 +48819,7 @@
         <v>82</v>
       </c>
       <c r="CF1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="CG1" t="s">
         <v>84</v>
@@ -48774,7 +48846,7 @@
         <v>89</v>
       </c>
       <c r="CO1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="CP1" t="s">
         <v>91</v>
@@ -48827,7 +48899,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -49156,7 +49228,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -49485,7 +49557,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -49814,7 +49886,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -50143,7 +50215,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -50472,7 +50544,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -50801,7 +50873,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -51130,7 +51202,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -51459,7 +51531,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -51788,7 +51860,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B11" t="s">
         <v>127</v>
@@ -52117,7 +52189,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -52446,7 +52518,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -52775,7 +52847,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -53104,7 +53176,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -53433,7 +53505,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -53762,7 +53834,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -54091,7 +54163,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -54420,7 +54492,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B19" t="s">
         <v>127</v>
@@ -54749,7 +54821,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -55078,7 +55150,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>
@@ -55430,7 +55502,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -55454,16 +55526,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="O1" t="s">
         <v>265</v>
       </c>
       <c r="P1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q1" t="s">
         <v>266</v>
@@ -55490,7 +55562,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -55514,19 +55586,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AH1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AI1" t="s">
         <v>268</v>
       </c>
       <c r="AJ1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AK1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -55544,7 +55616,7 @@
         <v>228</v>
       </c>
       <c r="AQ1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -55556,7 +55628,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -55577,7 +55649,7 @@
         <v>230</v>
       </c>
       <c r="BB1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -55589,7 +55661,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="BG1" t="s">
         <v>270</v>
@@ -55598,10 +55670,10 @@
         <v>271</v>
       </c>
       <c r="BI1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="BJ1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -55613,7 +55685,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -55649,7 +55721,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -55661,7 +55733,7 @@
         <v>63</v>
       </c>
       <c r="CD1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CE1" t="s">
         <v>188</v>
@@ -55679,7 +55751,7 @@
         <v>135</v>
       </c>
       <c r="CJ1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="CK1" t="s">
         <v>192</v>
@@ -55739,7 +55811,7 @@
         <v>89</v>
       </c>
       <c r="DD1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="DE1" t="s">
         <v>91</v>
@@ -55782,11 +55854,14 @@
       </c>
       <c r="DR1" t="s">
         <v>103</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -56150,11 +56225,14 @@
       </c>
       <c r="DR2" t="s">
         <v>129</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -56518,11 +56596,14 @@
       </c>
       <c r="DR3" t="s">
         <v>122</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -56886,11 +56967,14 @@
       </c>
       <c r="DR4" t="s">
         <v>129</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -57253,12 +57337,15 @@
         <v>122</v>
       </c>
       <c r="DR5" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -57621,12 +57708,15 @@
         <v>124</v>
       </c>
       <c r="DR6" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -57990,11 +58080,14 @@
       </c>
       <c r="DR7" t="s">
         <v>125</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -58357,12 +58450,15 @@
         <v>127</v>
       </c>
       <c r="DR8" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -58725,12 +58821,15 @@
         <v>130</v>
       </c>
       <c r="DR9" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B10" t="s">
         <v>123</v>
@@ -59093,12 +59192,15 @@
         <v>122</v>
       </c>
       <c r="DR10" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B11" t="s">
         <v>129</v>
@@ -59461,12 +59563,15 @@
         <v>130</v>
       </c>
       <c r="DR11" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -59829,12 +59934,15 @@
         <v>127</v>
       </c>
       <c r="DR12" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -60198,11 +60306,14 @@
       </c>
       <c r="DR13" t="s">
         <v>123</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -60565,12 +60676,15 @@
         <v>123</v>
       </c>
       <c r="DR14" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -60933,12 +61047,15 @@
         <v>127</v>
       </c>
       <c r="DR15" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -61301,12 +61418,15 @@
         <v>125</v>
       </c>
       <c r="DR16" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -61669,12 +61789,15 @@
         <v>123</v>
       </c>
       <c r="DR17" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -62038,11 +62161,14 @@
       </c>
       <c r="DR18" t="s">
         <v>125</v>
+      </c>
+      <c r="DS18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -62405,12 +62531,15 @@
         <v>125</v>
       </c>
       <c r="DR19" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -62774,11 +62903,14 @@
       </c>
       <c r="DR20" t="s">
         <v>123</v>
+      </c>
+      <c r="DS20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>
@@ -63142,11 +63274,14 @@
       </c>
       <c r="DR21" t="s">
         <v>122</v>
+      </c>
+      <c r="DS21" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B22" t="s">
         <v>122</v>
@@ -63509,12 +63644,15 @@
         <v>127</v>
       </c>
       <c r="DR22" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B23" t="s">
         <v>129</v>
@@ -63877,6 +64015,9 @@
         <v>124</v>
       </c>
       <c r="DR23" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS23" t="s">
         <v>122</v>
       </c>
     </row>
@@ -63905,7 +64046,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -63998,7 +64139,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -64028,7 +64169,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -64064,7 +64205,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -64076,16 +64217,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="BK1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="BL1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="BM1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -64103,7 +64244,7 @@
         <v>135</v>
       </c>
       <c r="BS1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="BT1" t="s">
         <v>66</v>
@@ -64121,7 +64262,7 @@
         <v>192</v>
       </c>
       <c r="BY1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BZ1" t="s">
         <v>71</v>
@@ -64160,7 +64301,7 @@
         <v>89</v>
       </c>
       <c r="CL1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="CM1" t="s">
         <v>237</v>
@@ -64213,7 +64354,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -64533,7 +64674,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -64853,7 +64994,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -65173,7 +65314,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -65493,7 +65634,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
@@ -65813,7 +65954,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -66133,7 +66274,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -66453,7 +66594,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -66773,7 +66914,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -67093,7 +67234,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -67413,7 +67554,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -67733,7 +67874,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -68053,7 +68194,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -68373,7 +68514,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -68693,7 +68834,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -69013,7 +69154,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -69333,7 +69474,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B18" t="s">
         <v>124</v>
@@ -69653,7 +69794,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -69973,7 +70114,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -70293,7 +70434,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>
@@ -88903,10 +89044,13 @@
       <c r="BO1" t="s">
         <v>102</v>
       </c>
+      <c r="BP1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
@@ -89105,11 +89249,14 @@
       </c>
       <c r="BO2" t="s">
         <v>125</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
@@ -89308,11 +89455,14 @@
       </c>
       <c r="BO3" t="s">
         <v>125</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>130</v>
@@ -89511,11 +89661,14 @@
       </c>
       <c r="BO4" t="s">
         <v>127</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
         <v>127</v>
@@ -89714,11 +89867,14 @@
       </c>
       <c r="BO5" t="s">
         <v>123</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
@@ -89917,11 +90073,14 @@
       </c>
       <c r="BO6" t="s">
         <v>127</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>129</v>
@@ -90120,11 +90279,14 @@
       </c>
       <c r="BO7" t="s">
         <v>123</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -90298,7 +90460,7 @@
         <v>122</v>
       </c>
       <c r="BG8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BH8" t="s">
         <v>129</v>
@@ -90323,11 +90485,14 @@
       </c>
       <c r="BO8" t="s">
         <v>125</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>123</v>
@@ -90526,11 +90691,14 @@
       </c>
       <c r="BO9" t="s">
         <v>127</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>124</v>
@@ -90729,11 +90897,14 @@
       </c>
       <c r="BO10" t="s">
         <v>129</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>127</v>
@@ -90932,11 +91103,14 @@
       </c>
       <c r="BO11" t="s">
         <v>129</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
@@ -91135,11 +91309,14 @@
       </c>
       <c r="BO12" t="s">
         <v>129</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
@@ -91338,11 +91515,14 @@
       </c>
       <c r="BO13" t="s">
         <v>123</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>123</v>
@@ -91541,11 +91721,14 @@
       </c>
       <c r="BO14" t="s">
         <v>129</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>130</v>
@@ -91744,11 +91927,14 @@
       </c>
       <c r="BO15" t="s">
         <v>127</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
@@ -91947,11 +92133,14 @@
       </c>
       <c r="BO16" t="s">
         <v>126</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B17" t="s">
         <v>123</v>
@@ -92150,11 +92339,14 @@
       </c>
       <c r="BO17" t="s">
         <v>123</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
         <v>123</v>
@@ -92353,11 +92545,14 @@
       </c>
       <c r="BO18" t="s">
         <v>125</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
         <v>127</v>
@@ -92556,11 +92751,14 @@
       </c>
       <c r="BO19" t="s">
         <v>129</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
@@ -92759,11 +92957,14 @@
       </c>
       <c r="BO20" t="s">
         <v>124</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
         <v>129</v>
@@ -92962,11 +93163,14 @@
       </c>
       <c r="BO21" t="s">
         <v>129</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B22" t="s">
         <v>127</v>
@@ -93165,11 +93369,14 @@
       </c>
       <c r="BO22" t="s">
         <v>124</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B23" t="s">
         <v>124</v>
@@ -93368,11 +93575,14 @@
       </c>
       <c r="BO23" t="s">
         <v>129</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B24" t="s">
         <v>124</v>
@@ -93571,11 +93781,14 @@
       </c>
       <c r="BO24" t="s">
         <v>126</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
         <v>124</v>
@@ -93749,7 +93962,7 @@
         <v>122</v>
       </c>
       <c r="BG25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BH25" t="s">
         <v>125</v>
@@ -93774,6 +93987,9 @@
       </c>
       <c r="BO25" t="s">
         <v>129</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -93804,7 +94020,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -93840,7 +94056,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S1" t="s">
         <v>268</v>
@@ -93900,7 +94116,7 @@
         <v>187</v>
       </c>
       <c r="AL1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM1" t="s">
         <v>134</v>
@@ -93973,11 +94189,17 @@
       </c>
       <c r="BJ1" t="s">
         <v>102</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
         <v>127</v>
@@ -94161,11 +94383,17 @@
       </c>
       <c r="BJ2" t="s">
         <v>124</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>129</v>
@@ -94349,11 +94577,17 @@
       </c>
       <c r="BJ3" t="s">
         <v>124</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>124</v>
@@ -94537,11 +94771,17 @@
       </c>
       <c r="BJ4" t="s">
         <v>127</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
         <v>129</v>
@@ -94725,11 +94965,17 @@
       </c>
       <c r="BJ5" t="s">
         <v>124</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
@@ -94912,12 +95158,18 @@
         <v>122</v>
       </c>
       <c r="BJ6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
@@ -95101,11 +95353,17 @@
       </c>
       <c r="BJ7" t="s">
         <v>125</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>129</v>
@@ -95289,11 +95547,17 @@
       </c>
       <c r="BJ8" t="s">
         <v>123</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -95389,7 +95653,7 @@
         <v>122</v>
       </c>
       <c r="AG9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AH9" t="s">
         <v>122</v>
@@ -95476,12 +95740,18 @@
         <v>122</v>
       </c>
       <c r="BJ9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>126</v>
@@ -95665,11 +95935,17 @@
       </c>
       <c r="BJ10" t="s">
         <v>123</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>127</v>
@@ -95852,12 +96128,18 @@
         <v>126</v>
       </c>
       <c r="BJ11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
@@ -96041,11 +96323,17 @@
       </c>
       <c r="BJ12" t="s">
         <v>125</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>124</v>
@@ -96229,11 +96517,17 @@
       </c>
       <c r="BJ13" t="s">
         <v>122</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
@@ -96416,12 +96710,18 @@
         <v>126</v>
       </c>
       <c r="BJ14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
@@ -96605,11 +96905,17 @@
       </c>
       <c r="BJ15" t="s">
         <v>127</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>127</v>
@@ -96705,7 +97011,7 @@
         <v>122</v>
       </c>
       <c r="AG16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AH16" t="s">
         <v>122</v>
@@ -96793,11 +97099,17 @@
       </c>
       <c r="BJ16" t="s">
         <v>123</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>127</v>
@@ -96981,11 +97293,17 @@
       </c>
       <c r="BJ17" t="s">
         <v>124</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>126</v>
@@ -97169,11 +97487,17 @@
       </c>
       <c r="BJ18" t="s">
         <v>125</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
         <v>123</v>
@@ -97357,11 +97681,17 @@
       </c>
       <c r="BJ19" t="s">
         <v>130</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
         <v>125</v>
@@ -97545,11 +97875,17 @@
       </c>
       <c r="BJ20" t="s">
         <v>130</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>127</v>
@@ -97732,12 +98068,18 @@
         <v>122</v>
       </c>
       <c r="BJ21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
         <v>124</v>
@@ -97921,11 +98263,17 @@
       </c>
       <c r="BJ22" t="s">
         <v>123</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B23" t="s">
         <v>125</v>
@@ -98109,11 +98457,17 @@
       </c>
       <c r="BJ23" t="s">
         <v>125</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B24" t="s">
         <v>127</v>
@@ -98297,11 +98651,17 @@
       </c>
       <c r="BJ24" t="s">
         <v>123</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B25" t="s">
         <v>127</v>
@@ -98485,6 +98845,12 @@
       </c>
       <c r="BJ25" t="s">
         <v>123</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -98509,10 +98875,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F1" t="s">
         <v>265</v>
@@ -98539,13 +98905,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O1" t="s">
         <v>268</v>
       </c>
       <c r="P1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -98560,7 +98926,7 @@
         <v>229</v>
       </c>
       <c r="U1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="V1" t="s">
         <v>271</v>
@@ -98672,11 +99038,14 @@
       </c>
       <c r="BF1" t="s">
         <v>102</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -98848,11 +99217,14 @@
       </c>
       <c r="BF2" t="s">
         <v>124</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
         <v>125</v>
@@ -99024,11 +99396,14 @@
       </c>
       <c r="BF3" t="s">
         <v>123</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
         <v>126</v>
@@ -99200,11 +99575,14 @@
       </c>
       <c r="BF4" t="s">
         <v>123</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -99376,11 +99754,14 @@
       </c>
       <c r="BF5" t="s">
         <v>129</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -99552,11 +99933,14 @@
       </c>
       <c r="BF6" t="s">
         <v>129</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -99727,12 +100111,15 @@
         <v>122</v>
       </c>
       <c r="BF7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
@@ -99904,11 +100291,14 @@
       </c>
       <c r="BF8" t="s">
         <v>124</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -100080,11 +100470,14 @@
       </c>
       <c r="BF9" t="s">
         <v>123</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -100256,11 +100649,14 @@
       </c>
       <c r="BF10" t="s">
         <v>132</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -100432,11 +100828,14 @@
       </c>
       <c r="BF11" t="s">
         <v>129</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
         <v>124</v>
@@ -100608,11 +101007,14 @@
       </c>
       <c r="BF12" t="s">
         <v>123</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
         <v>127</v>
@@ -100783,12 +101185,15 @@
         <v>122</v>
       </c>
       <c r="BF13" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
         <v>124</v>
@@ -100960,11 +101365,14 @@
       </c>
       <c r="BF14" t="s">
         <v>127</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s">
         <v>126</v>
@@ -101136,11 +101544,14 @@
       </c>
       <c r="BF15" t="s">
         <v>124</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
@@ -101312,11 +101723,14 @@
       </c>
       <c r="BF16" t="s">
         <v>132</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
         <v>127</v>
@@ -101488,11 +101902,14 @@
       </c>
       <c r="BF17" t="s">
         <v>123</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
         <v>125</v>
@@ -101664,11 +102081,14 @@
       </c>
       <c r="BF18" t="s">
         <v>130</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B19" t="s">
         <v>125</v>
@@ -101840,11 +102260,14 @@
       </c>
       <c r="BF19" t="s">
         <v>123</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B20" t="s">
         <v>124</v>
@@ -102016,11 +102439,14 @@
       </c>
       <c r="BF20" t="s">
         <v>130</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B21" t="s">
         <v>123</v>
@@ -102192,11 +102618,14 @@
       </c>
       <c r="BF21" t="s">
         <v>122</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B22" t="s">
         <v>124</v>
@@ -102367,12 +102796,15 @@
         <v>122</v>
       </c>
       <c r="BF22" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B23" t="s">
         <v>125</v>
@@ -102544,11 +102976,14 @@
       </c>
       <c r="BF23" t="s">
         <v>129</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
@@ -102720,6 +103155,9 @@
       </c>
       <c r="BF24" t="s">
         <v>123</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -102828,7 +103266,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -102885,7 +103323,7 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AZ1" t="s">
         <v>133</v>
@@ -102989,7 +103427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -103243,7 +103681,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -103497,7 +103935,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -103751,7 +104189,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -104005,7 +104443,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -104259,7 +104697,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -104513,7 +104951,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -104767,7 +105205,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -105021,7 +105459,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -105275,7 +105713,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -105529,7 +105967,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
@@ -105783,7 +106221,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -106037,7 +106475,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
         <v>123</v>
@@ -106291,7 +106729,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -106545,7 +106983,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -106799,7 +107237,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -107053,7 +107491,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -107307,7 +107745,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -107561,7 +107999,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -107815,7 +108253,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35130" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35306" uniqueCount="633">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -863,6 +863,9 @@
     <t>X2022.03.22</t>
   </si>
   <si>
+    <t>X2022.03.26</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -1104,6 +1107,9 @@
   </si>
   <si>
     <t>Yeovil</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>X2021.10.27</t>
@@ -1793,6 +1799,12 @@
     <t>X2021.11.15</t>
   </si>
   <si>
+    <t>X2022.03.25</t>
+  </si>
+  <si>
+    <t>X2022.03.27</t>
+  </si>
+  <si>
     <t>Alcorcon</t>
   </si>
   <si>
@@ -8010,25 +8022,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J1" t="s">
         <v>222</v>
@@ -8040,7 +8052,7 @@
         <v>176</v>
       </c>
       <c r="M1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -8082,7 +8094,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -8097,7 +8109,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -8112,10 +8124,10 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AL1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM1" t="s">
         <v>134</v>
@@ -8124,7 +8136,7 @@
         <v>67</v>
       </c>
       <c r="AO1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AP1" t="s">
         <v>192</v>
@@ -8148,7 +8160,7 @@
         <v>81</v>
       </c>
       <c r="AW1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AX1" t="s">
         <v>85</v>
@@ -8163,7 +8175,7 @@
         <v>88</v>
       </c>
       <c r="BB1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="BC1" t="s">
         <v>92</v>
@@ -8189,7 +8201,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
@@ -8374,7 +8386,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
@@ -8559,7 +8571,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>124</v>
@@ -8744,7 +8756,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -8929,7 +8941,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>125</v>
@@ -9114,7 +9126,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -9299,7 +9311,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -9484,7 +9496,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>125</v>
@@ -9669,7 +9681,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>129</v>
@@ -9854,7 +9866,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
         <v>129</v>
@@ -10039,7 +10051,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
         <v>124</v>
@@ -10224,7 +10236,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
         <v>123</v>
@@ -10409,7 +10421,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B14" t="s">
         <v>129</v>
@@ -10594,7 +10606,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B15" t="s">
         <v>125</v>
@@ -10779,7 +10791,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B16" t="s">
         <v>124</v>
@@ -10964,7 +10976,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
         <v>123</v>
@@ -11149,7 +11161,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
         <v>125</v>
@@ -11334,7 +11346,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -11519,7 +11531,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B20" t="s">
         <v>125</v>
@@ -11704,7 +11716,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B21" t="s">
         <v>129</v>
@@ -11975,7 +11987,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -12017,10 +12029,10 @@
         <v>233</v>
       </c>
       <c r="AN1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AP1" t="s">
         <v>134</v>
@@ -12101,7 +12113,7 @@
         <v>94</v>
       </c>
       <c r="BP1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="BQ1" t="s">
         <v>97</v>
@@ -12118,7 +12130,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -12336,7 +12348,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
         <v>125</v>
@@ -12554,7 +12566,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -12772,7 +12784,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
         <v>129</v>
@@ -12990,7 +13002,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -13208,7 +13220,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -13426,7 +13438,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -13644,7 +13656,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -13862,7 +13874,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -14080,7 +14092,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -14298,7 +14310,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B12" t="s">
         <v>125</v>
@@ -14516,7 +14528,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B13" t="s">
         <v>129</v>
@@ -14734,7 +14746,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -14952,7 +14964,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -15220,7 +15232,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O1" t="s">
         <v>267</v>
@@ -15271,10 +15283,10 @@
         <v>269</v>
       </c>
       <c r="AE1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -15301,7 +15313,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -15340,7 +15352,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -15352,19 +15364,19 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="BG1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="BH1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="BI1" t="s">
         <v>135</v>
       </c>
       <c r="BJ1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="BK1" t="s">
         <v>190</v>
@@ -15376,7 +15388,7 @@
         <v>68</v>
       </c>
       <c r="BN1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="BO1" t="s">
         <v>70</v>
@@ -15394,7 +15406,7 @@
         <v>82</v>
       </c>
       <c r="BT1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="BU1" t="s">
         <v>85</v>
@@ -15415,7 +15427,7 @@
         <v>89</v>
       </c>
       <c r="CA1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="CB1" t="s">
         <v>91</v>
@@ -15459,7 +15471,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
@@ -15737,7 +15749,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -16015,7 +16027,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -16293,7 +16305,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
         <v>125</v>
@@ -16571,7 +16583,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -16849,7 +16861,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
         <v>125</v>
@@ -17127,7 +17139,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
@@ -17405,7 +17417,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -17683,7 +17695,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>125</v>
@@ -17961,7 +17973,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -18239,7 +18251,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -18517,7 +18529,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -18795,7 +18807,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -19073,7 +19085,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -19351,7 +19363,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B16" t="s">
         <v>126</v>
@@ -19629,7 +19641,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -19907,7 +19919,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B18" t="s">
         <v>124</v>
@@ -20185,7 +20197,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -20463,7 +20475,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -20741,7 +20753,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B21" t="s">
         <v>126</v>
@@ -21069,7 +21081,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O1" t="s">
         <v>267</v>
@@ -21108,10 +21120,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AB1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AC1" t="s">
         <v>179</v>
@@ -21174,7 +21186,7 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AX1" t="s">
         <v>66</v>
@@ -21272,7 +21284,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -21514,7 +21526,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -21756,7 +21768,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -21998,7 +22010,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -22240,7 +22252,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -22482,7 +22494,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -22724,7 +22736,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -22966,7 +22978,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -23208,7 +23220,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -23450,7 +23462,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
         <v>125</v>
@@ -23692,7 +23704,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -23934,7 +23946,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -24176,7 +24188,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s">
         <v>125</v>
@@ -24418,7 +24430,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -24660,7 +24672,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -24902,7 +24914,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -25144,7 +25156,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -25386,7 +25398,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -25628,7 +25640,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -25870,7 +25882,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>
@@ -26267,13 +26279,13 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AX1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AY1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AZ1" t="s">
         <v>66</v>
@@ -26347,7 +26359,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -26571,7 +26583,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -26795,7 +26807,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -27019,7 +27031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -27243,7 +27255,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -27467,7 +27479,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
@@ -27691,7 +27703,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -27915,7 +27927,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s">
         <v>127</v>
@@ -28139,7 +28151,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -28363,7 +28375,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -28587,7 +28599,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -28811,7 +28823,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -29035,7 +29047,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -29259,7 +29271,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -29483,7 +29495,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -29707,7 +29719,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -29931,7 +29943,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -30155,7 +30167,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -30402,7 +30414,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -30414,7 +30426,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -30456,7 +30468,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -30489,7 +30501,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -30546,7 +30558,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -30582,10 +30594,10 @@
         <v>135</v>
       </c>
       <c r="BM1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="BN1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="BO1" t="s">
         <v>67</v>
@@ -30594,7 +30606,7 @@
         <v>68</v>
       </c>
       <c r="BQ1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="BR1" t="s">
         <v>70</v>
@@ -30627,7 +30639,7 @@
         <v>82</v>
       </c>
       <c r="CB1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="CC1" t="s">
         <v>84</v>
@@ -30651,7 +30663,7 @@
         <v>89</v>
       </c>
       <c r="CJ1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="CK1" t="s">
         <v>91</v>
@@ -30701,7 +30713,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -31012,7 +31024,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -31323,7 +31335,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -31634,7 +31646,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -31945,7 +31957,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -32256,7 +32268,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -32567,7 +32579,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -32878,7 +32890,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -33189,7 +33201,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -33500,7 +33512,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -33811,7 +33823,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -34122,7 +34134,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -34433,7 +34445,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -34744,7 +34756,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -35055,7 +35067,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -35366,7 +35378,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B17" t="s">
         <v>124</v>
@@ -35677,7 +35689,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -35988,7 +36000,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B19" t="s">
         <v>124</v>
@@ -36370,7 +36382,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -36430,13 +36442,13 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
       </c>
       <c r="AQ1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AR1" t="s">
         <v>69</v>
@@ -36490,7 +36502,7 @@
         <v>97</v>
       </c>
       <c r="BI1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="BJ1" t="s">
         <v>102</v>
@@ -36501,7 +36513,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -36692,7 +36704,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
@@ -36883,7 +36895,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B4" t="s">
         <v>125</v>
@@ -37074,7 +37086,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -37265,7 +37277,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
@@ -37456,7 +37468,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -37647,7 +37659,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B8" t="s">
         <v>124</v>
@@ -37838,7 +37850,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -38029,7 +38041,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B10" t="s">
         <v>124</v>
@@ -38220,7 +38232,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B11" t="s">
         <v>129</v>
@@ -38411,7 +38423,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B12" t="s">
         <v>129</v>
@@ -38602,7 +38614,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
@@ -38810,7 +38822,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -38822,7 +38834,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -38967,11 +38979,14 @@
       </c>
       <c r="BC1" t="s">
         <v>275</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B2" t="s">
         <v>127</v>
@@ -39134,11 +39149,14 @@
       </c>
       <c r="BC2" t="s">
         <v>122</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -39301,11 +39319,14 @@
       </c>
       <c r="BC3" t="s">
         <v>122</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B4" t="s">
         <v>125</v>
@@ -39468,11 +39489,14 @@
       </c>
       <c r="BC4" t="s">
         <v>126</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
         <v>132</v>
@@ -39635,11 +39659,14 @@
       </c>
       <c r="BC5" t="s">
         <v>122</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B6" t="s">
         <v>127</v>
@@ -39802,11 +39829,14 @@
       </c>
       <c r="BC6" t="s">
         <v>122</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -39969,11 +39999,14 @@
       </c>
       <c r="BC7" t="s">
         <v>122</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
@@ -40136,11 +40169,14 @@
       </c>
       <c r="BC8" t="s">
         <v>122</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B9" t="s">
         <v>126</v>
@@ -40303,11 +40339,14 @@
       </c>
       <c r="BC9" t="s">
         <v>126</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B10" t="s">
         <v>126</v>
@@ -40470,11 +40509,14 @@
       </c>
       <c r="BC10" t="s">
         <v>122</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B11" t="s">
         <v>132</v>
@@ -40637,6 +40679,9 @@
       </c>
       <c r="BC11" t="s">
         <v>122</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -40721,7 +40766,7 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
@@ -40776,11 +40821,14 @@
       </c>
       <c r="AP1" t="s">
         <v>102</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
@@ -40903,12 +40951,15 @@
         <v>126</v>
       </c>
       <c r="AP2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B3" t="s">
         <v>123</v>
@@ -41032,11 +41083,14 @@
       </c>
       <c r="AP3" t="s">
         <v>127</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B4" t="s">
         <v>124</v>
@@ -41160,11 +41214,14 @@
       </c>
       <c r="AP4" t="s">
         <v>123</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -41288,11 +41345,14 @@
       </c>
       <c r="AP5" t="s">
         <v>124</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
@@ -41416,11 +41476,14 @@
       </c>
       <c r="AP6" t="s">
         <v>123</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -41544,11 +41607,14 @@
       </c>
       <c r="AP7" t="s">
         <v>123</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -41672,11 +41738,14 @@
       </c>
       <c r="AP8" t="s">
         <v>123</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -41800,11 +41869,14 @@
       </c>
       <c r="AP9" t="s">
         <v>124</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B10" t="s">
         <v>123</v>
@@ -41927,12 +41999,15 @@
         <v>127</v>
       </c>
       <c r="AP10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B11" t="s">
         <v>123</v>
@@ -42056,6 +42131,9 @@
       </c>
       <c r="AP11" t="s">
         <v>123</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -42095,7 +42173,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -42131,7 +42209,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V1" t="s">
         <v>270</v>
@@ -42161,10 +42239,10 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AF1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
@@ -42243,11 +42321,14 @@
       </c>
       <c r="BF1" t="s">
         <v>275</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -42419,11 +42500,14 @@
       </c>
       <c r="BF2" t="s">
         <v>127</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B3" t="s">
         <v>123</v>
@@ -42595,11 +42679,14 @@
       </c>
       <c r="BF3" t="s">
         <v>122</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B4" t="s">
         <v>123</v>
@@ -42771,11 +42858,14 @@
       </c>
       <c r="BF4" t="s">
         <v>122</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -42947,11 +43037,14 @@
       </c>
       <c r="BF5" t="s">
         <v>122</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
@@ -43123,11 +43216,14 @@
       </c>
       <c r="BF6" t="s">
         <v>122</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -43299,11 +43395,14 @@
       </c>
       <c r="BF7" t="s">
         <v>122</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -43475,11 +43574,14 @@
       </c>
       <c r="BF8" t="s">
         <v>122</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B9" t="s">
         <v>127</v>
@@ -43651,11 +43753,14 @@
       </c>
       <c r="BF9" t="s">
         <v>122</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B10" t="s">
         <v>127</v>
@@ -43826,12 +43931,15 @@
         <v>124</v>
       </c>
       <c r="BF10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B11" t="s">
         <v>123</v>
@@ -44003,6 +44111,9 @@
       </c>
       <c r="BF11" t="s">
         <v>122</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -48582,7 +48693,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -48624,7 +48735,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="T1" t="s">
         <v>267</v>
@@ -48672,16 +48783,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AJ1" t="s">
         <v>269</v>
       </c>
       <c r="AK1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -48711,7 +48822,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -48750,7 +48861,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -48765,13 +48876,13 @@
         <v>233</v>
       </c>
       <c r="BN1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="BO1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="BP1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="BQ1" t="s">
         <v>188</v>
@@ -48786,7 +48897,7 @@
         <v>135</v>
       </c>
       <c r="BU1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="BV1" t="s">
         <v>68</v>
@@ -48798,7 +48909,7 @@
         <v>192</v>
       </c>
       <c r="BY1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="BZ1" t="s">
         <v>70</v>
@@ -48819,7 +48930,7 @@
         <v>82</v>
       </c>
       <c r="CF1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="CG1" t="s">
         <v>84</v>
@@ -48846,7 +48957,7 @@
         <v>89</v>
       </c>
       <c r="CO1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="CP1" t="s">
         <v>91</v>
@@ -48899,7 +49010,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -49228,7 +49339,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -49557,7 +49668,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -49886,7 +49997,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -50215,7 +50326,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -50544,7 +50655,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -50873,7 +50984,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -51202,7 +51313,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -51531,7 +51642,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -51860,7 +51971,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B11" t="s">
         <v>127</v>
@@ -52189,7 +52300,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -52518,7 +52629,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -52847,7 +52958,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -53176,7 +53287,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -53505,7 +53616,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -53834,7 +53945,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -54163,7 +54274,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -54492,7 +54603,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B19" t="s">
         <v>127</v>
@@ -54821,7 +54932,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -55150,7 +55261,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>
@@ -55502,7 +55613,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -55526,16 +55637,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="O1" t="s">
         <v>265</v>
       </c>
       <c r="P1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q1" t="s">
         <v>266</v>
@@ -55562,7 +55673,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -55586,19 +55697,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AH1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AI1" t="s">
         <v>268</v>
       </c>
       <c r="AJ1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AK1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -55616,7 +55727,7 @@
         <v>228</v>
       </c>
       <c r="AQ1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -55628,7 +55739,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -55649,7 +55760,7 @@
         <v>230</v>
       </c>
       <c r="BB1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -55661,7 +55772,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="BG1" t="s">
         <v>270</v>
@@ -55670,10 +55781,10 @@
         <v>271</v>
       </c>
       <c r="BI1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="BJ1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -55685,7 +55796,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -55721,7 +55832,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -55733,7 +55844,7 @@
         <v>63</v>
       </c>
       <c r="CD1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="CE1" t="s">
         <v>188</v>
@@ -55751,7 +55862,7 @@
         <v>135</v>
       </c>
       <c r="CJ1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="CK1" t="s">
         <v>192</v>
@@ -55811,7 +55922,7 @@
         <v>89</v>
       </c>
       <c r="DD1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="DE1" t="s">
         <v>91</v>
@@ -55856,12 +55967,21 @@
         <v>103</v>
       </c>
       <c r="DS1" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>588</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -56228,11 +56348,20 @@
       </c>
       <c r="DS2" t="s">
         <v>122</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -56598,12 +56727,21 @@
         <v>122</v>
       </c>
       <c r="DS3" t="s">
+        <v>127</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -56969,12 +57107,21 @@
         <v>129</v>
       </c>
       <c r="DS4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -57341,11 +57488,20 @@
       </c>
       <c r="DS5" t="s">
         <v>122</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -57711,12 +57867,21 @@
         <v>122</v>
       </c>
       <c r="DS6" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>126</v>
+      </c>
+      <c r="DV6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -58082,12 +58247,21 @@
         <v>125</v>
       </c>
       <c r="DS7" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>127</v>
+      </c>
+      <c r="DV7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -58453,12 +58627,21 @@
         <v>122</v>
       </c>
       <c r="DS8" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -58825,11 +59008,20 @@
       </c>
       <c r="DS9" t="s">
         <v>122</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B10" t="s">
         <v>123</v>
@@ -59196,11 +59388,20 @@
       </c>
       <c r="DS10" t="s">
         <v>122</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B11" t="s">
         <v>129</v>
@@ -59566,12 +59767,21 @@
         <v>122</v>
       </c>
       <c r="DS11" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>125</v>
+      </c>
+      <c r="DV11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -59937,12 +60147,21 @@
         <v>122</v>
       </c>
       <c r="DS12" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -60308,12 +60527,21 @@
         <v>123</v>
       </c>
       <c r="DS13" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -60679,12 +60907,21 @@
         <v>122</v>
       </c>
       <c r="DS14" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>127</v>
+      </c>
+      <c r="DV14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -61051,11 +61288,20 @@
       </c>
       <c r="DS15" t="s">
         <v>122</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -61422,11 +61668,20 @@
       </c>
       <c r="DS16" t="s">
         <v>122</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -61792,12 +62047,21 @@
         <v>122</v>
       </c>
       <c r="DS17" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -62164,11 +62428,20 @@
       </c>
       <c r="DS18" t="s">
         <v>122</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU18" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -62534,12 +62807,21 @@
         <v>122</v>
       </c>
       <c r="DS19" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT19" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU19" t="s">
+        <v>125</v>
+      </c>
+      <c r="DV19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -62905,12 +63187,21 @@
         <v>123</v>
       </c>
       <c r="DS20" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT20" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU20" t="s">
+        <v>126</v>
+      </c>
+      <c r="DV20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>
@@ -63276,12 +63567,21 @@
         <v>122</v>
       </c>
       <c r="DS21" t="s">
+        <v>127</v>
+      </c>
+      <c r="DT21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV21" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B22" t="s">
         <v>122</v>
@@ -63648,11 +63948,20 @@
       </c>
       <c r="DS22" t="s">
         <v>122</v>
+      </c>
+      <c r="DT22" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU22" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B23" t="s">
         <v>129</v>
@@ -64018,6 +64327,15 @@
         <v>122</v>
       </c>
       <c r="DS23" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT23" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU23" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV23" t="s">
         <v>122</v>
       </c>
     </row>
@@ -64046,7 +64364,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -64139,7 +64457,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -64169,7 +64487,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -64205,7 +64523,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -64217,16 +64535,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="BK1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="BL1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="BM1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -64244,7 +64562,7 @@
         <v>135</v>
       </c>
       <c r="BS1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="BT1" t="s">
         <v>66</v>
@@ -64262,7 +64580,7 @@
         <v>192</v>
       </c>
       <c r="BY1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="BZ1" t="s">
         <v>71</v>
@@ -64301,7 +64619,7 @@
         <v>89</v>
       </c>
       <c r="CL1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="CM1" t="s">
         <v>237</v>
@@ -64354,7 +64672,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -64674,7 +64992,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -64994,7 +65312,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -65314,7 +65632,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -65634,7 +65952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B6" t="s">
         <v>124</v>
@@ -65954,7 +66272,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -66274,7 +66592,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -66594,7 +66912,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -66914,7 +67232,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -67234,7 +67552,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -67554,7 +67872,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -67874,7 +68192,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -68194,7 +68512,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -68514,7 +68832,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -68834,7 +69152,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -69154,7 +69472,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -69474,7 +69792,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B18" t="s">
         <v>124</v>
@@ -69794,7 +70112,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -70114,7 +70432,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -70434,7 +70752,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>
@@ -89047,10 +89365,13 @@
       <c r="BP1" t="s">
         <v>275</v>
       </c>
+      <c r="BQ1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
@@ -89252,11 +89573,14 @@
       </c>
       <c r="BP2" t="s">
         <v>122</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
@@ -89458,11 +89782,14 @@
       </c>
       <c r="BP3" t="s">
         <v>122</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
         <v>130</v>
@@ -89663,12 +89990,15 @@
         <v>127</v>
       </c>
       <c r="BP4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
         <v>127</v>
@@ -89869,12 +90199,15 @@
         <v>123</v>
       </c>
       <c r="BP5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
@@ -90076,11 +90409,14 @@
       </c>
       <c r="BP6" t="s">
         <v>122</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
         <v>129</v>
@@ -90282,11 +90618,14 @@
       </c>
       <c r="BP7" t="s">
         <v>122</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
         <v>123</v>
@@ -90460,7 +90799,7 @@
         <v>122</v>
       </c>
       <c r="BG8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BH8" t="s">
         <v>129</v>
@@ -90488,11 +90827,14 @@
       </c>
       <c r="BP8" t="s">
         <v>123</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
         <v>123</v>
@@ -90693,12 +91035,15 @@
         <v>127</v>
       </c>
       <c r="BP9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
         <v>124</v>
@@ -90900,11 +91245,14 @@
       </c>
       <c r="BP10" t="s">
         <v>122</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
         <v>127</v>
@@ -91105,12 +91453,15 @@
         <v>129</v>
       </c>
       <c r="BP11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
@@ -91312,11 +91663,14 @@
       </c>
       <c r="BP12" t="s">
         <v>122</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
@@ -91518,11 +91872,14 @@
       </c>
       <c r="BP13" t="s">
         <v>122</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
         <v>123</v>
@@ -91724,11 +92081,14 @@
       </c>
       <c r="BP14" t="s">
         <v>122</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>130</v>
@@ -91929,12 +92289,15 @@
         <v>127</v>
       </c>
       <c r="BP15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
@@ -92135,12 +92498,15 @@
         <v>126</v>
       </c>
       <c r="BP16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B17" t="s">
         <v>123</v>
@@ -92341,12 +92707,15 @@
         <v>123</v>
       </c>
       <c r="BP17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B18" t="s">
         <v>123</v>
@@ -92548,11 +92917,14 @@
       </c>
       <c r="BP18" t="s">
         <v>123</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
         <v>127</v>
@@ -92753,12 +93125,15 @@
         <v>129</v>
       </c>
       <c r="BP19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
@@ -92959,12 +93334,15 @@
         <v>124</v>
       </c>
       <c r="BP20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B21" t="s">
         <v>129</v>
@@ -93166,11 +93544,14 @@
       </c>
       <c r="BP21" t="s">
         <v>122</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
         <v>127</v>
@@ -93372,11 +93753,14 @@
       </c>
       <c r="BP22" t="s">
         <v>122</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
         <v>124</v>
@@ -93577,12 +93961,15 @@
         <v>129</v>
       </c>
       <c r="BP23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B24" t="s">
         <v>124</v>
@@ -93783,12 +94170,15 @@
         <v>126</v>
       </c>
       <c r="BP24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B25" t="s">
         <v>124</v>
@@ -93962,7 +94352,7 @@
         <v>122</v>
       </c>
       <c r="BG25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BH25" t="s">
         <v>125</v>
@@ -93989,6 +94379,9 @@
         <v>129</v>
       </c>
       <c r="BP25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ25" t="s">
         <v>122</v>
       </c>
     </row>
@@ -94020,7 +94413,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -94056,7 +94449,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S1" t="s">
         <v>268</v>
@@ -94116,7 +94509,7 @@
         <v>187</v>
       </c>
       <c r="AL1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM1" t="s">
         <v>134</v>
@@ -94191,15 +94584,18 @@
         <v>102</v>
       </c>
       <c r="BK1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BL1" t="s">
         <v>275</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
         <v>127</v>
@@ -94389,11 +94785,14 @@
       </c>
       <c r="BL2" t="s">
         <v>122</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
         <v>129</v>
@@ -94583,11 +94982,14 @@
       </c>
       <c r="BL3" t="s">
         <v>122</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
         <v>124</v>
@@ -94777,11 +95179,14 @@
       </c>
       <c r="BL4" t="s">
         <v>122</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
         <v>129</v>
@@ -94971,11 +95376,14 @@
       </c>
       <c r="BL5" t="s">
         <v>122</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
@@ -95165,11 +95573,14 @@
       </c>
       <c r="BL6" t="s">
         <v>122</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
@@ -95359,11 +95770,14 @@
       </c>
       <c r="BL7" t="s">
         <v>122</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
         <v>129</v>
@@ -95553,11 +95967,14 @@
       </c>
       <c r="BL8" t="s">
         <v>129</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -95653,7 +96070,7 @@
         <v>122</v>
       </c>
       <c r="AG9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="s">
         <v>122</v>
@@ -95746,12 +96163,15 @@
         <v>127</v>
       </c>
       <c r="BL9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s">
         <v>126</v>
@@ -95940,12 +96360,15 @@
         <v>122</v>
       </c>
       <c r="BL10" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
         <v>127</v>
@@ -96135,11 +96558,14 @@
       </c>
       <c r="BL11" t="s">
         <v>122</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
@@ -96329,11 +96755,14 @@
       </c>
       <c r="BL12" t="s">
         <v>124</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
         <v>124</v>
@@ -96523,11 +96952,14 @@
       </c>
       <c r="BL13" t="s">
         <v>127</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
@@ -96717,11 +97149,14 @@
       </c>
       <c r="BL14" t="s">
         <v>122</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
@@ -96911,11 +97346,14 @@
       </c>
       <c r="BL15" t="s">
         <v>122</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B16" t="s">
         <v>127</v>
@@ -97011,7 +97449,7 @@
         <v>122</v>
       </c>
       <c r="AG16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="s">
         <v>122</v>
@@ -97105,11 +97543,14 @@
       </c>
       <c r="BL16" t="s">
         <v>125</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B17" t="s">
         <v>127</v>
@@ -97299,11 +97740,14 @@
       </c>
       <c r="BL17" t="s">
         <v>129</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B18" t="s">
         <v>126</v>
@@ -97492,12 +97936,15 @@
         <v>122</v>
       </c>
       <c r="BL18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B19" t="s">
         <v>123</v>
@@ -97687,11 +98134,14 @@
       </c>
       <c r="BL19" t="s">
         <v>122</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B20" t="s">
         <v>125</v>
@@ -97881,11 +98331,14 @@
       </c>
       <c r="BL20" t="s">
         <v>122</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B21" t="s">
         <v>127</v>
@@ -98075,11 +98528,14 @@
       </c>
       <c r="BL21" t="s">
         <v>122</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B22" t="s">
         <v>124</v>
@@ -98269,11 +98725,14 @@
       </c>
       <c r="BL22" t="s">
         <v>125</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B23" t="s">
         <v>125</v>
@@ -98462,12 +98921,15 @@
         <v>122</v>
       </c>
       <c r="BL23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B24" t="s">
         <v>127</v>
@@ -98657,11 +99119,14 @@
       </c>
       <c r="BL24" t="s">
         <v>122</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B25" t="s">
         <v>127</v>
@@ -98851,6 +99316,9 @@
       </c>
       <c r="BL25" t="s">
         <v>122</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -98875,10 +99343,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F1" t="s">
         <v>265</v>
@@ -98905,13 +99373,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O1" t="s">
         <v>268</v>
       </c>
       <c r="P1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -98926,7 +99394,7 @@
         <v>229</v>
       </c>
       <c r="U1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V1" t="s">
         <v>271</v>
@@ -99041,11 +99509,14 @@
       </c>
       <c r="BG1" t="s">
         <v>275</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -99220,11 +99691,14 @@
       </c>
       <c r="BG2" t="s">
         <v>125</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
         <v>125</v>
@@ -99398,12 +99872,15 @@
         <v>123</v>
       </c>
       <c r="BG3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
         <v>126</v>
@@ -99578,11 +100055,14 @@
       </c>
       <c r="BG4" t="s">
         <v>122</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
         <v>123</v>
@@ -99757,11 +100237,14 @@
       </c>
       <c r="BG5" t="s">
         <v>127</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -99936,11 +100419,14 @@
       </c>
       <c r="BG6" t="s">
         <v>124</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -100115,11 +100601,14 @@
       </c>
       <c r="BG7" t="s">
         <v>127</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
@@ -100294,11 +100783,14 @@
       </c>
       <c r="BG8" t="s">
         <v>127</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -100473,11 +100965,14 @@
       </c>
       <c r="BG9" t="s">
         <v>122</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -100652,11 +101147,14 @@
       </c>
       <c r="BG10" t="s">
         <v>127</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -100830,12 +101328,15 @@
         <v>129</v>
       </c>
       <c r="BG11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
         <v>124</v>
@@ -101010,11 +101511,14 @@
       </c>
       <c r="BG12" t="s">
         <v>125</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
         <v>127</v>
@@ -101189,11 +101693,14 @@
       </c>
       <c r="BG13" t="s">
         <v>124</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s">
         <v>124</v>
@@ -101367,12 +101874,15 @@
         <v>127</v>
       </c>
       <c r="BG14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
         <v>126</v>
@@ -101547,11 +102057,14 @@
       </c>
       <c r="BG15" t="s">
         <v>127</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
@@ -101726,11 +102239,14 @@
       </c>
       <c r="BG16" t="s">
         <v>124</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B17" t="s">
         <v>127</v>
@@ -101905,11 +102421,14 @@
       </c>
       <c r="BG17" t="s">
         <v>124</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B18" t="s">
         <v>125</v>
@@ -102084,11 +102603,14 @@
       </c>
       <c r="BG18" t="s">
         <v>124</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
         <v>125</v>
@@ -102263,11 +102785,14 @@
       </c>
       <c r="BG19" t="s">
         <v>125</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
         <v>124</v>
@@ -102442,11 +102967,14 @@
       </c>
       <c r="BG20" t="s">
         <v>122</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
         <v>123</v>
@@ -102621,11 +103149,14 @@
       </c>
       <c r="BG21" t="s">
         <v>123</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B22" t="s">
         <v>124</v>
@@ -102800,11 +103331,14 @@
       </c>
       <c r="BG22" t="s">
         <v>123</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B23" t="s">
         <v>125</v>
@@ -102979,11 +103513,14 @@
       </c>
       <c r="BG23" t="s">
         <v>125</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
@@ -103158,6 +103695,9 @@
       </c>
       <c r="BG24" t="s">
         <v>124</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -103266,7 +103806,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -103323,7 +103863,7 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AZ1" t="s">
         <v>133</v>
@@ -103427,7 +103967,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
@@ -103681,7 +104221,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
@@ -103935,7 +104475,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
@@ -104189,7 +104729,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -104443,7 +104983,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>122</v>
@@ -104697,7 +105237,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
@@ -104951,7 +105491,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
         <v>122</v>
@@ -105205,7 +105745,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
@@ -105459,7 +105999,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -105713,7 +106253,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
         <v>122</v>
@@ -105967,7 +106507,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
         <v>123</v>
@@ -106221,7 +106761,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -106475,7 +107015,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B14" t="s">
         <v>123</v>
@@ -106729,7 +107269,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -106983,7 +107523,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -107237,7 +107777,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
         <v>122</v>
@@ -107491,7 +108031,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
         <v>122</v>
@@ -107745,7 +108285,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
@@ -107999,7 +108539,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s">
         <v>122</v>
@@ -108253,7 +108793,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B21" t="s">
         <v>122</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13725" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13861" uniqueCount="494">
   <si>
     <t>X2022.07.22</t>
   </si>
@@ -482,6 +482,9 @@
     <t>X2022.10.12</t>
   </si>
   <si>
+    <t>X2022.10.25</t>
+  </si>
+  <si>
     <t>Birmingham</t>
   </si>
   <si>
@@ -564,6 +567,9 @@
   </si>
   <si>
     <t>X2022.10.17</t>
+  </si>
+  <si>
+    <t>X2022.10.26</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -4218,7 +4224,7 @@
         <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q1" t="s">
         <v>27</v>
@@ -4242,7 +4248,7 @@
         <v>36</v>
       </c>
       <c r="X1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y1" t="s">
         <v>42</v>
@@ -4253,7 +4259,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -4333,7 +4339,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -4413,7 +4419,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -4493,7 +4499,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -4573,7 +4579,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -4653,7 +4659,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -4733,7 +4739,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -4813,7 +4819,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -4893,7 +4899,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -4973,7 +4979,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -5053,7 +5059,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -5133,7 +5139,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -5213,7 +5219,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -5293,7 +5299,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -5373,7 +5379,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -5453,7 +5459,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -5533,7 +5539,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -5613,7 +5619,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -5693,7 +5699,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -5773,7 +5779,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
@@ -5885,7 +5891,7 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -5900,7 +5906,7 @@
         <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N1" t="s">
         <v>27</v>
@@ -5933,7 +5939,7 @@
         <v>37</v>
       </c>
       <c r="X1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y1" t="s">
         <v>42</v>
@@ -5947,7 +5953,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -6030,7 +6036,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -6113,7 +6119,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -6196,7 +6202,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -6279,7 +6285,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -6362,7 +6368,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -6445,7 +6451,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -6528,7 +6534,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -6611,7 +6617,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -6694,7 +6700,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -6777,7 +6783,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -6860,7 +6866,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -6943,7 +6949,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -7026,7 +7032,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -7174,7 +7180,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -7210,7 +7216,7 @@
         <v>37</v>
       </c>
       <c r="AE1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF1" t="s">
         <v>41</v>
@@ -7227,7 +7233,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -7334,7 +7340,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -7441,7 +7447,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -7548,7 +7554,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -7655,7 +7661,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -7762,7 +7768,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -7869,7 +7875,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -7976,7 +7982,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -8083,7 +8089,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -8190,7 +8196,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -8297,7 +8303,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -8404,7 +8410,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -8511,7 +8517,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -8618,7 +8624,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -8725,7 +8731,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -8832,7 +8838,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -8939,7 +8945,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -9046,7 +9052,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -9153,7 +9159,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -9260,7 +9266,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -9405,7 +9411,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -9473,7 +9479,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -9568,7 +9574,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -9663,7 +9669,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -9758,7 +9764,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -9853,7 +9859,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -9948,7 +9954,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -10043,7 +10049,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -10138,7 +10144,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -10233,7 +10239,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -10328,7 +10334,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -10423,7 +10429,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -10518,7 +10524,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -10613,7 +10619,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
@@ -10708,7 +10714,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -10803,7 +10809,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -10898,7 +10904,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -10993,7 +10999,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -11088,7 +11094,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -11183,7 +11189,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -11278,7 +11284,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -11485,7 +11491,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -11586,7 +11592,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -11687,7 +11693,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -11788,7 +11794,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -11889,7 +11895,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -11990,7 +11996,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -12091,7 +12097,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -12192,7 +12198,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -12293,7 +12299,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -12394,7 +12400,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -12495,7 +12501,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -12596,7 +12602,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -12697,7 +12703,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -12798,7 +12804,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -12899,7 +12905,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -13000,7 +13006,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -13101,7 +13107,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -13202,7 +13208,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -13362,7 +13368,7 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R1" t="s">
         <v>114</v>
@@ -13389,7 +13395,7 @@
         <v>25</v>
       </c>
       <c r="Z1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AA1" t="s">
         <v>26</v>
@@ -13439,7 +13445,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -13564,7 +13570,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -13689,7 +13695,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -13814,7 +13820,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -13939,7 +13945,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -14064,7 +14070,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -14189,7 +14195,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -14314,7 +14320,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -14439,7 +14445,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -14564,7 +14570,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -14689,7 +14695,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -14814,7 +14820,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -14939,7 +14945,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -15064,7 +15070,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -15189,7 +15195,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -15314,7 +15320,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -15439,7 +15445,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -15564,7 +15570,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -15774,7 +15780,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -15848,7 +15854,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -15922,7 +15928,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -15996,7 +16002,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -16070,7 +16076,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -16144,7 +16150,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -16218,7 +16224,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -16292,7 +16298,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -16366,7 +16372,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -16440,7 +16446,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -16514,7 +16520,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -16588,7 +16594,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -16735,10 +16741,13 @@
       <c r="U1" t="s">
         <v>42</v>
       </c>
+      <c r="V1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -16799,11 +16808,14 @@
       </c>
       <c r="U2" t="s">
         <v>66</v>
+      </c>
+      <c r="V2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -16864,11 +16876,14 @@
       </c>
       <c r="U3" t="s">
         <v>63</v>
+      </c>
+      <c r="V3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -16929,11 +16944,14 @@
       </c>
       <c r="U4" t="s">
         <v>63</v>
+      </c>
+      <c r="V4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -16994,11 +17012,14 @@
       </c>
       <c r="U5" t="s">
         <v>69</v>
+      </c>
+      <c r="V5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -17059,11 +17080,14 @@
       </c>
       <c r="U6" t="s">
         <v>66</v>
+      </c>
+      <c r="V6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -17124,11 +17148,14 @@
       </c>
       <c r="U7" t="s">
         <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -17189,11 +17216,14 @@
       </c>
       <c r="U8" t="s">
         <v>69</v>
+      </c>
+      <c r="V8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -17254,11 +17284,14 @@
       </c>
       <c r="U9" t="s">
         <v>63</v>
+      </c>
+      <c r="V9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -17319,11 +17352,14 @@
       </c>
       <c r="U10" t="s">
         <v>63</v>
+      </c>
+      <c r="V10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -17384,6 +17420,9 @@
       </c>
       <c r="U11" t="s">
         <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -17449,7 +17488,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -17499,7 +17538,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -17549,7 +17588,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -17599,7 +17638,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -17649,7 +17688,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -17699,7 +17738,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -17749,7 +17788,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -17799,7 +17838,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -17849,7 +17888,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -17899,7 +17938,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -17984,10 +18023,10 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K1" t="s">
         <v>30</v>
@@ -18004,7 +18043,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -18048,7 +18087,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -18092,7 +18131,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -18136,7 +18175,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -18180,7 +18219,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -18224,7 +18263,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -18268,7 +18307,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -18312,7 +18351,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -18356,7 +18395,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -18400,7 +18439,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -20478,7 +20517,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -20502,7 +20541,7 @@
         <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="V1" t="s">
         <v>26</v>
@@ -20547,7 +20586,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -20570,7 +20609,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -20698,7 +20737,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -20826,7 +20865,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -20954,7 +20993,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -21082,7 +21121,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -21210,7 +21249,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -21338,7 +21377,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -21466,7 +21505,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -21594,7 +21633,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -21722,7 +21761,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -21850,7 +21889,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -21978,7 +22017,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -22106,7 +22145,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -22234,7 +22273,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -22362,7 +22401,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -22490,7 +22529,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -22618,7 +22657,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -22746,7 +22785,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -22874,7 +22913,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -23002,7 +23041,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -23177,7 +23216,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -23201,7 +23240,7 @@
         <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="V1" t="s">
         <v>26</v>
@@ -23213,19 +23252,19 @@
         <v>28</v>
       </c>
       <c r="Y1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Z1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AA1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AD1" t="s">
         <v>29</v>
@@ -23255,7 +23294,7 @@
         <v>148</v>
       </c>
       <c r="AM1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AN1" t="s">
         <v>36</v>
@@ -23264,7 +23303,7 @@
         <v>37</v>
       </c>
       <c r="AP1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AQ1" t="s">
         <v>41</v>
@@ -23281,7 +23320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -23421,7 +23460,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -23561,7 +23600,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -23701,7 +23740,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -23841,7 +23880,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -23981,7 +24020,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -24121,7 +24160,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -24261,7 +24300,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -24401,7 +24440,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -24541,7 +24580,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -24681,7 +24720,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -24821,7 +24860,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -24961,7 +25000,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -25101,7 +25140,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -25241,7 +25280,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -25381,7 +25420,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -25521,7 +25560,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -25661,7 +25700,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -25801,7 +25840,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -25941,7 +25980,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -26081,7 +26120,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -26221,7 +26260,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -26420,7 +26459,7 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
@@ -26444,7 +26483,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Z1" t="s">
         <v>26</v>
@@ -26486,7 +26525,7 @@
         <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN1" t="s">
         <v>41</v>
@@ -26503,7 +26542,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -26634,7 +26673,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -26765,7 +26804,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -26896,7 +26935,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -27027,7 +27066,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -27158,7 +27197,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -27289,7 +27328,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -27420,7 +27459,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -27551,7 +27590,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -27682,7 +27721,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -27813,7 +27852,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -27944,7 +27983,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -28075,7 +28114,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -28206,7 +28245,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -28337,7 +28376,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -28468,7 +28507,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -28599,7 +28638,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -28730,7 +28769,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -28861,7 +28900,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -33718,10 +33757,13 @@
       <c r="AQ1" t="s">
         <v>43</v>
       </c>
+      <c r="AR1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -33847,12 +33889,15 @@
         <v>67</v>
       </c>
       <c r="AQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -33978,12 +34023,15 @@
         <v>67</v>
       </c>
       <c r="AQ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -34109,12 +34157,15 @@
         <v>68</v>
       </c>
       <c r="AQ4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -34240,12 +34291,15 @@
         <v>64</v>
       </c>
       <c r="AQ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -34372,11 +34426,14 @@
       </c>
       <c r="AQ6" t="s">
         <v>62</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -34503,11 +34560,14 @@
       </c>
       <c r="AQ7" t="s">
         <v>64</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -34634,11 +34694,14 @@
       </c>
       <c r="AQ8" t="s">
         <v>62</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -34764,12 +34827,15 @@
         <v>69</v>
       </c>
       <c r="AQ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -34895,12 +34961,15 @@
         <v>68</v>
       </c>
       <c r="AQ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -35027,11 +35096,14 @@
       </c>
       <c r="AQ11" t="s">
         <v>63</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -35157,12 +35229,15 @@
         <v>69</v>
       </c>
       <c r="AQ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -35288,12 +35363,15 @@
         <v>67</v>
       </c>
       <c r="AQ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -35420,11 +35498,14 @@
       </c>
       <c r="AQ14" t="s">
         <v>62</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -35550,12 +35631,15 @@
         <v>68</v>
       </c>
       <c r="AQ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -35681,12 +35765,15 @@
         <v>67</v>
       </c>
       <c r="AQ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -35812,12 +35899,15 @@
         <v>64</v>
       </c>
       <c r="AQ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -35944,11 +36034,14 @@
       </c>
       <c r="AQ18" t="s">
         <v>62</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -36074,12 +36167,15 @@
         <v>63</v>
       </c>
       <c r="AQ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -36205,12 +36301,15 @@
         <v>64</v>
       </c>
       <c r="AQ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -36336,12 +36435,15 @@
         <v>68</v>
       </c>
       <c r="AQ21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -36468,11 +36570,14 @@
       </c>
       <c r="AQ22" t="s">
         <v>64</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -36599,11 +36704,14 @@
       </c>
       <c r="AQ23" t="s">
         <v>63</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -36729,12 +36837,15 @@
         <v>67</v>
       </c>
       <c r="AQ24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -36860,6 +36971,9 @@
         <v>67</v>
       </c>
       <c r="AQ25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -36900,7 +37014,7 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
         <v>143</v>
@@ -36909,10 +37023,10 @@
         <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N1" t="s">
         <v>30</v>
@@ -36930,18 +37044,24 @@
         <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T1" t="s">
         <v>41</v>
       </c>
       <c r="U1" t="s">
         <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>149</v>
+      </c>
+      <c r="W1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -37002,11 +37122,17 @@
       </c>
       <c r="U2" t="s">
         <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -37067,11 +37193,17 @@
       </c>
       <c r="U3" t="s">
         <v>66</v>
+      </c>
+      <c r="V3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -37132,11 +37264,17 @@
       </c>
       <c r="U4" t="s">
         <v>65</v>
+      </c>
+      <c r="V4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -37197,11 +37335,17 @@
       </c>
       <c r="U5" t="s">
         <v>63</v>
+      </c>
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -37262,11 +37406,17 @@
       </c>
       <c r="U6" t="s">
         <v>66</v>
+      </c>
+      <c r="V6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -37327,11 +37477,17 @@
       </c>
       <c r="U7" t="s">
         <v>66</v>
+      </c>
+      <c r="V7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -37392,11 +37548,17 @@
       </c>
       <c r="U8" t="s">
         <v>66</v>
+      </c>
+      <c r="V8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -37457,11 +37619,17 @@
       </c>
       <c r="U9" t="s">
         <v>66</v>
+      </c>
+      <c r="V9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -37521,12 +37689,18 @@
         <v>66</v>
       </c>
       <c r="U10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -37587,11 +37761,17 @@
       </c>
       <c r="U11" t="s">
         <v>67</v>
+      </c>
+      <c r="V11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -37652,11 +37832,17 @@
       </c>
       <c r="U12" t="s">
         <v>67</v>
+      </c>
+      <c r="V12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -37717,11 +37903,17 @@
       </c>
       <c r="U13" t="s">
         <v>66</v>
+      </c>
+      <c r="V13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -37781,12 +37973,18 @@
         <v>66</v>
       </c>
       <c r="U14" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" t="s">
+        <v>65</v>
+      </c>
+      <c r="W14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -37847,11 +38045,17 @@
       </c>
       <c r="U15" t="s">
         <v>64</v>
+      </c>
+      <c r="V15" t="s">
+        <v>66</v>
+      </c>
+      <c r="W15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
@@ -37912,11 +38116,17 @@
       </c>
       <c r="U16" t="s">
         <v>66</v>
+      </c>
+      <c r="V16" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -37977,11 +38187,17 @@
       </c>
       <c r="U17" t="s">
         <v>66</v>
+      </c>
+      <c r="V17" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
         <v>66</v>
@@ -38042,11 +38258,17 @@
       </c>
       <c r="U18" t="s">
         <v>67</v>
+      </c>
+      <c r="V18" t="s">
+        <v>64</v>
+      </c>
+      <c r="W18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -38107,11 +38329,17 @@
       </c>
       <c r="U19" t="s">
         <v>67</v>
+      </c>
+      <c r="V19" t="s">
+        <v>63</v>
+      </c>
+      <c r="W19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
@@ -38172,11 +38400,17 @@
       </c>
       <c r="U20" t="s">
         <v>63</v>
+      </c>
+      <c r="V20" t="s">
+        <v>67</v>
+      </c>
+      <c r="W20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -38237,11 +38471,17 @@
       </c>
       <c r="U21" t="s">
         <v>66</v>
+      </c>
+      <c r="V21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -38302,11 +38542,17 @@
       </c>
       <c r="U22" t="s">
         <v>66</v>
+      </c>
+      <c r="V22" t="s">
+        <v>64</v>
+      </c>
+      <c r="W22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -38366,12 +38612,18 @@
         <v>62</v>
       </c>
       <c r="U23" t="s">
+        <v>64</v>
+      </c>
+      <c r="V23" t="s">
+        <v>62</v>
+      </c>
+      <c r="W23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
@@ -38432,11 +38684,17 @@
       </c>
       <c r="U24" t="s">
         <v>66</v>
+      </c>
+      <c r="V24" t="s">
+        <v>67</v>
+      </c>
+      <c r="W24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -38497,6 +38755,12 @@
       </c>
       <c r="U25" t="s">
         <v>66</v>
+      </c>
+      <c r="V25" t="s">
+        <v>65</v>
+      </c>
+      <c r="W25" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -38542,10 +38806,10 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M1" t="s">
         <v>29</v>
@@ -38567,11 +38831,14 @@
       </c>
       <c r="S1" t="s">
         <v>42</v>
+      </c>
+      <c r="T1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -38626,11 +38893,14 @@
       </c>
       <c r="S2" t="s">
         <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -38685,11 +38955,14 @@
       </c>
       <c r="S3" t="s">
         <v>64</v>
+      </c>
+      <c r="T3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -38744,11 +39017,14 @@
       </c>
       <c r="S4" t="s">
         <v>69</v>
+      </c>
+      <c r="T4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -38803,11 +39079,14 @@
       </c>
       <c r="S5" t="s">
         <v>65</v>
+      </c>
+      <c r="T5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -38862,11 +39141,14 @@
       </c>
       <c r="S6" t="s">
         <v>66</v>
+      </c>
+      <c r="T6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -38921,11 +39203,14 @@
       </c>
       <c r="S7" t="s">
         <v>65</v>
+      </c>
+      <c r="T7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -38979,12 +39264,15 @@
         <v>62</v>
       </c>
       <c r="S8" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -39039,11 +39327,14 @@
       </c>
       <c r="S9" t="s">
         <v>64</v>
+      </c>
+      <c r="T9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -39097,12 +39388,15 @@
         <v>64</v>
       </c>
       <c r="S10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -39157,11 +39451,14 @@
       </c>
       <c r="S11" t="s">
         <v>69</v>
+      </c>
+      <c r="T11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -39216,11 +39513,14 @@
       </c>
       <c r="S12" t="s">
         <v>64</v>
+      </c>
+      <c r="T12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -39275,11 +39575,14 @@
       </c>
       <c r="S13" t="s">
         <v>67</v>
+      </c>
+      <c r="T13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -39334,11 +39637,14 @@
       </c>
       <c r="S14" t="s">
         <v>65</v>
+      </c>
+      <c r="T14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -39393,11 +39699,14 @@
       </c>
       <c r="S15" t="s">
         <v>65</v>
+      </c>
+      <c r="T15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -39452,11 +39761,14 @@
       </c>
       <c r="S16" t="s">
         <v>66</v>
+      </c>
+      <c r="T16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -39511,11 +39823,14 @@
       </c>
       <c r="S17" t="s">
         <v>65</v>
+      </c>
+      <c r="T17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -39570,11 +39885,14 @@
       </c>
       <c r="S18" t="s">
         <v>67</v>
+      </c>
+      <c r="T18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -39628,12 +39946,15 @@
         <v>66</v>
       </c>
       <c r="S19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -39688,11 +40009,14 @@
       </c>
       <c r="S20" t="s">
         <v>65</v>
+      </c>
+      <c r="T20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -39746,12 +40070,15 @@
         <v>63</v>
       </c>
       <c r="S21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -39806,11 +40133,14 @@
       </c>
       <c r="S22" t="s">
         <v>64</v>
+      </c>
+      <c r="T22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -39865,11 +40195,14 @@
       </c>
       <c r="S23" t="s">
         <v>67</v>
+      </c>
+      <c r="T23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -39923,12 +40256,15 @@
         <v>62</v>
       </c>
       <c r="S24" t="s">
+        <v>64</v>
+      </c>
+      <c r="T24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
@@ -39983,6 +40319,9 @@
       </c>
       <c r="S25" t="s">
         <v>64</v>
+      </c>
+      <c r="T25" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -40022,7 +40361,7 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J1" t="s">
         <v>114</v>
@@ -40040,7 +40379,7 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P1" t="s">
         <v>30</v>
@@ -40059,11 +40398,14 @@
       </c>
       <c r="U1" t="s">
         <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -40124,11 +40466,14 @@
       </c>
       <c r="U2" t="s">
         <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -40189,11 +40534,14 @@
       </c>
       <c r="U3" t="s">
         <v>111</v>
+      </c>
+      <c r="V3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -40244,7 +40592,7 @@
         <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S4" t="s">
         <v>62</v>
@@ -40254,11 +40602,14 @@
       </c>
       <c r="U4" t="s">
         <v>67</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -40318,12 +40669,15 @@
         <v>62</v>
       </c>
       <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -40384,11 +40738,14 @@
       </c>
       <c r="U6" t="s">
         <v>65</v>
+      </c>
+      <c r="V6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -40449,11 +40806,14 @@
       </c>
       <c r="U7" t="s">
         <v>65</v>
+      </c>
+      <c r="V7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -40513,12 +40873,15 @@
         <v>62</v>
       </c>
       <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -40579,11 +40942,14 @@
       </c>
       <c r="U9" t="s">
         <v>63</v>
+      </c>
+      <c r="V9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -40644,11 +41010,14 @@
       </c>
       <c r="U10" t="s">
         <v>67</v>
+      </c>
+      <c r="V10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -40708,12 +41077,15 @@
         <v>62</v>
       </c>
       <c r="U11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -40774,11 +41146,14 @@
       </c>
       <c r="U12" t="s">
         <v>64</v>
+      </c>
+      <c r="V12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -40839,11 +41214,14 @@
       </c>
       <c r="U13" t="s">
         <v>67</v>
+      </c>
+      <c r="V13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -40904,11 +41282,14 @@
       </c>
       <c r="U14" t="s">
         <v>62</v>
+      </c>
+      <c r="V14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -40969,11 +41350,14 @@
       </c>
       <c r="U15" t="s">
         <v>62</v>
+      </c>
+      <c r="V15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -41034,11 +41418,14 @@
       </c>
       <c r="U16" t="s">
         <v>64</v>
+      </c>
+      <c r="V16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -41099,11 +41486,14 @@
       </c>
       <c r="U17" t="s">
         <v>67</v>
+      </c>
+      <c r="V17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -41164,11 +41554,14 @@
       </c>
       <c r="U18" t="s">
         <v>67</v>
+      </c>
+      <c r="V18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -41228,12 +41621,15 @@
         <v>62</v>
       </c>
       <c r="U19" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -41294,11 +41690,14 @@
       </c>
       <c r="U20" t="s">
         <v>111</v>
+      </c>
+      <c r="V20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -41359,11 +41758,14 @@
       </c>
       <c r="U21" t="s">
         <v>63</v>
+      </c>
+      <c r="V21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -41424,11 +41826,14 @@
       </c>
       <c r="U22" t="s">
         <v>63</v>
+      </c>
+      <c r="V22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -41479,7 +41884,7 @@
         <v>66</v>
       </c>
       <c r="R23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S23" t="s">
         <v>62</v>
@@ -41489,11 +41894,14 @@
       </c>
       <c r="U23" t="s">
         <v>64</v>
+      </c>
+      <c r="V23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -41553,12 +41961,15 @@
         <v>62</v>
       </c>
       <c r="U24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -41619,6 +42030,9 @@
       </c>
       <c r="U25" t="s">
         <v>67</v>
+      </c>
+      <c r="V25" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -41682,7 +42096,7 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -41741,7 +42155,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -41848,7 +42262,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -41955,7 +42369,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -42062,7 +42476,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -42169,7 +42583,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -42276,7 +42690,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -42383,7 +42797,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -42490,7 +42904,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -42597,7 +43011,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -42704,7 +43118,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -42811,7 +43225,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -42918,7 +43332,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -43025,7 +43439,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -43132,7 +43546,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -43239,7 +43653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -43346,7 +43760,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -43453,7 +43867,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -43560,7 +43974,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
@@ -43667,7 +44081,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -43774,7 +44188,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17535" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17652" uniqueCount="518">
   <si>
     <t>X2022.07.22</t>
   </si>
@@ -699,6 +699,9 @@
   </si>
   <si>
     <t>X2022.09.27</t>
+  </si>
+  <si>
+    <t>X2022.11.22</t>
   </si>
   <si>
     <t>AFC Wimbledon</t>
@@ -1457,6 +1460,12 @@
     <t>X2022.11.03</t>
   </si>
   <si>
+    <t>X2022.11.20</t>
+  </si>
+  <si>
+    <t>X2022.11.21</t>
+  </si>
+  <si>
     <t>Alaves</t>
   </si>
   <si>
@@ -4800,7 +4809,7 @@
         <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q1" t="s">
         <v>27</v>
@@ -4836,7 +4845,7 @@
         <v>48</v>
       </c>
       <c r="AB1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC1" t="s">
         <v>51</v>
@@ -4844,7 +4853,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -4933,7 +4942,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -5022,7 +5031,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -5111,7 +5120,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -5200,7 +5209,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -5289,7 +5298,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -5378,7 +5387,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -5467,7 +5476,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -5556,7 +5565,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -5645,7 +5654,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -5734,7 +5743,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -5823,7 +5832,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -5912,7 +5921,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -6001,7 +6010,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -6090,7 +6099,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -6179,7 +6188,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -6268,7 +6277,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -6357,7 +6366,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -6446,7 +6455,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -6535,7 +6544,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -6656,7 +6665,7 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -6671,7 +6680,7 @@
         <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N1" t="s">
         <v>27</v>
@@ -6743,12 +6752,12 @@
         <v>52</v>
       </c>
       <c r="AK1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -6861,7 +6870,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -6974,7 +6983,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -7087,7 +7096,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -7200,7 +7209,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -7313,7 +7322,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -7426,7 +7435,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -7539,7 +7548,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -7652,7 +7661,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -7765,7 +7774,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -7878,7 +7887,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -7991,7 +8000,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -8104,7 +8113,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -8217,7 +8226,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -8395,7 +8404,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -8484,7 +8493,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -8627,7 +8636,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -8770,7 +8779,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -8913,7 +8922,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -9056,7 +9065,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -9199,7 +9208,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -9342,7 +9351,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -9485,7 +9494,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -9628,7 +9637,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -9771,7 +9780,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -9914,7 +9923,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -10057,7 +10066,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -10200,7 +10209,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -10343,7 +10352,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -10486,7 +10495,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -10629,7 +10638,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -10772,7 +10781,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -10915,7 +10924,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -11058,7 +11067,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -11201,7 +11210,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -11382,7 +11391,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -11463,7 +11472,7 @@
         <v>49</v>
       </c>
       <c r="AK1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL1" t="s">
         <v>50</v>
@@ -11477,7 +11486,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -11599,7 +11608,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -11721,7 +11730,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -11843,7 +11852,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -11965,7 +11974,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -12087,7 +12096,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -12209,7 +12218,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -12331,7 +12340,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -12453,7 +12462,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -12575,7 +12584,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -12697,7 +12706,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -12819,7 +12828,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -12941,7 +12950,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -13063,7 +13072,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -13185,7 +13194,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -13307,7 +13316,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -13429,7 +13438,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -13551,7 +13560,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -13673,7 +13682,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -13795,7 +13804,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -14059,7 +14068,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -14190,7 +14199,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -14321,7 +14330,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -14452,7 +14461,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -14583,7 +14592,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -14714,7 +14723,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -14845,7 +14854,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -14976,7 +14985,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -15107,7 +15116,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -15238,7 +15247,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -15369,7 +15378,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -15500,7 +15509,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -15631,7 +15640,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -15762,7 +15771,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -15893,7 +15902,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -16024,7 +16033,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -16155,7 +16164,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -16286,7 +16295,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -16476,7 +16485,7 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R1" t="s">
         <v>127</v>
@@ -16503,7 +16512,7 @@
         <v>25</v>
       </c>
       <c r="Z1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA1" t="s">
         <v>26</v>
@@ -16572,7 +16581,7 @@
         <v>49</v>
       </c>
       <c r="AW1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AX1" t="s">
         <v>51</v>
@@ -16581,12 +16590,12 @@
         <v>52</v>
       </c>
       <c r="AZ1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -16744,7 +16753,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -16902,7 +16911,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -17060,7 +17069,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -17218,7 +17227,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -17376,7 +17385,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -17534,7 +17543,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -17692,7 +17701,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -17850,7 +17859,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -18008,7 +18017,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -18166,7 +18175,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -18324,7 +18333,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -18482,7 +18491,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -18640,7 +18649,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -18798,7 +18807,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -18956,7 +18965,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -19114,7 +19123,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -19272,7 +19281,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -19539,7 +19548,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -19637,7 +19646,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -19735,7 +19744,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -19833,7 +19842,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -19931,7 +19940,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -20029,7 +20038,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -20127,7 +20136,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -20225,7 +20234,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -20323,7 +20332,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -20421,7 +20430,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -20519,7 +20528,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -20617,7 +20626,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -20815,7 +20824,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -20904,7 +20913,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -20993,7 +21002,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -21082,7 +21091,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -21171,7 +21180,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -21260,7 +21269,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -21349,7 +21358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -21438,7 +21447,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -21527,7 +21536,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -21616,7 +21625,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -21778,7 +21787,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -21840,7 +21849,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -21902,7 +21911,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -21964,7 +21973,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -22026,7 +22035,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -22088,7 +22097,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -22150,7 +22159,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -22212,7 +22221,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -22274,7 +22283,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -22336,7 +22345,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22433,7 +22442,7 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J1" t="s">
         <v>190</v>
@@ -22465,7 +22474,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -22521,7 +22530,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -22577,7 +22586,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -22633,7 +22642,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -22689,7 +22698,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -22745,7 +22754,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -22801,7 +22810,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -22857,7 +22866,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -22913,7 +22922,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -22969,7 +22978,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -25686,7 +25695,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -25710,7 +25719,7 @@
         <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V1" t="s">
         <v>26</v>
@@ -25797,7 +25806,7 @@
         <v>49</v>
       </c>
       <c r="AX1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AY1" t="s">
         <v>82</v>
@@ -25811,7 +25820,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -25972,7 +25981,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -26133,7 +26142,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -26294,7 +26303,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -26455,7 +26464,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -26616,7 +26625,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -26777,7 +26786,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -26938,7 +26947,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -27099,7 +27108,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -27260,7 +27269,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -27421,7 +27430,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -27582,7 +27591,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -27743,7 +27752,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -27904,7 +27913,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -28065,7 +28074,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -28226,7 +28235,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -28387,7 +28396,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -28548,7 +28557,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -28709,7 +28718,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -28870,7 +28879,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -29078,7 +29087,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -29102,7 +29111,7 @@
         <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V1" t="s">
         <v>26</v>
@@ -29114,10 +29123,10 @@
         <v>28</v>
       </c>
       <c r="Y1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA1" t="s">
         <v>190</v>
@@ -29126,7 +29135,7 @@
         <v>191</v>
       </c>
       <c r="AC1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AD1" t="s">
         <v>29</v>
@@ -29156,7 +29165,7 @@
         <v>161</v>
       </c>
       <c r="AM1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN1" t="s">
         <v>36</v>
@@ -29198,7 +29207,7 @@
         <v>164</v>
       </c>
       <c r="BA1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="BB1" t="s">
         <v>47</v>
@@ -29210,12 +29219,24 @@
         <v>49</v>
       </c>
       <c r="BE1" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>475</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -29383,12 +29404,24 @@
         <v>71</v>
       </c>
       <c r="BE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -29556,12 +29589,24 @@
         <v>74</v>
       </c>
       <c r="BE3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -29729,12 +29774,24 @@
         <v>71</v>
       </c>
       <c r="BE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -29902,12 +29959,24 @@
         <v>71</v>
       </c>
       <c r="BE5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -30076,11 +30145,23 @@
       </c>
       <c r="BE6" t="s">
         <v>73</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -30248,12 +30329,24 @@
         <v>73</v>
       </c>
       <c r="BE7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -30421,12 +30514,24 @@
         <v>75</v>
       </c>
       <c r="BE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -30594,12 +30699,24 @@
         <v>71</v>
       </c>
       <c r="BE9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -30767,12 +30884,24 @@
         <v>73</v>
       </c>
       <c r="BE10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -30940,12 +31069,24 @@
         <v>73</v>
       </c>
       <c r="BE11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -31113,12 +31254,24 @@
         <v>71</v>
       </c>
       <c r="BE12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -31286,12 +31439,24 @@
         <v>74</v>
       </c>
       <c r="BE13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -31460,11 +31625,23 @@
       </c>
       <c r="BE14" t="s">
         <v>73</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -31632,12 +31809,24 @@
         <v>73</v>
       </c>
       <c r="BE15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -31806,11 +31995,23 @@
       </c>
       <c r="BE16" t="s">
         <v>71</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -31978,12 +32179,24 @@
         <v>75</v>
       </c>
       <c r="BE17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -32151,12 +32364,24 @@
         <v>71</v>
       </c>
       <c r="BE18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -32324,12 +32549,24 @@
         <v>71</v>
       </c>
       <c r="BE19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -32497,12 +32734,24 @@
         <v>73</v>
       </c>
       <c r="BE20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -32670,12 +32919,24 @@
         <v>71</v>
       </c>
       <c r="BE21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -32843,12 +33104,24 @@
         <v>71</v>
       </c>
       <c r="BE22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -33016,6 +33289,18 @@
         <v>71</v>
       </c>
       <c r="BE23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI23" t="s">
         <v>71</v>
       </c>
     </row>
@@ -33080,7 +33365,7 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
@@ -33104,7 +33389,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z1" t="s">
         <v>26</v>
@@ -33182,7 +33467,7 @@
         <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AZ1" t="s">
         <v>50</v>
@@ -33196,7 +33481,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -33360,7 +33645,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -33524,7 +33809,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -33688,7 +33973,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -33852,7 +34137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -34016,7 +34301,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -34180,7 +34465,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -34344,7 +34629,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -34508,7 +34793,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -34672,7 +34957,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -34836,7 +35121,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -35000,7 +35285,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -35164,7 +35449,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -35328,7 +35613,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -35492,7 +35777,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -35656,7 +35941,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -35820,7 +36105,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -35984,7 +36269,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -36148,7 +36433,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -48468,10 +48753,13 @@
       <c r="Y1" t="s">
         <v>196</v>
       </c>
+      <c r="Z1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -48544,11 +48832,14 @@
       </c>
       <c r="Y2" t="s">
         <v>73</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -48621,11 +48912,14 @@
       </c>
       <c r="Y3" t="s">
         <v>72</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -48698,11 +48992,14 @@
       </c>
       <c r="Y4" t="s">
         <v>72</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -48775,11 +49072,14 @@
       </c>
       <c r="Y5" t="s">
         <v>74</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -48852,11 +49152,14 @@
       </c>
       <c r="Y6" t="s">
         <v>76</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -48929,11 +49232,14 @@
       </c>
       <c r="Y7" t="s">
         <v>76</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -49006,11 +49312,14 @@
       </c>
       <c r="Y8" t="s">
         <v>75</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -49083,11 +49392,14 @@
       </c>
       <c r="Y9" t="s">
         <v>76</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -49160,11 +49472,14 @@
       </c>
       <c r="Y10" t="s">
         <v>73</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -49237,11 +49552,14 @@
       </c>
       <c r="Y11" t="s">
         <v>73</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -49314,11 +49632,14 @@
       </c>
       <c r="Y12" t="s">
         <v>76</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -49391,11 +49712,14 @@
       </c>
       <c r="Y13" t="s">
         <v>72</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -49468,11 +49792,14 @@
       </c>
       <c r="Y14" t="s">
         <v>76</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -49545,11 +49872,14 @@
       </c>
       <c r="Y15" t="s">
         <v>76</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -49622,11 +49952,14 @@
       </c>
       <c r="Y16" t="s">
         <v>73</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -49699,11 +50032,14 @@
       </c>
       <c r="Y17" t="s">
         <v>72</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -49776,11 +50112,14 @@
       </c>
       <c r="Y18" t="s">
         <v>75</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -49853,11 +50192,14 @@
       </c>
       <c r="Y19" t="s">
         <v>74</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -49930,11 +50272,14 @@
       </c>
       <c r="Y20" t="s">
         <v>73</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -50007,11 +50352,14 @@
       </c>
       <c r="Y21" t="s">
         <v>76</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -50084,11 +50432,14 @@
       </c>
       <c r="Y22" t="s">
         <v>75</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -50161,11 +50512,14 @@
       </c>
       <c r="Y23" t="s">
         <v>75</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -50238,11 +50592,14 @@
       </c>
       <c r="Y24" t="s">
         <v>73</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -50315,6 +50672,9 @@
       </c>
       <c r="Y25" t="s">
         <v>76</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -50354,7 +50714,7 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J1" t="s">
         <v>127</v>
@@ -50419,7 +50779,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -50508,7 +50868,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -50597,7 +50957,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -50648,7 +51008,7 @@
         <v>80</v>
       </c>
       <c r="R4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S4" t="s">
         <v>71</v>
@@ -50686,7 +51046,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -50775,7 +51135,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -50864,7 +51224,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -50953,7 +51313,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -51042,7 +51402,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -51131,7 +51491,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -51220,7 +51580,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -51309,7 +51669,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -51398,7 +51758,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -51487,7 +51847,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -51576,7 +51936,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -51665,7 +52025,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -51754,7 +52114,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -51843,7 +52203,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -51932,7 +52292,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -52021,7 +52381,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -52110,7 +52470,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -52199,7 +52559,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -52288,7 +52648,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -52339,7 +52699,7 @@
         <v>75</v>
       </c>
       <c r="R23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S23" t="s">
         <v>71</v>
@@ -52377,7 +52737,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -52466,7 +52826,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
@@ -52614,7 +52974,7 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -52700,7 +53060,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -52834,7 +53194,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -52968,7 +53328,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -53102,7 +53462,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -53236,7 +53596,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -53370,7 +53730,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -53504,7 +53864,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -53638,7 +53998,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -53772,7 +54132,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -53906,7 +54266,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -54040,7 +54400,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -54174,7 +54534,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -54308,7 +54668,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -54442,7 +54802,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -54576,7 +54936,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -54710,7 +55070,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -54844,7 +55204,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -54978,7 +55338,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -55112,7 +55472,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -55246,7 +55606,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17652" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18187" uniqueCount="527">
   <si>
     <t>X2022.07.22</t>
   </si>
@@ -530,6 +530,9 @@
     <t>X2022.11.02</t>
   </si>
   <si>
+    <t>X2022.12.03</t>
+  </si>
+  <si>
     <t>Birmingham</t>
   </si>
   <si>
@@ -624,6 +627,12 @@
   </si>
   <si>
     <t>X2022.11.19</t>
+  </si>
+  <si>
+    <t>X2022.12.02</t>
+  </si>
+  <si>
+    <t>X2022.12.04</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -777,6 +786,9 @@
   </si>
   <si>
     <t>X2022.08.29</t>
+  </si>
+  <si>
+    <t>X2022.11.26</t>
   </si>
   <si>
     <t>Aldershot</t>
@@ -1086,6 +1098,9 @@
   </si>
   <si>
     <t>Verona</t>
+  </si>
+  <si>
+    <t>X2022.11.27</t>
   </si>
   <si>
     <t>Ascoli</t>
@@ -1466,6 +1481,18 @@
     <t>X2022.11.21</t>
   </si>
   <si>
+    <t>X2022.11.25</t>
+  </si>
+  <si>
+    <t>X2022.11.28</t>
+  </si>
+  <si>
+    <t>X2022.11.30</t>
+  </si>
+  <si>
+    <t>X2022.12.05</t>
+  </si>
+  <si>
     <t>Alaves</t>
   </si>
   <si>
@@ -4809,7 +4836,7 @@
         <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q1" t="s">
         <v>27</v>
@@ -4833,7 +4860,7 @@
         <v>36</v>
       </c>
       <c r="X1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y1" t="s">
         <v>42</v>
@@ -4845,7 +4872,7 @@
         <v>48</v>
       </c>
       <c r="AB1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AC1" t="s">
         <v>51</v>
@@ -4853,7 +4880,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -4942,7 +4969,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -5031,7 +5058,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -5120,7 +5147,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -5209,7 +5236,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -5298,7 +5325,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -5387,7 +5414,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -5476,7 +5503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -5565,7 +5592,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -5654,7 +5681,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -5743,7 +5770,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -5832,7 +5859,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -5921,7 +5948,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -6010,7 +6037,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -6099,7 +6126,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -6188,7 +6215,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -6277,7 +6304,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -6366,7 +6393,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -6455,7 +6482,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -6544,7 +6571,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -6665,7 +6692,7 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -6680,7 +6707,7 @@
         <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N1" t="s">
         <v>27</v>
@@ -6713,7 +6740,7 @@
         <v>37</v>
       </c>
       <c r="X1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y1" t="s">
         <v>42</v>
@@ -6731,7 +6758,7 @@
         <v>46</v>
       </c>
       <c r="AD1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AE1" t="s">
         <v>48</v>
@@ -6752,12 +6779,12 @@
         <v>52</v>
       </c>
       <c r="AK1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -6870,7 +6897,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -6983,7 +7010,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -7096,7 +7123,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -7209,7 +7236,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -7322,7 +7349,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -7435,7 +7462,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -7548,7 +7575,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -7661,7 +7688,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -7774,7 +7801,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -7887,7 +7914,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -8000,7 +8027,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -8113,7 +8140,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -8226,7 +8253,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -8404,7 +8431,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -8440,7 +8467,7 @@
         <v>37</v>
       </c>
       <c r="AE1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF1" t="s">
         <v>41</v>
@@ -8461,7 +8488,7 @@
         <v>46</v>
       </c>
       <c r="AL1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AM1" t="s">
         <v>47</v>
@@ -8493,7 +8520,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -8636,7 +8663,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -8779,7 +8806,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -8922,7 +8949,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -9065,7 +9092,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -9208,7 +9235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -9351,7 +9378,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -9494,7 +9521,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -9637,7 +9664,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -9780,7 +9807,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -9923,7 +9950,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -10066,7 +10093,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -10209,7 +10236,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -10352,7 +10379,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -10495,7 +10522,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -10638,7 +10665,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -10781,7 +10808,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -10924,7 +10951,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -11067,7 +11094,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -11210,7 +11237,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -11391,7 +11418,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -11472,7 +11499,7 @@
         <v>49</v>
       </c>
       <c r="AK1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AL1" t="s">
         <v>50</v>
@@ -11482,11 +11509,23 @@
       </c>
       <c r="AN1" t="s">
         <v>52</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -11604,11 +11643,23 @@
       </c>
       <c r="AN2" t="s">
         <v>71</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -11726,11 +11777,23 @@
       </c>
       <c r="AN3" t="s">
         <v>71</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -11848,11 +11911,23 @@
       </c>
       <c r="AN4" t="s">
         <v>71</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -11970,11 +12045,23 @@
       </c>
       <c r="AN5" t="s">
         <v>71</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -12091,12 +12178,24 @@
         <v>73</v>
       </c>
       <c r="AN6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -12214,11 +12313,23 @@
       </c>
       <c r="AN7" t="s">
         <v>71</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -12336,11 +12447,23 @@
       </c>
       <c r="AN8" t="s">
         <v>73</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -12458,11 +12581,23 @@
       </c>
       <c r="AN9" t="s">
         <v>71</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -12580,11 +12715,23 @@
       </c>
       <c r="AN10" t="s">
         <v>71</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -12702,11 +12849,23 @@
       </c>
       <c r="AN11" t="s">
         <v>73</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -12824,11 +12983,23 @@
       </c>
       <c r="AN12" t="s">
         <v>71</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -12946,11 +13117,23 @@
       </c>
       <c r="AN13" t="s">
         <v>71</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -13067,12 +13250,24 @@
         <v>72</v>
       </c>
       <c r="AN14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -13190,11 +13385,23 @@
       </c>
       <c r="AN15" t="s">
         <v>71</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -13312,11 +13519,23 @@
       </c>
       <c r="AN16" t="s">
         <v>71</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -13434,11 +13653,23 @@
       </c>
       <c r="AN17" t="s">
         <v>71</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -13556,11 +13787,23 @@
       </c>
       <c r="AN18" t="s">
         <v>71</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -13678,11 +13921,23 @@
       </c>
       <c r="AN19" t="s">
         <v>71</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -13799,12 +14054,24 @@
         <v>78</v>
       </c>
       <c r="AN20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -13921,6 +14188,18 @@
         <v>76</v>
       </c>
       <c r="AN21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -14068,7 +14347,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -14199,7 +14478,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -14330,7 +14609,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -14461,7 +14740,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -14592,7 +14871,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -14723,7 +15002,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -14854,7 +15133,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -14985,7 +15264,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -15116,7 +15395,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -15247,7 +15526,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -15378,7 +15657,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -15509,7 +15788,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -15640,7 +15919,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -15771,7 +16050,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -15902,7 +16181,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -16033,7 +16312,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -16164,7 +16443,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -16295,7 +16574,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -16485,7 +16764,7 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="R1" t="s">
         <v>127</v>
@@ -16512,7 +16791,7 @@
         <v>25</v>
       </c>
       <c r="Z1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AA1" t="s">
         <v>26</v>
@@ -16569,7 +16848,7 @@
         <v>46</v>
       </c>
       <c r="AS1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AT1" t="s">
         <v>47</v>
@@ -16581,7 +16860,7 @@
         <v>49</v>
       </c>
       <c r="AW1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AX1" t="s">
         <v>51</v>
@@ -16590,12 +16869,12 @@
         <v>52</v>
       </c>
       <c r="AZ1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -16753,7 +17032,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -16911,7 +17190,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -17069,7 +17348,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -17227,7 +17506,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -17385,7 +17664,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -17543,7 +17822,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -17701,7 +17980,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -17859,7 +18138,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -18017,7 +18296,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -18175,7 +18454,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -18333,7 +18612,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -18491,7 +18770,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -18649,7 +18928,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -18807,7 +19086,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -18965,7 +19244,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -19123,7 +19402,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -19281,7 +19560,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -19548,7 +19827,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -19646,7 +19925,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -19744,7 +20023,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -19842,7 +20121,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -19940,7 +20219,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -20038,7 +20317,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -20136,7 +20415,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -20234,7 +20513,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -20332,7 +20611,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -20430,7 +20709,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -20528,7 +20807,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -20626,7 +20905,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -20819,12 +21098,15 @@
         <v>51</v>
       </c>
       <c r="AC1" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -20909,11 +21191,14 @@
       </c>
       <c r="AC2" t="s">
         <v>76</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -20998,11 +21283,14 @@
       </c>
       <c r="AC3" t="s">
         <v>72</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -21087,11 +21375,14 @@
       </c>
       <c r="AC4" t="s">
         <v>76</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -21175,12 +21466,15 @@
         <v>73</v>
       </c>
       <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -21265,11 +21559,14 @@
       </c>
       <c r="AC6" t="s">
         <v>75</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -21354,11 +21651,14 @@
       </c>
       <c r="AC7" t="s">
         <v>72</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -21443,11 +21743,14 @@
       </c>
       <c r="AC8" t="s">
         <v>76</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -21532,11 +21835,14 @@
       </c>
       <c r="AC9" t="s">
         <v>76</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -21621,11 +21927,14 @@
       </c>
       <c r="AC10" t="s">
         <v>80</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -21710,6 +22019,9 @@
       </c>
       <c r="AC11" t="s">
         <v>80</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -21782,12 +22094,15 @@
         <v>51</v>
       </c>
       <c r="T1" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="U1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -21845,11 +22160,14 @@
       </c>
       <c r="T2" t="s">
         <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -21907,11 +22225,14 @@
       </c>
       <c r="T3" t="s">
         <v>80</v>
+      </c>
+      <c r="U3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -21969,11 +22290,14 @@
       </c>
       <c r="T4" t="s">
         <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -22030,12 +22354,15 @@
         <v>72</v>
       </c>
       <c r="T5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -22093,11 +22420,14 @@
       </c>
       <c r="T6" t="s">
         <v>77</v>
+      </c>
+      <c r="U6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -22155,11 +22485,14 @@
       </c>
       <c r="T7" t="s">
         <v>80</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -22217,11 +22550,14 @@
       </c>
       <c r="T8" t="s">
         <v>75</v>
+      </c>
+      <c r="U8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -22279,11 +22615,14 @@
       </c>
       <c r="T9" t="s">
         <v>72</v>
+      </c>
+      <c r="U9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -22341,11 +22680,14 @@
       </c>
       <c r="T10" t="s">
         <v>73</v>
+      </c>
+      <c r="U10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22403,6 +22745,9 @@
       </c>
       <c r="T11" t="s">
         <v>72</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -22442,10 +22787,10 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K1" t="s">
         <v>30</v>
@@ -22469,12 +22814,18 @@
         <v>51</v>
       </c>
       <c r="R1" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="S1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -22525,12 +22876,18 @@
         <v>74</v>
       </c>
       <c r="R2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -22581,12 +22938,18 @@
         <v>73</v>
       </c>
       <c r="R3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -22637,12 +23000,18 @@
         <v>73</v>
       </c>
       <c r="R4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -22694,11 +23063,17 @@
       </c>
       <c r="R5" t="s">
         <v>72</v>
+      </c>
+      <c r="S5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -22749,12 +23124,18 @@
         <v>74</v>
       </c>
       <c r="R6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -22806,11 +23187,17 @@
       </c>
       <c r="R7" t="s">
         <v>72</v>
+      </c>
+      <c r="S7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -22862,11 +23249,17 @@
       </c>
       <c r="R8" t="s">
         <v>72</v>
+      </c>
+      <c r="S8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -22918,11 +23311,17 @@
       </c>
       <c r="R9" t="s">
         <v>73</v>
+      </c>
+      <c r="S9" t="s">
+        <v>71</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -22973,12 +23372,18 @@
         <v>73</v>
       </c>
       <c r="R10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -23030,6 +23435,12 @@
       </c>
       <c r="R11" t="s">
         <v>75</v>
+      </c>
+      <c r="S11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -25695,7 +26106,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -25719,7 +26130,7 @@
         <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="V1" t="s">
         <v>26</v>
@@ -25764,7 +26175,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -25794,7 +26205,7 @@
         <v>46</v>
       </c>
       <c r="AT1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AU1" t="s">
         <v>47</v>
@@ -25806,7 +26217,7 @@
         <v>49</v>
       </c>
       <c r="AX1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AY1" t="s">
         <v>82</v>
@@ -25820,7 +26231,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -25981,7 +26392,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -26142,7 +26553,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -26303,7 +26714,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -26464,7 +26875,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -26625,7 +27036,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -26786,7 +27197,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -26947,7 +27358,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -27108,7 +27519,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -27269,7 +27680,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -27430,7 +27841,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -27591,7 +28002,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -27752,7 +28163,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -27913,7 +28324,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -28074,7 +28485,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -28235,7 +28646,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -28396,7 +28807,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -28557,7 +28968,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -28718,7 +29129,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -28879,7 +29290,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -29087,7 +29498,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -29111,7 +29522,7 @@
         <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="V1" t="s">
         <v>26</v>
@@ -29123,19 +29534,19 @@
         <v>28</v>
       </c>
       <c r="Y1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Z1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AA1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="AD1" t="s">
         <v>29</v>
@@ -29165,7 +29576,7 @@
         <v>161</v>
       </c>
       <c r="AM1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="AN1" t="s">
         <v>36</v>
@@ -29174,7 +29585,7 @@
         <v>37</v>
       </c>
       <c r="AP1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AQ1" t="s">
         <v>41</v>
@@ -29198,7 +29609,7 @@
         <v>46</v>
       </c>
       <c r="AX1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AY1" t="s">
         <v>163</v>
@@ -29207,7 +29618,7 @@
         <v>164</v>
       </c>
       <c r="BA1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="BB1" t="s">
         <v>47</v>
@@ -29219,24 +29630,51 @@
         <v>49</v>
       </c>
       <c r="BE1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="BF1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BG1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BH1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="BI1" t="s">
-        <v>476</v>
+        <v>481</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>355</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>483</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>484</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -29416,12 +29854,39 @@
         <v>78</v>
       </c>
       <c r="BI2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -29601,12 +30066,39 @@
         <v>71</v>
       </c>
       <c r="BI3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -29786,12 +30278,39 @@
         <v>72</v>
       </c>
       <c r="BI4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -29972,11 +30491,38 @@
       </c>
       <c r="BI5" t="s">
         <v>71</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -30157,11 +30703,38 @@
       </c>
       <c r="BI6" t="s">
         <v>76</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -30341,12 +30914,39 @@
         <v>78</v>
       </c>
       <c r="BI7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -30526,12 +31126,39 @@
         <v>71</v>
       </c>
       <c r="BI8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -30711,12 +31338,39 @@
         <v>71</v>
       </c>
       <c r="BI9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -30896,12 +31550,39 @@
         <v>75</v>
       </c>
       <c r="BI10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -31081,12 +31762,39 @@
         <v>73</v>
       </c>
       <c r="BI11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -31266,12 +31974,39 @@
         <v>71</v>
       </c>
       <c r="BI12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -31451,12 +32186,39 @@
         <v>73</v>
       </c>
       <c r="BI13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -31636,12 +32398,39 @@
         <v>72</v>
       </c>
       <c r="BI14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -31821,12 +32610,39 @@
         <v>71</v>
       </c>
       <c r="BI15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -32007,11 +32823,38 @@
       </c>
       <c r="BI16" t="s">
         <v>76</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -32191,12 +33034,39 @@
         <v>71</v>
       </c>
       <c r="BI17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -32377,11 +33247,38 @@
       </c>
       <c r="BI18" t="s">
         <v>71</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -32561,12 +33458,39 @@
         <v>75</v>
       </c>
       <c r="BI19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -32746,12 +33670,39 @@
         <v>71</v>
       </c>
       <c r="BI20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -32931,12 +33882,39 @@
         <v>71</v>
       </c>
       <c r="BI21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -33116,12 +34094,39 @@
         <v>75</v>
       </c>
       <c r="BI22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -33301,6 +34306,33 @@
         <v>71</v>
       </c>
       <c r="BI23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR23" t="s">
         <v>71</v>
       </c>
     </row>
@@ -33365,7 +34397,7 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
@@ -33389,7 +34421,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Z1" t="s">
         <v>26</v>
@@ -33431,7 +34463,7 @@
         <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN1" t="s">
         <v>41</v>
@@ -33455,7 +34487,7 @@
         <v>46</v>
       </c>
       <c r="AU1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AV1" t="s">
         <v>47</v>
@@ -33467,7 +34499,7 @@
         <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AZ1" t="s">
         <v>50</v>
@@ -33481,7 +34513,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -33645,7 +34677,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -33809,7 +34841,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -33973,7 +35005,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -34137,7 +35169,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -34301,7 +35333,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -34465,7 +35497,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -34629,7 +35661,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -34793,7 +35825,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -34957,7 +35989,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -35121,7 +36153,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -35285,7 +36317,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -35449,7 +36481,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -35613,7 +36645,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -35777,7 +36809,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -35941,7 +36973,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -36105,7 +37137,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -36269,7 +37301,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -36433,7 +37465,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -42418,10 +43450,13 @@
       <c r="BB1" t="s">
         <v>52</v>
       </c>
+      <c r="BC1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -42580,12 +43615,15 @@
         <v>71</v>
       </c>
       <c r="BB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -42745,11 +43783,14 @@
       </c>
       <c r="BB3" t="s">
         <v>76</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -42908,12 +43949,15 @@
         <v>76</v>
       </c>
       <c r="BB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -43072,12 +44116,15 @@
         <v>78</v>
       </c>
       <c r="BB5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -43237,11 +44284,14 @@
       </c>
       <c r="BB6" t="s">
         <v>76</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -43400,12 +44450,15 @@
         <v>75</v>
       </c>
       <c r="BB7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -43564,12 +44617,15 @@
         <v>73</v>
       </c>
       <c r="BB8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -43728,12 +44784,15 @@
         <v>78</v>
       </c>
       <c r="BB9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -43892,12 +44951,15 @@
         <v>76</v>
       </c>
       <c r="BB10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -44056,12 +45118,15 @@
         <v>73</v>
       </c>
       <c r="BB11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -44220,12 +45285,15 @@
         <v>76</v>
       </c>
       <c r="BB12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -44385,11 +45453,14 @@
       </c>
       <c r="BB13" t="s">
         <v>71</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -44548,12 +45619,15 @@
         <v>76</v>
       </c>
       <c r="BB14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -44712,12 +45786,15 @@
         <v>77</v>
       </c>
       <c r="BB15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -44876,12 +45953,15 @@
         <v>73</v>
       </c>
       <c r="BB16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -45040,12 +46120,15 @@
         <v>76</v>
       </c>
       <c r="BB17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -45204,12 +46287,15 @@
         <v>73</v>
       </c>
       <c r="BB18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -45368,12 +46454,15 @@
         <v>75</v>
       </c>
       <c r="BB19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -45532,12 +46621,15 @@
         <v>73</v>
       </c>
       <c r="BB20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -45697,11 +46789,14 @@
       </c>
       <c r="BB21" t="s">
         <v>71</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -45860,12 +46955,15 @@
         <v>78</v>
       </c>
       <c r="BB22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -46024,12 +47122,15 @@
         <v>78</v>
       </c>
       <c r="BB23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -46188,12 +47289,15 @@
         <v>73</v>
       </c>
       <c r="BB24" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -46352,6 +47456,9 @@
         <v>76</v>
       </c>
       <c r="BB25" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC25" t="s">
         <v>71</v>
       </c>
     </row>
@@ -46392,7 +47499,7 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J1" t="s">
         <v>156</v>
@@ -46401,10 +47508,10 @@
         <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N1" t="s">
         <v>30</v>
@@ -46422,7 +47529,7 @@
         <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T1" t="s">
         <v>41</v>
@@ -46434,13 +47541,13 @@
         <v>162</v>
       </c>
       <c r="W1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X1" t="s">
         <v>45</v>
       </c>
       <c r="Y1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z1" t="s">
         <v>163</v>
@@ -46452,15 +47559,24 @@
         <v>51</v>
       </c>
       <c r="AC1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AD1" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -46548,11 +47664,20 @@
       </c>
       <c r="AD2" t="s">
         <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -46640,11 +47765,20 @@
       </c>
       <c r="AD3" t="s">
         <v>72</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -46732,11 +47866,20 @@
       </c>
       <c r="AD4" t="s">
         <v>76</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -46824,11 +47967,20 @@
       </c>
       <c r="AD5" t="s">
         <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -46916,11 +48068,20 @@
       </c>
       <c r="AD6" t="s">
         <v>72</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -47008,11 +48169,20 @@
       </c>
       <c r="AD7" t="s">
         <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -47100,11 +48270,20 @@
       </c>
       <c r="AD8" t="s">
         <v>75</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -47192,11 +48371,20 @@
       </c>
       <c r="AD9" t="s">
         <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -47283,12 +48471,21 @@
         <v>78</v>
       </c>
       <c r="AD10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -47376,11 +48573,20 @@
       </c>
       <c r="AD11" t="s">
         <v>73</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -47468,11 +48674,20 @@
       </c>
       <c r="AD12" t="s">
         <v>76</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -47560,11 +48775,20 @@
       </c>
       <c r="AD13" t="s">
         <v>73</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -47652,11 +48876,20 @@
       </c>
       <c r="AD14" t="s">
         <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -47744,11 +48977,20 @@
       </c>
       <c r="AD15" t="s">
         <v>76</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>
@@ -47836,11 +49078,20 @@
       </c>
       <c r="AD16" t="s">
         <v>72</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -47928,11 +49179,20 @@
       </c>
       <c r="AD17" t="s">
         <v>76</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -48020,11 +49280,20 @@
       </c>
       <c r="AD18" t="s">
         <v>73</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -48112,11 +49381,20 @@
       </c>
       <c r="AD19" t="s">
         <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -48204,11 +49482,20 @@
       </c>
       <c r="AD20" t="s">
         <v>72</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -48296,11 +49583,20 @@
       </c>
       <c r="AD21" t="s">
         <v>75</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -48388,11 +49684,20 @@
       </c>
       <c r="AD22" t="s">
         <v>71</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -48480,11 +49785,20 @@
       </c>
       <c r="AD23" t="s">
         <v>75</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>78</v>
@@ -48572,11 +49886,20 @@
       </c>
       <c r="AD24" t="s">
         <v>75</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
@@ -48664,6 +49987,15 @@
       </c>
       <c r="AD25" t="s">
         <v>75</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -48709,10 +50041,10 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M1" t="s">
         <v>29</v>
@@ -48751,15 +50083,21 @@
         <v>51</v>
       </c>
       <c r="Y1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z1" t="s">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -48835,11 +50173,17 @@
       </c>
       <c r="Z2" t="s">
         <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -48914,12 +50258,18 @@
         <v>72</v>
       </c>
       <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
@@ -48995,11 +50345,17 @@
       </c>
       <c r="Z4" t="s">
         <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -49075,11 +50431,17 @@
       </c>
       <c r="Z5" t="s">
         <v>71</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -49155,11 +50517,17 @@
       </c>
       <c r="Z6" t="s">
         <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -49235,11 +50603,17 @@
       </c>
       <c r="Z7" t="s">
         <v>78</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -49314,12 +50688,18 @@
         <v>75</v>
       </c>
       <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -49394,12 +50774,18 @@
         <v>76</v>
       </c>
       <c r="Z9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -49475,11 +50861,17 @@
       </c>
       <c r="Z10" t="s">
         <v>78</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -49555,11 +50947,17 @@
       </c>
       <c r="Z11" t="s">
         <v>71</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -49635,11 +51033,17 @@
       </c>
       <c r="Z12" t="s">
         <v>71</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -49715,11 +51119,17 @@
       </c>
       <c r="Z13" t="s">
         <v>71</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -49795,11 +51205,17 @@
       </c>
       <c r="Z14" t="s">
         <v>71</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -49875,11 +51291,17 @@
       </c>
       <c r="Z15" t="s">
         <v>71</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -49954,12 +51376,18 @@
         <v>73</v>
       </c>
       <c r="Z16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -50035,11 +51463,17 @@
       </c>
       <c r="Z17" t="s">
         <v>71</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -50115,11 +51549,17 @@
       </c>
       <c r="Z18" t="s">
         <v>71</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -50195,11 +51635,17 @@
       </c>
       <c r="Z19" t="s">
         <v>71</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -50274,12 +51720,18 @@
         <v>73</v>
       </c>
       <c r="Z20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -50355,11 +51807,17 @@
       </c>
       <c r="Z21" t="s">
         <v>71</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -50435,11 +51893,17 @@
       </c>
       <c r="Z22" t="s">
         <v>71</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -50515,11 +51979,17 @@
       </c>
       <c r="Z23" t="s">
         <v>71</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -50595,11 +52065,17 @@
       </c>
       <c r="Z24" t="s">
         <v>71</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -50674,6 +52150,12 @@
         <v>76</v>
       </c>
       <c r="Z25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s">
         <v>71</v>
       </c>
     </row>
@@ -50714,7 +52196,7 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J1" t="s">
         <v>127</v>
@@ -50732,7 +52214,7 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P1" t="s">
         <v>30</v>
@@ -50774,12 +52256,18 @@
         <v>51</v>
       </c>
       <c r="AC1" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -50863,12 +52351,18 @@
         <v>76</v>
       </c>
       <c r="AC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -50953,11 +52447,17 @@
       </c>
       <c r="AC3" t="s">
         <v>73</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -51008,7 +52508,7 @@
         <v>80</v>
       </c>
       <c r="R4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="S4" t="s">
         <v>71</v>
@@ -51042,11 +52542,17 @@
       </c>
       <c r="AC4" t="s">
         <v>75</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -51130,12 +52636,18 @@
         <v>75</v>
       </c>
       <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -51220,11 +52732,17 @@
       </c>
       <c r="AC6" t="s">
         <v>74</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -51309,11 +52827,17 @@
       </c>
       <c r="AC7" t="s">
         <v>73</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -51398,11 +52922,17 @@
       </c>
       <c r="AC8" t="s">
         <v>76</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -51487,11 +53017,17 @@
       </c>
       <c r="AC9" t="s">
         <v>74</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -51576,11 +53112,17 @@
       </c>
       <c r="AC10" t="s">
         <v>76</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -51665,11 +53207,17 @@
       </c>
       <c r="AC11" t="s">
         <v>72</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -51753,12 +53301,18 @@
         <v>73</v>
       </c>
       <c r="AC12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -51843,11 +53397,17 @@
       </c>
       <c r="AC13" t="s">
         <v>76</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -51932,11 +53492,17 @@
       </c>
       <c r="AC14" t="s">
         <v>78</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -52021,11 +53587,17 @@
       </c>
       <c r="AC15" t="s">
         <v>78</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -52110,11 +53682,17 @@
       </c>
       <c r="AC16" t="s">
         <v>78</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -52199,11 +53777,17 @@
       </c>
       <c r="AC17" t="s">
         <v>76</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -52288,11 +53872,17 @@
       </c>
       <c r="AC18" t="s">
         <v>73</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -52376,12 +53966,18 @@
         <v>73</v>
       </c>
       <c r="AC19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -52465,12 +54061,18 @@
         <v>77</v>
       </c>
       <c r="AC20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -52555,11 +54157,17 @@
       </c>
       <c r="AC21" t="s">
         <v>76</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -52644,11 +54252,17 @@
       </c>
       <c r="AC22" t="s">
         <v>73</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
@@ -52699,7 +54313,7 @@
         <v>75</v>
       </c>
       <c r="R23" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="S23" t="s">
         <v>71</v>
@@ -52732,12 +54346,18 @@
         <v>78</v>
       </c>
       <c r="AC23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
@@ -52822,11 +54442,17 @@
       </c>
       <c r="AC24" t="s">
         <v>78</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
         <v>73</v>
@@ -52911,6 +54537,12 @@
       </c>
       <c r="AC25" t="s">
         <v>76</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -52974,7 +54606,7 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -53060,7 +54692,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -53194,7 +54826,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -53328,7 +54960,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -53462,7 +55094,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -53596,7 +55228,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -53730,7 +55362,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -53864,7 +55496,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -53998,7 +55630,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -54132,7 +55764,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -54266,7 +55898,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -54400,7 +56032,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -54534,7 +56166,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -54668,7 +56300,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -54802,7 +56434,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -54936,7 +56568,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -55070,7 +56702,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -55204,7 +56836,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -55338,7 +56970,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -55472,7 +57104,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -55606,7 +57238,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>

--- a/TGform.xlsx
+++ b/TGform.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18187" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18998" uniqueCount="540">
   <si>
     <t>X2022.07.22</t>
   </si>
@@ -533,6 +533,24 @@
     <t>X2022.12.03</t>
   </si>
   <si>
+    <t>X2022.12.10</t>
+  </si>
+  <si>
+    <t>X2022.12.11</t>
+  </si>
+  <si>
+    <t>X2022.12.12</t>
+  </si>
+  <si>
+    <t>X2022.12.16</t>
+  </si>
+  <si>
+    <t>X2022.12.17</t>
+  </si>
+  <si>
+    <t>X2022.12.19</t>
+  </si>
+  <si>
     <t>Birmingham</t>
   </si>
   <si>
@@ -713,6 +731,9 @@
     <t>X2022.11.22</t>
   </si>
   <si>
+    <t>X2022.12.09</t>
+  </si>
+  <si>
     <t>AFC Wimbledon</t>
   </si>
   <si>
@@ -789,6 +810,12 @@
   </si>
   <si>
     <t>X2022.11.26</t>
+  </si>
+  <si>
+    <t>X2022.12.06</t>
+  </si>
+  <si>
+    <t>X2022.12.13</t>
   </si>
   <si>
     <t>Aldershot</t>
@@ -1103,6 +1130,15 @@
     <t>X2022.11.27</t>
   </si>
   <si>
+    <t>X2022.12.07</t>
+  </si>
+  <si>
+    <t>X2022.12.08</t>
+  </si>
+  <si>
+    <t>X2022.12.18</t>
+  </si>
+  <si>
     <t>Ascoli</t>
   </si>
   <si>
@@ -1269,6 +1305,9 @@
   </si>
   <si>
     <t>Vizela</t>
+  </si>
+  <si>
+    <t>X2022.12.15</t>
   </si>
   <si>
     <t>Aberdeen</t>
@@ -4836,7 +4875,7 @@
         <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q1" t="s">
         <v>27</v>
@@ -4860,7 +4899,7 @@
         <v>36</v>
       </c>
       <c r="X1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Y1" t="s">
         <v>42</v>
@@ -4872,7 +4911,7 @@
         <v>48</v>
       </c>
       <c r="AB1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AC1" t="s">
         <v>51</v>
@@ -4880,7 +4919,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -4969,7 +5008,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -5058,7 +5097,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -5147,7 +5186,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -5236,7 +5275,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -5325,7 +5364,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -5414,7 +5453,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -5503,7 +5542,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -5592,7 +5631,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -5681,7 +5720,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -5770,7 +5809,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -5859,7 +5898,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -5948,7 +5987,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -6037,7 +6076,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -6126,7 +6165,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -6215,7 +6254,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -6304,7 +6343,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -6393,7 +6432,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -6482,7 +6521,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -6571,7 +6610,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -6692,7 +6731,7 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -6707,7 +6746,7 @@
         <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="N1" t="s">
         <v>27</v>
@@ -6740,7 +6779,7 @@
         <v>37</v>
       </c>
       <c r="X1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Y1" t="s">
         <v>42</v>
@@ -6758,7 +6797,7 @@
         <v>46</v>
       </c>
       <c r="AD1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AE1" t="s">
         <v>48</v>
@@ -6779,12 +6818,12 @@
         <v>52</v>
       </c>
       <c r="AK1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -6897,7 +6936,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -7010,7 +7049,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -7123,7 +7162,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -7236,7 +7275,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -7349,7 +7388,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -7462,7 +7501,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -7575,7 +7614,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -7688,7 +7727,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -7801,7 +7840,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -7914,7 +7953,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -8027,7 +8066,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -8140,7 +8179,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -8253,7 +8292,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -8431,7 +8470,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -8467,7 +8506,7 @@
         <v>37</v>
       </c>
       <c r="AE1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AF1" t="s">
         <v>41</v>
@@ -8488,7 +8527,7 @@
         <v>46</v>
       </c>
       <c r="AL1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AM1" t="s">
         <v>47</v>
@@ -8520,7 +8559,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -8663,7 +8702,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -8806,7 +8845,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -8949,7 +8988,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -9092,7 +9131,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -9235,7 +9274,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -9378,7 +9417,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -9521,7 +9560,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -9664,7 +9703,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -9807,7 +9846,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -9950,7 +9989,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -10093,7 +10132,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -10236,7 +10275,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -10379,7 +10418,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -10522,7 +10561,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -10665,7 +10704,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -10808,7 +10847,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -10951,7 +10990,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -11094,7 +11133,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -11237,7 +11276,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -11418,7 +11457,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -11499,7 +11538,7 @@
         <v>49</v>
       </c>
       <c r="AK1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AL1" t="s">
         <v>50</v>
@@ -11511,21 +11550,42 @@
         <v>52</v>
       </c>
       <c r="AO1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AP1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="AQ1" t="s">
         <v>165</v>
       </c>
       <c r="AR1" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -11655,11 +11715,32 @@
       </c>
       <c r="AR2" t="s">
         <v>77</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -11789,11 +11870,32 @@
       </c>
       <c r="AR3" t="s">
         <v>78</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -11923,11 +12025,32 @@
       </c>
       <c r="AR4" t="s">
         <v>75</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -12057,11 +12180,32 @@
       </c>
       <c r="AR5" t="s">
         <v>73</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -12190,12 +12334,33 @@
         <v>73</v>
       </c>
       <c r="AR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -12325,11 +12490,32 @@
       </c>
       <c r="AR7" t="s">
         <v>75</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -12459,11 +12645,32 @@
       </c>
       <c r="AR8" t="s">
         <v>77</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -12593,11 +12800,32 @@
       </c>
       <c r="AR9" t="s">
         <v>78</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -12727,11 +12955,32 @@
       </c>
       <c r="AR10" t="s">
         <v>73</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -12861,11 +13110,32 @@
       </c>
       <c r="AR11" t="s">
         <v>75</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -12995,11 +13265,32 @@
       </c>
       <c r="AR12" t="s">
         <v>74</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -13129,11 +13420,32 @@
       </c>
       <c r="AR13" t="s">
         <v>75</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -13262,12 +13574,33 @@
         <v>73</v>
       </c>
       <c r="AR14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -13397,11 +13730,32 @@
       </c>
       <c r="AR15" t="s">
         <v>78</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -13531,11 +13885,32 @@
       </c>
       <c r="AR16" t="s">
         <v>78</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -13665,11 +14040,32 @@
       </c>
       <c r="AR17" t="s">
         <v>73</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -13799,11 +14195,32 @@
       </c>
       <c r="AR18" t="s">
         <v>74</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -13933,11 +14350,32 @@
       </c>
       <c r="AR19" t="s">
         <v>73</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -14066,12 +14504,33 @@
         <v>76</v>
       </c>
       <c r="AR20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -14201,6 +14660,27 @@
       </c>
       <c r="AR21" t="s">
         <v>71</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -14347,7 +14827,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -14478,7 +14958,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -14609,7 +15089,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -14740,7 +15220,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -14871,7 +15351,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -15002,7 +15482,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -15133,7 +15613,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -15264,7 +15744,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -15395,7 +15875,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -15526,7 +16006,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -15657,7 +16137,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -15788,7 +16268,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -15919,7 +16399,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -16050,7 +16530,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -16181,7 +16661,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -16312,7 +16792,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -16443,7 +16923,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -16574,7 +17054,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -16764,7 +17244,7 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="R1" t="s">
         <v>127</v>
@@ -16791,7 +17271,7 @@
         <v>25</v>
       </c>
       <c r="Z1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AA1" t="s">
         <v>26</v>
@@ -16848,7 +17328,7 @@
         <v>46</v>
       </c>
       <c r="AS1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AT1" t="s">
         <v>47</v>
@@ -16860,7 +17340,7 @@
         <v>49</v>
       </c>
       <c r="AW1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AX1" t="s">
         <v>51</v>
@@ -16869,12 +17349,12 @@
         <v>52</v>
       </c>
       <c r="AZ1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -17032,7 +17512,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -17190,7 +17670,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -17348,7 +17828,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -17506,7 +17986,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -17664,7 +18144,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -17822,7 +18302,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -17980,7 +18460,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -18138,7 +18618,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -18296,7 +18776,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -18454,7 +18934,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -18612,7 +19092,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -18770,7 +19250,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -18928,7 +19408,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -19086,7 +19566,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -19244,7 +19724,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -19402,7 +19882,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -19560,7 +20040,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -19824,10 +20304,16 @@
       <c r="AF1" t="s">
         <v>51</v>
       </c>
+      <c r="AG1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -19920,12 +20406,18 @@
         <v>71</v>
       </c>
       <c r="AF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -20019,11 +20511,17 @@
       </c>
       <c r="AF3" t="s">
         <v>76</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -20117,11 +20615,17 @@
       </c>
       <c r="AF4" t="s">
         <v>75</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -20215,11 +20719,17 @@
       </c>
       <c r="AF5" t="s">
         <v>73</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -20313,11 +20823,17 @@
       </c>
       <c r="AF6" t="s">
         <v>75</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -20411,11 +20927,17 @@
       </c>
       <c r="AF7" t="s">
         <v>75</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -20509,11 +21031,17 @@
       </c>
       <c r="AF8" t="s">
         <v>73</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -20607,11 +21135,17 @@
       </c>
       <c r="AF9" t="s">
         <v>73</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -20705,11 +21239,17 @@
       </c>
       <c r="AF10" t="s">
         <v>73</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -20802,12 +21342,18 @@
         <v>71</v>
       </c>
       <c r="AF11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -20901,11 +21447,17 @@
       </c>
       <c r="AF12" t="s">
         <v>73</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -20999,6 +21551,12 @@
       </c>
       <c r="AF13" t="s">
         <v>73</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -21098,15 +21656,18 @@
         <v>51</v>
       </c>
       <c r="AC1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AD1" t="s">
         <v>165</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -21193,12 +21754,15 @@
         <v>76</v>
       </c>
       <c r="AD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -21286,11 +21850,14 @@
       </c>
       <c r="AD3" t="s">
         <v>73</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -21378,11 +21945,14 @@
       </c>
       <c r="AD4" t="s">
         <v>73</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -21470,11 +22040,14 @@
       </c>
       <c r="AD5" t="s">
         <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -21562,11 +22135,14 @@
       </c>
       <c r="AD6" t="s">
         <v>72</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -21654,11 +22230,14 @@
       </c>
       <c r="AD7" t="s">
         <v>75</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -21746,11 +22325,14 @@
       </c>
       <c r="AD8" t="s">
         <v>73</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -21838,11 +22420,14 @@
       </c>
       <c r="AD9" t="s">
         <v>73</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -21930,11 +22515,14 @@
       </c>
       <c r="AD10" t="s">
         <v>72</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -22021,6 +22609,9 @@
         <v>80</v>
       </c>
       <c r="AD11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -22094,15 +22685,18 @@
         <v>51</v>
       </c>
       <c r="T1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="U1" t="s">
         <v>165</v>
+      </c>
+      <c r="V1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -22163,11 +22757,14 @@
       </c>
       <c r="U2" t="s">
         <v>73</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -22228,11 +22825,14 @@
       </c>
       <c r="U3" t="s">
         <v>78</v>
+      </c>
+      <c r="V3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -22293,11 +22893,14 @@
       </c>
       <c r="U4" t="s">
         <v>73</v>
+      </c>
+      <c r="V4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -22358,11 +22961,14 @@
       </c>
       <c r="U5" t="s">
         <v>73</v>
+      </c>
+      <c r="V5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -22423,11 +23029,14 @@
       </c>
       <c r="U6" t="s">
         <v>73</v>
+      </c>
+      <c r="V6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -22488,11 +23097,14 @@
       </c>
       <c r="U7" t="s">
         <v>73</v>
+      </c>
+      <c r="V7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -22552,12 +23164,15 @@
         <v>75</v>
       </c>
       <c r="U8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -22618,11 +23233,14 @@
       </c>
       <c r="U9" t="s">
         <v>78</v>
+      </c>
+      <c r="V9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -22683,11 +23301,14 @@
       </c>
       <c r="U10" t="s">
         <v>76</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22748,6 +23369,9 @@
       </c>
       <c r="U11" t="s">
         <v>73</v>
+      </c>
+      <c r="V11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -22787,10 +23411,10 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="J1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s">
         <v>30</v>
@@ -22814,18 +23438,21 @@
         <v>51</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="T1" t="s">
         <v>165</v>
+      </c>
+      <c r="U1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -22883,11 +23510,14 @@
       </c>
       <c r="T2" t="s">
         <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -22945,11 +23575,14 @@
       </c>
       <c r="T3" t="s">
         <v>72</v>
+      </c>
+      <c r="U3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -23007,11 +23640,14 @@
       </c>
       <c r="T4" t="s">
         <v>73</v>
+      </c>
+      <c r="U4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -23069,11 +23705,14 @@
       </c>
       <c r="T5" t="s">
         <v>73</v>
+      </c>
+      <c r="U5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -23131,11 +23770,14 @@
       </c>
       <c r="T6" t="s">
         <v>72</v>
+      </c>
+      <c r="U6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -23193,11 +23835,14 @@
       </c>
       <c r="T7" t="s">
         <v>76</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -23255,11 +23900,14 @@
       </c>
       <c r="T8" t="s">
         <v>75</v>
+      </c>
+      <c r="U8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -23316,12 +23964,15 @@
         <v>71</v>
       </c>
       <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -23379,11 +24030,14 @@
       </c>
       <c r="T10" t="s">
         <v>72</v>
+      </c>
+      <c r="U10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -23441,6 +24095,9 @@
       </c>
       <c r="T11" t="s">
         <v>72</v>
+      </c>
+      <c r="U11" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -26106,7 +26763,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -26130,7 +26787,7 @@
         <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="V1" t="s">
         <v>26</v>
@@ -26175,7 +26832,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -26205,7 +26862,7 @@
         <v>46</v>
       </c>
       <c r="AT1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AU1" t="s">
         <v>47</v>
@@ -26217,7 +26874,7 @@
         <v>49</v>
       </c>
       <c r="AX1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AY1" t="s">
         <v>82</v>
@@ -26231,7 +26888,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -26392,7 +27049,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -26553,7 +27210,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -26714,7 +27371,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -26875,7 +27532,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -27036,7 +27693,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -27197,7 +27854,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -27358,7 +28015,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -27519,7 +28176,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -27680,7 +28337,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -27841,7 +28498,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -28002,7 +28659,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -28163,7 +28820,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -28324,7 +28981,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -28485,7 +29142,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -28646,7 +29303,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -28807,7 +29464,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -28968,7 +29625,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -29129,7 +29786,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -29290,7 +29947,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -29498,7 +30155,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -29522,7 +30179,7 @@
         <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="V1" t="s">
         <v>26</v>
@@ -29534,19 +30191,19 @@
         <v>28</v>
       </c>
       <c r="Y1" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Z1" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="AA1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AB1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="AC1" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="AD1" t="s">
         <v>29</v>
@@ -29576,7 +30233,7 @@
         <v>161</v>
       </c>
       <c r="AM1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="AN1" t="s">
         <v>36</v>
@@ -29585,7 +30242,7 @@
         <v>37</v>
       </c>
       <c r="AP1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AQ1" t="s">
         <v>41</v>
@@ -29609,7 +30266,7 @@
         <v>46</v>
       </c>
       <c r="AX1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AY1" t="s">
         <v>163</v>
@@ -29618,7 +30275,7 @@
         <v>164</v>
       </c>
       <c r="BA1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="BB1" t="s">
         <v>47</v>
@@ -29630,51 +30287,81 @@
         <v>49</v>
       </c>
       <c r="BE1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="BF1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="BG1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="BH1" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="BI1" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="BJ1" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="BK1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="BL1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="BM1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="BN1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="BO1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="BP1" t="s">
         <v>165</v>
       </c>
       <c r="BQ1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="BR1" t="s">
-        <v>485</v>
+        <v>498</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>365</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>366</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -29881,12 +30568,42 @@
         <v>71</v>
       </c>
       <c r="BR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -30093,12 +30810,42 @@
         <v>71</v>
       </c>
       <c r="BR3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>72</v>
+      </c>
+      <c r="CB3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -30305,12 +31052,42 @@
         <v>75</v>
       </c>
       <c r="BR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -30518,11 +31295,41 @@
       </c>
       <c r="BR5" t="s">
         <v>76</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>73</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -30729,12 +31536,42 @@
         <v>75</v>
       </c>
       <c r="BR6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -30941,12 +31778,42 @@
         <v>76</v>
       </c>
       <c r="BR7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -31153,12 +32020,42 @@
         <v>71</v>
       </c>
       <c r="BR8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -31365,12 +32262,42 @@
         <v>76</v>
       </c>
       <c r="BR9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>73</v>
+      </c>
+      <c r="CB9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -31577,12 +32504,42 @@
         <v>71</v>
       </c>
       <c r="BR10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>72</v>
+      </c>
+      <c r="CB10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -31789,12 +32746,42 @@
         <v>71</v>
       </c>
       <c r="BR11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -32002,11 +32989,41 @@
       </c>
       <c r="BR12" t="s">
         <v>71</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -32213,12 +33230,42 @@
         <v>75</v>
       </c>
       <c r="BR13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -32425,12 +33472,42 @@
         <v>75</v>
       </c>
       <c r="BR14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -32637,12 +33714,42 @@
         <v>75</v>
       </c>
       <c r="BR15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -32849,12 +33956,42 @@
         <v>71</v>
       </c>
       <c r="BR16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -33061,12 +34198,42 @@
         <v>71</v>
       </c>
       <c r="BR17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -33274,11 +34441,41 @@
       </c>
       <c r="BR18" t="s">
         <v>76</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -33485,12 +34682,42 @@
         <v>75</v>
       </c>
       <c r="BR19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -33697,12 +34924,42 @@
         <v>71</v>
       </c>
       <c r="BR20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -33909,12 +35166,42 @@
         <v>71</v>
       </c>
       <c r="BR21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>73</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -34121,12 +35408,42 @@
         <v>71</v>
       </c>
       <c r="BR22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -34334,6 +35651,36 @@
       </c>
       <c r="BR23" t="s">
         <v>71</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>76</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>71</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -34397,7 +35744,7 @@
         <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
@@ -34421,7 +35768,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Z1" t="s">
         <v>26</v>
@@ -34463,7 +35810,7 @@
         <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AN1" t="s">
         <v>41</v>
@@ -34487,7 +35834,7 @@
         <v>46</v>
       </c>
       <c r="AU1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AV1" t="s">
         <v>47</v>
@@ -34499,7 +35846,7 @@
         <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AZ1" t="s">
         <v>50</v>
@@ -34513,7 +35860,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -34677,7 +36024,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -34841,7 +36188,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -35005,7 +36352,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -35169,7 +36516,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -35333,7 +36680,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -35497,7 +36844,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -35661,7 +37008,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -35825,7 +37172,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -35989,7 +37336,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -36153,7 +37500,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -36317,7 +37664,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -36481,7 +37828,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -36645,7 +37992,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
@@ -36809,7 +38156,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -36973,7 +38320,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -37137,7 +38484,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -37301,7 +38648,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -37465,7 +38812,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -43453,10 +44800,28 @@
       <c r="BC1" t="s">
         <v>165</v>
       </c>
+      <c r="BD1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -43618,12 +44983,30 @@
         <v>71</v>
       </c>
       <c r="BC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -43785,12 +45168,30 @@
         <v>76</v>
       </c>
       <c r="BC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -43952,12 +45353,30 @@
         <v>71</v>
       </c>
       <c r="BC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -44119,12 +45538,30 @@
         <v>71</v>
       </c>
       <c r="BC5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -44286,12 +45723,30 @@
         <v>76</v>
       </c>
       <c r="BC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -44453,12 +45908,30 @@
         <v>71</v>
       </c>
       <c r="BC7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r